--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94768B21-8383-468A-9C58-47064F62838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876D232-830E-4923-84C0-6CA19C727300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="5580" yWindow="1980" windowWidth="15720" windowHeight="8820" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -150,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M4" totalsRowShown="0">
-  <autoFilter ref="A1:M4" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M9" totalsRowShown="0">
+  <autoFilter ref="A1:M9" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -468,29 +459,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,36 +530,158 @@
         <v>1001</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1002</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>1002</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>1012</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>1003</v>
       </c>
-      <c r="C4">
-        <v>5</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1013</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1003</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1005</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1004</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1003</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1005</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1003</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1005</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1003</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1005</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1007</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876D232-830E-4923-84C0-6CA19C727300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F938E8-9022-46DA-AFA1-8C9F18CFF778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1980" windowWidth="15720" windowHeight="8820" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -538,6 +538,12 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>10001</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -555,6 +561,12 @@
       <c r="E3">
         <v>15</v>
       </c>
+      <c r="F3">
+        <v>10001</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -578,6 +590,12 @@
       <c r="G4">
         <v>8</v>
       </c>
+      <c r="H4">
+        <v>10001</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -594,6 +612,12 @@
       </c>
       <c r="E5">
         <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10001</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -618,6 +642,12 @@
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>10001</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -641,6 +671,12 @@
       <c r="G7">
         <v>5</v>
       </c>
+      <c r="H7">
+        <v>10001</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -664,6 +700,12 @@
       <c r="G8">
         <v>5</v>
       </c>
+      <c r="H8">
+        <v>10001</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -674,6 +716,12 @@
       </c>
       <c r="C9">
         <v>30</v>
+      </c>
+      <c r="D9">
+        <v>10001</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876D232-830E-4923-84C0-6CA19C727300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30333DC2-842A-47A3-8628-43A3B8BDEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1980" windowWidth="15720" windowHeight="8820" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M9" totalsRowShown="0">
-  <autoFilter ref="A1:M9" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M11" totalsRowShown="0">
+  <autoFilter ref="A1:M11" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,29 +459,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -674,6 +674,28 @@
       </c>
       <c r="C9">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1001</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30333DC2-842A-47A3-8628-43A3B8BDEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876D232-830E-4923-84C0-6CA19C727300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="5580" yWindow="1980" windowWidth="15720" windowHeight="8820" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M9" totalsRowShown="0">
+  <autoFilter ref="A1:M9" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,29 +459,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -674,28 +674,6 @@
       </c>
       <c r="C9">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1000</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1001</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30333DC2-842A-47A3-8628-43A3B8BDEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DCE2D6-B324-4B7A-A439-75C12D4EFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M14" totalsRowShown="0">
+  <autoFilter ref="A1:M14" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -698,6 +698,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9001</v>
+      </c>
+      <c r="B12">
+        <v>9000</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>8000</v>
+      </c>
+      <c r="B13">
+        <v>9001</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>8001</v>
+      </c>
+      <c r="B14">
+        <v>9002</v>
+      </c>
+      <c r="C14">
+        <v>6666</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DCE2D6-B324-4B7A-A439-75C12D4EFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE3512-678A-47E9-ADE2-23E248B305A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -719,6 +719,12 @@
       <c r="C13">
         <v>10000</v>
       </c>
+      <c r="D13">
+        <v>9002</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE3512-678A-47E9-ADE2-23E248B305A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7CC5D-E488-4585-BEDF-33208C071AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="3165" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M14" totalsRowShown="0">
-  <autoFilter ref="A1:M14" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,9 +459,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -700,41 +700,118 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
+        <v>8000</v>
+      </c>
+      <c r="B12">
         <v>9001</v>
       </c>
-      <c r="B12">
-        <v>9000</v>
-      </c>
       <c r="C12">
-        <v>120</v>
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>9002</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>8000</v>
+        <v>8001</v>
       </c>
       <c r="B13">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13">
-        <v>9002</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>8001</v>
+        <v>9000</v>
       </c>
       <c r="B14">
+        <v>9000</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>9001</v>
+      </c>
+      <c r="B15">
+        <v>9000</v>
+      </c>
+      <c r="C15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>9002</v>
       </c>
-      <c r="C14">
-        <v>6666</v>
+      <c r="B16">
+        <v>9000</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>9003</v>
+      </c>
+      <c r="B17">
+        <v>9000</v>
+      </c>
+      <c r="C17">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>9004</v>
+      </c>
+      <c r="B18">
+        <v>9000</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>9005</v>
+      </c>
+      <c r="B19">
+        <v>9000</v>
+      </c>
+      <c r="C19">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>9006</v>
+      </c>
+      <c r="B20">
+        <v>9000</v>
+      </c>
+      <c r="C20">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>9007</v>
+      </c>
+      <c r="B21">
+        <v>9000</v>
+      </c>
+      <c r="C21">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7CC5D-E488-4585-BEDF-33208C071AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D297D-5D64-411E-85A0-8BDFE2990AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-21615" yWindow="1800" windowWidth="20790" windowHeight="11925" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,27 +461,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -676,7 +676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -698,120 +698,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>8000</v>
+        <v>10001</v>
       </c>
       <c r="B12">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <v>9002</v>
-      </c>
-      <c r="E12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>8001</v>
+        <v>10002</v>
       </c>
       <c r="B13">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="C13">
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>9000</v>
+        <v>10003</v>
       </c>
       <c r="B14">
         <v>9000</v>
       </c>
       <c r="C14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>9001</v>
+        <v>10004</v>
       </c>
       <c r="B15">
         <v>9000</v>
       </c>
       <c r="C15">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>9002</v>
+        <v>10005</v>
       </c>
       <c r="B16">
         <v>9000</v>
       </c>
       <c r="C16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>9003</v>
+        <v>11001</v>
       </c>
       <c r="B17">
-        <v>9000</v>
+        <v>102</v>
       </c>
       <c r="C17">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>112</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>9004</v>
+        <v>11002</v>
       </c>
       <c r="B18">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C18">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>9005</v>
+        <v>11003</v>
       </c>
       <c r="B19">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C19">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1004</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>1005</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>1006</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>1007</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>9006</v>
+        <v>11004</v>
       </c>
       <c r="B20">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C20">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>9007</v>
+        <v>11005</v>
       </c>
       <c r="B21">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C21">
-        <v>7000</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D297D-5D64-411E-85A0-8BDFE2990AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECAB34E-C183-4AC9-9FA5-9ECC025DCBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21615" yWindow="1800" windowWidth="20790" windowHeight="11925" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="4068" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -750,7 +750,7 @@
         <v>9000</v>
       </c>
       <c r="C16">
-        <v>4900</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECAB34E-C183-4AC9-9FA5-9ECC025DCBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6AD73-D4D7-4DC4-BC55-9B736F938927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="18252" windowHeight="9780" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M35" totalsRowShown="0">
+  <autoFilter ref="A1:M35" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -538,6 +538,12 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>9001</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -555,6 +561,12 @@
       <c r="E3">
         <v>15</v>
       </c>
+      <c r="F3">
+        <v>9001</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -578,6 +590,12 @@
       <c r="G4">
         <v>8</v>
       </c>
+      <c r="H4">
+        <v>9001</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -594,6 +612,12 @@
       </c>
       <c r="E5">
         <v>10</v>
+      </c>
+      <c r="F5">
+        <v>9001</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -618,6 +642,12 @@
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>9001</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -641,6 +671,12 @@
       <c r="G7">
         <v>5</v>
       </c>
+      <c r="H7">
+        <v>9001</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -664,6 +700,12 @@
       <c r="G8">
         <v>5</v>
       </c>
+      <c r="H8">
+        <v>9001</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -675,6 +717,12 @@
       <c r="C9">
         <v>30</v>
       </c>
+      <c r="D9">
+        <v>9001</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
@@ -781,6 +829,12 @@
       <c r="I17">
         <v>50</v>
       </c>
+      <c r="J17">
+        <v>107</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
@@ -860,6 +914,160 @@
       </c>
       <c r="C21">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>12001</v>
+      </c>
+      <c r="B22">
+        <v>3001</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>12002</v>
+      </c>
+      <c r="B23">
+        <v>1001</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>12003</v>
+      </c>
+      <c r="B24">
+        <v>1002</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12004</v>
+      </c>
+      <c r="B25">
+        <v>1003</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>12005</v>
+      </c>
+      <c r="B26">
+        <v>1004</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>12006</v>
+      </c>
+      <c r="B27">
+        <v>1005</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>12007</v>
+      </c>
+      <c r="B28">
+        <v>1006</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>12008</v>
+      </c>
+      <c r="B29">
+        <v>1007</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>12009</v>
+      </c>
+      <c r="B30">
+        <v>1008</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>12010</v>
+      </c>
+      <c r="B31">
+        <v>1009</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>12011</v>
+      </c>
+      <c r="B32">
+        <v>1010</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>12012</v>
+      </c>
+      <c r="B33">
+        <v>1011</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>12013</v>
+      </c>
+      <c r="B34">
+        <v>1012</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>12014</v>
+      </c>
+      <c r="B35">
+        <v>1013</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6AD73-D4D7-4DC4-BC55-9B736F938927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C9152-2B02-4182-B93C-E763E4E0E97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="18252" windowHeight="9780" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -801,7 +801,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>11001</v>
       </c>
@@ -835,8 +835,14 @@
       <c r="K17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L17">
+        <v>3001</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>11002</v>
       </c>
@@ -847,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>11003</v>
       </c>
@@ -882,7 +888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>11004</v>
       </c>
@@ -905,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>11005</v>
       </c>
@@ -916,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>12001</v>
       </c>
@@ -927,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>12002</v>
       </c>
@@ -938,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>12003</v>
       </c>
@@ -949,7 +955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>12004</v>
       </c>
@@ -960,7 +966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>12005</v>
       </c>
@@ -971,7 +977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12006</v>
       </c>
@@ -982,7 +988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>12007</v>
       </c>
@@ -993,7 +999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>12008</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>12009</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>12010</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>12011</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C9152-2B02-4182-B93C-E763E4E0E97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BAE13-7ADE-4F2A-BD1C-567318358756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M35" totalsRowShown="0">
-  <autoFilter ref="A1:M35" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M36" totalsRowShown="0">
+  <autoFilter ref="A1:M36" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,29 +459,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -724,7 +724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -757,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -768,7 +768,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -779,7 +779,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -790,7 +790,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -801,7 +801,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>11001</v>
       </c>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>11002</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>11003</v>
       </c>
@@ -888,7 +888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>11004</v>
       </c>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11005</v>
       </c>
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>12001</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>12002</v>
       </c>
@@ -944,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>12003</v>
       </c>
@@ -955,7 +955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>12004</v>
       </c>
@@ -966,7 +966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>12005</v>
       </c>
@@ -977,7 +977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>12006</v>
       </c>
@@ -988,7 +988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>12007</v>
       </c>
@@ -999,7 +999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>12008</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12009</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12010</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12011</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12012</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>12013</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>12014</v>
       </c>
@@ -1074,6 +1074,17 @@
       </c>
       <c r="C35">
         <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>14001</v>
+      </c>
+      <c r="B36">
+        <v>9002</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BAE13-7ADE-4F2A-BD1C-567318358756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5614F15-956F-42EF-A986-A53B58D4AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M36" totalsRowShown="0">
-  <autoFilter ref="A1:M36" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M42" totalsRowShown="0">
+  <autoFilter ref="A1:M42" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,29 +459,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -724,7 +724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -757,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -768,7 +768,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -779,7 +779,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -790,7 +790,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -801,7 +801,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>11001</v>
       </c>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>11002</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>11003</v>
       </c>
@@ -888,7 +888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>11004</v>
       </c>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>11005</v>
       </c>
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>12001</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>12002</v>
       </c>
@@ -944,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>12003</v>
       </c>
@@ -955,7 +955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>12004</v>
       </c>
@@ -966,7 +966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>12005</v>
       </c>
@@ -977,7 +977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12006</v>
       </c>
@@ -988,7 +988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>12007</v>
       </c>
@@ -999,7 +999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>12008</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>12009</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>12010</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>12011</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>12012</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>12013</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>12014</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>14001</v>
       </c>
@@ -1084,7 +1084,73 @@
         <v>9002</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>14002</v>
+      </c>
+      <c r="B37">
+        <v>9002</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>14003</v>
+      </c>
+      <c r="B38">
+        <v>9002</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>14004</v>
+      </c>
+      <c r="B39">
+        <v>9002</v>
+      </c>
+      <c r="C39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>14005</v>
+      </c>
+      <c r="B40">
+        <v>9002</v>
+      </c>
+      <c r="C40">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>14006</v>
+      </c>
+      <c r="B41">
+        <v>9002</v>
+      </c>
+      <c r="C41">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>14007</v>
+      </c>
+      <c r="B42">
+        <v>9002</v>
+      </c>
+      <c r="C42">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5614F15-956F-42EF-A986-A53B58D4AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAE9B4D-D937-4486-9F6D-FE50C2F2E7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M42" totalsRowShown="0">
-  <autoFilter ref="A1:M42" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M54" totalsRowShown="0">
+  <autoFilter ref="A1:M54" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -459,29 +459,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -568,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -597,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -620,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -649,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -678,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -707,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -724,7 +727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -746,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -757,7 +760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -768,7 +771,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -779,7 +782,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -790,7 +793,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -801,7 +804,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>11001</v>
       </c>
@@ -842,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>11002</v>
       </c>
@@ -853,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>11003</v>
       </c>
@@ -888,7 +891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>11004</v>
       </c>
@@ -911,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11005</v>
       </c>
@@ -922,7 +925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>12001</v>
       </c>
@@ -933,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>12002</v>
       </c>
@@ -944,7 +947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>12003</v>
       </c>
@@ -955,7 +958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>12004</v>
       </c>
@@ -966,7 +969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>12005</v>
       </c>
@@ -977,7 +980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>12006</v>
       </c>
@@ -988,7 +991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>12007</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>12008</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12009</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12010</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12011</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12012</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>12013</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>12014</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>14001</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>14002</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>14003</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>14004</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>14005</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>14006</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>14007</v>
       </c>
@@ -1151,6 +1154,138 @@
       </c>
       <c r="C42">
         <v>11000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>50001</v>
+      </c>
+      <c r="B43">
+        <v>1001</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>50002</v>
+      </c>
+      <c r="B44">
+        <v>1001</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>50003</v>
+      </c>
+      <c r="B45">
+        <v>1001</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>50004</v>
+      </c>
+      <c r="B46">
+        <v>1002</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>50005</v>
+      </c>
+      <c r="B47">
+        <v>1002</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>50006</v>
+      </c>
+      <c r="B48">
+        <v>1002</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>60001</v>
+      </c>
+      <c r="B49">
+        <v>1006</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>60002</v>
+      </c>
+      <c r="B50">
+        <v>1006</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>60003</v>
+      </c>
+      <c r="B51">
+        <v>1006</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>60004</v>
+      </c>
+      <c r="B52">
+        <v>1007</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>60005</v>
+      </c>
+      <c r="B53">
+        <v>1007</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>60006</v>
+      </c>
+      <c r="B54">
+        <v>1007</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAE9B4D-D937-4486-9F6D-FE50C2F2E7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9321735-738E-4A5A-AD57-2528992C6D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="1770" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -73,6 +74,63 @@
   </si>
   <si>
     <t>BonusCount6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この設定ファイルはどのアイテムを手に入るかを設定するボーナスです。</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bonus1～6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム設定ファイルの唯一IDを設定します。</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユイイツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BonusCount1~6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手に入るアイテムの数</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -461,11 +519,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1296,4 +1354,56 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EE10A2-7549-4E00-8D82-136B5D4CD128}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9321735-738E-4A5A-AD57-2528992C6D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A01AB2-23CB-4953-8807-B9F495D5D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bonus1～6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム設定ファイルの唯一IDを設定します。</t>
     <rPh sb="4" eb="6">
       <t>セッテイ</t>
@@ -133,12 +129,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Bonus1~6</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,21 +154,60 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,8 +216,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +568,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1361,10 +1406,13 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1372,7 +1420,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1382,23 +1430,23 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="A5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A01AB2-23CB-4953-8807-B9F495D5D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254F343-2EB9-45B3-B37C-9CC59F6E8B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M54" totalsRowShown="0">
-  <autoFilter ref="A1:M54" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M57" totalsRowShown="0">
+  <autoFilter ref="A1:M57" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -562,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -909,59 +909,41 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>11001</v>
+        <v>10080</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>3001</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>103</v>
+        <v>9002</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
-      <c r="F17">
-        <v>104</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>112</v>
-      </c>
-      <c r="I17">
-        <v>50</v>
-      </c>
-      <c r="J17">
-        <v>107</v>
-      </c>
-      <c r="K17">
-        <v>50</v>
-      </c>
-      <c r="L17">
-        <v>3001</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>11002</v>
+        <v>10081</v>
       </c>
       <c r="B18">
         <v>3001</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>9002</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>11003</v>
+        <v>10082</v>
       </c>
       <c r="B19">
         <v>3001</v>
@@ -970,114 +952,150 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>1004</v>
+        <v>9002</v>
       </c>
       <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>1005</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>1006</v>
-      </c>
-      <c r="I19">
-        <v>100</v>
-      </c>
-      <c r="J19">
-        <v>1007</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>11004</v>
+        <v>11001</v>
       </c>
       <c r="B20">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>103</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>112</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>107</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20">
         <v>3001</v>
       </c>
-      <c r="C20">
+      <c r="M20">
         <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>11005</v>
+        <v>11002</v>
       </c>
       <c r="B21">
         <v>3001</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>12001</v>
+        <v>11003</v>
       </c>
       <c r="B22">
         <v>3001</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1004</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>1005</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1006</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>1007</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>12002</v>
+        <v>11004</v>
       </c>
       <c r="B23">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>12003</v>
+        <v>11005</v>
       </c>
       <c r="B24">
-        <v>1002</v>
+        <v>3001</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>12004</v>
+        <v>12001</v>
       </c>
       <c r="B25">
-        <v>1003</v>
+        <v>3001</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>12005</v>
+        <v>12002</v>
       </c>
       <c r="B26">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -1085,10 +1103,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>12006</v>
+        <v>12003</v>
       </c>
       <c r="B27">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C27">
         <v>60</v>
@@ -1096,10 +1114,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>12007</v>
+        <v>12004</v>
       </c>
       <c r="B28">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -1107,10 +1125,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>12008</v>
+        <v>12005</v>
       </c>
       <c r="B29">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C29">
         <v>60</v>
@@ -1118,10 +1136,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>12009</v>
+        <v>12006</v>
       </c>
       <c r="B30">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C30">
         <v>60</v>
@@ -1129,10 +1147,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>12010</v>
+        <v>12007</v>
       </c>
       <c r="B31">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C31">
         <v>60</v>
@@ -1140,10 +1158,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>12011</v>
+        <v>12008</v>
       </c>
       <c r="B32">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C32">
         <v>60</v>
@@ -1151,10 +1169,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>12012</v>
+        <v>12009</v>
       </c>
       <c r="B33">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C33">
         <v>60</v>
@@ -1162,10 +1180,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>12013</v>
+        <v>12010</v>
       </c>
       <c r="B34">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -1173,10 +1191,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>12014</v>
+        <v>12011</v>
       </c>
       <c r="B35">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -1184,120 +1202,120 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>14001</v>
+        <v>12012</v>
       </c>
       <c r="B36">
-        <v>9002</v>
+        <v>1011</v>
       </c>
       <c r="C36">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>14002</v>
+        <v>12013</v>
       </c>
       <c r="B37">
-        <v>9002</v>
+        <v>1012</v>
       </c>
       <c r="C37">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>14003</v>
+        <v>12014</v>
       </c>
       <c r="B38">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C38">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>14004</v>
+        <v>14001</v>
       </c>
       <c r="B39">
         <v>9002</v>
       </c>
       <c r="C39">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>14005</v>
+        <v>14002</v>
       </c>
       <c r="B40">
         <v>9002</v>
       </c>
       <c r="C40">
-        <v>4000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>14006</v>
+        <v>14003</v>
       </c>
       <c r="B41">
         <v>9002</v>
       </c>
       <c r="C41">
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>14007</v>
+        <v>14004</v>
       </c>
       <c r="B42">
         <v>9002</v>
       </c>
       <c r="C42">
-        <v>11000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>50001</v>
+        <v>14005</v>
       </c>
       <c r="B43">
-        <v>1001</v>
+        <v>9002</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>50002</v>
+        <v>14006</v>
       </c>
       <c r="B44">
-        <v>1001</v>
+        <v>9002</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>50003</v>
+        <v>14007</v>
       </c>
       <c r="B45">
-        <v>1001</v>
+        <v>9002</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>50004</v>
+        <v>50001</v>
       </c>
       <c r="B46">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -1305,10 +1323,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>50005</v>
+        <v>50002</v>
       </c>
       <c r="B47">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -1316,10 +1334,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>50006</v>
+        <v>50003</v>
       </c>
       <c r="B48">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -1327,10 +1345,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>60001</v>
+        <v>50004</v>
       </c>
       <c r="B49">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -1338,10 +1356,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>60002</v>
+        <v>50005</v>
       </c>
       <c r="B50">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -1349,10 +1367,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>60003</v>
+        <v>50006</v>
       </c>
       <c r="B51">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C51">
         <v>30</v>
@@ -1360,10 +1378,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>60004</v>
+        <v>60001</v>
       </c>
       <c r="B52">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -1371,10 +1389,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>60005</v>
+        <v>60002</v>
       </c>
       <c r="B53">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -1382,12 +1400,45 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
+        <v>60003</v>
+      </c>
+      <c r="B54">
+        <v>1006</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>60004</v>
+      </c>
+      <c r="B55">
+        <v>1007</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>60005</v>
+      </c>
+      <c r="B56">
+        <v>1007</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
         <v>60006</v>
       </c>
-      <c r="B54">
+      <c r="B57">
         <v>1007</v>
       </c>
-      <c r="C54">
+      <c r="C57">
         <v>30</v>
       </c>
     </row>
@@ -1405,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EE10A2-7549-4E00-8D82-136B5D4CD128}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254F343-2EB9-45B3-B37C-9CC59F6E8B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F2B87-6C70-4180-9963-0401419A8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="4290" yWindow="5565" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,10 +565,10 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -912,16 +912,10 @@
         <v>10080</v>
       </c>
       <c r="B17">
-        <v>3001</v>
+        <v>9002</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>9002</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -929,16 +923,16 @@
         <v>10081</v>
       </c>
       <c r="B18">
-        <v>3001</v>
+        <v>9002</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="D18">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="E18">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -946,16 +940,22 @@
         <v>10082</v>
       </c>
       <c r="B19">
+        <v>9002</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>9001</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19">
         <v>3001</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>9002</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F2B87-6C70-4180-9963-0401419A8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20ABD06-FFBC-4707-8143-51338AAA3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="5565" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,26 +568,26 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -863,7 +863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -874,7 +874,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -896,7 +896,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -907,26 +907,26 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10080</v>
       </c>
       <c r="B17">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="C17">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10081</v>
       </c>
       <c r="B18">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="C18">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="D18">
         <v>9001</v>
@@ -935,15 +935,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10082</v>
       </c>
       <c r="B19">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="C19">
-        <v>500</v>
+        <v>215</v>
       </c>
       <c r="D19">
         <v>9001</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>11001</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>11002</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>11003</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>11004</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>11005</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>12001</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>12002</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12003</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>12004</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>12005</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>12006</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>12007</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>12008</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>12009</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>12010</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>12011</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>12012</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>12013</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>12014</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>14001</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>14002</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>14003</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>14004</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>14005</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>14006</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>14007</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>50001</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>50002</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>50003</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>50004</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>50005</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50006</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>60001</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>60002</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>60003</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>60004</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>60005</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>60006</v>
       </c>
@@ -1460,42 +1460,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20ABD06-FFBC-4707-8143-51338AAA3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D0AF7-C5F6-41B8-A54B-E83CDF7B97FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="11145" yWindow="2655" windowWidth="7605" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M57" totalsRowShown="0">
-  <autoFilter ref="A1:M57" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M73" totalsRowShown="0">
+  <autoFilter ref="A1:M73" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -562,32 +562,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -863,7 +863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -874,7 +874,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -896,7 +896,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -907,7 +907,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10080</v>
       </c>
@@ -918,7 +918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10081</v>
       </c>
@@ -935,7 +935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10082</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>11001</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11002</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>11003</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>11004</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>11005</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>12001</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>12002</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>12003</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>12004</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>12005</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12006</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12007</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12008</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12009</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>12010</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>12011</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>12012</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>12013</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>12014</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>14001</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>14002</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>14003</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>14004</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>14005</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>14006</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>14007</v>
       </c>
@@ -1310,136 +1310,312 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>50001</v>
       </c>
       <c r="B46">
-        <v>1001</v>
+        <v>119</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>50002</v>
       </c>
       <c r="B47">
-        <v>1001</v>
+        <v>119</v>
       </c>
       <c r="C47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>50003</v>
       </c>
       <c r="B48">
-        <v>1001</v>
+        <v>119</v>
       </c>
       <c r="C48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>50004</v>
       </c>
       <c r="B49">
-        <v>1002</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>50005</v>
       </c>
       <c r="B50">
-        <v>1002</v>
+        <v>120</v>
       </c>
       <c r="C50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50006</v>
       </c>
       <c r="B51">
-        <v>1002</v>
+        <v>120</v>
       </c>
       <c r="C51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>60001</v>
+        <v>50007</v>
       </c>
       <c r="B52">
-        <v>1006</v>
+        <v>121</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>60002</v>
+        <v>50008</v>
       </c>
       <c r="B53">
-        <v>1006</v>
+        <v>121</v>
       </c>
       <c r="C53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>60003</v>
+        <v>50009</v>
       </c>
       <c r="B54">
-        <v>1006</v>
+        <v>121</v>
       </c>
       <c r="C54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>60004</v>
+        <v>50010</v>
       </c>
       <c r="B55">
-        <v>1007</v>
+        <v>122</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
+        <v>50011</v>
+      </c>
+      <c r="B56">
+        <v>122</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>50012</v>
+      </c>
+      <c r="B57">
+        <v>122</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>50013</v>
+      </c>
+      <c r="B58">
+        <v>123</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>50014</v>
+      </c>
+      <c r="B59">
+        <v>123</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>50015</v>
+      </c>
+      <c r="B60">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60001</v>
+      </c>
+      <c r="B61">
+        <v>559</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>60002</v>
+      </c>
+      <c r="B62">
+        <v>550</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>60003</v>
+      </c>
+      <c r="B63">
+        <v>551</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>60004</v>
+      </c>
+      <c r="B64">
+        <v>552</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65">
         <v>60005</v>
       </c>
-      <c r="B56">
-        <v>1007</v>
-      </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57">
+      <c r="B65">
+        <v>553</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>60006</v>
       </c>
-      <c r="B57">
-        <v>1007</v>
-      </c>
-      <c r="C57">
-        <v>30</v>
+      <c r="B66">
+        <v>554</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>60007</v>
+      </c>
+      <c r="B67">
+        <v>555</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>60008</v>
+      </c>
+      <c r="B68">
+        <v>556</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>60009</v>
+      </c>
+      <c r="B69">
+        <v>557</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>60010</v>
+      </c>
+      <c r="B70">
+        <v>558</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70001</v>
+      </c>
+      <c r="B71">
+        <v>3001</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>70002</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>70003</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1460,42 +1636,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D0AF7-C5F6-41B8-A54B-E83CDF7B97FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A5295-D16F-4483-BDFD-480053C778A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="2655" windowWidth="7605" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,10 +565,10 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1315,7 +1315,7 @@
         <v>50001</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -1326,7 +1326,7 @@
         <v>50002</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -1337,7 +1337,7 @@
         <v>50003</v>
       </c>
       <c r="B48">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1348,7 +1348,7 @@
         <v>50004</v>
       </c>
       <c r="B49">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>50005</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1370,7 +1370,7 @@
         <v>50006</v>
       </c>
       <c r="B51">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1381,7 +1381,7 @@
         <v>50007</v>
       </c>
       <c r="B52">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         <v>50008</v>
       </c>
       <c r="B53">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -1403,7 +1403,7 @@
         <v>50009</v>
       </c>
       <c r="B54">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1414,7 +1414,7 @@
         <v>50010</v>
       </c>
       <c r="B55">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -1425,7 +1425,7 @@
         <v>50011</v>
       </c>
       <c r="B56">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -1436,7 +1436,7 @@
         <v>50012</v>
       </c>
       <c r="B57">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         <v>50013</v>
       </c>
       <c r="B58">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -1458,7 +1458,7 @@
         <v>50014</v>
       </c>
       <c r="B59">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1469,7 +1469,7 @@
         <v>50015</v>
       </c>
       <c r="B60">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C60">
         <v>5</v>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A5295-D16F-4483-BDFD-480053C778A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84910B38-5AAE-4C3E-8DB9-5DE71B3CBAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="3735" yWindow="1545" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M73" totalsRowShown="0">
-  <autoFilter ref="A1:M73" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M91" totalsRowShown="0">
+  <autoFilter ref="A1:M91" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -562,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>50001</v>
+        <v>20001</v>
       </c>
       <c r="B46">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -1323,298 +1323,496 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>50002</v>
+        <v>20002</v>
       </c>
       <c r="B47">
-        <v>123</v>
+        <v>9001</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>50003</v>
+        <v>20003</v>
       </c>
       <c r="B48">
-        <v>123</v>
+        <v>1001</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>50004</v>
+        <v>20004</v>
       </c>
       <c r="B49">
-        <v>124</v>
+        <v>1013</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>50005</v>
+        <v>21001</v>
       </c>
       <c r="B50">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>50006</v>
+        <v>21002</v>
       </c>
       <c r="B51">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>50007</v>
+        <v>21003</v>
       </c>
       <c r="B52">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>50008</v>
+        <v>21004</v>
       </c>
       <c r="B53">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>50009</v>
+        <v>21005</v>
       </c>
       <c r="B54">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>50010</v>
+        <v>21006</v>
       </c>
       <c r="B55">
-        <v>126</v>
+        <v>600</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>50011</v>
+        <v>21007</v>
       </c>
       <c r="B56">
-        <v>126</v>
+        <v>3001</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>50012</v>
+        <v>21008</v>
       </c>
       <c r="B57">
-        <v>126</v>
+        <v>3001</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>50013</v>
+        <v>21009</v>
       </c>
       <c r="B58">
-        <v>127</v>
+        <v>3001</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>50014</v>
+        <v>21010</v>
       </c>
       <c r="B59">
-        <v>127</v>
+        <v>3001</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>50015</v>
+        <v>21011</v>
       </c>
       <c r="B60">
-        <v>127</v>
+        <v>3001</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>60001</v>
+        <v>21012</v>
       </c>
       <c r="B61">
-        <v>559</v>
+        <v>9001</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>60002</v>
+        <v>21013</v>
       </c>
       <c r="B62">
-        <v>550</v>
+        <v>9001</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>60003</v>
+        <v>21014</v>
       </c>
       <c r="B63">
-        <v>551</v>
+        <v>9001</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>60004</v>
+        <v>50001</v>
       </c>
       <c r="B64">
-        <v>552</v>
+        <v>123</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>60005</v>
+        <v>50002</v>
       </c>
       <c r="B65">
-        <v>553</v>
+        <v>123</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>60006</v>
+        <v>50003</v>
       </c>
       <c r="B66">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>60007</v>
+        <v>50004</v>
       </c>
       <c r="B67">
-        <v>555</v>
+        <v>124</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>60008</v>
+        <v>50005</v>
       </c>
       <c r="B68">
-        <v>556</v>
+        <v>124</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>60009</v>
+        <v>50006</v>
       </c>
       <c r="B69">
-        <v>557</v>
+        <v>124</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>60010</v>
+        <v>50007</v>
       </c>
       <c r="B70">
-        <v>558</v>
+        <v>125</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>70001</v>
+        <v>50008</v>
       </c>
       <c r="B71">
-        <v>3001</v>
+        <v>125</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>70002</v>
+        <v>50009</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
+        <v>50010</v>
+      </c>
+      <c r="B73">
+        <v>126</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>50011</v>
+      </c>
+      <c r="B74">
+        <v>126</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>50012</v>
+      </c>
+      <c r="B75">
+        <v>126</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>50013</v>
+      </c>
+      <c r="B76">
+        <v>127</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>50014</v>
+      </c>
+      <c r="B77">
+        <v>127</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>50015</v>
+      </c>
+      <c r="B78">
+        <v>127</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>60001</v>
+      </c>
+      <c r="B79">
+        <v>559</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>60002</v>
+      </c>
+      <c r="B80">
+        <v>550</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>60003</v>
+      </c>
+      <c r="B81">
+        <v>551</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>60004</v>
+      </c>
+      <c r="B82">
+        <v>552</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>60005</v>
+      </c>
+      <c r="B83">
+        <v>553</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>60006</v>
+      </c>
+      <c r="B84">
+        <v>554</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>60007</v>
+      </c>
+      <c r="B85">
+        <v>555</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>60008</v>
+      </c>
+      <c r="B86">
+        <v>556</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>60009</v>
+      </c>
+      <c r="B87">
+        <v>557</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>60010</v>
+      </c>
+      <c r="B88">
+        <v>558</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>70001</v>
+      </c>
+      <c r="B89">
+        <v>3001</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>70002</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91">
         <v>70003</v>
       </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73">
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84910B38-5AAE-4C3E-8DB9-5DE71B3CBAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D0ABAD-74E4-4A96-979C-D7279A1CE9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1545" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M91" totalsRowShown="0">
-  <autoFilter ref="A1:M91" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M92" totalsRowShown="0">
+  <autoFilter ref="A1:M92" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -562,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1356,21 +1356,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>21001</v>
+        <v>20005</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>9002</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1378,21 +1378,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>21003</v>
+        <v>21002</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>21004</v>
+        <v>21003</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1400,40 +1400,40 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>21006</v>
+        <v>21005</v>
       </c>
       <c r="B55">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>21007</v>
+        <v>21006</v>
       </c>
       <c r="B56">
-        <v>3001</v>
+        <v>600</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>21008</v>
+        <v>21007</v>
       </c>
       <c r="B57">
         <v>3001</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="B58">
         <v>3001</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>21010</v>
+        <v>21009</v>
       </c>
       <c r="B59">
         <v>3001</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="B60">
         <v>3001</v>
@@ -1477,219 +1477,219 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>21012</v>
+        <v>21011</v>
       </c>
       <c r="B61">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C61">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>21013</v>
+        <v>21012</v>
       </c>
       <c r="B62">
         <v>9001</v>
       </c>
       <c r="C62">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>21014</v>
+        <v>21013</v>
       </c>
       <c r="B63">
         <v>9001</v>
       </c>
       <c r="C63">
-        <v>5000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>50001</v>
+        <v>21014</v>
       </c>
       <c r="B64">
-        <v>123</v>
+        <v>9001</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B65">
         <v>123</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B66">
         <v>123</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B67">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B68">
         <v>124</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B69">
         <v>124</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B70">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>50008</v>
+        <v>50007</v>
       </c>
       <c r="B71">
         <v>125</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>50009</v>
+        <v>50008</v>
       </c>
       <c r="B72">
         <v>125</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="B73">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>50011</v>
+        <v>50010</v>
       </c>
       <c r="B74">
         <v>126</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>50012</v>
+        <v>50011</v>
       </c>
       <c r="B75">
         <v>126</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>50013</v>
+        <v>50012</v>
       </c>
       <c r="B76">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B77">
         <v>127</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B78">
         <v>127</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>60001</v>
+        <v>50015</v>
       </c>
       <c r="B79">
-        <v>559</v>
+        <v>127</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B80">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B81">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="B82">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="B83">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="B84">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="B85">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="B86">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="B87">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="B88">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1785,21 +1785,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>70001</v>
+        <v>60010</v>
       </c>
       <c r="B89">
-        <v>3001</v>
+        <v>558</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>70002</v>
+        <v>70001</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1807,12 +1807,23 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
+        <v>70002</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92">
         <v>70003</v>
       </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91">
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D0ABAD-74E4-4A96-979C-D7279A1CE9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4ABA98-5C1A-4E53-B480-67CBB86F592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="24525" windowHeight="12975" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-18720" yWindow="1110" windowWidth="18495" windowHeight="10515" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M92" totalsRowShown="0">
-  <autoFilter ref="A1:M92" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M141" totalsRowShown="0">
+  <autoFilter ref="A1:M141" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -562,32 +562,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -863,7 +863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -874,7 +874,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -896,7 +896,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -907,7 +907,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10080</v>
       </c>
@@ -918,7 +918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10081</v>
       </c>
@@ -935,7 +935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10082</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>11001</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>11002</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>11003</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>11004</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>11005</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>12001</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>12002</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12003</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>12004</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>12005</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>12006</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>12007</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>12008</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>12009</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>12010</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>12011</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>12012</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>12013</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>12014</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>14001</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>14002</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>14003</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>14004</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>14005</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>14006</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>14007</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>20001</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>20002</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>20003</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>20004</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>20005</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>21001</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>21002</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>21003</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>21004</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>21005</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>21006</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>21007</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>21008</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>21009</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>21010</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>21011</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>21012</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>21013</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>21014</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>50001</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>50002</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>50003</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>50004</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>50005</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>50006</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>50007</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>50008</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>50009</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>50010</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>50011</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>50012</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>50013</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>50014</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>50015</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>60001</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>60002</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>60003</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>60004</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>60005</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>60006</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>60007</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>60008</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>60009</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>60010</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>70001</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>70002</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>70003</v>
       </c>
@@ -1825,6 +1825,446 @@
       </c>
       <c r="C92">
         <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>80001</v>
+      </c>
+      <c r="B93">
+        <v>7016</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>80002</v>
+      </c>
+      <c r="B94">
+        <v>7016</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>80003</v>
+      </c>
+      <c r="B95">
+        <v>7016</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>80004</v>
+      </c>
+      <c r="B96">
+        <v>7017</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>80005</v>
+      </c>
+      <c r="B97">
+        <v>7017</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>80006</v>
+      </c>
+      <c r="B98">
+        <v>7017</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>80007</v>
+      </c>
+      <c r="B99">
+        <v>7018</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>80008</v>
+      </c>
+      <c r="B100">
+        <v>7018</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>80009</v>
+      </c>
+      <c r="B101">
+        <v>7018</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>80010</v>
+      </c>
+      <c r="B102">
+        <v>7019</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>80011</v>
+      </c>
+      <c r="B103">
+        <v>7019</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>80012</v>
+      </c>
+      <c r="B104">
+        <v>7019</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>80013</v>
+      </c>
+      <c r="B105">
+        <v>7020</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>80014</v>
+      </c>
+      <c r="B106">
+        <v>7020</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>80015</v>
+      </c>
+      <c r="B107">
+        <v>7020</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>80016</v>
+      </c>
+      <c r="B108">
+        <v>7021</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>80017</v>
+      </c>
+      <c r="B109">
+        <v>7022</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>80018</v>
+      </c>
+      <c r="B110">
+        <v>7023</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>80019</v>
+      </c>
+      <c r="B111">
+        <v>7024</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>80020</v>
+      </c>
+      <c r="B112">
+        <v>7025</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>80021</v>
+      </c>
+      <c r="B113">
+        <v>7026</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>80022</v>
+      </c>
+      <c r="B114">
+        <v>7027</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>80023</v>
+      </c>
+      <c r="B115">
+        <v>7028</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>80024</v>
+      </c>
+      <c r="B116">
+        <v>7029</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>80025</v>
+      </c>
+      <c r="B117">
+        <v>7030</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>81001</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>81002</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>81003</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>81004</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>81005</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>81006</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>81007</v>
+      </c>
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>81008</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>81009</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>81010</v>
+      </c>
+      <c r="B127">
+        <v>134</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>81011</v>
+      </c>
+      <c r="B128">
+        <v>135</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>81012</v>
+      </c>
+      <c r="B129">
+        <v>136</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>81013</v>
+      </c>
+      <c r="B130">
+        <v>137</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>81014</v>
+      </c>
+      <c r="B131">
+        <v>138</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>81015</v>
+      </c>
+      <c r="B132">
+        <v>139</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1845,42 +2285,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4ABA98-5C1A-4E53-B480-67CBB86F592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5F5469-C1B9-407E-9414-1862F623540B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18720" yWindow="1110" windowWidth="18495" windowHeight="10515" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,32 +562,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -863,7 +863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -874,7 +874,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -896,7 +896,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -907,7 +907,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10080</v>
       </c>
@@ -918,7 +918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10081</v>
       </c>
@@ -935,7 +935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10082</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>11001</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11002</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>11003</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>11004</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>11005</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>12001</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>12002</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>12003</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>12004</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>12005</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12006</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12007</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12008</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12009</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>12010</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>12011</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>12012</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>12013</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>12014</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>14001</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>14002</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>14003</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>14004</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>14005</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>14006</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>14007</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>20001</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>20002</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>20003</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>20004</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>20005</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>21001</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>21002</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>21003</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>21004</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>21005</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>21006</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>21007</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>21008</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>21009</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>21010</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>21011</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>21012</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>21013</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>21014</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>50001</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>50002</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>50003</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>50004</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>50005</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>50006</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>50007</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>50008</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>50009</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>50010</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>50011</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>50012</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>50013</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>50014</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>50015</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>60001</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>60002</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>60003</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>60004</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>60005</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>60006</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>60007</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>60008</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>60009</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>60010</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>70001</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>70002</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>70003</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>80001</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>80002</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>80003</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>80004</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>80005</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>80006</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>80007</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>80008</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>80009</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>80010</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>80011</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>80012</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>80013</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>80014</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>80015</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>80016</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>80017</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>80018</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>80019</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>80020</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>80021</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>80022</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>80023</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>80024</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>80025</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>81001</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>81002</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>81003</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>81004</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>81005</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>81006</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>81007</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>81008</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>81009</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>81010</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>81011</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>81012</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>81013</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>81014</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>81015</v>
       </c>
@@ -2265,6 +2265,50 @@
       </c>
       <c r="C132">
         <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>90000</v>
+      </c>
+      <c r="B133">
+        <v>1001</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>90001</v>
+      </c>
+      <c r="B134">
+        <v>1002</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>90002</v>
+      </c>
+      <c r="B135">
+        <v>1001</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>90003</v>
+      </c>
+      <c r="B136">
+        <v>1002</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2285,42 +2329,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4ABA98-5C1A-4E53-B480-67CBB86F592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94574607-6C08-499B-9C57-08C4C5BA428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18720" yWindow="1110" windowWidth="18495" windowHeight="10515" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -164,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +182,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -216,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +237,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -244,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M141" totalsRowShown="0">
-  <autoFilter ref="A1:M141" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M163" totalsRowShown="0">
+  <autoFilter ref="A1:M163" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -562,32 +581,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -703,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -726,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -755,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -784,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -813,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -830,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -841,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -852,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -863,7 +882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -874,7 +893,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -885,7 +904,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -896,7 +915,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -907,7 +926,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10080</v>
       </c>
@@ -918,7 +937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10081</v>
       </c>
@@ -935,7 +954,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10082</v>
       </c>
@@ -958,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>11001</v>
       </c>
@@ -999,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11002</v>
       </c>
@@ -1010,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>11003</v>
       </c>
@@ -1045,7 +1064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>11004</v>
       </c>
@@ -1068,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>11005</v>
       </c>
@@ -1079,7 +1098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>12001</v>
       </c>
@@ -1090,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>12002</v>
       </c>
@@ -1101,7 +1120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>12003</v>
       </c>
@@ -1112,7 +1131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>12004</v>
       </c>
@@ -1123,7 +1142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>12005</v>
       </c>
@@ -1134,7 +1153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12006</v>
       </c>
@@ -1145,7 +1164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12007</v>
       </c>
@@ -1156,7 +1175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12008</v>
       </c>
@@ -1167,7 +1186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12009</v>
       </c>
@@ -1178,7 +1197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>12010</v>
       </c>
@@ -1189,7 +1208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>12011</v>
       </c>
@@ -1200,7 +1219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>12012</v>
       </c>
@@ -1211,7 +1230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>12013</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>12014</v>
       </c>
@@ -1233,7 +1252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>14001</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>14002</v>
       </c>
@@ -1255,7 +1274,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>14003</v>
       </c>
@@ -1266,7 +1285,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>14004</v>
       </c>
@@ -1277,7 +1296,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>14005</v>
       </c>
@@ -1288,7 +1307,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>14006</v>
       </c>
@@ -1299,7 +1318,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>14007</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>20001</v>
       </c>
@@ -1321,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>20002</v>
       </c>
@@ -1332,7 +1351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>20003</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>20004</v>
       </c>
@@ -1354,7 +1373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>20005</v>
       </c>
@@ -1365,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>21001</v>
       </c>
@@ -1376,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>21002</v>
       </c>
@@ -1387,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>21003</v>
       </c>
@@ -1398,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>21004</v>
       </c>
@@ -1409,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>21005</v>
       </c>
@@ -1420,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>21006</v>
       </c>
@@ -1431,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>21007</v>
       </c>
@@ -1442,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>21008</v>
       </c>
@@ -1453,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>21009</v>
       </c>
@@ -1464,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>21010</v>
       </c>
@@ -1475,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>21011</v>
       </c>
@@ -1486,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>21012</v>
       </c>
@@ -1497,7 +1516,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>21013</v>
       </c>
@@ -1508,7 +1527,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>21014</v>
       </c>
@@ -1519,7 +1538,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>50001</v>
       </c>
@@ -1530,7 +1549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>50002</v>
       </c>
@@ -1541,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>50003</v>
       </c>
@@ -1552,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>50004</v>
       </c>
@@ -1563,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>50005</v>
       </c>
@@ -1574,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>50006</v>
       </c>
@@ -1585,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>50007</v>
       </c>
@@ -1596,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>50008</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>50009</v>
       </c>
@@ -1618,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>50010</v>
       </c>
@@ -1629,7 +1648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>50011</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>50012</v>
       </c>
@@ -1651,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>50013</v>
       </c>
@@ -1662,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>50014</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>50015</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>60001</v>
       </c>
@@ -1695,7 +1714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>60002</v>
       </c>
@@ -1706,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>60003</v>
       </c>
@@ -1717,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>60004</v>
       </c>
@@ -1728,7 +1747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>60005</v>
       </c>
@@ -1739,7 +1758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>60006</v>
       </c>
@@ -1750,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>60007</v>
       </c>
@@ -1761,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>60008</v>
       </c>
@@ -1772,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>60009</v>
       </c>
@@ -1783,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>60010</v>
       </c>
@@ -1794,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>70001</v>
       </c>
@@ -1805,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>70002</v>
       </c>
@@ -1816,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>70003</v>
       </c>
@@ -1827,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>80001</v>
       </c>
@@ -1838,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>80002</v>
       </c>
@@ -1849,7 +1868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>80003</v>
       </c>
@@ -1860,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>80004</v>
       </c>
@@ -1871,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>80005</v>
       </c>
@@ -1882,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>80006</v>
       </c>
@@ -1893,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>80007</v>
       </c>
@@ -1904,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>80008</v>
       </c>
@@ -1915,7 +1934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>80009</v>
       </c>
@@ -1926,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>80010</v>
       </c>
@@ -1937,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>80011</v>
       </c>
@@ -1948,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>80012</v>
       </c>
@@ -1959,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>80013</v>
       </c>
@@ -1970,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>80014</v>
       </c>
@@ -1981,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>80015</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>80016</v>
       </c>
@@ -2003,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>80017</v>
       </c>
@@ -2014,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>80018</v>
       </c>
@@ -2025,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>80019</v>
       </c>
@@ -2036,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>80020</v>
       </c>
@@ -2047,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>80021</v>
       </c>
@@ -2058,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>80022</v>
       </c>
@@ -2069,7 +2088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>80023</v>
       </c>
@@ -2080,7 +2099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>80024</v>
       </c>
@@ -2091,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>80025</v>
       </c>
@@ -2102,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>81001</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>81002</v>
       </c>
@@ -2124,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>81003</v>
       </c>
@@ -2135,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>81004</v>
       </c>
@@ -2146,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>81005</v>
       </c>
@@ -2157,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>81006</v>
       </c>
@@ -2168,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>81007</v>
       </c>
@@ -2179,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>81008</v>
       </c>
@@ -2190,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>81009</v>
       </c>
@@ -2201,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>81010</v>
       </c>
@@ -2212,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>81011</v>
       </c>
@@ -2223,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>81012</v>
       </c>
@@ -2234,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>81013</v>
       </c>
@@ -2245,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>81014</v>
       </c>
@@ -2256,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>81015</v>
       </c>
@@ -2265,6 +2284,270 @@
       </c>
       <c r="C132">
         <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <v>83001</v>
+      </c>
+      <c r="B133" s="4">
+        <v>10010</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <v>83002</v>
+      </c>
+      <c r="B134" s="4">
+        <v>10011</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <v>83003</v>
+      </c>
+      <c r="B135" s="4">
+        <v>10012</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <v>83004</v>
+      </c>
+      <c r="B136" s="4">
+        <v>10004</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <v>83005</v>
+      </c>
+      <c r="B137" s="4">
+        <v>10005</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <v>83006</v>
+      </c>
+      <c r="B138" s="4">
+        <v>10006</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <v>83007</v>
+      </c>
+      <c r="B139" s="4">
+        <v>10007</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <v>83008</v>
+      </c>
+      <c r="B140" s="4">
+        <v>10008</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <v>83009</v>
+      </c>
+      <c r="B141" s="4">
+        <v>10009</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <v>83301</v>
+      </c>
+      <c r="B142">
+        <v>123</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <v>83302</v>
+      </c>
+      <c r="B143">
+        <v>124</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <v>83303</v>
+      </c>
+      <c r="B144">
+        <v>125</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <v>83304</v>
+      </c>
+      <c r="B145">
+        <v>126</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <v>83305</v>
+      </c>
+      <c r="B146">
+        <v>127</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
+        <v>83306</v>
+      </c>
+      <c r="B147">
+        <v>7021</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="3">
+        <v>83307</v>
+      </c>
+      <c r="B148">
+        <v>7022</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
+        <v>83308</v>
+      </c>
+      <c r="B149">
+        <v>7023</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
+        <v>83309</v>
+      </c>
+      <c r="B150">
+        <v>7024</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="3">
+        <v>83310</v>
+      </c>
+      <c r="B151">
+        <v>7025</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="3">
+        <v>83311</v>
+      </c>
+      <c r="B152">
+        <v>7026</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="3">
+        <v>83312</v>
+      </c>
+      <c r="B153">
+        <v>7027</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="3">
+        <v>83313</v>
+      </c>
+      <c r="B154">
+        <v>7028</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="3">
+        <v>83314</v>
+      </c>
+      <c r="B155">
+        <v>7029</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="3">
+        <v>83315</v>
+      </c>
+      <c r="B156">
+        <v>7030</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2285,42 +2568,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94574607-6C08-499B-9C57-08C4C5BA428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B19FD-A70E-4243-AE08-D7B185167D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +249,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -263,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M163" totalsRowShown="0">
-  <autoFilter ref="A1:M163" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M193" totalsRowShown="0">
+  <autoFilter ref="A1:M193" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G147" sqref="G147"/>
+      <selection pane="bottomRight" activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2547,6 +2556,413 @@
         <v>7030</v>
       </c>
       <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="5">
+        <v>84001</v>
+      </c>
+      <c r="B157">
+        <v>9003</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="5">
+        <v>84002</v>
+      </c>
+      <c r="B158">
+        <v>9005</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="5">
+        <v>84003</v>
+      </c>
+      <c r="B159">
+        <v>9002</v>
+      </c>
+      <c r="C159">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="5">
+        <v>84004</v>
+      </c>
+      <c r="B160">
+        <v>123</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="5">
+        <v>84005</v>
+      </c>
+      <c r="B161">
+        <v>124</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="5">
+        <v>84006</v>
+      </c>
+      <c r="B162">
+        <v>125</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="5">
+        <v>84007</v>
+      </c>
+      <c r="B163">
+        <v>126</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="5">
+        <v>84008</v>
+      </c>
+      <c r="B164">
+        <v>127</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="5">
+        <v>84009</v>
+      </c>
+      <c r="B165">
+        <v>128</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="5">
+        <v>84010</v>
+      </c>
+      <c r="B166">
+        <v>129</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="5">
+        <v>84011</v>
+      </c>
+      <c r="B167">
+        <v>550</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="5">
+        <v>84012</v>
+      </c>
+      <c r="B168">
+        <v>551</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="5">
+        <v>84013</v>
+      </c>
+      <c r="B169">
+        <v>552</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="5">
+        <v>84014</v>
+      </c>
+      <c r="B170">
+        <v>553</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="5">
+        <v>84015</v>
+      </c>
+      <c r="B171">
+        <v>554</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="5">
+        <v>84016</v>
+      </c>
+      <c r="B172">
+        <v>555</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="5">
+        <v>84017</v>
+      </c>
+      <c r="B173">
+        <v>556</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="5">
+        <v>84018</v>
+      </c>
+      <c r="B174">
+        <v>557</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="5">
+        <v>84019</v>
+      </c>
+      <c r="B175">
+        <v>558</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="5">
+        <v>84020</v>
+      </c>
+      <c r="B176">
+        <v>559</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="5">
+        <v>84021</v>
+      </c>
+      <c r="B177">
+        <v>134</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="5">
+        <v>84022</v>
+      </c>
+      <c r="B178">
+        <v>135</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="5">
+        <v>84023</v>
+      </c>
+      <c r="B179">
+        <v>136</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="5">
+        <v>84024</v>
+      </c>
+      <c r="B180">
+        <v>137</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="5">
+        <v>84025</v>
+      </c>
+      <c r="B181">
+        <v>138</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="5">
+        <v>84026</v>
+      </c>
+      <c r="B182">
+        <v>139</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="5">
+        <v>84027</v>
+      </c>
+      <c r="B183">
+        <v>500</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="5">
+        <v>84028</v>
+      </c>
+      <c r="B184">
+        <v>501</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="5">
+        <v>84029</v>
+      </c>
+      <c r="B185">
+        <v>502</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="5">
+        <v>84030</v>
+      </c>
+      <c r="B186">
+        <v>503</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="5">
+        <v>84031</v>
+      </c>
+      <c r="B187">
+        <v>504</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="5">
+        <v>84032</v>
+      </c>
+      <c r="B188">
+        <v>505</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="5">
+        <v>84033</v>
+      </c>
+      <c r="B189">
+        <v>506</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="5">
+        <v>84034</v>
+      </c>
+      <c r="B190">
+        <v>507</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="5">
+        <v>84035</v>
+      </c>
+      <c r="B191">
+        <v>508</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="5">
+        <v>84036</v>
+      </c>
+      <c r="B192">
+        <v>509</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="5">
+        <v>84037</v>
+      </c>
+      <c r="B193">
+        <v>600</v>
+      </c>
+      <c r="C193">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B19FD-A70E-4243-AE08-D7B185167D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F28DC0-E82C-4F03-AB50-68C8B7C0A54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M193" totalsRowShown="0">
-  <autoFilter ref="A1:M193" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M195" totalsRowShown="0">
+  <autoFilter ref="A1:M195" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -590,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H192" sqref="H192"/>
+      <selection pane="bottomRight" activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2964,6 +2964,28 @@
       </c>
       <c r="C193">
         <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="5">
+        <v>84038</v>
+      </c>
+      <c r="B194">
+        <v>9005</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="5">
+        <v>84039</v>
+      </c>
+      <c r="B195">
+        <v>9005</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F28DC0-E82C-4F03-AB50-68C8B7C0A54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EF93F-D1AD-46B3-958F-8351C23192CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-23640" yWindow="1620" windowWidth="19905" windowHeight="12045" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M195" totalsRowShown="0">
-  <autoFilter ref="A1:M195" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M196" totalsRowShown="0">
+  <autoFilter ref="A1:M196" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -590,32 +590,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G200" sqref="G200"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -891,7 +891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -902,7 +902,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -924,7 +924,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -935,147 +935,123 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
+        <v>10006</v>
+      </c>
+      <c r="B17">
+        <v>9004</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>10080</v>
-      </c>
-      <c r="B17">
-        <v>9000</v>
-      </c>
-      <c r="C17">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>10081</v>
       </c>
       <c r="B18">
         <v>9000</v>
       </c>
       <c r="C18">
-        <v>130</v>
-      </c>
-      <c r="D18">
-        <v>9001</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>10082</v>
+        <v>10081</v>
       </c>
       <c r="B19">
         <v>9000</v>
       </c>
       <c r="C19">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>9001</v>
       </c>
       <c r="E19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>10082</v>
+      </c>
+      <c r="B20">
+        <v>9000</v>
+      </c>
+      <c r="C20">
+        <v>215</v>
+      </c>
+      <c r="D20">
+        <v>9001</v>
+      </c>
+      <c r="E20">
         <v>500</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>3001</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>11001</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>102</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>100</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>103</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>100</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>104</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>100</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>112</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>50</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>107</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>50</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>3001</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>11002</v>
-      </c>
-      <c r="B21">
-        <v>3001</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>11003</v>
       </c>
       <c r="B22">
         <v>3001</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>1004</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>1005</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>1006</v>
-      </c>
-      <c r="I22">
-        <v>100</v>
-      </c>
-      <c r="J22">
-        <v>1007</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B23">
         <v>3001</v>
@@ -1084,395 +1060,419 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>1006</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>1007</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B24">
         <v>3001</v>
       </c>
       <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>12001</v>
+        <v>11005</v>
       </c>
       <c r="B25">
         <v>3001</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
+        <v>12001</v>
+      </c>
+      <c r="B26">
+        <v>3001</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>12002</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>1001</v>
-      </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>12003</v>
-      </c>
-      <c r="B27">
-        <v>1002</v>
       </c>
       <c r="C27">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="B28">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="B29">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C29">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>12006</v>
+        <v>12005</v>
       </c>
       <c r="B30">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C30">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="B31">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C31">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="B32">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C32">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="B33">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C33">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="B34">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C34">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>12011</v>
+        <v>12010</v>
       </c>
       <c r="B35">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C35">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>12012</v>
+        <v>12011</v>
       </c>
       <c r="B36">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C36">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>12013</v>
+        <v>12012</v>
       </c>
       <c r="B37">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C37">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="B38">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C38">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
+        <v>12014</v>
+      </c>
+      <c r="B39">
+        <v>1013</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
         <v>14001</v>
-      </c>
-      <c r="B39">
-        <v>9002</v>
-      </c>
-      <c r="C39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>14002</v>
       </c>
       <c r="B40">
         <v>9002</v>
       </c>
       <c r="C40">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>14003</v>
+        <v>14002</v>
       </c>
       <c r="B41">
         <v>9002</v>
       </c>
       <c r="C41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>14004</v>
+        <v>14003</v>
       </c>
       <c r="B42">
         <v>9002</v>
       </c>
       <c r="C42">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>14005</v>
+        <v>14004</v>
       </c>
       <c r="B43">
         <v>9002</v>
       </c>
       <c r="C43">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>14006</v>
+        <v>14005</v>
       </c>
       <c r="B44">
         <v>9002</v>
       </c>
       <c r="C44">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>14007</v>
+        <v>14006</v>
       </c>
       <c r="B45">
         <v>9002</v>
       </c>
       <c r="C45">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>14007</v>
+      </c>
+      <c r="B46">
+        <v>9002</v>
+      </c>
+      <c r="C46">
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47">
         <v>20001</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>102</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48">
         <v>20002</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>9001</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
         <v>20003</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>1001</v>
-      </c>
-      <c r="C48">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>20004</v>
-      </c>
-      <c r="B49">
-        <v>1013</v>
       </c>
       <c r="C49">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
+        <v>20004</v>
+      </c>
+      <c r="B50">
+        <v>1013</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51">
         <v>20005</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>9002</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52">
         <v>21001</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53">
         <v>21002</v>
       </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54">
         <v>21003</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54">
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55">
         <v>21004</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55">
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>21005</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>21006</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>600</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58">
         <v>21007</v>
-      </c>
-      <c r="B57">
-        <v>3001</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>21008</v>
       </c>
       <c r="B58">
         <v>3001</v>
@@ -1481,9 +1481,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="B59">
         <v>3001</v>
@@ -1492,9 +1492,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>21010</v>
+        <v>21009</v>
       </c>
       <c r="B60">
         <v>3001</v>
@@ -1503,9 +1503,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="B61">
         <v>3001</v>
@@ -1514,1477 +1514,1488 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
+        <v>21011</v>
+      </c>
+      <c r="B62">
+        <v>3001</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63">
         <v>21012</v>
-      </c>
-      <c r="B62">
-        <v>9001</v>
-      </c>
-      <c r="C62">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63">
-        <v>21013</v>
       </c>
       <c r="B63">
         <v>9001</v>
       </c>
       <c r="C63">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>21014</v>
+        <v>21013</v>
       </c>
       <c r="B64">
         <v>9001</v>
       </c>
       <c r="C64">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>21014</v>
+      </c>
+      <c r="B65">
+        <v>9001</v>
+      </c>
+      <c r="C65">
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66">
         <v>50001</v>
-      </c>
-      <c r="B65">
-        <v>123</v>
-      </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66">
-        <v>50002</v>
       </c>
       <c r="B66">
         <v>123</v>
       </c>
       <c r="C66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B67">
         <v>123</v>
       </c>
       <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>50003</v>
+      </c>
+      <c r="B68">
+        <v>123</v>
+      </c>
+      <c r="C68">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69">
         <v>50004</v>
-      </c>
-      <c r="B68">
-        <v>124</v>
-      </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>50005</v>
       </c>
       <c r="B69">
         <v>124</v>
       </c>
       <c r="C69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B70">
         <v>124</v>
       </c>
       <c r="C70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>50006</v>
+      </c>
+      <c r="B71">
+        <v>124</v>
+      </c>
+      <c r="C71">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72">
         <v>50007</v>
-      </c>
-      <c r="B71">
-        <v>125</v>
-      </c>
-      <c r="C71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>50008</v>
       </c>
       <c r="B72">
         <v>125</v>
       </c>
       <c r="C72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>50009</v>
+        <v>50008</v>
       </c>
       <c r="B73">
         <v>125</v>
       </c>
       <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>50009</v>
+      </c>
+      <c r="B74">
+        <v>125</v>
+      </c>
+      <c r="C74">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75">
         <v>50010</v>
-      </c>
-      <c r="B74">
-        <v>126</v>
-      </c>
-      <c r="C74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>50011</v>
       </c>
       <c r="B75">
         <v>126</v>
       </c>
       <c r="C75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>50012</v>
+        <v>50011</v>
       </c>
       <c r="B76">
         <v>126</v>
       </c>
       <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>50012</v>
+      </c>
+      <c r="B77">
+        <v>126</v>
+      </c>
+      <c r="C77">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78">
         <v>50013</v>
-      </c>
-      <c r="B77">
-        <v>127</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <v>50014</v>
       </c>
       <c r="B78">
         <v>127</v>
       </c>
       <c r="C78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B79">
         <v>127</v>
       </c>
       <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>50015</v>
+      </c>
+      <c r="B80">
+        <v>127</v>
+      </c>
+      <c r="C80">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81">
         <v>60001</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>559</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81">
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82">
         <v>60002</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>550</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82">
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83">
         <v>60003</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>551</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83">
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84">
         <v>60004</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>552</v>
       </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84">
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85">
         <v>60005</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>553</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85">
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86">
         <v>60006</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>554</v>
       </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86">
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87">
         <v>60007</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>555</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87">
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88">
         <v>60008</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>556</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88">
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89">
         <v>60009</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>557</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89">
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90">
         <v>60010</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>558</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90">
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91">
         <v>70001</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>3001</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92">
         <v>70002</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93">
         <v>70003</v>
       </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94">
         <v>80001</v>
-      </c>
-      <c r="B93">
-        <v>7016</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>80002</v>
       </c>
       <c r="B94">
         <v>7016</v>
       </c>
       <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B95">
         <v>7016</v>
       </c>
       <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
+        <v>80003</v>
+      </c>
+      <c r="B96">
+        <v>7016</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97">
         <v>80004</v>
-      </c>
-      <c r="B96">
-        <v>7017</v>
-      </c>
-      <c r="C96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>80005</v>
       </c>
       <c r="B97">
         <v>7017</v>
       </c>
       <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B98">
         <v>7017</v>
       </c>
       <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
+        <v>80006</v>
+      </c>
+      <c r="B99">
+        <v>7017</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100">
         <v>80007</v>
-      </c>
-      <c r="B99">
-        <v>7018</v>
-      </c>
-      <c r="C99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>80008</v>
       </c>
       <c r="B100">
         <v>7018</v>
       </c>
       <c r="C100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B101">
         <v>7018</v>
       </c>
       <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
+        <v>80009</v>
+      </c>
+      <c r="B102">
+        <v>7018</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103">
         <v>80010</v>
-      </c>
-      <c r="B102">
-        <v>7019</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>80011</v>
       </c>
       <c r="B103">
         <v>7019</v>
       </c>
       <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>80012</v>
+        <v>80011</v>
       </c>
       <c r="B104">
         <v>7019</v>
       </c>
       <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
+        <v>80012</v>
+      </c>
+      <c r="B105">
+        <v>7019</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
         <v>80013</v>
-      </c>
-      <c r="B105">
-        <v>7020</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>80014</v>
       </c>
       <c r="B106">
         <v>7020</v>
       </c>
       <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>80015</v>
+        <v>80014</v>
       </c>
       <c r="B107">
         <v>7020</v>
       </c>
       <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
+        <v>80015</v>
+      </c>
+      <c r="B108">
+        <v>7020</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109">
         <v>80016</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>7021</v>
       </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109">
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110">
         <v>80017</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>7022</v>
       </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110">
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111">
         <v>80018</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>7023</v>
       </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111">
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112">
         <v>80019</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>7024</v>
       </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112">
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
         <v>80020</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>7025</v>
       </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113">
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
         <v>80021</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>7026</v>
       </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114">
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
         <v>80022</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>7027</v>
       </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115">
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
         <v>80023</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>7028</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116">
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
         <v>80024</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>7029</v>
       </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117">
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
         <v>80025</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>7030</v>
       </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118">
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119">
         <v>81001</v>
-      </c>
-      <c r="B118">
-        <v>6</v>
-      </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>81002</v>
       </c>
       <c r="B119">
         <v>6</v>
       </c>
       <c r="C119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>81003</v>
+        <v>81002</v>
       </c>
       <c r="B120">
         <v>6</v>
       </c>
       <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
+        <v>81003</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122">
         <v>81004</v>
-      </c>
-      <c r="B121">
-        <v>7</v>
-      </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>81005</v>
       </c>
       <c r="B122">
         <v>7</v>
       </c>
       <c r="C122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>81006</v>
+        <v>81005</v>
       </c>
       <c r="B123">
         <v>7</v>
       </c>
       <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
+        <v>81006</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125">
         <v>81007</v>
-      </c>
-      <c r="B124">
-        <v>8</v>
-      </c>
-      <c r="C124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>81008</v>
       </c>
       <c r="B125">
         <v>8</v>
       </c>
       <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>81009</v>
+        <v>81008</v>
       </c>
       <c r="B126">
         <v>8</v>
       </c>
       <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
+        <v>81009</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128">
         <v>81010</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>134</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128">
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129">
         <v>81011</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>135</v>
       </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129">
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130">
         <v>81012</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>136</v>
       </c>
-      <c r="C129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130">
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131">
         <v>81013</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>137</v>
       </c>
-      <c r="C130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131">
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132">
         <v>81014</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>138</v>
       </c>
-      <c r="C131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132">
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133">
         <v>81015</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>139</v>
       </c>
-      <c r="C132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="3">
         <v>83001</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B134" s="4">
         <v>10010</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="3">
         <v>83002</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B135" s="4">
         <v>10011</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="3">
         <v>83003</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B136" s="4">
         <v>10012</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="3">
         <v>83004</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B137" s="4">
         <v>10004</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="3">
         <v>83005</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B138" s="4">
         <v>10005</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="3">
         <v>83006</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B139" s="4">
         <v>10006</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="3">
         <v>83007</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B140" s="4">
         <v>10007</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="3">
         <v>83008</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B141" s="4">
         <v>10008</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="3">
         <v>83009</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B142" s="4">
         <v>10009</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="3">
         <v>83301</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>123</v>
-      </c>
-      <c r="C142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
-        <v>83302</v>
-      </c>
-      <c r="B143">
-        <v>124</v>
       </c>
       <c r="C143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
-        <v>83303</v>
+        <v>83302</v>
       </c>
       <c r="B144">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
-        <v>83304</v>
+        <v>83303</v>
       </c>
       <c r="B145">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
-        <v>83305</v>
+        <v>83304</v>
       </c>
       <c r="B146">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C146">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
+        <v>83305</v>
+      </c>
+      <c r="B147">
+        <v>127</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="3">
         <v>83306</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>7021</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" s="3">
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="3">
         <v>83307</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <v>7022</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" s="3">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="3">
         <v>83308</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>7023</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" s="3">
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="3">
         <v>83309</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <v>7024</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" s="3">
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="3">
         <v>83310</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <v>7025</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" s="3">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="3">
         <v>83311</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>7026</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" s="3">
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="3">
         <v>83312</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>7027</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" s="3">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="3">
         <v>83313</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>7028</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" s="3">
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" s="3">
         <v>83314</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <v>7029</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="3">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" s="3">
         <v>83315</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>7030</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" s="5">
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" s="5">
         <v>84001</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>9003</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="5">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" s="5">
         <v>84002</v>
       </c>
-      <c r="B158">
+      <c r="B159">
         <v>9005</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" s="5">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" s="5">
         <v>84003</v>
       </c>
-      <c r="B159">
+      <c r="B160">
         <v>9002</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="5">
         <v>84004</v>
       </c>
-      <c r="B160">
+      <c r="B161">
         <v>123</v>
       </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="5">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" s="5">
         <v>84005</v>
       </c>
-      <c r="B161">
+      <c r="B162">
         <v>124</v>
       </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="5">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" s="5">
         <v>84006</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <v>125</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="5">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" s="5">
         <v>84007</v>
       </c>
-      <c r="B163">
+      <c r="B164">
         <v>126</v>
       </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="5">
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" s="5">
         <v>84008</v>
       </c>
-      <c r="B164">
+      <c r="B165">
         <v>127</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" s="5">
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" s="5">
         <v>84009</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>128</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" s="5">
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" s="5">
         <v>84010</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <v>129</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" s="5">
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" s="5">
         <v>84011</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>550</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="5">
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169" s="5">
         <v>84012</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <v>551</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169" s="5">
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170" s="5">
         <v>84013</v>
       </c>
-      <c r="B169">
+      <c r="B170">
         <v>552</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" s="5">
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171" s="5">
         <v>84014</v>
       </c>
-      <c r="B170">
+      <c r="B171">
         <v>553</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" s="5">
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172" s="5">
         <v>84015</v>
       </c>
-      <c r="B171">
+      <c r="B172">
         <v>554</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="5">
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" s="5">
         <v>84016</v>
       </c>
-      <c r="B172">
+      <c r="B173">
         <v>555</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A173" s="5">
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" s="5">
         <v>84017</v>
       </c>
-      <c r="B173">
+      <c r="B174">
         <v>556</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A174" s="5">
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" s="5">
         <v>84018</v>
       </c>
-      <c r="B174">
+      <c r="B175">
         <v>557</v>
       </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A175" s="5">
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176" s="5">
         <v>84019</v>
       </c>
-      <c r="B175">
+      <c r="B176">
         <v>558</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176" s="5">
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" s="5">
         <v>84020</v>
       </c>
-      <c r="B176">
+      <c r="B177">
         <v>559</v>
       </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" s="5">
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178" s="5">
         <v>84021</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <v>134</v>
       </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" s="5">
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179" s="5">
         <v>84022</v>
       </c>
-      <c r="B178">
+      <c r="B179">
         <v>135</v>
       </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" s="5">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180" s="5">
         <v>84023</v>
       </c>
-      <c r="B179">
+      <c r="B180">
         <v>136</v>
       </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" s="5">
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181" s="5">
         <v>84024</v>
       </c>
-      <c r="B180">
+      <c r="B181">
         <v>137</v>
       </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" s="5">
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182" s="5">
         <v>84025</v>
       </c>
-      <c r="B181">
+      <c r="B182">
         <v>138</v>
       </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" s="5">
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183" s="5">
         <v>84026</v>
       </c>
-      <c r="B182">
+      <c r="B183">
         <v>139</v>
       </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183" s="5">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184" s="5">
         <v>84027</v>
       </c>
-      <c r="B183">
+      <c r="B184">
         <v>500</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" s="5">
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185" s="5">
         <v>84028</v>
       </c>
-      <c r="B184">
+      <c r="B185">
         <v>501</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" s="5">
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186" s="5">
         <v>84029</v>
       </c>
-      <c r="B185">
+      <c r="B186">
         <v>502</v>
       </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" s="5">
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187" s="5">
         <v>84030</v>
       </c>
-      <c r="B186">
+      <c r="B187">
         <v>503</v>
       </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" s="5">
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188" s="5">
         <v>84031</v>
       </c>
-      <c r="B187">
+      <c r="B188">
         <v>504</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188" s="5">
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189" s="5">
         <v>84032</v>
       </c>
-      <c r="B188">
+      <c r="B189">
         <v>505</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189" s="5">
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190" s="5">
         <v>84033</v>
       </c>
-      <c r="B189">
+      <c r="B190">
         <v>506</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190" s="5">
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191" s="5">
         <v>84034</v>
       </c>
-      <c r="B190">
+      <c r="B191">
         <v>507</v>
       </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A191" s="5">
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192" s="5">
         <v>84035</v>
       </c>
-      <c r="B191">
+      <c r="B192">
         <v>508</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A192" s="5">
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193" s="5">
         <v>84036</v>
       </c>
-      <c r="B192">
+      <c r="B193">
         <v>509</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A193" s="5">
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194" s="5">
         <v>84037</v>
       </c>
-      <c r="B193">
+      <c r="B194">
         <v>600</v>
       </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" s="5">
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195" s="5">
         <v>84038</v>
-      </c>
-      <c r="B194">
-        <v>9005</v>
-      </c>
-      <c r="C194">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" s="5">
-        <v>84039</v>
       </c>
       <c r="B195">
         <v>9005</v>
       </c>
       <c r="C195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196" s="5">
+        <v>84039</v>
+      </c>
+      <c r="B196">
+        <v>9005</v>
+      </c>
+      <c r="C196">
         <v>15</v>
       </c>
     </row>
@@ -3006,42 +3017,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EF93F-D1AD-46B3-958F-8351C23192CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B55CE-9EB3-4C91-B39D-BF9E30371342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23640" yWindow="1620" windowWidth="19905" windowHeight="12045" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,29 +593,29 @@
   <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -891,7 +891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -902,7 +902,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -924,7 +924,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -935,7 +935,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -946,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10080</v>
       </c>
@@ -957,7 +957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10081</v>
       </c>
@@ -974,7 +974,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10082</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11001</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>11002</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>11003</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>11004</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>11005</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>12001</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>12002</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>12003</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>12004</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12005</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12006</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12007</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12008</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>12009</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>12010</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>12011</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>12012</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>12013</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>12014</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>14001</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>14002</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>14003</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>14004</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>14005</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>14006</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>14007</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>20001</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>20002</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>20003</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>20004</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>20005</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>21001</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>21002</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>21003</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>21004</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>21005</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>21006</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>21007</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>21008</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>21009</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>21010</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>21011</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>21012</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>21013</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>21014</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>50001</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>50002</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>50003</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>50004</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>50005</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>50006</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>50007</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>50008</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>50009</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>50010</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>50011</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>50012</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>50013</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>50014</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>50015</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>60001</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>60002</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>60003</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>60004</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>60005</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>60006</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>60007</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>60008</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>60009</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>60010</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>70001</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>70002</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>70003</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>80001</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>80002</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>80003</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>80004</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>80005</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>80006</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>80007</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>80008</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>80009</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>80010</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>80011</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>80012</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>80013</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>80014</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>80015</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>80016</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>80017</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>80018</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>80019</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>80020</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>80021</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>80022</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>80023</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>80024</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>80025</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>81001</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>81002</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>81003</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>81004</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>81005</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>81006</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>81007</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>81008</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>81009</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>81010</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>81011</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>81012</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>81013</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>81014</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>81015</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <v>83001</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <v>83002</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <v>83003</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>83004</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>83005</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
         <v>83006</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <v>83007</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <v>83008</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <v>83009</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
         <v>83301</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
         <v>83302</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <v>83303</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <v>83304</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <v>83305</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <v>83306</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <v>83307</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>83308</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <v>83309</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
         <v>83310</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <v>83311</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <v>83312</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
         <v>83313</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
         <v>83314</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
         <v>83315</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>84001</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>84002</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>84003</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>84004</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>84005</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>84006</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>84007</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>84008</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>84009</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>84010</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>84011</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>84012</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>84013</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>84014</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>84015</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>84016</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>84017</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>84018</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>84019</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>84020</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>84021</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
         <v>84022</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
         <v>84023</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
         <v>84024</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
         <v>84025</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
         <v>84026</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
         <v>84027</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
         <v>84028</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>84029</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
         <v>84030</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
         <v>84031</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
         <v>84032</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
         <v>84033</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>84034</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
         <v>84035</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
         <v>84036</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <v>84037</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
         <v>84038</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
         <v>84039</v>
       </c>
@@ -3017,42 +3017,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B55CE-9EB3-4C91-B39D-BF9E30371342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02EBBD-D027-41EB-89F6-0CDEF27AA3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M196" totalsRowShown="0">
-  <autoFilter ref="A1:M196" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M206" totalsRowShown="0">
+  <autoFilter ref="A1:M206" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -590,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -882,501 +882,501 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="B12">
-        <v>9000</v>
+        <v>10004</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>10002</v>
+        <v>2002</v>
       </c>
       <c r="B13">
-        <v>9000</v>
+        <v>1001</v>
       </c>
       <c r="C13">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>10003</v>
+        <v>2003</v>
       </c>
       <c r="B14">
-        <v>9000</v>
+        <v>1013</v>
       </c>
       <c r="C14">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>10004</v>
+        <v>2004</v>
       </c>
       <c r="B15">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C15">
-        <v>3500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>10005</v>
+        <v>2005</v>
       </c>
       <c r="B16">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C16">
-        <v>6000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>10006</v>
+        <v>2006</v>
       </c>
       <c r="B17">
-        <v>9004</v>
+        <v>3001</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>10080</v>
+        <v>2007</v>
       </c>
       <c r="B18">
-        <v>9000</v>
+        <v>135</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>10081</v>
+        <v>2008</v>
       </c>
       <c r="B19">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="C19">
-        <v>130</v>
-      </c>
-      <c r="D19">
-        <v>9001</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>10082</v>
+        <v>2009</v>
       </c>
       <c r="B20">
-        <v>9000</v>
+        <v>9003</v>
       </c>
       <c r="C20">
-        <v>215</v>
-      </c>
-      <c r="D20">
-        <v>9001</v>
-      </c>
-      <c r="E20">
-        <v>500</v>
-      </c>
-      <c r="F20">
-        <v>3001</v>
-      </c>
-      <c r="G20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>11001</v>
+        <v>2010</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>9003</v>
       </c>
       <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>103</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>104</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>112</v>
-      </c>
-      <c r="I21">
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <v>107</v>
-      </c>
-      <c r="K21">
-        <v>50</v>
-      </c>
-      <c r="L21">
-        <v>3001</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>11002</v>
+        <v>10001</v>
       </c>
       <c r="B22">
-        <v>3001</v>
+        <v>9000</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>11003</v>
+        <v>10002</v>
       </c>
       <c r="B23">
-        <v>3001</v>
+        <v>9000</v>
       </c>
       <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>1004</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>1005</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>1006</v>
-      </c>
-      <c r="I23">
-        <v>100</v>
-      </c>
-      <c r="J23">
-        <v>1007</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>11004</v>
+        <v>10003</v>
       </c>
       <c r="B24">
-        <v>3001</v>
+        <v>9000</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>11005</v>
+        <v>10004</v>
       </c>
       <c r="B25">
-        <v>3001</v>
+        <v>9000</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>12001</v>
+        <v>10005</v>
       </c>
       <c r="B26">
-        <v>3001</v>
+        <v>9000</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>12002</v>
+        <v>10006</v>
       </c>
       <c r="B27">
-        <v>1001</v>
+        <v>9004</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>12003</v>
+        <v>10080</v>
       </c>
       <c r="B28">
-        <v>1002</v>
+        <v>9000</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>12004</v>
+        <v>10081</v>
       </c>
       <c r="B29">
-        <v>1003</v>
+        <v>9000</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>130</v>
+      </c>
+      <c r="D29">
+        <v>9001</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>12005</v>
+        <v>10082</v>
       </c>
       <c r="B30">
-        <v>1004</v>
+        <v>9000</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>215</v>
+      </c>
+      <c r="D30">
+        <v>9001</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30">
+        <v>3001</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>12006</v>
+        <v>11001</v>
       </c>
       <c r="B31">
-        <v>1005</v>
+        <v>102</v>
       </c>
       <c r="C31">
-        <v>60</v>
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>103</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>104</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>112</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>107</v>
+      </c>
+      <c r="K31">
+        <v>50</v>
+      </c>
+      <c r="L31">
+        <v>3001</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>12007</v>
+        <v>11002</v>
       </c>
       <c r="B32">
+        <v>3001</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>11003</v>
+      </c>
+      <c r="B33">
+        <v>3001</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1004</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>1005</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
         <v>1006</v>
       </c>
-      <c r="C32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>12008</v>
-      </c>
-      <c r="B33">
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
         <v>1007</v>
       </c>
-      <c r="C33">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>12009</v>
+        <v>11004</v>
       </c>
       <c r="B34">
-        <v>1008</v>
+        <v>3001</v>
       </c>
       <c r="C34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>12010</v>
+        <v>11005</v>
       </c>
       <c r="B35">
-        <v>1009</v>
+        <v>3001</v>
       </c>
       <c r="C35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>12011</v>
+        <v>12001</v>
       </c>
       <c r="B36">
-        <v>1010</v>
+        <v>3001</v>
       </c>
       <c r="C36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>12012</v>
+        <v>12002</v>
       </c>
       <c r="B37">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C37">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>12013</v>
+        <v>12003</v>
       </c>
       <c r="B38">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="C38">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>12014</v>
+        <v>12004</v>
       </c>
       <c r="B39">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C39">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>14001</v>
+        <v>12005</v>
       </c>
       <c r="B40">
-        <v>9002</v>
+        <v>1004</v>
       </c>
       <c r="C40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>14002</v>
+        <v>12006</v>
       </c>
       <c r="B41">
-        <v>9002</v>
+        <v>1005</v>
       </c>
       <c r="C41">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>14003</v>
+        <v>12007</v>
       </c>
       <c r="B42">
-        <v>9002</v>
+        <v>1006</v>
       </c>
       <c r="C42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>14004</v>
+        <v>12008</v>
       </c>
       <c r="B43">
-        <v>9002</v>
+        <v>1007</v>
       </c>
       <c r="C43">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>14005</v>
+        <v>12009</v>
       </c>
       <c r="B44">
-        <v>9002</v>
+        <v>1008</v>
       </c>
       <c r="C44">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>14006</v>
+        <v>12010</v>
       </c>
       <c r="B45">
-        <v>9002</v>
+        <v>1009</v>
       </c>
       <c r="C45">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>14007</v>
+        <v>12011</v>
       </c>
       <c r="B46">
-        <v>9002</v>
+        <v>1010</v>
       </c>
       <c r="C46">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>20001</v>
+        <v>12012</v>
       </c>
       <c r="B47">
-        <v>102</v>
+        <v>1011</v>
       </c>
       <c r="C47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>20002</v>
+        <v>12013</v>
       </c>
       <c r="B48">
-        <v>9001</v>
+        <v>1012</v>
       </c>
       <c r="C48">
-        <v>500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>20003</v>
+        <v>12014</v>
       </c>
       <c r="B49">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -1384,142 +1384,142 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>20004</v>
+        <v>14001</v>
       </c>
       <c r="B50">
-        <v>1013</v>
+        <v>9002</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>20005</v>
+        <v>14002</v>
       </c>
       <c r="B51">
         <v>9002</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>21001</v>
+        <v>14003</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>9002</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>21002</v>
+        <v>14004</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>9002</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>21003</v>
+        <v>14005</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>9002</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>21004</v>
+        <v>14006</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>9002</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>21005</v>
+        <v>14007</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>9002</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>21006</v>
+        <v>20001</v>
       </c>
       <c r="B57">
-        <v>600</v>
+        <v>102</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>21007</v>
+        <v>20002</v>
       </c>
       <c r="B58">
-        <v>3001</v>
+        <v>9001</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>21008</v>
+        <v>20003</v>
       </c>
       <c r="B59">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>21009</v>
+        <v>20004</v>
       </c>
       <c r="B60">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>21010</v>
+        <v>20005</v>
       </c>
       <c r="B61">
-        <v>3001</v>
+        <v>9002</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>21011</v>
+        <v>21001</v>
       </c>
       <c r="B62">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1527,43 +1527,43 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>21012</v>
+        <v>21002</v>
       </c>
       <c r="B63">
-        <v>9001</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>21013</v>
+        <v>21003</v>
       </c>
       <c r="B64">
-        <v>9001</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>2400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>21014</v>
+        <v>21004</v>
       </c>
       <c r="B65">
-        <v>9001</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>50001</v>
+        <v>21005</v>
       </c>
       <c r="B66">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -1571,318 +1571,318 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>50002</v>
+        <v>21006</v>
       </c>
       <c r="B67">
-        <v>123</v>
+        <v>600</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>50003</v>
+        <v>21007</v>
       </c>
       <c r="B68">
-        <v>123</v>
+        <v>3001</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>50004</v>
+        <v>21008</v>
       </c>
       <c r="B69">
-        <v>124</v>
+        <v>3001</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>50005</v>
+        <v>21009</v>
       </c>
       <c r="B70">
-        <v>124</v>
+        <v>3001</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>50006</v>
+        <v>21010</v>
       </c>
       <c r="B71">
-        <v>124</v>
+        <v>3001</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>50007</v>
+        <v>21011</v>
       </c>
       <c r="B72">
-        <v>125</v>
+        <v>3001</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>50008</v>
+        <v>21012</v>
       </c>
       <c r="B73">
-        <v>125</v>
+        <v>9001</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>50009</v>
+        <v>21013</v>
       </c>
       <c r="B74">
-        <v>125</v>
+        <v>9001</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>50010</v>
+        <v>21014</v>
       </c>
       <c r="B75">
-        <v>126</v>
+        <v>9001</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>50011</v>
+        <v>50001</v>
       </c>
       <c r="B76">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>50012</v>
+        <v>50002</v>
       </c>
       <c r="B77">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>50013</v>
+        <v>50003</v>
       </c>
       <c r="B78">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>50014</v>
+        <v>50004</v>
       </c>
       <c r="B79">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>50015</v>
+        <v>50005</v>
       </c>
       <c r="B80">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>60001</v>
+        <v>50006</v>
       </c>
       <c r="B81">
-        <v>559</v>
+        <v>124</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>60002</v>
+        <v>50007</v>
       </c>
       <c r="B82">
-        <v>550</v>
+        <v>125</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>60003</v>
+        <v>50008</v>
       </c>
       <c r="B83">
-        <v>551</v>
+        <v>125</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>60004</v>
+        <v>50009</v>
       </c>
       <c r="B84">
-        <v>552</v>
+        <v>125</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>60005</v>
+        <v>50010</v>
       </c>
       <c r="B85">
-        <v>553</v>
+        <v>126</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>60006</v>
+        <v>50011</v>
       </c>
       <c r="B86">
-        <v>554</v>
+        <v>126</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>60007</v>
+        <v>50012</v>
       </c>
       <c r="B87">
-        <v>555</v>
+        <v>126</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>60008</v>
+        <v>50013</v>
       </c>
       <c r="B88">
-        <v>556</v>
+        <v>127</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>60009</v>
+        <v>50014</v>
       </c>
       <c r="B89">
-        <v>557</v>
+        <v>127</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>60010</v>
+        <v>50015</v>
       </c>
       <c r="B90">
-        <v>558</v>
+        <v>127</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>70001</v>
+        <v>60001</v>
       </c>
       <c r="B91">
-        <v>3001</v>
+        <v>559</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>70002</v>
+        <v>60002</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>70003</v>
+        <v>60003</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>551</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>80001</v>
+        <v>60004</v>
       </c>
       <c r="B94">
-        <v>7016</v>
+        <v>552</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>80002</v>
+        <v>60005</v>
       </c>
       <c r="B95">
-        <v>7016</v>
+        <v>553</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -1890,32 +1890,32 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>80003</v>
+        <v>60006</v>
       </c>
       <c r="B96">
-        <v>7016</v>
+        <v>554</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>80004</v>
+        <v>60007</v>
       </c>
       <c r="B97">
-        <v>7017</v>
+        <v>555</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>80005</v>
+        <v>60008</v>
       </c>
       <c r="B98">
-        <v>7017</v>
+        <v>556</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -1923,43 +1923,43 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>80006</v>
+        <v>60009</v>
       </c>
       <c r="B99">
-        <v>7017</v>
+        <v>557</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>80007</v>
+        <v>60010</v>
       </c>
       <c r="B100">
-        <v>7018</v>
+        <v>558</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>80008</v>
+        <v>70001</v>
       </c>
       <c r="B101">
-        <v>7018</v>
+        <v>3001</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>80009</v>
+        <v>70002</v>
       </c>
       <c r="B102">
-        <v>7018</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1967,98 +1967,98 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>80010</v>
+        <v>70003</v>
       </c>
       <c r="B103">
-        <v>7019</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>80011</v>
+        <v>80001</v>
       </c>
       <c r="B104">
-        <v>7019</v>
+        <v>7016</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>80012</v>
+        <v>80002</v>
       </c>
       <c r="B105">
-        <v>7019</v>
+        <v>7016</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>80013</v>
+        <v>80003</v>
       </c>
       <c r="B106">
-        <v>7020</v>
+        <v>7016</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>80014</v>
+        <v>80004</v>
       </c>
       <c r="B107">
-        <v>7020</v>
+        <v>7017</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>80015</v>
+        <v>80005</v>
       </c>
       <c r="B108">
-        <v>7020</v>
+        <v>7017</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>80016</v>
+        <v>80006</v>
       </c>
       <c r="B109">
-        <v>7021</v>
+        <v>7017</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>80017</v>
+        <v>80007</v>
       </c>
       <c r="B110">
-        <v>7022</v>
+        <v>7018</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>80018</v>
+        <v>80008</v>
       </c>
       <c r="B111">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2066,32 +2066,32 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>80019</v>
+        <v>80009</v>
       </c>
       <c r="B112">
-        <v>7024</v>
+        <v>7018</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>80020</v>
+        <v>80010</v>
       </c>
       <c r="B113">
-        <v>7025</v>
+        <v>7019</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>80021</v>
+        <v>80011</v>
       </c>
       <c r="B114">
-        <v>7026</v>
+        <v>7019</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2099,32 +2099,32 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>80022</v>
+        <v>80012</v>
       </c>
       <c r="B115">
-        <v>7027</v>
+        <v>7019</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>80023</v>
+        <v>80013</v>
       </c>
       <c r="B116">
-        <v>7028</v>
+        <v>7020</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>80024</v>
+        <v>80014</v>
       </c>
       <c r="B117">
-        <v>7029</v>
+        <v>7020</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -2132,32 +2132,32 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>80025</v>
+        <v>80015</v>
       </c>
       <c r="B118">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>81001</v>
+        <v>80016</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>7021</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>81002</v>
+        <v>80017</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>7022</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -2165,32 +2165,32 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>81003</v>
+        <v>80018</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>7023</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>81004</v>
+        <v>80019</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>7024</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>81005</v>
+        <v>80020</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>7025</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -2198,32 +2198,32 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>81006</v>
+        <v>80021</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>7026</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>81007</v>
+        <v>80022</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>7027</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>81008</v>
+        <v>80023</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>7028</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2231,21 +2231,21 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>81009</v>
+        <v>80024</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>7029</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>81010</v>
+        <v>80025</v>
       </c>
       <c r="B128">
-        <v>134</v>
+        <v>7030</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -2253,21 +2253,21 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>81011</v>
+        <v>81001</v>
       </c>
       <c r="B129">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>81012</v>
+        <v>81002</v>
       </c>
       <c r="B130">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -2275,197 +2275,197 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>81013</v>
+        <v>81003</v>
       </c>
       <c r="B131">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>81014</v>
+        <v>81004</v>
       </c>
       <c r="B132">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
+        <v>81005</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>81006</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>81007</v>
+      </c>
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>81008</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>81009</v>
+      </c>
+      <c r="B137">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>81010</v>
+      </c>
+      <c r="B138">
+        <v>134</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>81011</v>
+      </c>
+      <c r="B139">
+        <v>135</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>81012</v>
+      </c>
+      <c r="B140">
+        <v>136</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>81013</v>
+      </c>
+      <c r="B141">
+        <v>137</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>81014</v>
+      </c>
+      <c r="B142">
+        <v>138</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143">
         <v>81015</v>
       </c>
-      <c r="B133">
+      <c r="B143">
         <v>139</v>
       </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
-        <v>83001</v>
-      </c>
-      <c r="B134" s="4">
-        <v>10010</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
-        <v>83002</v>
-      </c>
-      <c r="B135" s="4">
-        <v>10011</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
-        <v>83003</v>
-      </c>
-      <c r="B136" s="4">
-        <v>10012</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
-        <v>83004</v>
-      </c>
-      <c r="B137" s="4">
-        <v>10004</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
-        <v>83005</v>
-      </c>
-      <c r="B138" s="4">
-        <v>10005</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
-        <v>83006</v>
-      </c>
-      <c r="B139" s="4">
-        <v>10006</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
-        <v>83007</v>
-      </c>
-      <c r="B140" s="4">
-        <v>10007</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
-        <v>83008</v>
-      </c>
-      <c r="B141" s="4">
-        <v>10008</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
-        <v>83009</v>
-      </c>
-      <c r="B142" s="4">
-        <v>10009</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
-        <v>83301</v>
-      </c>
-      <c r="B143">
-        <v>123</v>
-      </c>
       <c r="C143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
-        <v>83302</v>
-      </c>
-      <c r="B144">
-        <v>124</v>
+        <v>83001</v>
+      </c>
+      <c r="B144" s="4">
+        <v>10010</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
-        <v>83303</v>
-      </c>
-      <c r="B145">
-        <v>125</v>
+        <v>83002</v>
+      </c>
+      <c r="B145" s="4">
+        <v>10011</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
-        <v>83304</v>
-      </c>
-      <c r="B146">
-        <v>126</v>
+        <v>83003</v>
+      </c>
+      <c r="B146" s="4">
+        <v>10012</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
-        <v>83305</v>
-      </c>
-      <c r="B147">
-        <v>127</v>
+        <v>83004</v>
+      </c>
+      <c r="B147" s="4">
+        <v>10004</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
-        <v>83306</v>
-      </c>
-      <c r="B148">
-        <v>7021</v>
+        <v>83005</v>
+      </c>
+      <c r="B148" s="4">
+        <v>10005</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
-        <v>83307</v>
-      </c>
-      <c r="B149">
-        <v>7022</v>
+        <v>83006</v>
+      </c>
+      <c r="B149" s="4">
+        <v>10006</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
-        <v>83308</v>
-      </c>
-      <c r="B150">
-        <v>7023</v>
+        <v>83007</v>
+      </c>
+      <c r="B150" s="4">
+        <v>10007</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
-        <v>83309</v>
-      </c>
-      <c r="B151">
-        <v>7024</v>
+        <v>83008</v>
+      </c>
+      <c r="B151" s="4">
+        <v>10008</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
-        <v>83310</v>
-      </c>
-      <c r="B152">
-        <v>7025</v>
+        <v>83009</v>
+      </c>
+      <c r="B152" s="4">
+        <v>10009</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2517,164 +2517,164 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
-        <v>83311</v>
+        <v>83301</v>
       </c>
       <c r="B153">
-        <v>7026</v>
+        <v>123</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
-        <v>83312</v>
+        <v>83302</v>
       </c>
       <c r="B154">
-        <v>7027</v>
+        <v>124</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
-        <v>83313</v>
+        <v>83303</v>
       </c>
       <c r="B155">
-        <v>7028</v>
+        <v>125</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
-        <v>83314</v>
+        <v>83304</v>
       </c>
       <c r="B156">
-        <v>7029</v>
+        <v>126</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
+        <v>83305</v>
+      </c>
+      <c r="B157">
+        <v>127</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="3">
+        <v>83306</v>
+      </c>
+      <c r="B158">
+        <v>7021</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="3">
+        <v>83307</v>
+      </c>
+      <c r="B159">
+        <v>7022</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="3">
+        <v>83308</v>
+      </c>
+      <c r="B160">
+        <v>7023</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="3">
+        <v>83309</v>
+      </c>
+      <c r="B161">
+        <v>7024</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="3">
+        <v>83310</v>
+      </c>
+      <c r="B162">
+        <v>7025</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="3">
+        <v>83311</v>
+      </c>
+      <c r="B163">
+        <v>7026</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="3">
+        <v>83312</v>
+      </c>
+      <c r="B164">
+        <v>7027</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="3">
+        <v>83313</v>
+      </c>
+      <c r="B165">
+        <v>7028</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="3">
+        <v>83314</v>
+      </c>
+      <c r="B166">
+        <v>7029</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="3">
         <v>83315</v>
       </c>
-      <c r="B157">
+      <c r="B167">
         <v>7030</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="5">
-        <v>84001</v>
-      </c>
-      <c r="B158">
-        <v>9003</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" s="5">
-        <v>84002</v>
-      </c>
-      <c r="B159">
-        <v>9005</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="5">
-        <v>84003</v>
-      </c>
-      <c r="B160">
-        <v>9002</v>
-      </c>
-      <c r="C160">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="5">
-        <v>84004</v>
-      </c>
-      <c r="B161">
-        <v>123</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="5">
-        <v>84005</v>
-      </c>
-      <c r="B162">
-        <v>124</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="5">
-        <v>84006</v>
-      </c>
-      <c r="B163">
-        <v>125</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="5">
-        <v>84007</v>
-      </c>
-      <c r="B164">
-        <v>126</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" s="5">
-        <v>84008</v>
-      </c>
-      <c r="B165">
-        <v>127</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" s="5">
-        <v>84009</v>
-      </c>
-      <c r="B166">
-        <v>128</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" s="5">
-        <v>84010</v>
-      </c>
-      <c r="B167">
-        <v>129</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
-        <v>84011</v>
+        <v>84001</v>
       </c>
       <c r="B168">
-        <v>550</v>
+        <v>9003</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
-        <v>84012</v>
+        <v>84002</v>
       </c>
       <c r="B169">
-        <v>551</v>
+        <v>9005</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2704,21 +2704,21 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
-        <v>84013</v>
+        <v>84003</v>
       </c>
       <c r="B170">
-        <v>552</v>
+        <v>9002</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
-        <v>84014</v>
+        <v>84004</v>
       </c>
       <c r="B171">
-        <v>553</v>
+        <v>123</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
-        <v>84015</v>
+        <v>84005</v>
       </c>
       <c r="B172">
-        <v>554</v>
+        <v>124</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
-        <v>84016</v>
+        <v>84006</v>
       </c>
       <c r="B173">
-        <v>555</v>
+        <v>125</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
-        <v>84017</v>
+        <v>84007</v>
       </c>
       <c r="B174">
-        <v>556</v>
+        <v>126</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
-        <v>84018</v>
+        <v>84008</v>
       </c>
       <c r="B175">
-        <v>557</v>
+        <v>127</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
-        <v>84019</v>
+        <v>84009</v>
       </c>
       <c r="B176">
-        <v>558</v>
+        <v>128</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
-        <v>84020</v>
+        <v>84010</v>
       </c>
       <c r="B177">
-        <v>559</v>
+        <v>129</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
-        <v>84021</v>
+        <v>84011</v>
       </c>
       <c r="B178">
-        <v>134</v>
+        <v>550</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
-        <v>84022</v>
+        <v>84012</v>
       </c>
       <c r="B179">
-        <v>135</v>
+        <v>551</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
-        <v>84023</v>
+        <v>84013</v>
       </c>
       <c r="B180">
-        <v>136</v>
+        <v>552</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
-        <v>84024</v>
+        <v>84014</v>
       </c>
       <c r="B181">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
-        <v>84025</v>
+        <v>84015</v>
       </c>
       <c r="B182">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
-        <v>84026</v>
+        <v>84016</v>
       </c>
       <c r="B183">
-        <v>139</v>
+        <v>555</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
-        <v>84027</v>
+        <v>84017</v>
       </c>
       <c r="B184">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
-        <v>84028</v>
+        <v>84018</v>
       </c>
       <c r="B185">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2880,10 +2880,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
-        <v>84029</v>
+        <v>84019</v>
       </c>
       <c r="B186">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
-        <v>84030</v>
+        <v>84020</v>
       </c>
       <c r="B187">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
-        <v>84031</v>
+        <v>84021</v>
       </c>
       <c r="B188">
-        <v>504</v>
+        <v>134</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
-        <v>84032</v>
+        <v>84022</v>
       </c>
       <c r="B189">
-        <v>505</v>
+        <v>135</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
-        <v>84033</v>
+        <v>84023</v>
       </c>
       <c r="B190">
-        <v>506</v>
+        <v>136</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
-        <v>84034</v>
+        <v>84024</v>
       </c>
       <c r="B191">
-        <v>507</v>
+        <v>137</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
-        <v>84035</v>
+        <v>84025</v>
       </c>
       <c r="B192">
-        <v>508</v>
+        <v>138</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
-        <v>84036</v>
+        <v>84026</v>
       </c>
       <c r="B193">
-        <v>509</v>
+        <v>139</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
-        <v>84037</v>
+        <v>84027</v>
       </c>
       <c r="B194">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2979,23 +2979,133 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
-        <v>84038</v>
+        <v>84028</v>
       </c>
       <c r="B195">
-        <v>9005</v>
+        <v>501</v>
       </c>
       <c r="C195">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
+        <v>84029</v>
+      </c>
+      <c r="B196">
+        <v>502</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" s="5">
+        <v>84030</v>
+      </c>
+      <c r="B197">
+        <v>503</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" s="5">
+        <v>84031</v>
+      </c>
+      <c r="B198">
+        <v>504</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" s="5">
+        <v>84032</v>
+      </c>
+      <c r="B199">
+        <v>505</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" s="5">
+        <v>84033</v>
+      </c>
+      <c r="B200">
+        <v>506</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" s="5">
+        <v>84034</v>
+      </c>
+      <c r="B201">
+        <v>507</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" s="5">
+        <v>84035</v>
+      </c>
+      <c r="B202">
+        <v>508</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" s="5">
+        <v>84036</v>
+      </c>
+      <c r="B203">
+        <v>509</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" s="5">
+        <v>84037</v>
+      </c>
+      <c r="B204">
+        <v>600</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" s="5">
+        <v>84038</v>
+      </c>
+      <c r="B205">
+        <v>9005</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" s="5">
         <v>84039</v>
       </c>
-      <c r="B196">
+      <c r="B206">
         <v>9005</v>
       </c>
-      <c r="C196">
+      <c r="C206">
         <v>15</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02EBBD-D027-41EB-89F6-0CDEF27AA3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A11DFF-7402-4CFB-B6D6-B8D661C82879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M206" totalsRowShown="0">
-  <autoFilter ref="A1:M206" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M207" totalsRowShown="0">
+  <autoFilter ref="A1:M207" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -590,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -992,211 +992,187 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>10001</v>
+        <v>2011</v>
       </c>
       <c r="B22">
-        <v>9000</v>
+        <v>10005</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B23">
         <v>9000</v>
       </c>
       <c r="C23">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B24">
         <v>9000</v>
       </c>
       <c r="C24">
-        <v>2000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B25">
         <v>9000</v>
       </c>
       <c r="C25">
-        <v>3500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B26">
         <v>9000</v>
       </c>
       <c r="C26">
-        <v>6000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B27">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>10080</v>
+        <v>10006</v>
       </c>
       <c r="B28">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>10081</v>
+        <v>10080</v>
       </c>
       <c r="B29">
         <v>9000</v>
       </c>
       <c r="C29">
-        <v>130</v>
-      </c>
-      <c r="D29">
-        <v>9001</v>
-      </c>
-      <c r="E29">
-        <v>300</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>10082</v>
+        <v>10081</v>
       </c>
       <c r="B30">
         <v>9000</v>
       </c>
       <c r="C30">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="D30">
         <v>9001</v>
       </c>
       <c r="E30">
-        <v>500</v>
-      </c>
-      <c r="F30">
-        <v>3001</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>11001</v>
+        <v>10082</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>9000</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D31">
-        <v>103</v>
+        <v>9001</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F31">
-        <v>104</v>
+        <v>3001</v>
       </c>
       <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>112</v>
-      </c>
-      <c r="I31">
-        <v>50</v>
-      </c>
-      <c r="J31">
-        <v>107</v>
-      </c>
-      <c r="K31">
-        <v>50</v>
-      </c>
-      <c r="L31">
-        <v>3001</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B32">
+        <v>102</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>103</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>104</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>112</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>107</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
         <v>3001</v>
       </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="M32">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B33">
         <v>3001</v>
       </c>
       <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>1004</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
-      </c>
-      <c r="F33">
-        <v>1005</v>
-      </c>
-      <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>1006</v>
-      </c>
-      <c r="I33">
-        <v>100</v>
-      </c>
-      <c r="J33">
-        <v>1007</v>
-      </c>
-      <c r="K33">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B34">
         <v>3001</v>
@@ -1205,57 +1181,81 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>1006</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>1007</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B35">
         <v>3001</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>12001</v>
+        <v>11005</v>
       </c>
       <c r="B36">
         <v>3001</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B37">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B38">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C38">
         <v>60</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="B39">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C39">
         <v>60</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="B40">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C40">
         <v>60</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>12006</v>
+        <v>12005</v>
       </c>
       <c r="B41">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C41">
         <v>60</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="B42">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C42">
         <v>60</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="B43">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C43">
         <v>60</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="B44">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C44">
         <v>60</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="B45">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C45">
         <v>60</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>12011</v>
+        <v>12010</v>
       </c>
       <c r="B46">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C46">
         <v>60</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>12012</v>
+        <v>12011</v>
       </c>
       <c r="B47">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C47">
         <v>60</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>12013</v>
+        <v>12012</v>
       </c>
       <c r="B48">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="B49">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -1384,120 +1384,120 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>14001</v>
+        <v>12014</v>
       </c>
       <c r="B50">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C50">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>14002</v>
+        <v>14001</v>
       </c>
       <c r="B51">
         <v>9002</v>
       </c>
       <c r="C51">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>14003</v>
+        <v>14002</v>
       </c>
       <c r="B52">
         <v>9002</v>
       </c>
       <c r="C52">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>14004</v>
+        <v>14003</v>
       </c>
       <c r="B53">
         <v>9002</v>
       </c>
       <c r="C53">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>14005</v>
+        <v>14004</v>
       </c>
       <c r="B54">
         <v>9002</v>
       </c>
       <c r="C54">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>14006</v>
+        <v>14005</v>
       </c>
       <c r="B55">
         <v>9002</v>
       </c>
       <c r="C55">
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>14007</v>
+        <v>14006</v>
       </c>
       <c r="B56">
         <v>9002</v>
       </c>
       <c r="C56">
-        <v>11000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>20001</v>
+        <v>14007</v>
       </c>
       <c r="B57">
-        <v>102</v>
+        <v>9002</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B58">
-        <v>9001</v>
+        <v>102</v>
       </c>
       <c r="C58">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B59">
-        <v>1001</v>
+        <v>9001</v>
       </c>
       <c r="C59">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B60">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -1505,32 +1505,32 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B61">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>21001</v>
+        <v>20005</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>9002</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1538,21 +1538,21 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>21003</v>
+        <v>21002</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>21004</v>
+        <v>21003</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1560,40 +1560,40 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>21006</v>
+        <v>21005</v>
       </c>
       <c r="B67">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>21007</v>
+        <v>21006</v>
       </c>
       <c r="B68">
-        <v>3001</v>
+        <v>600</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>21008</v>
+        <v>21007</v>
       </c>
       <c r="B69">
         <v>3001</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="B70">
         <v>3001</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>21010</v>
+        <v>21009</v>
       </c>
       <c r="B71">
         <v>3001</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="B72">
         <v>3001</v>
@@ -1637,219 +1637,219 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>21012</v>
+        <v>21011</v>
       </c>
       <c r="B73">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C73">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>21013</v>
+        <v>21012</v>
       </c>
       <c r="B74">
         <v>9001</v>
       </c>
       <c r="C74">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>21014</v>
+        <v>21013</v>
       </c>
       <c r="B75">
         <v>9001</v>
       </c>
       <c r="C75">
-        <v>5000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>50001</v>
+        <v>21014</v>
       </c>
       <c r="B76">
-        <v>123</v>
+        <v>9001</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B77">
         <v>123</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B78">
         <v>123</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B79">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B80">
         <v>124</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B81">
         <v>124</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B82">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>50008</v>
+        <v>50007</v>
       </c>
       <c r="B83">
         <v>125</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>50009</v>
+        <v>50008</v>
       </c>
       <c r="B84">
         <v>125</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="B85">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>50011</v>
+        <v>50010</v>
       </c>
       <c r="B86">
         <v>126</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>50012</v>
+        <v>50011</v>
       </c>
       <c r="B87">
         <v>126</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>50013</v>
+        <v>50012</v>
       </c>
       <c r="B88">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B89">
         <v>127</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B90">
         <v>127</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>60001</v>
+        <v>50015</v>
       </c>
       <c r="B91">
-        <v>559</v>
+        <v>127</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B92">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B93">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="B94">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="B95">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="B96">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="B97">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="B98">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="B99">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="B100">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -1945,21 +1945,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>70001</v>
+        <v>60010</v>
       </c>
       <c r="B101">
-        <v>3001</v>
+        <v>558</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>70002</v>
+        <v>70001</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>70003</v>
+        <v>70002</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1978,186 +1978,186 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>80001</v>
+        <v>70003</v>
       </c>
       <c r="B104">
-        <v>7016</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B105">
         <v>7016</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B106">
         <v>7016</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B107">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B108">
         <v>7017</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B109">
         <v>7017</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B110">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B111">
         <v>7018</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B112">
         <v>7018</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>80010</v>
+        <v>80009</v>
       </c>
       <c r="B113">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>80011</v>
+        <v>80010</v>
       </c>
       <c r="B114">
         <v>7019</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>80012</v>
+        <v>80011</v>
       </c>
       <c r="B115">
         <v>7019</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>80013</v>
+        <v>80012</v>
       </c>
       <c r="B116">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>80014</v>
+        <v>80013</v>
       </c>
       <c r="B117">
         <v>7020</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>80015</v>
+        <v>80014</v>
       </c>
       <c r="B118">
         <v>7020</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>80016</v>
+        <v>80015</v>
       </c>
       <c r="B119">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>80017</v>
+        <v>80016</v>
       </c>
       <c r="B120">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>80018</v>
+        <v>80017</v>
       </c>
       <c r="B121">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>80019</v>
+        <v>80018</v>
       </c>
       <c r="B122">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -2187,10 +2187,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>80020</v>
+        <v>80019</v>
       </c>
       <c r="B123">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>80021</v>
+        <v>80020</v>
       </c>
       <c r="B124">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>80022</v>
+        <v>80021</v>
       </c>
       <c r="B125">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>80023</v>
+        <v>80022</v>
       </c>
       <c r="B126">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>80024</v>
+        <v>80023</v>
       </c>
       <c r="B127">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>80025</v>
+        <v>80024</v>
       </c>
       <c r="B128">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -2253,120 +2253,120 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>81001</v>
+        <v>80025</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>7030</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>81002</v>
+        <v>81001</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>81003</v>
+        <v>81002</v>
       </c>
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>81004</v>
+        <v>81003</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>81005</v>
+        <v>81004</v>
       </c>
       <c r="B133">
         <v>7</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>81006</v>
+        <v>81005</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>81007</v>
+        <v>81006</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>81008</v>
+        <v>81007</v>
       </c>
       <c r="B136">
         <v>8</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>81009</v>
+        <v>81008</v>
       </c>
       <c r="B137">
         <v>8</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>81010</v>
+        <v>81009</v>
       </c>
       <c r="B138">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>81011</v>
+        <v>81010</v>
       </c>
       <c r="B139">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -2374,10 +2374,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>81012</v>
+        <v>81011</v>
       </c>
       <c r="B140">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>81013</v>
+        <v>81012</v>
       </c>
       <c r="B141">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>81014</v>
+        <v>81013</v>
       </c>
       <c r="B142">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -2407,32 +2407,32 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
+        <v>81014</v>
+      </c>
+      <c r="B143">
+        <v>138</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144">
         <v>81015</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <v>139</v>
       </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" s="3">
-        <v>83001</v>
-      </c>
-      <c r="B144" s="4">
-        <v>10010</v>
-      </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
-        <v>83002</v>
+        <v>83001</v>
       </c>
       <c r="B145" s="4">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -2440,10 +2440,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
-        <v>83003</v>
+        <v>83002</v>
       </c>
       <c r="B146" s="4">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
-        <v>83004</v>
+        <v>83003</v>
       </c>
       <c r="B147" s="4">
-        <v>10004</v>
+        <v>10012</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
-        <v>83005</v>
+        <v>83004</v>
       </c>
       <c r="B148" s="4">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
-        <v>83006</v>
+        <v>83005</v>
       </c>
       <c r="B149" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
-        <v>83007</v>
+        <v>83006</v>
       </c>
       <c r="B150" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
-        <v>83008</v>
+        <v>83007</v>
       </c>
       <c r="B151" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
-        <v>83009</v>
+        <v>83008</v>
       </c>
       <c r="B152" s="4">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2517,21 +2517,21 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
-        <v>83301</v>
-      </c>
-      <c r="B153">
-        <v>123</v>
+        <v>83009</v>
+      </c>
+      <c r="B153" s="4">
+        <v>10009</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
-        <v>83302</v>
+        <v>83301</v>
       </c>
       <c r="B154">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
-        <v>83303</v>
+        <v>83302</v>
       </c>
       <c r="B155">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
-        <v>83304</v>
+        <v>83303</v>
       </c>
       <c r="B156">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
-        <v>83305</v>
+        <v>83304</v>
       </c>
       <c r="B157">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -2572,21 +2572,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
-        <v>83306</v>
+        <v>83305</v>
       </c>
       <c r="B158">
-        <v>7021</v>
+        <v>127</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
-        <v>83307</v>
+        <v>83306</v>
       </c>
       <c r="B159">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
-        <v>83308</v>
+        <v>83307</v>
       </c>
       <c r="B160">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
-        <v>83309</v>
+        <v>83308</v>
       </c>
       <c r="B161">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
-        <v>83310</v>
+        <v>83309</v>
       </c>
       <c r="B162">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
-        <v>83311</v>
+        <v>83310</v>
       </c>
       <c r="B163">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
-        <v>83312</v>
+        <v>83311</v>
       </c>
       <c r="B164">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
-        <v>83313</v>
+        <v>83312</v>
       </c>
       <c r="B165">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
-        <v>83314</v>
+        <v>83313</v>
       </c>
       <c r="B166">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2671,21 +2671,21 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
+        <v>83314</v>
+      </c>
+      <c r="B167">
+        <v>7029</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="3">
         <v>83315</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>7030</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="5">
-        <v>84001</v>
-      </c>
-      <c r="B168">
-        <v>9003</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
-        <v>84002</v>
+        <v>84001</v>
       </c>
       <c r="B169">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2704,32 +2704,32 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
-        <v>84003</v>
+        <v>84002</v>
       </c>
       <c r="B170">
-        <v>9002</v>
+        <v>9005</v>
       </c>
       <c r="C170">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
-        <v>84004</v>
+        <v>84003</v>
       </c>
       <c r="B171">
-        <v>123</v>
+        <v>9002</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
-        <v>84005</v>
+        <v>84004</v>
       </c>
       <c r="B172">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
-        <v>84006</v>
+        <v>84005</v>
       </c>
       <c r="B173">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
-        <v>84007</v>
+        <v>84006</v>
       </c>
       <c r="B174">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
-        <v>84008</v>
+        <v>84007</v>
       </c>
       <c r="B175">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
-        <v>84009</v>
+        <v>84008</v>
       </c>
       <c r="B176">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
-        <v>84010</v>
+        <v>84009</v>
       </c>
       <c r="B177">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
-        <v>84011</v>
+        <v>84010</v>
       </c>
       <c r="B178">
-        <v>550</v>
+        <v>129</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
-        <v>84012</v>
+        <v>84011</v>
       </c>
       <c r="B179">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
-        <v>84013</v>
+        <v>84012</v>
       </c>
       <c r="B180">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
-        <v>84014</v>
+        <v>84013</v>
       </c>
       <c r="B181">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
-        <v>84015</v>
+        <v>84014</v>
       </c>
       <c r="B182">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
-        <v>84016</v>
+        <v>84015</v>
       </c>
       <c r="B183">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
-        <v>84017</v>
+        <v>84016</v>
       </c>
       <c r="B184">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
-        <v>84018</v>
+        <v>84017</v>
       </c>
       <c r="B185">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2880,10 +2880,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
-        <v>84019</v>
+        <v>84018</v>
       </c>
       <c r="B186">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
-        <v>84020</v>
+        <v>84019</v>
       </c>
       <c r="B187">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
-        <v>84021</v>
+        <v>84020</v>
       </c>
       <c r="B188">
-        <v>134</v>
+        <v>559</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
-        <v>84022</v>
+        <v>84021</v>
       </c>
       <c r="B189">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
-        <v>84023</v>
+        <v>84022</v>
       </c>
       <c r="B190">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
-        <v>84024</v>
+        <v>84023</v>
       </c>
       <c r="B191">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
-        <v>84025</v>
+        <v>84024</v>
       </c>
       <c r="B192">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
-        <v>84026</v>
+        <v>84025</v>
       </c>
       <c r="B193">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
-        <v>84027</v>
+        <v>84026</v>
       </c>
       <c r="B194">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2979,10 +2979,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
-        <v>84028</v>
+        <v>84027</v>
       </c>
       <c r="B195">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
-        <v>84029</v>
+        <v>84028</v>
       </c>
       <c r="B196">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
-        <v>84030</v>
+        <v>84029</v>
       </c>
       <c r="B197">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
-        <v>84031</v>
+        <v>84030</v>
       </c>
       <c r="B198">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
-        <v>84032</v>
+        <v>84031</v>
       </c>
       <c r="B199">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
-        <v>84033</v>
+        <v>84032</v>
       </c>
       <c r="B200">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
-        <v>84034</v>
+        <v>84033</v>
       </c>
       <c r="B201">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
-        <v>84035</v>
+        <v>84034</v>
       </c>
       <c r="B202">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
-        <v>84036</v>
+        <v>84035</v>
       </c>
       <c r="B203">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
-        <v>84037</v>
+        <v>84036</v>
       </c>
       <c r="B204">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -3089,23 +3089,34 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
-        <v>84038</v>
+        <v>84037</v>
       </c>
       <c r="B205">
-        <v>9005</v>
+        <v>600</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
-        <v>84039</v>
+        <v>84038</v>
       </c>
       <c r="B206">
         <v>9005</v>
       </c>
       <c r="C206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" s="5">
+        <v>84039</v>
+      </c>
+      <c r="B207">
+        <v>9005</v>
+      </c>
+      <c r="C207">
         <v>15</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A11DFF-7402-4CFB-B6D6-B8D661C82879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC40ABD-8B2D-4CF1-AA59-C41EF1EE38D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M207" totalsRowShown="0">
-  <autoFilter ref="A1:M207" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M208" totalsRowShown="0">
+  <autoFilter ref="A1:M208" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -590,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2008</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -1001,213 +1001,189 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23">
+        <v>9001</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>10001</v>
-      </c>
-      <c r="B23">
-        <v>9000</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>10002</v>
       </c>
       <c r="B24">
         <v>9000</v>
       </c>
       <c r="C24">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B25">
         <v>9000</v>
       </c>
       <c r="C25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B26">
         <v>9000</v>
       </c>
       <c r="C26">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B27">
         <v>9000</v>
       </c>
       <c r="C27">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>10005</v>
+      </c>
+      <c r="B28">
+        <v>9000</v>
+      </c>
+      <c r="C28">
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>10006</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>9004</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>10080</v>
-      </c>
-      <c r="B29">
-        <v>9000</v>
-      </c>
-      <c r="C29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>10081</v>
       </c>
       <c r="B30">
         <v>9000</v>
       </c>
       <c r="C30">
-        <v>130</v>
-      </c>
-      <c r="D30">
-        <v>9001</v>
-      </c>
-      <c r="E30">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>10082</v>
+        <v>10081</v>
       </c>
       <c r="B31">
         <v>9000</v>
       </c>
       <c r="C31">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="D31">
         <v>9001</v>
       </c>
       <c r="E31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>10082</v>
+      </c>
+      <c r="B32">
+        <v>9000</v>
+      </c>
+      <c r="C32">
+        <v>215</v>
+      </c>
+      <c r="D32">
+        <v>9001</v>
+      </c>
+      <c r="E32">
         <v>500</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>3001</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>11001</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>102</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>100</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>103</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>100</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>104</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>100</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>112</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>50</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>107</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>50</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>3001</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>11002</v>
-      </c>
-      <c r="B33">
-        <v>3001</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>11003</v>
       </c>
       <c r="B34">
         <v>3001</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1004</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <v>1005</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>1006</v>
-      </c>
-      <c r="I34">
-        <v>100</v>
-      </c>
-      <c r="J34">
-        <v>1007</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B35">
         <v>3001</v>
@@ -1216,156 +1192,180 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>1006</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>1007</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B36">
         <v>3001</v>
       </c>
       <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>12001</v>
+        <v>11005</v>
       </c>
       <c r="B37">
         <v>3001</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
+        <v>12001</v>
+      </c>
+      <c r="B38">
+        <v>3001</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>12002</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>1001</v>
-      </c>
-      <c r="C38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>12003</v>
-      </c>
-      <c r="B39">
-        <v>1002</v>
       </c>
       <c r="C39">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="B40">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C40">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="B41">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C41">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>12006</v>
+        <v>12005</v>
       </c>
       <c r="B42">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C42">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="B43">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C43">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="B44">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C44">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="B45">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C45">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="B46">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C46">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>12011</v>
+        <v>12010</v>
       </c>
       <c r="B47">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C47">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>12012</v>
+        <v>12011</v>
       </c>
       <c r="B48">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>12013</v>
+        <v>12012</v>
       </c>
       <c r="B49">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="B50">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C50">
         <v>60</v>
@@ -1395,120 +1395,120 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>14001</v>
+        <v>12014</v>
       </c>
       <c r="B51">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C51">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>14002</v>
+        <v>14001</v>
       </c>
       <c r="B52">
         <v>9002</v>
       </c>
       <c r="C52">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>14003</v>
+        <v>14002</v>
       </c>
       <c r="B53">
         <v>9002</v>
       </c>
       <c r="C53">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>14004</v>
+        <v>14003</v>
       </c>
       <c r="B54">
         <v>9002</v>
       </c>
       <c r="C54">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>14005</v>
+        <v>14004</v>
       </c>
       <c r="B55">
         <v>9002</v>
       </c>
       <c r="C55">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>14006</v>
+        <v>14005</v>
       </c>
       <c r="B56">
         <v>9002</v>
       </c>
       <c r="C56">
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>14007</v>
+        <v>14006</v>
       </c>
       <c r="B57">
         <v>9002</v>
       </c>
       <c r="C57">
-        <v>11000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>20001</v>
+        <v>14007</v>
       </c>
       <c r="B58">
-        <v>102</v>
+        <v>9002</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B59">
-        <v>9001</v>
+        <v>102</v>
       </c>
       <c r="C59">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B60">
-        <v>1001</v>
+        <v>9001</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B61">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1516,32 +1516,32 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B62">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>21001</v>
+        <v>20005</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>9002</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1549,21 +1549,21 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>21003</v>
+        <v>21002</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>21004</v>
+        <v>21003</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1571,40 +1571,40 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>21006</v>
+        <v>21005</v>
       </c>
       <c r="B68">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>21007</v>
+        <v>21006</v>
       </c>
       <c r="B69">
-        <v>3001</v>
+        <v>600</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>21008</v>
+        <v>21007</v>
       </c>
       <c r="B70">
         <v>3001</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="B71">
         <v>3001</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>21010</v>
+        <v>21009</v>
       </c>
       <c r="B72">
         <v>3001</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="B73">
         <v>3001</v>
@@ -1648,219 +1648,219 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>21012</v>
+        <v>21011</v>
       </c>
       <c r="B74">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C74">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>21013</v>
+        <v>21012</v>
       </c>
       <c r="B75">
         <v>9001</v>
       </c>
       <c r="C75">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>21014</v>
+        <v>21013</v>
       </c>
       <c r="B76">
         <v>9001</v>
       </c>
       <c r="C76">
-        <v>5000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>50001</v>
+        <v>21014</v>
       </c>
       <c r="B77">
-        <v>123</v>
+        <v>9001</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B78">
         <v>123</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B79">
         <v>123</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B80">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B81">
         <v>124</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B82">
         <v>124</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B83">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>50008</v>
+        <v>50007</v>
       </c>
       <c r="B84">
         <v>125</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>50009</v>
+        <v>50008</v>
       </c>
       <c r="B85">
         <v>125</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="B86">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>50011</v>
+        <v>50010</v>
       </c>
       <c r="B87">
         <v>126</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>50012</v>
+        <v>50011</v>
       </c>
       <c r="B88">
         <v>126</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>50013</v>
+        <v>50012</v>
       </c>
       <c r="B89">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B90">
         <v>127</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B91">
         <v>127</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>60001</v>
+        <v>50015</v>
       </c>
       <c r="B92">
-        <v>559</v>
+        <v>127</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B93">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B94">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="B95">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="B96">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="B97">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="B98">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="B99">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="B100">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="B101">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -1956,21 +1956,21 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>70001</v>
+        <v>60010</v>
       </c>
       <c r="B102">
-        <v>3001</v>
+        <v>558</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>70002</v>
+        <v>70001</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>70003</v>
+        <v>70002</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1989,186 +1989,186 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>80001</v>
+        <v>70003</v>
       </c>
       <c r="B105">
-        <v>7016</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B106">
         <v>7016</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B107">
         <v>7016</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B108">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B109">
         <v>7017</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B110">
         <v>7017</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B111">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B112">
         <v>7018</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B113">
         <v>7018</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>80010</v>
+        <v>80009</v>
       </c>
       <c r="B114">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>80011</v>
+        <v>80010</v>
       </c>
       <c r="B115">
         <v>7019</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>80012</v>
+        <v>80011</v>
       </c>
       <c r="B116">
         <v>7019</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>80013</v>
+        <v>80012</v>
       </c>
       <c r="B117">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>80014</v>
+        <v>80013</v>
       </c>
       <c r="B118">
         <v>7020</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>80015</v>
+        <v>80014</v>
       </c>
       <c r="B119">
         <v>7020</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>80016</v>
+        <v>80015</v>
       </c>
       <c r="B120">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>80017</v>
+        <v>80016</v>
       </c>
       <c r="B121">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>80018</v>
+        <v>80017</v>
       </c>
       <c r="B122">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -2187,10 +2187,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>80019</v>
+        <v>80018</v>
       </c>
       <c r="B123">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>80020</v>
+        <v>80019</v>
       </c>
       <c r="B124">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>80021</v>
+        <v>80020</v>
       </c>
       <c r="B125">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>80022</v>
+        <v>80021</v>
       </c>
       <c r="B126">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>80023</v>
+        <v>80022</v>
       </c>
       <c r="B127">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>80024</v>
+        <v>80023</v>
       </c>
       <c r="B128">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>80025</v>
+        <v>80024</v>
       </c>
       <c r="B129">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -2264,120 +2264,120 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>81001</v>
+        <v>80025</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>7030</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>81002</v>
+        <v>81001</v>
       </c>
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>81003</v>
+        <v>81002</v>
       </c>
       <c r="B132">
         <v>6</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>81004</v>
+        <v>81003</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>81005</v>
+        <v>81004</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>81006</v>
+        <v>81005</v>
       </c>
       <c r="B135">
         <v>7</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>81007</v>
+        <v>81006</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>81008</v>
+        <v>81007</v>
       </c>
       <c r="B137">
         <v>8</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>81009</v>
+        <v>81008</v>
       </c>
       <c r="B138">
         <v>8</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>81010</v>
+        <v>81009</v>
       </c>
       <c r="B139">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>81011</v>
+        <v>81010</v>
       </c>
       <c r="B140">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>81012</v>
+        <v>81011</v>
       </c>
       <c r="B141">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>81013</v>
+        <v>81012</v>
       </c>
       <c r="B142">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>81014</v>
+        <v>81013</v>
       </c>
       <c r="B143">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -2418,32 +2418,32 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
+        <v>81014</v>
+      </c>
+      <c r="B144">
+        <v>138</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
         <v>81015</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <v>139</v>
       </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" s="3">
-        <v>83001</v>
-      </c>
-      <c r="B145" s="4">
-        <v>10010</v>
-      </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
-        <v>83002</v>
+        <v>83001</v>
       </c>
       <c r="B146" s="4">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
-        <v>83003</v>
+        <v>83002</v>
       </c>
       <c r="B147" s="4">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
-        <v>83004</v>
+        <v>83003</v>
       </c>
       <c r="B148" s="4">
-        <v>10004</v>
+        <v>10012</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
-        <v>83005</v>
+        <v>83004</v>
       </c>
       <c r="B149" s="4">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
-        <v>83006</v>
+        <v>83005</v>
       </c>
       <c r="B150" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
-        <v>83007</v>
+        <v>83006</v>
       </c>
       <c r="B151" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
-        <v>83008</v>
+        <v>83007</v>
       </c>
       <c r="B152" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
-        <v>83009</v>
+        <v>83008</v>
       </c>
       <c r="B153" s="4">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2528,21 +2528,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
-        <v>83301</v>
-      </c>
-      <c r="B154">
-        <v>123</v>
+        <v>83009</v>
+      </c>
+      <c r="B154" s="4">
+        <v>10009</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
-        <v>83302</v>
+        <v>83301</v>
       </c>
       <c r="B155">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
-        <v>83303</v>
+        <v>83302</v>
       </c>
       <c r="B156">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
-        <v>83304</v>
+        <v>83303</v>
       </c>
       <c r="B157">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
-        <v>83305</v>
+        <v>83304</v>
       </c>
       <c r="B158">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -2583,21 +2583,21 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
-        <v>83306</v>
+        <v>83305</v>
       </c>
       <c r="B159">
-        <v>7021</v>
+        <v>127</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
-        <v>83307</v>
+        <v>83306</v>
       </c>
       <c r="B160">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
-        <v>83308</v>
+        <v>83307</v>
       </c>
       <c r="B161">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
-        <v>83309</v>
+        <v>83308</v>
       </c>
       <c r="B162">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
-        <v>83310</v>
+        <v>83309</v>
       </c>
       <c r="B163">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
-        <v>83311</v>
+        <v>83310</v>
       </c>
       <c r="B164">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
-        <v>83312</v>
+        <v>83311</v>
       </c>
       <c r="B165">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
-        <v>83313</v>
+        <v>83312</v>
       </c>
       <c r="B166">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
-        <v>83314</v>
+        <v>83313</v>
       </c>
       <c r="B167">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2682,21 +2682,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
+        <v>83314</v>
+      </c>
+      <c r="B168">
+        <v>7029</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="3">
         <v>83315</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <v>7030</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169" s="5">
-        <v>84001</v>
-      </c>
-      <c r="B169">
-        <v>9003</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
-        <v>84002</v>
+        <v>84001</v>
       </c>
       <c r="B170">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2715,32 +2715,32 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
-        <v>84003</v>
+        <v>84002</v>
       </c>
       <c r="B171">
-        <v>9002</v>
+        <v>9005</v>
       </c>
       <c r="C171">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
-        <v>84004</v>
+        <v>84003</v>
       </c>
       <c r="B172">
-        <v>123</v>
+        <v>9002</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
-        <v>84005</v>
+        <v>84004</v>
       </c>
       <c r="B173">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
-        <v>84006</v>
+        <v>84005</v>
       </c>
       <c r="B174">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
-        <v>84007</v>
+        <v>84006</v>
       </c>
       <c r="B175">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
-        <v>84008</v>
+        <v>84007</v>
       </c>
       <c r="B176">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
-        <v>84009</v>
+        <v>84008</v>
       </c>
       <c r="B177">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
-        <v>84010</v>
+        <v>84009</v>
       </c>
       <c r="B178">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
-        <v>84011</v>
+        <v>84010</v>
       </c>
       <c r="B179">
-        <v>550</v>
+        <v>129</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
-        <v>84012</v>
+        <v>84011</v>
       </c>
       <c r="B180">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
-        <v>84013</v>
+        <v>84012</v>
       </c>
       <c r="B181">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
-        <v>84014</v>
+        <v>84013</v>
       </c>
       <c r="B182">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
-        <v>84015</v>
+        <v>84014</v>
       </c>
       <c r="B183">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
-        <v>84016</v>
+        <v>84015</v>
       </c>
       <c r="B184">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
-        <v>84017</v>
+        <v>84016</v>
       </c>
       <c r="B185">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2880,10 +2880,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
-        <v>84018</v>
+        <v>84017</v>
       </c>
       <c r="B186">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
-        <v>84019</v>
+        <v>84018</v>
       </c>
       <c r="B187">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
-        <v>84020</v>
+        <v>84019</v>
       </c>
       <c r="B188">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
-        <v>84021</v>
+        <v>84020</v>
       </c>
       <c r="B189">
-        <v>134</v>
+        <v>559</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
-        <v>84022</v>
+        <v>84021</v>
       </c>
       <c r="B190">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
-        <v>84023</v>
+        <v>84022</v>
       </c>
       <c r="B191">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
-        <v>84024</v>
+        <v>84023</v>
       </c>
       <c r="B192">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
-        <v>84025</v>
+        <v>84024</v>
       </c>
       <c r="B193">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
-        <v>84026</v>
+        <v>84025</v>
       </c>
       <c r="B194">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2979,10 +2979,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
-        <v>84027</v>
+        <v>84026</v>
       </c>
       <c r="B195">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
-        <v>84028</v>
+        <v>84027</v>
       </c>
       <c r="B196">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
-        <v>84029</v>
+        <v>84028</v>
       </c>
       <c r="B197">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
-        <v>84030</v>
+        <v>84029</v>
       </c>
       <c r="B198">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
-        <v>84031</v>
+        <v>84030</v>
       </c>
       <c r="B199">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
-        <v>84032</v>
+        <v>84031</v>
       </c>
       <c r="B200">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
-        <v>84033</v>
+        <v>84032</v>
       </c>
       <c r="B201">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
-        <v>84034</v>
+        <v>84033</v>
       </c>
       <c r="B202">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
-        <v>84035</v>
+        <v>84034</v>
       </c>
       <c r="B203">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
-        <v>84036</v>
+        <v>84035</v>
       </c>
       <c r="B204">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
-        <v>84037</v>
+        <v>84036</v>
       </c>
       <c r="B205">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -3100,23 +3100,34 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
-        <v>84038</v>
+        <v>84037</v>
       </c>
       <c r="B206">
-        <v>9005</v>
+        <v>600</v>
       </c>
       <c r="C206">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="5">
-        <v>84039</v>
+        <v>84038</v>
       </c>
       <c r="B207">
         <v>9005</v>
       </c>
       <c r="C207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" s="5">
+        <v>84039</v>
+      </c>
+      <c r="B208">
+        <v>9005</v>
+      </c>
+      <c r="C208">
         <v>15</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC40ABD-8B2D-4CF1-AA59-C41EF1EE38D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82FC85-7A8E-4AB8-BBFB-E287133C848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -593,10 +593,10 @@
   <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1006,10 +1006,10 @@
         <v>2012</v>
       </c>
       <c r="B23">
-        <v>9001</v>
+        <v>9003</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82FC85-7A8E-4AB8-BBFB-E287133C848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08875B-2F82-42DB-A5CC-58C181EDC512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="1524" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M208" totalsRowShown="0">
-  <autoFilter ref="A1:M208" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M275" totalsRowShown="0">
+  <autoFilter ref="A1:M275" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -590,32 +590,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -902,7 +902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -913,7 +913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2004</v>
       </c>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2008</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10001</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10002</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>10003</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>10004</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10005</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10006</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>10080</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>10081</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>10082</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>11001</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>11002</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>11003</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>11004</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>11005</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>12001</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>12002</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>12003</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>12004</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>12005</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>12006</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>12007</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>12008</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>12009</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>12010</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>12011</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>12012</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>12013</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>12014</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>14001</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>14002</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>14003</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>14004</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>14005</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>14006</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>14007</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>20001</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>20002</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>20003</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>20004</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>20005</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>21001</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>21002</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>21003</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>21004</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>21005</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>21006</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>21007</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>21008</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>21009</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>21010</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>21011</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>21012</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>21013</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>21014</v>
       </c>
@@ -1690,1444 +1690,2181 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <v>50001</v>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="3">
+        <v>22001</v>
       </c>
       <c r="B78">
-        <v>123</v>
+        <v>9004</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <v>50002</v>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="3">
+        <v>22002</v>
       </c>
       <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3">
+        <v>22003</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="3">
+        <v>22004</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="3">
+        <v>22005</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="3">
+        <v>22006</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="3">
+        <v>22007</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="3">
+        <v>22008</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="3">
+        <v>22009</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="3">
+        <v>22010</v>
+      </c>
+      <c r="B87">
         <v>123</v>
       </c>
-      <c r="C79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>50003</v>
-      </c>
-      <c r="B80">
-        <v>123</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <v>50004</v>
-      </c>
-      <c r="B81">
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="3">
+        <v>22011</v>
+      </c>
+      <c r="B88">
         <v>124</v>
       </c>
-      <c r="C81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>50005</v>
-      </c>
-      <c r="B82">
-        <v>124</v>
-      </c>
-      <c r="C82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>50006</v>
-      </c>
-      <c r="B83">
-        <v>124</v>
-      </c>
-      <c r="C83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>50007</v>
-      </c>
-      <c r="B84">
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="3">
+        <v>22012</v>
+      </c>
+      <c r="B89">
         <v>125</v>
       </c>
-      <c r="C84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>50008</v>
-      </c>
-      <c r="B85">
-        <v>125</v>
-      </c>
-      <c r="C85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86">
-        <v>50009</v>
-      </c>
-      <c r="B86">
-        <v>125</v>
-      </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87">
-        <v>50010</v>
-      </c>
-      <c r="B87">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="3">
+        <v>22013</v>
+      </c>
+      <c r="B90">
         <v>126</v>
       </c>
-      <c r="C87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88">
-        <v>50011</v>
-      </c>
-      <c r="B88">
-        <v>126</v>
-      </c>
-      <c r="C88">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89">
-        <v>50012</v>
-      </c>
-      <c r="B89">
-        <v>126</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>50013</v>
-      </c>
-      <c r="B90">
-        <v>127</v>
-      </c>
       <c r="C90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>50014</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="3">
+        <v>22014</v>
       </c>
       <c r="B91">
         <v>127</v>
       </c>
       <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="3">
+        <v>22015</v>
+      </c>
+      <c r="B92">
+        <v>128</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="3">
+        <v>22016</v>
+      </c>
+      <c r="B93">
+        <v>129</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="3">
+        <v>22017</v>
+      </c>
+      <c r="B94">
+        <v>134</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3">
+        <v>22018</v>
+      </c>
+      <c r="B95">
+        <v>135</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3">
+        <v>22019</v>
+      </c>
+      <c r="B96">
+        <v>136</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="3">
+        <v>22020</v>
+      </c>
+      <c r="B97">
+        <v>137</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="3">
+        <v>22021</v>
+      </c>
+      <c r="B98">
+        <v>138</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="3">
+        <v>22022</v>
+      </c>
+      <c r="B99">
+        <v>139</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="3">
+        <v>22023</v>
+      </c>
+      <c r="B100">
+        <v>500</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="3">
+        <v>22024</v>
+      </c>
+      <c r="B101">
+        <v>501</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="3">
+        <v>22025</v>
+      </c>
+      <c r="B102">
+        <v>502</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="3">
+        <v>22026</v>
+      </c>
+      <c r="B103">
+        <v>503</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="3">
+        <v>22027</v>
+      </c>
+      <c r="B104">
+        <v>504</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="3">
+        <v>22028</v>
+      </c>
+      <c r="B105">
+        <v>505</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="3">
+        <v>22029</v>
+      </c>
+      <c r="B106">
+        <v>506</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="3">
+        <v>22030</v>
+      </c>
+      <c r="B107">
+        <v>507</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="3">
+        <v>22031</v>
+      </c>
+      <c r="B108">
+        <v>508</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="3">
+        <v>22032</v>
+      </c>
+      <c r="B109">
+        <v>509</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="3">
+        <v>22033</v>
+      </c>
+      <c r="B110">
+        <v>550</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="3">
+        <v>22034</v>
+      </c>
+      <c r="B111">
+        <v>551</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="3">
+        <v>22035</v>
+      </c>
+      <c r="B112">
+        <v>552</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="3">
+        <v>22036</v>
+      </c>
+      <c r="B113">
+        <v>553</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="3">
+        <v>22037</v>
+      </c>
+      <c r="B114">
+        <v>554</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="3">
+        <v>22038</v>
+      </c>
+      <c r="B115">
+        <v>555</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="3">
+        <v>22039</v>
+      </c>
+      <c r="B116">
+        <v>556</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="3">
+        <v>22040</v>
+      </c>
+      <c r="B117">
+        <v>557</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="3">
+        <v>22041</v>
+      </c>
+      <c r="B118">
+        <v>558</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="3">
+        <v>22042</v>
+      </c>
+      <c r="B119">
+        <v>559</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="3">
+        <v>22043</v>
+      </c>
+      <c r="B120">
+        <v>7016</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="3">
+        <v>22044</v>
+      </c>
+      <c r="B121">
+        <v>7017</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="3">
+        <v>22045</v>
+      </c>
+      <c r="B122">
+        <v>7018</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="3">
+        <v>22046</v>
+      </c>
+      <c r="B123">
+        <v>7019</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="3">
+        <v>22047</v>
+      </c>
+      <c r="B124">
+        <v>7020</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="3">
+        <v>22048</v>
+      </c>
+      <c r="B125">
+        <v>7021</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="3">
+        <v>22049</v>
+      </c>
+      <c r="B126">
+        <v>7022</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="3">
+        <v>22050</v>
+      </c>
+      <c r="B127">
+        <v>7023</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="3">
+        <v>22051</v>
+      </c>
+      <c r="B128">
+        <v>7024</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="3">
+        <v>22052</v>
+      </c>
+      <c r="B129">
+        <v>7025</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="3">
+        <v>22053</v>
+      </c>
+      <c r="B130">
+        <v>7026</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="3">
+        <v>22054</v>
+      </c>
+      <c r="B131">
+        <v>7027</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="3">
+        <v>22055</v>
+      </c>
+      <c r="B132">
+        <v>7028</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="3">
+        <v>22056</v>
+      </c>
+      <c r="B133">
+        <v>7029</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="3">
+        <v>22057</v>
+      </c>
+      <c r="B134">
+        <v>7030</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="3">
+        <v>22100</v>
+      </c>
+      <c r="B135">
+        <v>9004</v>
+      </c>
+      <c r="C135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="3">
+        <v>22101</v>
+      </c>
+      <c r="B136">
+        <v>9002</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="3">
+        <v>22102</v>
+      </c>
+      <c r="B137">
+        <v>3001</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="3">
+        <v>22103</v>
+      </c>
+      <c r="B138">
+        <v>9004</v>
+      </c>
+      <c r="C138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="3">
+        <v>22104</v>
+      </c>
+      <c r="B139">
+        <v>9002</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="3">
+        <v>22200</v>
+      </c>
+      <c r="B140">
+        <v>9004</v>
+      </c>
+      <c r="C140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="3">
+        <v>22201</v>
+      </c>
+      <c r="B141">
+        <v>9002</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="3">
+        <v>22202</v>
+      </c>
+      <c r="B142">
+        <v>9002</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="3">
+        <v>22203</v>
+      </c>
+      <c r="B143">
+        <v>9003</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="3">
+        <v>22204</v>
+      </c>
+      <c r="B144">
+        <v>9005</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>50001</v>
+      </c>
+      <c r="B145">
+        <v>123</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>50002</v>
+      </c>
+      <c r="B146">
+        <v>123</v>
+      </c>
+      <c r="C146">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>50003</v>
+      </c>
+      <c r="B147">
+        <v>123</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>50004</v>
+      </c>
+      <c r="B148">
+        <v>124</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>50005</v>
+      </c>
+      <c r="B149">
+        <v>124</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>50006</v>
+      </c>
+      <c r="B150">
+        <v>124</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>50007</v>
+      </c>
+      <c r="B151">
+        <v>125</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>50008</v>
+      </c>
+      <c r="B152">
+        <v>125</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>50009</v>
+      </c>
+      <c r="B153">
+        <v>125</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>50010</v>
+      </c>
+      <c r="B154">
+        <v>126</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>50011</v>
+      </c>
+      <c r="B155">
+        <v>126</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>50012</v>
+      </c>
+      <c r="B156">
+        <v>126</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>50013</v>
+      </c>
+      <c r="B157">
+        <v>127</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>50014</v>
+      </c>
+      <c r="B158">
+        <v>127</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159">
         <v>50015</v>
-      </c>
-      <c r="B92">
-        <v>127</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>60001</v>
-      </c>
-      <c r="B93">
-        <v>559</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>60002</v>
-      </c>
-      <c r="B94">
-        <v>550</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>60003</v>
-      </c>
-      <c r="B95">
-        <v>551</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>60004</v>
-      </c>
-      <c r="B96">
-        <v>552</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>60005</v>
-      </c>
-      <c r="B97">
-        <v>553</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>60006</v>
-      </c>
-      <c r="B98">
-        <v>554</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>60007</v>
-      </c>
-      <c r="B99">
-        <v>555</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>60008</v>
-      </c>
-      <c r="B100">
-        <v>556</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>60009</v>
-      </c>
-      <c r="B101">
-        <v>557</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>60010</v>
-      </c>
-      <c r="B102">
-        <v>558</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>70001</v>
-      </c>
-      <c r="B103">
-        <v>3001</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>70002</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>70003</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>80001</v>
-      </c>
-      <c r="B106">
-        <v>7016</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>80002</v>
-      </c>
-      <c r="B107">
-        <v>7016</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>80003</v>
-      </c>
-      <c r="B108">
-        <v>7016</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>80004</v>
-      </c>
-      <c r="B109">
-        <v>7017</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>80005</v>
-      </c>
-      <c r="B110">
-        <v>7017</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>80006</v>
-      </c>
-      <c r="B111">
-        <v>7017</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>80007</v>
-      </c>
-      <c r="B112">
-        <v>7018</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>80008</v>
-      </c>
-      <c r="B113">
-        <v>7018</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114">
-        <v>80009</v>
-      </c>
-      <c r="B114">
-        <v>7018</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115">
-        <v>80010</v>
-      </c>
-      <c r="B115">
-        <v>7019</v>
-      </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>80011</v>
-      </c>
-      <c r="B116">
-        <v>7019</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>80012</v>
-      </c>
-      <c r="B117">
-        <v>7019</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>80013</v>
-      </c>
-      <c r="B118">
-        <v>7020</v>
-      </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>80014</v>
-      </c>
-      <c r="B119">
-        <v>7020</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>80015</v>
-      </c>
-      <c r="B120">
-        <v>7020</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>80016</v>
-      </c>
-      <c r="B121">
-        <v>7021</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>80017</v>
-      </c>
-      <c r="B122">
-        <v>7022</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123">
-        <v>80018</v>
-      </c>
-      <c r="B123">
-        <v>7023</v>
-      </c>
-      <c r="C123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124">
-        <v>80019</v>
-      </c>
-      <c r="B124">
-        <v>7024</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>80020</v>
-      </c>
-      <c r="B125">
-        <v>7025</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126">
-        <v>80021</v>
-      </c>
-      <c r="B126">
-        <v>7026</v>
-      </c>
-      <c r="C126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127">
-        <v>80022</v>
-      </c>
-      <c r="B127">
-        <v>7027</v>
-      </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128">
-        <v>80023</v>
-      </c>
-      <c r="B128">
-        <v>7028</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129">
-        <v>80024</v>
-      </c>
-      <c r="B129">
-        <v>7029</v>
-      </c>
-      <c r="C129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130">
-        <v>80025</v>
-      </c>
-      <c r="B130">
-        <v>7030</v>
-      </c>
-      <c r="C130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131">
-        <v>81001</v>
-      </c>
-      <c r="B131">
-        <v>6</v>
-      </c>
-      <c r="C131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132">
-        <v>81002</v>
-      </c>
-      <c r="B132">
-        <v>6</v>
-      </c>
-      <c r="C132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133">
-        <v>81003</v>
-      </c>
-      <c r="B133">
-        <v>6</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134">
-        <v>81004</v>
-      </c>
-      <c r="B134">
-        <v>7</v>
-      </c>
-      <c r="C134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135">
-        <v>81005</v>
-      </c>
-      <c r="B135">
-        <v>7</v>
-      </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136">
-        <v>81006</v>
-      </c>
-      <c r="B136">
-        <v>7</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137">
-        <v>81007</v>
-      </c>
-      <c r="B137">
-        <v>8</v>
-      </c>
-      <c r="C137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138">
-        <v>81008</v>
-      </c>
-      <c r="B138">
-        <v>8</v>
-      </c>
-      <c r="C138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139">
-        <v>81009</v>
-      </c>
-      <c r="B139">
-        <v>8</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140">
-        <v>81010</v>
-      </c>
-      <c r="B140">
-        <v>134</v>
-      </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141">
-        <v>81011</v>
-      </c>
-      <c r="B141">
-        <v>135</v>
-      </c>
-      <c r="C141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142">
-        <v>81012</v>
-      </c>
-      <c r="B142">
-        <v>136</v>
-      </c>
-      <c r="C142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143">
-        <v>81013</v>
-      </c>
-      <c r="B143">
-        <v>137</v>
-      </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144">
-        <v>81014</v>
-      </c>
-      <c r="B144">
-        <v>138</v>
-      </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145">
-        <v>81015</v>
-      </c>
-      <c r="B145">
-        <v>139</v>
-      </c>
-      <c r="C145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146" s="3">
-        <v>83001</v>
-      </c>
-      <c r="B146" s="4">
-        <v>10010</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147" s="3">
-        <v>83002</v>
-      </c>
-      <c r="B147" s="4">
-        <v>10011</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" s="3">
-        <v>83003</v>
-      </c>
-      <c r="B148" s="4">
-        <v>10012</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" s="3">
-        <v>83004</v>
-      </c>
-      <c r="B149" s="4">
-        <v>10004</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" s="3">
-        <v>83005</v>
-      </c>
-      <c r="B150" s="4">
-        <v>10005</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" s="3">
-        <v>83006</v>
-      </c>
-      <c r="B151" s="4">
-        <v>10006</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" s="3">
-        <v>83007</v>
-      </c>
-      <c r="B152" s="4">
-        <v>10007</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" s="3">
-        <v>83008</v>
-      </c>
-      <c r="B153" s="4">
-        <v>10008</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" s="3">
-        <v>83009</v>
-      </c>
-      <c r="B154" s="4">
-        <v>10009</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" s="3">
-        <v>83301</v>
-      </c>
-      <c r="B155">
-        <v>123</v>
-      </c>
-      <c r="C155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="3">
-        <v>83302</v>
-      </c>
-      <c r="B156">
-        <v>124</v>
-      </c>
-      <c r="C156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" s="3">
-        <v>83303</v>
-      </c>
-      <c r="B157">
-        <v>125</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="3">
-        <v>83304</v>
-      </c>
-      <c r="B158">
-        <v>126</v>
-      </c>
-      <c r="C158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" s="3">
-        <v>83305</v>
       </c>
       <c r="B159">
         <v>127</v>
       </c>
       <c r="C159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>60001</v>
+      </c>
+      <c r="B160">
+        <v>559</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>60002</v>
+      </c>
+      <c r="B161">
+        <v>550</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>60003</v>
+      </c>
+      <c r="B162">
+        <v>551</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>60004</v>
+      </c>
+      <c r="B163">
+        <v>552</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>60005</v>
+      </c>
+      <c r="B164">
+        <v>553</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>60006</v>
+      </c>
+      <c r="B165">
+        <v>554</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>60007</v>
+      </c>
+      <c r="B166">
+        <v>555</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>60008</v>
+      </c>
+      <c r="B167">
+        <v>556</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>60009</v>
+      </c>
+      <c r="B168">
+        <v>557</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>60010</v>
+      </c>
+      <c r="B169">
+        <v>558</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>70001</v>
+      </c>
+      <c r="B170">
+        <v>3001</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>70002</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>70003</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>80001</v>
+      </c>
+      <c r="B173">
+        <v>7016</v>
+      </c>
+      <c r="C173">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>80002</v>
+      </c>
+      <c r="B174">
+        <v>7016</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>80003</v>
+      </c>
+      <c r="B175">
+        <v>7016</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>80004</v>
+      </c>
+      <c r="B176">
+        <v>7017</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>80005</v>
+      </c>
+      <c r="B177">
+        <v>7017</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>80006</v>
+      </c>
+      <c r="B178">
+        <v>7017</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>80007</v>
+      </c>
+      <c r="B179">
+        <v>7018</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>80008</v>
+      </c>
+      <c r="B180">
+        <v>7018</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>80009</v>
+      </c>
+      <c r="B181">
+        <v>7018</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>80010</v>
+      </c>
+      <c r="B182">
+        <v>7019</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>80011</v>
+      </c>
+      <c r="B183">
+        <v>7019</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>80012</v>
+      </c>
+      <c r="B184">
+        <v>7019</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>80013</v>
+      </c>
+      <c r="B185">
+        <v>7020</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>80014</v>
+      </c>
+      <c r="B186">
+        <v>7020</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>80015</v>
+      </c>
+      <c r="B187">
+        <v>7020</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>80016</v>
+      </c>
+      <c r="B188">
+        <v>7021</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>80017</v>
+      </c>
+      <c r="B189">
+        <v>7022</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>80018</v>
+      </c>
+      <c r="B190">
+        <v>7023</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>80019</v>
+      </c>
+      <c r="B191">
+        <v>7024</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>80020</v>
+      </c>
+      <c r="B192">
+        <v>7025</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>80021</v>
+      </c>
+      <c r="B193">
+        <v>7026</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>80022</v>
+      </c>
+      <c r="B194">
+        <v>7027</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>80023</v>
+      </c>
+      <c r="B195">
+        <v>7028</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>80024</v>
+      </c>
+      <c r="B196">
+        <v>7029</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>80025</v>
+      </c>
+      <c r="B197">
+        <v>7030</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>81001</v>
+      </c>
+      <c r="B198">
+        <v>6</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>81002</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>81003</v>
+      </c>
+      <c r="B200">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>81004</v>
+      </c>
+      <c r="B201">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>81005</v>
+      </c>
+      <c r="B202">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>81006</v>
+      </c>
+      <c r="B203">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>81007</v>
+      </c>
+      <c r="B204">
+        <v>8</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>81008</v>
+      </c>
+      <c r="B205">
+        <v>8</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>81009</v>
+      </c>
+      <c r="B206">
+        <v>8</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>81010</v>
+      </c>
+      <c r="B207">
+        <v>134</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>81011</v>
+      </c>
+      <c r="B208">
+        <v>135</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>81012</v>
+      </c>
+      <c r="B209">
+        <v>136</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>81013</v>
+      </c>
+      <c r="B210">
+        <v>137</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>81014</v>
+      </c>
+      <c r="B211">
+        <v>138</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>81015</v>
+      </c>
+      <c r="B212">
+        <v>139</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A213" s="3">
+        <v>83001</v>
+      </c>
+      <c r="B213" s="4">
+        <v>10010</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A214" s="3">
+        <v>83002</v>
+      </c>
+      <c r="B214" s="4">
+        <v>10011</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A215" s="3">
+        <v>83003</v>
+      </c>
+      <c r="B215" s="4">
+        <v>10012</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A216" s="3">
+        <v>83004</v>
+      </c>
+      <c r="B216" s="4">
+        <v>10004</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A217" s="3">
+        <v>83005</v>
+      </c>
+      <c r="B217" s="4">
+        <v>10005</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A218" s="3">
+        <v>83006</v>
+      </c>
+      <c r="B218" s="4">
+        <v>10006</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A219" s="3">
+        <v>83007</v>
+      </c>
+      <c r="B219" s="4">
+        <v>10007</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A220" s="3">
+        <v>83008</v>
+      </c>
+      <c r="B220" s="4">
+        <v>10008</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" s="3">
+        <v>83009</v>
+      </c>
+      <c r="B221" s="4">
+        <v>10009</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" s="3">
+        <v>83301</v>
+      </c>
+      <c r="B222">
+        <v>123</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" s="3">
+        <v>83302</v>
+      </c>
+      <c r="B223">
+        <v>124</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" s="3">
+        <v>83303</v>
+      </c>
+      <c r="B224">
+        <v>125</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" s="3">
+        <v>83304</v>
+      </c>
+      <c r="B225">
+        <v>126</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" s="3">
+        <v>83305</v>
+      </c>
+      <c r="B226">
+        <v>127</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" s="3">
         <v>83306</v>
       </c>
-      <c r="B160">
+      <c r="B227">
         <v>7021</v>
       </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="3">
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" s="3">
         <v>83307</v>
       </c>
-      <c r="B161">
+      <c r="B228">
         <v>7022</v>
       </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="3">
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" s="3">
         <v>83308</v>
       </c>
-      <c r="B162">
+      <c r="B229">
         <v>7023</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="3">
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" s="3">
         <v>83309</v>
       </c>
-      <c r="B163">
+      <c r="B230">
         <v>7024</v>
       </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="3">
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" s="3">
         <v>83310</v>
       </c>
-      <c r="B164">
+      <c r="B231">
         <v>7025</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" s="3">
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" s="3">
         <v>83311</v>
       </c>
-      <c r="B165">
+      <c r="B232">
         <v>7026</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" s="3">
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" s="3">
         <v>83312</v>
       </c>
-      <c r="B166">
+      <c r="B233">
         <v>7027</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" s="3">
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" s="3">
         <v>83313</v>
       </c>
-      <c r="B167">
+      <c r="B234">
         <v>7028</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="3">
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A235" s="3">
         <v>83314</v>
       </c>
-      <c r="B168">
+      <c r="B235">
         <v>7029</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169" s="3">
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A236" s="3">
         <v>83315</v>
       </c>
-      <c r="B169">
+      <c r="B236">
         <v>7030</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" s="5">
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A237" s="5">
         <v>84001</v>
       </c>
-      <c r="B170">
+      <c r="B237">
         <v>9003</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" s="5">
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A238" s="5">
         <v>84002</v>
       </c>
-      <c r="B171">
+      <c r="B238">
         <v>9005</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="5">
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A239" s="5">
         <v>84003</v>
       </c>
-      <c r="B172">
+      <c r="B239">
         <v>9002</v>
       </c>
-      <c r="C172">
+      <c r="C239">
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A173" s="5">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A240" s="5">
         <v>84004</v>
       </c>
-      <c r="B173">
+      <c r="B240">
         <v>123</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A174" s="5">
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A241" s="5">
         <v>84005</v>
       </c>
-      <c r="B174">
+      <c r="B241">
         <v>124</v>
       </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A175" s="5">
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A242" s="5">
         <v>84006</v>
       </c>
-      <c r="B175">
+      <c r="B242">
         <v>125</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176" s="5">
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A243" s="5">
         <v>84007</v>
       </c>
-      <c r="B176">
+      <c r="B243">
         <v>126</v>
       </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" s="5">
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A244" s="5">
         <v>84008</v>
       </c>
-      <c r="B177">
+      <c r="B244">
         <v>127</v>
       </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" s="5">
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A245" s="5">
         <v>84009</v>
       </c>
-      <c r="B178">
+      <c r="B245">
         <v>128</v>
       </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" s="5">
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A246" s="5">
         <v>84010</v>
       </c>
-      <c r="B179">
+      <c r="B246">
         <v>129</v>
       </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" s="5">
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A247" s="5">
         <v>84011</v>
       </c>
-      <c r="B180">
+      <c r="B247">
         <v>550</v>
       </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" s="5">
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A248" s="5">
         <v>84012</v>
       </c>
-      <c r="B181">
+      <c r="B248">
         <v>551</v>
       </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" s="5">
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A249" s="5">
         <v>84013</v>
       </c>
-      <c r="B182">
+      <c r="B249">
         <v>552</v>
       </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183" s="5">
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A250" s="5">
         <v>84014</v>
       </c>
-      <c r="B183">
+      <c r="B250">
         <v>553</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" s="5">
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A251" s="5">
         <v>84015</v>
       </c>
-      <c r="B184">
+      <c r="B251">
         <v>554</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" s="5">
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A252" s="5">
         <v>84016</v>
       </c>
-      <c r="B185">
+      <c r="B252">
         <v>555</v>
       </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" s="5">
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A253" s="5">
         <v>84017</v>
       </c>
-      <c r="B186">
+      <c r="B253">
         <v>556</v>
       </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" s="5">
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A254" s="5">
         <v>84018</v>
       </c>
-      <c r="B187">
+      <c r="B254">
         <v>557</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188" s="5">
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A255" s="5">
         <v>84019</v>
       </c>
-      <c r="B188">
+      <c r="B255">
         <v>558</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189" s="5">
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A256" s="5">
         <v>84020</v>
       </c>
-      <c r="B189">
+      <c r="B256">
         <v>559</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190" s="5">
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A257" s="5">
         <v>84021</v>
       </c>
-      <c r="B190">
+      <c r="B257">
         <v>134</v>
       </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A191" s="5">
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A258" s="5">
         <v>84022</v>
       </c>
-      <c r="B191">
+      <c r="B258">
         <v>135</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A192" s="5">
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A259" s="5">
         <v>84023</v>
       </c>
-      <c r="B192">
+      <c r="B259">
         <v>136</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A193" s="5">
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A260" s="5">
         <v>84024</v>
       </c>
-      <c r="B193">
+      <c r="B260">
         <v>137</v>
       </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" s="5">
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A261" s="5">
         <v>84025</v>
       </c>
-      <c r="B194">
+      <c r="B261">
         <v>138</v>
       </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" s="5">
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A262" s="5">
         <v>84026</v>
       </c>
-      <c r="B195">
+      <c r="B262">
         <v>139</v>
       </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" s="5">
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A263" s="5">
         <v>84027</v>
       </c>
-      <c r="B196">
+      <c r="B263">
         <v>500</v>
       </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A197" s="5">
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A264" s="5">
         <v>84028</v>
       </c>
-      <c r="B197">
+      <c r="B264">
         <v>501</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A198" s="5">
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A265" s="5">
         <v>84029</v>
       </c>
-      <c r="B198">
+      <c r="B265">
         <v>502</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A199" s="5">
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A266" s="5">
         <v>84030</v>
       </c>
-      <c r="B199">
+      <c r="B266">
         <v>503</v>
       </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A200" s="5">
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A267" s="5">
         <v>84031</v>
       </c>
-      <c r="B200">
+      <c r="B267">
         <v>504</v>
       </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A201" s="5">
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A268" s="5">
         <v>84032</v>
       </c>
-      <c r="B201">
+      <c r="B268">
         <v>505</v>
       </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A202" s="5">
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A269" s="5">
         <v>84033</v>
       </c>
-      <c r="B202">
+      <c r="B269">
         <v>506</v>
       </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A203" s="5">
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A270" s="5">
         <v>84034</v>
       </c>
-      <c r="B203">
+      <c r="B270">
         <v>507</v>
       </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A204" s="5">
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A271" s="5">
         <v>84035</v>
       </c>
-      <c r="B204">
+      <c r="B271">
         <v>508</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A205" s="5">
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A272" s="5">
         <v>84036</v>
       </c>
-      <c r="B205">
+      <c r="B272">
         <v>509</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A206" s="5">
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A273" s="5">
         <v>84037</v>
       </c>
-      <c r="B206">
+      <c r="B273">
         <v>600</v>
       </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A207" s="5">
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A274" s="5">
         <v>84038</v>
       </c>
-      <c r="B207">
+      <c r="B274">
         <v>9005</v>
       </c>
-      <c r="C207">
+      <c r="C274">
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208" s="5">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A275" s="5">
         <v>84039</v>
       </c>
-      <c r="B208">
+      <c r="B275">
         <v>9005</v>
       </c>
-      <c r="C208">
+      <c r="C275">
         <v>15</v>
       </c>
     </row>
@@ -3149,42 +3886,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08875B-2F82-42DB-A5CC-58C181EDC512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB34A6-15C1-4352-B68F-42EDF8B66D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,9 +243,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -272,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M275" totalsRowShown="0">
-  <autoFilter ref="A1:M275" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M287" totalsRowShown="0">
+  <autoFilter ref="A1:M287" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -590,32 +581,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M275"/>
+  <dimension ref="A1:M287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight" activeCell="L235" sqref="L235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -702,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -731,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -754,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -783,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -812,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -841,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -858,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -869,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -880,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -891,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -902,7 +893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -913,7 +904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2004</v>
       </c>
@@ -924,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -935,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -946,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -957,7 +948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2008</v>
       </c>
@@ -968,7 +959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -979,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -990,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -1001,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -1012,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10001</v>
       </c>
@@ -1023,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10002</v>
       </c>
@@ -1034,7 +1025,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>10003</v>
       </c>
@@ -1045,7 +1036,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>10004</v>
       </c>
@@ -1056,7 +1047,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10005</v>
       </c>
@@ -1067,7 +1058,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10006</v>
       </c>
@@ -1078,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10080</v>
       </c>
@@ -1089,7 +1080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10081</v>
       </c>
@@ -1106,7 +1097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10082</v>
       </c>
@@ -1129,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>11001</v>
       </c>
@@ -1170,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>11002</v>
       </c>
@@ -1181,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>11003</v>
       </c>
@@ -1216,7 +1207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>11004</v>
       </c>
@@ -1239,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>11005</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>12001</v>
       </c>
@@ -1261,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>12002</v>
       </c>
@@ -1272,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>12003</v>
       </c>
@@ -1283,7 +1274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>12004</v>
       </c>
@@ -1294,7 +1285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>12005</v>
       </c>
@@ -1305,7 +1296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>12006</v>
       </c>
@@ -1316,7 +1307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>12007</v>
       </c>
@@ -1327,7 +1318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>12008</v>
       </c>
@@ -1338,7 +1329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>12009</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>12010</v>
       </c>
@@ -1360,7 +1351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>12011</v>
       </c>
@@ -1371,7 +1362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>12012</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>12013</v>
       </c>
@@ -1393,7 +1384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>12014</v>
       </c>
@@ -1404,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>14001</v>
       </c>
@@ -1415,7 +1406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>14002</v>
       </c>
@@ -1426,7 +1417,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>14003</v>
       </c>
@@ -1437,7 +1428,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>14004</v>
       </c>
@@ -1448,7 +1439,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>14005</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>14006</v>
       </c>
@@ -1470,7 +1461,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>14007</v>
       </c>
@@ -1481,7 +1472,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>20001</v>
       </c>
@@ -1492,8 +1483,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
         <v>20002</v>
       </c>
       <c r="B60">
@@ -1503,8 +1494,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
         <v>20003</v>
       </c>
       <c r="B61">
@@ -1514,8 +1505,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
         <v>20004</v>
       </c>
       <c r="B62">
@@ -1525,8 +1516,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
         <v>20005</v>
       </c>
       <c r="B63">
@@ -1536,8 +1527,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
         <v>21001</v>
       </c>
       <c r="B64">
@@ -1547,8 +1538,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
         <v>21002</v>
       </c>
       <c r="B65">
@@ -1558,8 +1549,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="4">
         <v>21003</v>
       </c>
       <c r="B66">
@@ -1569,8 +1560,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="4">
         <v>21004</v>
       </c>
       <c r="B67">
@@ -1580,8 +1571,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="4">
         <v>21005</v>
       </c>
       <c r="B68">
@@ -1591,8 +1582,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="4">
         <v>21006</v>
       </c>
       <c r="B69">
@@ -1602,8 +1593,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="4">
         <v>21007</v>
       </c>
       <c r="B70">
@@ -1613,8 +1604,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
         <v>21008</v>
       </c>
       <c r="B71">
@@ -1624,8 +1615,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="4">
         <v>21009</v>
       </c>
       <c r="B72">
@@ -1635,8 +1626,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
         <v>21010</v>
       </c>
       <c r="B73">
@@ -1646,8 +1637,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="4">
         <v>21011</v>
       </c>
       <c r="B74">
@@ -1657,8 +1648,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
         <v>21012</v>
       </c>
       <c r="B75">
@@ -1668,8 +1659,8 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
         <v>21013</v>
       </c>
       <c r="B76">
@@ -1679,8 +1670,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
         <v>21014</v>
       </c>
       <c r="B77">
@@ -1690,8 +1681,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="4">
         <v>22001</v>
       </c>
       <c r="B78">
@@ -1701,8 +1692,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="4">
         <v>22002</v>
       </c>
       <c r="B79">
@@ -1712,8 +1703,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
         <v>22003</v>
       </c>
       <c r="B80">
@@ -1723,8 +1714,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="4">
         <v>22004</v>
       </c>
       <c r="B81">
@@ -1734,8 +1725,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="4">
         <v>22005</v>
       </c>
       <c r="B82">
@@ -1745,8 +1736,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
         <v>22006</v>
       </c>
       <c r="B83">
@@ -1756,8 +1747,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="4">
         <v>22007</v>
       </c>
       <c r="B84">
@@ -1767,8 +1758,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
         <v>22008</v>
       </c>
       <c r="B85">
@@ -1778,8 +1769,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
         <v>22009</v>
       </c>
       <c r="B86">
@@ -1789,8 +1780,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
         <v>22010</v>
       </c>
       <c r="B87">
@@ -1800,8 +1791,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
         <v>22011</v>
       </c>
       <c r="B88">
@@ -1811,8 +1802,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
         <v>22012</v>
       </c>
       <c r="B89">
@@ -1822,8 +1813,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
         <v>22013</v>
       </c>
       <c r="B90">
@@ -1833,8 +1824,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
         <v>22014</v>
       </c>
       <c r="B91">
@@ -1844,8 +1835,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
         <v>22015</v>
       </c>
       <c r="B92">
@@ -1855,8 +1846,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
         <v>22016</v>
       </c>
       <c r="B93">
@@ -1866,8 +1857,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
         <v>22017</v>
       </c>
       <c r="B94">
@@ -1877,8 +1868,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
         <v>22018</v>
       </c>
       <c r="B95">
@@ -1888,8 +1879,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="4">
         <v>22019</v>
       </c>
       <c r="B96">
@@ -1899,8 +1890,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
         <v>22020</v>
       </c>
       <c r="B97">
@@ -1910,8 +1901,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="4">
         <v>22021</v>
       </c>
       <c r="B98">
@@ -1921,8 +1912,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="4">
         <v>22022</v>
       </c>
       <c r="B99">
@@ -1932,8 +1923,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="4">
         <v>22023</v>
       </c>
       <c r="B100">
@@ -1943,8 +1934,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="4">
         <v>22024</v>
       </c>
       <c r="B101">
@@ -1954,8 +1945,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="4">
         <v>22025</v>
       </c>
       <c r="B102">
@@ -1965,8 +1956,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="4">
         <v>22026</v>
       </c>
       <c r="B103">
@@ -1976,8 +1967,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="4">
         <v>22027</v>
       </c>
       <c r="B104">
@@ -1987,8 +1978,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="4">
         <v>22028</v>
       </c>
       <c r="B105">
@@ -1998,8 +1989,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="4">
         <v>22029</v>
       </c>
       <c r="B106">
@@ -2009,8 +2000,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="4">
         <v>22030</v>
       </c>
       <c r="B107">
@@ -2020,8 +2011,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="4">
         <v>22031</v>
       </c>
       <c r="B108">
@@ -2031,8 +2022,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="4">
         <v>22032</v>
       </c>
       <c r="B109">
@@ -2042,8 +2033,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="4">
         <v>22033</v>
       </c>
       <c r="B110">
@@ -2053,8 +2044,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="4">
         <v>22034</v>
       </c>
       <c r="B111">
@@ -2064,8 +2055,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="4">
         <v>22035</v>
       </c>
       <c r="B112">
@@ -2075,8 +2066,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="4">
         <v>22036</v>
       </c>
       <c r="B113">
@@ -2086,8 +2077,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="4">
         <v>22037</v>
       </c>
       <c r="B114">
@@ -2097,8 +2088,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="4">
         <v>22038</v>
       </c>
       <c r="B115">
@@ -2108,8 +2099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="4">
         <v>22039</v>
       </c>
       <c r="B116">
@@ -2119,8 +2110,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="4">
         <v>22040</v>
       </c>
       <c r="B117">
@@ -2130,8 +2121,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="4">
         <v>22041</v>
       </c>
       <c r="B118">
@@ -2141,8 +2132,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="4">
         <v>22042</v>
       </c>
       <c r="B119">
@@ -2152,8 +2143,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="4">
         <v>22043</v>
       </c>
       <c r="B120">
@@ -2163,8 +2154,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="4">
         <v>22044</v>
       </c>
       <c r="B121">
@@ -2174,8 +2165,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="4">
         <v>22045</v>
       </c>
       <c r="B122">
@@ -2185,8 +2176,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="4">
         <v>22046</v>
       </c>
       <c r="B123">
@@ -2196,8 +2187,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="4">
         <v>22047</v>
       </c>
       <c r="B124">
@@ -2207,8 +2198,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
         <v>22048</v>
       </c>
       <c r="B125">
@@ -2218,8 +2209,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="4">
         <v>22049</v>
       </c>
       <c r="B126">
@@ -2229,8 +2220,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="4">
         <v>22050</v>
       </c>
       <c r="B127">
@@ -2240,8 +2231,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="4">
         <v>22051</v>
       </c>
       <c r="B128">
@@ -2251,8 +2242,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="4">
         <v>22052</v>
       </c>
       <c r="B129">
@@ -2262,8 +2253,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="4">
         <v>22053</v>
       </c>
       <c r="B130">
@@ -2273,8 +2264,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="4">
         <v>22054</v>
       </c>
       <c r="B131">
@@ -2284,8 +2275,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="4">
         <v>22055</v>
       </c>
       <c r="B132">
@@ -2295,8 +2286,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" s="3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="4">
         <v>22056</v>
       </c>
       <c r="B133">
@@ -2306,8 +2297,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="4">
         <v>22057</v>
       </c>
       <c r="B134">
@@ -2317,8 +2308,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" s="3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="4">
         <v>22100</v>
       </c>
       <c r="B135">
@@ -2328,8 +2319,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" s="3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="4">
         <v>22101</v>
       </c>
       <c r="B136">
@@ -2339,8 +2330,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" s="3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="4">
         <v>22102</v>
       </c>
       <c r="B137">
@@ -2350,8 +2341,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" s="3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="4">
         <v>22103</v>
       </c>
       <c r="B138">
@@ -2361,8 +2352,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="4">
         <v>22104</v>
       </c>
       <c r="B139">
@@ -2372,8 +2363,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140" s="3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="4">
         <v>22200</v>
       </c>
       <c r="B140">
@@ -2383,8 +2374,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" s="3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="4">
         <v>22201</v>
       </c>
       <c r="B141">
@@ -2394,8 +2385,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" s="3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="4">
         <v>22202</v>
       </c>
       <c r="B142">
@@ -2405,8 +2396,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="4">
         <v>22203</v>
       </c>
       <c r="B143">
@@ -2416,8 +2407,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" s="3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="4">
         <v>22204</v>
       </c>
       <c r="B144">
@@ -2427,8 +2418,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="4">
         <v>50001</v>
       </c>
       <c r="B145">
@@ -2438,8 +2429,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="4">
         <v>50002</v>
       </c>
       <c r="B146">
@@ -2449,8 +2440,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="4">
         <v>50003</v>
       </c>
       <c r="B147">
@@ -2460,8 +2451,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="4">
         <v>50004</v>
       </c>
       <c r="B148">
@@ -2471,8 +2462,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="4">
         <v>50005</v>
       </c>
       <c r="B149">
@@ -2482,8 +2473,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="4">
         <v>50006</v>
       </c>
       <c r="B150">
@@ -2493,8 +2484,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="4">
         <v>50007</v>
       </c>
       <c r="B151">
@@ -2504,8 +2495,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="4">
         <v>50008</v>
       </c>
       <c r="B152">
@@ -2515,8 +2506,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="4">
         <v>50009</v>
       </c>
       <c r="B153">
@@ -2526,8 +2517,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="4">
         <v>50010</v>
       </c>
       <c r="B154">
@@ -2537,8 +2528,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="4">
         <v>50011</v>
       </c>
       <c r="B155">
@@ -2548,8 +2539,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="4">
         <v>50012</v>
       </c>
       <c r="B156">
@@ -2559,8 +2550,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="4">
         <v>50013</v>
       </c>
       <c r="B157">
@@ -2570,8 +2561,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="4">
         <v>50014</v>
       </c>
       <c r="B158">
@@ -2581,8 +2572,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="4">
         <v>50015</v>
       </c>
       <c r="B159">
@@ -2592,8 +2583,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="4">
         <v>60001</v>
       </c>
       <c r="B160">
@@ -2603,8 +2594,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="4">
         <v>60002</v>
       </c>
       <c r="B161">
@@ -2614,8 +2605,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="4">
         <v>60003</v>
       </c>
       <c r="B162">
@@ -2625,8 +2616,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="4">
         <v>60004</v>
       </c>
       <c r="B163">
@@ -2636,8 +2627,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="4">
         <v>60005</v>
       </c>
       <c r="B164">
@@ -2647,8 +2638,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="4">
         <v>60006</v>
       </c>
       <c r="B165">
@@ -2658,8 +2649,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="4">
         <v>60007</v>
       </c>
       <c r="B166">
@@ -2669,8 +2660,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="4">
         <v>60008</v>
       </c>
       <c r="B167">
@@ -2680,7 +2671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>60009</v>
       </c>
@@ -2691,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>60010</v>
       </c>
@@ -2702,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>70001</v>
       </c>
@@ -2713,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>70002</v>
       </c>
@@ -2724,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>70003</v>
       </c>
@@ -2735,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>80001</v>
       </c>
@@ -2746,7 +2737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>80002</v>
       </c>
@@ -2757,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>80003</v>
       </c>
@@ -2768,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>80004</v>
       </c>
@@ -2779,7 +2770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>80005</v>
       </c>
@@ -2790,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>80006</v>
       </c>
@@ -2801,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>80007</v>
       </c>
@@ -2812,7 +2803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>80008</v>
       </c>
@@ -2823,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>80009</v>
       </c>
@@ -2834,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>80010</v>
       </c>
@@ -2845,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>80011</v>
       </c>
@@ -2856,7 +2847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>80012</v>
       </c>
@@ -2867,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>80013</v>
       </c>
@@ -2878,7 +2869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>80014</v>
       </c>
@@ -2889,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>80015</v>
       </c>
@@ -2900,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>80016</v>
       </c>
@@ -2911,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>80017</v>
       </c>
@@ -2922,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>80018</v>
       </c>
@@ -2933,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>80019</v>
       </c>
@@ -2944,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>80020</v>
       </c>
@@ -2955,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>80021</v>
       </c>
@@ -2966,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>80022</v>
       </c>
@@ -2977,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>80023</v>
       </c>
@@ -2988,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>80024</v>
       </c>
@@ -2999,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>80025</v>
       </c>
@@ -3010,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>81001</v>
       </c>
@@ -3021,7 +3012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>81002</v>
       </c>
@@ -3032,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>81003</v>
       </c>
@@ -3043,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>81004</v>
       </c>
@@ -3054,7 +3045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>81005</v>
       </c>
@@ -3065,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>81006</v>
       </c>
@@ -3076,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>81007</v>
       </c>
@@ -3087,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>81008</v>
       </c>
@@ -3098,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>81009</v>
       </c>
@@ -3109,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>81010</v>
       </c>
@@ -3120,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>81011</v>
       </c>
@@ -3131,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>81012</v>
       </c>
@@ -3142,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>81013</v>
       </c>
@@ -3153,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>81014</v>
       </c>
@@ -3164,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>81015</v>
       </c>
@@ -3175,698 +3166,893 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A213" s="3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" s="4">
         <v>83001</v>
       </c>
       <c r="B213" s="4">
         <v>10010</v>
       </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A214" s="3">
+      <c r="C213" s="4">
+        <v>1</v>
+      </c>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" s="4">
         <v>83002</v>
       </c>
       <c r="B214" s="4">
         <v>10011</v>
       </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A215" s="3">
+      <c r="C214" s="4">
+        <v>1</v>
+      </c>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" s="4">
         <v>83003</v>
       </c>
       <c r="B215" s="4">
         <v>10012</v>
       </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A216" s="3">
+      <c r="C215" s="4">
+        <v>1</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" s="4">
         <v>83004</v>
       </c>
       <c r="B216" s="4">
         <v>10004</v>
       </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A217" s="3">
+      <c r="C216" s="4">
+        <v>1</v>
+      </c>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" s="4">
         <v>83005</v>
       </c>
       <c r="B217" s="4">
         <v>10005</v>
       </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A218" s="3">
+      <c r="C217" s="4">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="4">
         <v>83006</v>
       </c>
       <c r="B218" s="4">
         <v>10006</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A219" s="3">
+      <c r="C218" s="4">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="4">
         <v>83007</v>
       </c>
       <c r="B219" s="4">
         <v>10007</v>
       </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A220" s="3">
+      <c r="C219" s="4">
+        <v>1</v>
+      </c>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" s="4">
         <v>83008</v>
       </c>
       <c r="B220" s="4">
         <v>10008</v>
       </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A221" s="3">
+      <c r="C220" s="4">
+        <v>1</v>
+      </c>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="4">
         <v>83009</v>
       </c>
       <c r="B221" s="4">
         <v>10009</v>
       </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C221" s="4">
+        <v>1</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="3">
+        <v>83010</v>
+      </c>
+      <c r="B222" s="3">
+        <v>10013</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="3">
+        <v>83011</v>
+      </c>
+      <c r="B223" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="3">
+        <v>83012</v>
+      </c>
+      <c r="B224" s="3">
+        <v>10015</v>
+      </c>
+      <c r="C224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="3">
+        <v>83013</v>
+      </c>
+      <c r="B225" s="3">
+        <v>10016</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="3">
+        <v>83014</v>
+      </c>
+      <c r="B226" s="3">
+        <v>10017</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="3">
+        <v>83015</v>
+      </c>
+      <c r="B227" s="3">
+        <v>10018</v>
+      </c>
+      <c r="C227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="3">
+        <v>83016</v>
+      </c>
+      <c r="B228" s="3">
+        <v>10019</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="3">
+        <v>83017</v>
+      </c>
+      <c r="B229" s="3">
+        <v>10020</v>
+      </c>
+      <c r="C229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="3">
+        <v>83018</v>
+      </c>
+      <c r="B230" s="3">
+        <v>10021</v>
+      </c>
+      <c r="C230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="3">
+        <v>83019</v>
+      </c>
+      <c r="B231" s="3">
+        <v>10022</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="3">
+        <v>83020</v>
+      </c>
+      <c r="B232" s="3">
+        <v>10023</v>
+      </c>
+      <c r="C232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="3">
+        <v>83021</v>
+      </c>
+      <c r="B233" s="3">
+        <v>10024</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="4">
         <v>83301</v>
       </c>
-      <c r="B222">
+      <c r="B234" s="4">
         <v>123</v>
       </c>
-      <c r="C222">
+      <c r="C234" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A223" s="3">
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="4">
         <v>83302</v>
       </c>
-      <c r="B223">
+      <c r="B235" s="4">
         <v>124</v>
       </c>
-      <c r="C223">
+      <c r="C235" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A224" s="3">
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="4">
         <v>83303</v>
       </c>
-      <c r="B224">
+      <c r="B236" s="4">
         <v>125</v>
       </c>
-      <c r="C224">
+      <c r="C236" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A225" s="3">
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" s="4">
         <v>83304</v>
       </c>
-      <c r="B225">
+      <c r="B237" s="4">
         <v>126</v>
       </c>
-      <c r="C225">
+      <c r="C237" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A226" s="3">
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238" s="4">
         <v>83305</v>
       </c>
-      <c r="B226">
+      <c r="B238" s="4">
         <v>127</v>
       </c>
-      <c r="C226">
+      <c r="C238" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A227" s="3">
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239" s="4">
         <v>83306</v>
       </c>
-      <c r="B227">
+      <c r="B239" s="4">
         <v>7021</v>
       </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A228" s="3">
+      <c r="C239" s="4">
+        <v>1</v>
+      </c>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="4">
         <v>83307</v>
       </c>
-      <c r="B228">
+      <c r="B240" s="4">
         <v>7022</v>
       </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A229" s="3">
+      <c r="C240" s="4">
+        <v>1</v>
+      </c>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" s="4">
         <v>83308</v>
       </c>
-      <c r="B229">
+      <c r="B241" s="4">
         <v>7023</v>
       </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A230" s="3">
+      <c r="C241" s="4">
+        <v>1</v>
+      </c>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="4">
         <v>83309</v>
       </c>
-      <c r="B230">
+      <c r="B242" s="4">
         <v>7024</v>
       </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A231" s="3">
+      <c r="C242" s="4">
+        <v>1</v>
+      </c>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="4">
         <v>83310</v>
       </c>
-      <c r="B231">
+      <c r="B243" s="4">
         <v>7025</v>
       </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A232" s="3">
+      <c r="C243" s="4">
+        <v>1</v>
+      </c>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="4">
         <v>83311</v>
       </c>
-      <c r="B232">
+      <c r="B244" s="4">
         <v>7026</v>
       </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A233" s="3">
+      <c r="C244" s="4">
+        <v>1</v>
+      </c>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="4">
         <v>83312</v>
       </c>
-      <c r="B233">
+      <c r="B245" s="4">
         <v>7027</v>
       </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A234" s="3">
+      <c r="C245" s="4">
+        <v>1</v>
+      </c>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="4">
         <v>83313</v>
       </c>
-      <c r="B234">
+      <c r="B246" s="4">
         <v>7028</v>
       </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A235" s="3">
+      <c r="C246" s="4">
+        <v>1</v>
+      </c>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="4">
         <v>83314</v>
       </c>
-      <c r="B235">
+      <c r="B247" s="4">
         <v>7029</v>
       </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A236" s="3">
+      <c r="C247" s="4">
+        <v>1</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="4">
         <v>83315</v>
       </c>
-      <c r="B236">
+      <c r="B248" s="4">
         <v>7030</v>
       </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A237" s="5">
+      <c r="C248" s="4">
+        <v>1</v>
+      </c>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="4">
         <v>84001</v>
       </c>
-      <c r="B237">
+      <c r="B249" s="4">
         <v>9003</v>
       </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A238" s="5">
+      <c r="C249" s="4">
+        <v>1</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="4">
         <v>84002</v>
       </c>
-      <c r="B238">
+      <c r="B250" s="4">
         <v>9005</v>
       </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A239" s="5">
+      <c r="C250" s="4">
+        <v>1</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="4">
         <v>84003</v>
       </c>
-      <c r="B239">
+      <c r="B251" s="4">
         <v>9002</v>
       </c>
-      <c r="C239">
+      <c r="C251" s="4">
         <v>300</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A240" s="5">
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="4">
         <v>84004</v>
       </c>
-      <c r="B240">
+      <c r="B252" s="4">
         <v>123</v>
       </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A241" s="5">
+      <c r="C252" s="4">
+        <v>1</v>
+      </c>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="4">
         <v>84005</v>
       </c>
-      <c r="B241">
+      <c r="B253" s="4">
         <v>124</v>
       </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A242" s="5">
+      <c r="C253" s="4">
+        <v>1</v>
+      </c>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="4">
         <v>84006</v>
       </c>
-      <c r="B242">
+      <c r="B254" s="4">
         <v>125</v>
       </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A243" s="5">
+      <c r="C254" s="4">
+        <v>1</v>
+      </c>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="4">
         <v>84007</v>
       </c>
-      <c r="B243">
+      <c r="B255" s="4">
         <v>126</v>
       </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A244" s="5">
+      <c r="C255" s="4">
+        <v>1</v>
+      </c>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="4">
         <v>84008</v>
       </c>
-      <c r="B244">
+      <c r="B256" s="4">
         <v>127</v>
       </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A245" s="5">
+      <c r="C256" s="4">
+        <v>1</v>
+      </c>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" s="4">
         <v>84009</v>
       </c>
-      <c r="B245">
+      <c r="B257" s="4">
         <v>128</v>
       </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A246" s="5">
+      <c r="C257" s="4">
+        <v>1</v>
+      </c>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="4">
         <v>84010</v>
       </c>
-      <c r="B246">
+      <c r="B258" s="4">
         <v>129</v>
       </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A247" s="5">
+      <c r="C258" s="4">
+        <v>1</v>
+      </c>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="4">
         <v>84011</v>
       </c>
-      <c r="B247">
+      <c r="B259" s="4">
         <v>550</v>
       </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A248" s="5">
+      <c r="C259" s="4">
+        <v>1</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="4">
         <v>84012</v>
       </c>
-      <c r="B248">
+      <c r="B260" s="4">
         <v>551</v>
       </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A249" s="5">
+      <c r="C260" s="4">
+        <v>1</v>
+      </c>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="4">
         <v>84013</v>
       </c>
-      <c r="B249">
+      <c r="B261" s="4">
         <v>552</v>
       </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A250" s="5">
+      <c r="C261" s="4">
+        <v>1</v>
+      </c>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="4">
         <v>84014</v>
       </c>
-      <c r="B250">
+      <c r="B262" s="4">
         <v>553</v>
       </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A251" s="5">
+      <c r="C262" s="4">
+        <v>1</v>
+      </c>
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" s="4">
         <v>84015</v>
       </c>
-      <c r="B251">
+      <c r="B263" s="4">
         <v>554</v>
       </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A252" s="5">
+      <c r="C263" s="4">
+        <v>1</v>
+      </c>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" s="4">
         <v>84016</v>
       </c>
-      <c r="B252">
+      <c r="B264" s="4">
         <v>555</v>
       </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A253" s="5">
+      <c r="C264" s="4">
+        <v>1</v>
+      </c>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" s="4">
         <v>84017</v>
       </c>
-      <c r="B253">
+      <c r="B265" s="4">
         <v>556</v>
       </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A254" s="5">
+      <c r="C265" s="4">
+        <v>1</v>
+      </c>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="4">
         <v>84018</v>
       </c>
-      <c r="B254">
+      <c r="B266" s="4">
         <v>557</v>
       </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A255" s="5">
+      <c r="C266" s="4">
+        <v>1</v>
+      </c>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" s="4">
         <v>84019</v>
       </c>
-      <c r="B255">
+      <c r="B267" s="4">
         <v>558</v>
       </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A256" s="5">
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="4">
         <v>84020</v>
       </c>
-      <c r="B256">
+      <c r="B268" s="4">
         <v>559</v>
       </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A257" s="5">
+      <c r="C268" s="4">
+        <v>1</v>
+      </c>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="4">
         <v>84021</v>
       </c>
-      <c r="B257">
+      <c r="B269" s="4">
         <v>134</v>
       </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A258" s="5">
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="4">
         <v>84022</v>
       </c>
-      <c r="B258">
+      <c r="B270" s="4">
         <v>135</v>
       </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A259" s="5">
+      <c r="C270" s="4">
+        <v>1</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="4">
         <v>84023</v>
       </c>
-      <c r="B259">
+      <c r="B271" s="4">
         <v>136</v>
       </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A260" s="5">
+      <c r="C271" s="4">
+        <v>1</v>
+      </c>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="4">
         <v>84024</v>
       </c>
-      <c r="B260">
+      <c r="B272" s="4">
         <v>137</v>
       </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A261" s="5">
+      <c r="C272" s="4">
+        <v>1</v>
+      </c>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="4">
         <v>84025</v>
       </c>
-      <c r="B261">
+      <c r="B273" s="4">
         <v>138</v>
       </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A262" s="5">
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="4">
         <v>84026</v>
       </c>
-      <c r="B262">
+      <c r="B274" s="4">
         <v>139</v>
       </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A263" s="5">
+      <c r="C274" s="4">
+        <v>1</v>
+      </c>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="4">
         <v>84027</v>
       </c>
-      <c r="B263">
+      <c r="B275" s="4">
         <v>500</v>
       </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A264" s="5">
+      <c r="C275" s="4">
+        <v>1</v>
+      </c>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="4">
         <v>84028</v>
       </c>
-      <c r="B264">
+      <c r="B276" s="4">
         <v>501</v>
       </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A265" s="5">
+      <c r="C276" s="4">
+        <v>1</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="4">
         <v>84029</v>
       </c>
-      <c r="B265">
+      <c r="B277" s="4">
         <v>502</v>
       </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A266" s="5">
+      <c r="C277" s="4">
+        <v>1</v>
+      </c>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="4">
         <v>84030</v>
       </c>
-      <c r="B266">
+      <c r="B278" s="4">
         <v>503</v>
       </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A267" s="5">
+      <c r="C278" s="4">
+        <v>1</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="4">
         <v>84031</v>
       </c>
-      <c r="B267">
+      <c r="B279" s="4">
         <v>504</v>
       </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A268" s="5">
+      <c r="C279" s="4">
+        <v>1</v>
+      </c>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="4">
         <v>84032</v>
       </c>
-      <c r="B268">
+      <c r="B280" s="4">
         <v>505</v>
       </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A269" s="5">
+      <c r="C280" s="4">
+        <v>1</v>
+      </c>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="4">
         <v>84033</v>
       </c>
-      <c r="B269">
+      <c r="B281" s="4">
         <v>506</v>
       </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A270" s="5">
+      <c r="C281" s="4">
+        <v>1</v>
+      </c>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="4">
         <v>84034</v>
       </c>
-      <c r="B270">
+      <c r="B282" s="4">
         <v>507</v>
       </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A271" s="5">
+      <c r="C282" s="4">
+        <v>1</v>
+      </c>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="4">
         <v>84035</v>
       </c>
-      <c r="B271">
+      <c r="B283" s="4">
         <v>508</v>
       </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A272" s="5">
+      <c r="C283" s="4">
+        <v>1</v>
+      </c>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="4">
         <v>84036</v>
       </c>
-      <c r="B272">
+      <c r="B284" s="4">
         <v>509</v>
       </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A273" s="5">
+      <c r="C284" s="4">
+        <v>1</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="4">
         <v>84037</v>
       </c>
-      <c r="B273">
+      <c r="B285" s="4">
         <v>600</v>
       </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A274" s="5">
+      <c r="C285" s="4">
+        <v>1</v>
+      </c>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="4">
         <v>84038</v>
       </c>
-      <c r="B274">
+      <c r="B286" s="4">
         <v>9005</v>
       </c>
-      <c r="C274">
+      <c r="C286" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A275" s="5">
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="4">
         <v>84039</v>
       </c>
-      <c r="B275">
+      <c r="B287" s="4">
         <v>9005</v>
       </c>
-      <c r="C275">
+      <c r="C287" s="4">
         <v>15</v>
       </c>
+      <c r="D287" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3886,42 +4072,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB34A6-15C1-4352-B68F-42EDF8B66D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F04450-C211-44CB-8F58-73622CF54164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21690" windowHeight="12525" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M287" totalsRowShown="0">
-  <autoFilter ref="A1:M287" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M301" totalsRowShown="0">
+  <autoFilter ref="A1:M301" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M287"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L235" sqref="L235"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -851,21 +851,27 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1026</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1027</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -873,10 +879,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B12">
-        <v>10004</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -884,21 +890,21 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B13">
-        <v>1001</v>
+        <v>10004</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B14">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -906,18 +912,18 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B15">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B16">
         <v>3001</v>
@@ -926,9 +932,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B17">
         <v>3001</v>
@@ -937,279 +943,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18">
+        <v>3001</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>135</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>2008</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>9004</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>2009</v>
-      </c>
-      <c r="B20">
-        <v>9003</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>2010</v>
       </c>
       <c r="B21">
         <v>9003</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22">
+        <v>9003</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>2011</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>10005</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>9003</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>10001</v>
-      </c>
-      <c r="B24">
-        <v>9000</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>10002</v>
       </c>
       <c r="B25">
         <v>9000</v>
       </c>
       <c r="C25">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B26">
         <v>9000</v>
       </c>
       <c r="C26">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B27">
         <v>9000</v>
       </c>
       <c r="C27">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B28">
         <v>9000</v>
       </c>
       <c r="C28">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>10005</v>
+      </c>
+      <c r="B29">
+        <v>9000</v>
+      </c>
+      <c r="C29">
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>10006</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>9004</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>10080</v>
-      </c>
-      <c r="B30">
-        <v>9000</v>
-      </c>
-      <c r="C30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>10081</v>
       </c>
       <c r="B31">
         <v>9000</v>
       </c>
       <c r="C31">
-        <v>130</v>
-      </c>
-      <c r="D31">
-        <v>9001</v>
-      </c>
-      <c r="E31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>10082</v>
+        <v>10081</v>
       </c>
       <c r="B32">
         <v>9000</v>
       </c>
       <c r="C32">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="D32">
         <v>9001</v>
       </c>
       <c r="E32">
-        <v>500</v>
-      </c>
-      <c r="F32">
-        <v>3001</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>11001</v>
+        <v>10082</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>9000</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D33">
-        <v>103</v>
+        <v>9001</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F33">
-        <v>104</v>
+        <v>3001</v>
       </c>
       <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>112</v>
-      </c>
-      <c r="I33">
-        <v>50</v>
-      </c>
-      <c r="J33">
-        <v>107</v>
-      </c>
-      <c r="K33">
-        <v>50</v>
-      </c>
-      <c r="L33">
-        <v>3001</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B34">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>103</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>104</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>112</v>
+      </c>
+      <c r="I34">
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <v>107</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34">
         <v>3001</v>
       </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="M34">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B35">
         <v>3001</v>
       </c>
       <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>1004</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35">
-        <v>1005</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>1006</v>
-      </c>
-      <c r="I35">
-        <v>100</v>
-      </c>
-      <c r="J35">
-        <v>1007</v>
-      </c>
-      <c r="K35">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B36">
         <v>3001</v>
@@ -1218,57 +1200,81 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>1006</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>1007</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B37">
         <v>3001</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>12001</v>
+        <v>11005</v>
       </c>
       <c r="B38">
         <v>3001</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B39">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B40">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C40">
         <v>60</v>
@@ -1276,10 +1282,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="B41">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C41">
         <v>60</v>
@@ -1287,10 +1293,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="B42">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C42">
         <v>60</v>
@@ -1298,10 +1304,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>12006</v>
+        <v>12005</v>
       </c>
       <c r="B43">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C43">
         <v>60</v>
@@ -1309,10 +1315,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="B44">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C44">
         <v>60</v>
@@ -1320,10 +1326,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="B45">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C45">
         <v>60</v>
@@ -1331,10 +1337,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="B46">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C46">
         <v>60</v>
@@ -1342,10 +1348,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="B47">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C47">
         <v>60</v>
@@ -1353,10 +1359,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>12011</v>
+        <v>12010</v>
       </c>
       <c r="B48">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -1364,10 +1370,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>12012</v>
+        <v>12011</v>
       </c>
       <c r="B49">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -1375,10 +1381,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>12013</v>
+        <v>12012</v>
       </c>
       <c r="B50">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C50">
         <v>60</v>
@@ -1386,10 +1392,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="B51">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C51">
         <v>60</v>
@@ -1397,120 +1403,120 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>14001</v>
+        <v>12014</v>
       </c>
       <c r="B52">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C52">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>14002</v>
+        <v>14001</v>
       </c>
       <c r="B53">
         <v>9002</v>
       </c>
       <c r="C53">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>14003</v>
+        <v>14002</v>
       </c>
       <c r="B54">
         <v>9002</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>14004</v>
+        <v>14003</v>
       </c>
       <c r="B55">
         <v>9002</v>
       </c>
       <c r="C55">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>14005</v>
+        <v>14004</v>
       </c>
       <c r="B56">
         <v>9002</v>
       </c>
       <c r="C56">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>14006</v>
+        <v>14005</v>
       </c>
       <c r="B57">
         <v>9002</v>
       </c>
       <c r="C57">
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>14007</v>
+        <v>14006</v>
       </c>
       <c r="B58">
         <v>9002</v>
       </c>
       <c r="C58">
-        <v>11000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
+        <v>14007</v>
+      </c>
+      <c r="B59">
+        <v>9002</v>
+      </c>
+      <c r="C59">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
         <v>20001</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>102</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="4">
-        <v>20002</v>
-      </c>
-      <c r="B60">
-        <v>9001</v>
-      </c>
-      <c r="C60">
-        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B61">
-        <v>1001</v>
+        <v>9001</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B62">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -1518,32 +1524,32 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B63">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
-        <v>21001</v>
+        <v>20005</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>9002</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1551,21 +1557,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
-        <v>21003</v>
+        <v>21002</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
-        <v>21004</v>
+        <v>21003</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1573,40 +1579,40 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
-        <v>21006</v>
+        <v>21005</v>
       </c>
       <c r="B69">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
-        <v>21007</v>
+        <v>21006</v>
       </c>
       <c r="B70">
-        <v>3001</v>
+        <v>600</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
-        <v>21008</v>
+        <v>21007</v>
       </c>
       <c r="B71">
         <v>3001</v>
@@ -1617,7 +1623,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="B72">
         <v>3001</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
-        <v>21010</v>
+        <v>21009</v>
       </c>
       <c r="B73">
         <v>3001</v>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="B74">
         <v>3001</v>
@@ -1650,65 +1656,65 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
-        <v>21012</v>
+        <v>21011</v>
       </c>
       <c r="B75">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C75">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
-        <v>21013</v>
+        <v>21012</v>
       </c>
       <c r="B76">
         <v>9001</v>
       </c>
       <c r="C76">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
-        <v>21014</v>
+        <v>21013</v>
       </c>
       <c r="B77">
         <v>9001</v>
       </c>
       <c r="C77">
-        <v>5000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
-        <v>22001</v>
+        <v>21014</v>
       </c>
       <c r="B78">
-        <v>9004</v>
+        <v>9001</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
-        <v>22002</v>
+        <v>22001</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>9004</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
-        <v>22003</v>
+        <v>22002</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1716,10 +1722,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
-        <v>22004</v>
+        <v>22003</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1727,10 +1733,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
-        <v>22005</v>
+        <v>22004</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1738,10 +1744,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
-        <v>22006</v>
+        <v>22005</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1749,10 +1755,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
-        <v>22007</v>
+        <v>22006</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1760,10 +1766,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
-        <v>22008</v>
+        <v>22007</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1771,10 +1777,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
-        <v>22009</v>
+        <v>22008</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1782,10 +1788,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
-        <v>22010</v>
+        <v>22009</v>
       </c>
       <c r="B87">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1793,10 +1799,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
-        <v>22011</v>
+        <v>22010</v>
       </c>
       <c r="B88">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1804,10 +1810,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
-        <v>22012</v>
+        <v>22011</v>
       </c>
       <c r="B89">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1815,10 +1821,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
-        <v>22013</v>
+        <v>22012</v>
       </c>
       <c r="B90">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1826,10 +1832,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
-        <v>22014</v>
+        <v>22013</v>
       </c>
       <c r="B91">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1837,10 +1843,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
-        <v>22015</v>
+        <v>22014</v>
       </c>
       <c r="B92">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1848,10 +1854,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
-        <v>22016</v>
+        <v>22015</v>
       </c>
       <c r="B93">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1859,10 +1865,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
-        <v>22017</v>
+        <v>22016</v>
       </c>
       <c r="B94">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1870,10 +1876,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
-        <v>22018</v>
+        <v>22017</v>
       </c>
       <c r="B95">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1881,10 +1887,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
-        <v>22019</v>
+        <v>22018</v>
       </c>
       <c r="B96">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1892,10 +1898,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
-        <v>22020</v>
+        <v>22019</v>
       </c>
       <c r="B97">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1903,10 +1909,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
-        <v>22021</v>
+        <v>22020</v>
       </c>
       <c r="B98">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1914,10 +1920,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
-        <v>22022</v>
+        <v>22021</v>
       </c>
       <c r="B99">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1925,10 +1931,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
-        <v>22023</v>
+        <v>22022</v>
       </c>
       <c r="B100">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1936,10 +1942,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
-        <v>22024</v>
+        <v>22023</v>
       </c>
       <c r="B101">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1947,10 +1953,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
-        <v>22025</v>
+        <v>22024</v>
       </c>
       <c r="B102">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1958,10 +1964,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
-        <v>22026</v>
+        <v>22025</v>
       </c>
       <c r="B103">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1969,10 +1975,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>22027</v>
+        <v>22026</v>
       </c>
       <c r="B104">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1980,10 +1986,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
-        <v>22028</v>
+        <v>22027</v>
       </c>
       <c r="B105">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1991,10 +1997,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
-        <v>22029</v>
+        <v>22028</v>
       </c>
       <c r="B106">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2002,10 +2008,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
-        <v>22030</v>
+        <v>22029</v>
       </c>
       <c r="B107">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2013,10 +2019,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
-        <v>22031</v>
+        <v>22030</v>
       </c>
       <c r="B108">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2024,10 +2030,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
-        <v>22032</v>
+        <v>22031</v>
       </c>
       <c r="B109">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2035,10 +2041,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
-        <v>22033</v>
+        <v>22032</v>
       </c>
       <c r="B110">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2046,10 +2052,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
-        <v>22034</v>
+        <v>22033</v>
       </c>
       <c r="B111">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2057,10 +2063,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
-        <v>22035</v>
+        <v>22034</v>
       </c>
       <c r="B112">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2068,10 +2074,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
-        <v>22036</v>
+        <v>22035</v>
       </c>
       <c r="B113">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2079,10 +2085,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
-        <v>22037</v>
+        <v>22036</v>
       </c>
       <c r="B114">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2090,10 +2096,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
-        <v>22038</v>
+        <v>22037</v>
       </c>
       <c r="B115">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2101,10 +2107,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
-        <v>22039</v>
+        <v>22038</v>
       </c>
       <c r="B116">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -2112,10 +2118,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
-        <v>22040</v>
+        <v>22039</v>
       </c>
       <c r="B117">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2123,10 +2129,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
-        <v>22041</v>
+        <v>22040</v>
       </c>
       <c r="B118">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2134,10 +2140,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
-        <v>22042</v>
+        <v>22041</v>
       </c>
       <c r="B119">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2145,10 +2151,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
-        <v>22043</v>
+        <v>22042</v>
       </c>
       <c r="B120">
-        <v>7016</v>
+        <v>559</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2156,10 +2162,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
-        <v>22044</v>
+        <v>22043</v>
       </c>
       <c r="B121">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -2167,10 +2173,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
-        <v>22045</v>
+        <v>22044</v>
       </c>
       <c r="B122">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2178,10 +2184,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
-        <v>22046</v>
+        <v>22045</v>
       </c>
       <c r="B123">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2189,10 +2195,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
-        <v>22047</v>
+        <v>22046</v>
       </c>
       <c r="B124">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -2200,10 +2206,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
-        <v>22048</v>
+        <v>22047</v>
       </c>
       <c r="B125">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -2211,10 +2217,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
-        <v>22049</v>
+        <v>22048</v>
       </c>
       <c r="B126">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2222,10 +2228,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
-        <v>22050</v>
+        <v>22049</v>
       </c>
       <c r="B127">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2233,10 +2239,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
-        <v>22051</v>
+        <v>22050</v>
       </c>
       <c r="B128">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2244,10 +2250,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
-        <v>22052</v>
+        <v>22051</v>
       </c>
       <c r="B129">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2255,10 +2261,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
-        <v>22053</v>
+        <v>22052</v>
       </c>
       <c r="B130">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2266,10 +2272,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
-        <v>22054</v>
+        <v>22053</v>
       </c>
       <c r="B131">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2277,10 +2283,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
-        <v>22055</v>
+        <v>22054</v>
       </c>
       <c r="B132">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2288,10 +2294,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
-        <v>22056</v>
+        <v>22055</v>
       </c>
       <c r="B133">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2299,10 +2305,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
-        <v>22057</v>
+        <v>22056</v>
       </c>
       <c r="B134">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2310,109 +2316,109 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
-        <v>22100</v>
+        <v>22057</v>
       </c>
       <c r="B135">
-        <v>9004</v>
+        <v>7030</v>
       </c>
       <c r="C135">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
-        <v>22101</v>
+        <v>22100</v>
       </c>
       <c r="B136">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="4">
-        <v>22102</v>
+        <v>22101</v>
       </c>
       <c r="B137">
-        <v>3001</v>
+        <v>9002</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
-        <v>22103</v>
+        <v>22102</v>
       </c>
       <c r="B138">
-        <v>9004</v>
+        <v>3001</v>
       </c>
       <c r="C138">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="4">
-        <v>22104</v>
+        <v>22103</v>
       </c>
       <c r="B139">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
-        <v>22200</v>
+        <v>22104</v>
       </c>
       <c r="B140">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C140">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="4">
-        <v>22201</v>
+        <v>22200</v>
       </c>
       <c r="B141">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
-        <v>22202</v>
+        <v>22201</v>
       </c>
       <c r="B142">
         <v>9002</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="4">
-        <v>22203</v>
+        <v>22202</v>
       </c>
       <c r="B143">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="4">
-        <v>22204</v>
+        <v>22203</v>
       </c>
       <c r="B144">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -2420,186 +2426,186 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="4">
-        <v>50001</v>
+        <v>22204</v>
       </c>
       <c r="B145">
-        <v>123</v>
+        <v>9005</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="4">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B146">
         <v>123</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="4">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B147">
         <v>123</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="4">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B148">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C148">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="4">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B149">
         <v>124</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="4">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B150">
         <v>124</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="4">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B151">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C151">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="4">
-        <v>50008</v>
+        <v>50007</v>
       </c>
       <c r="B152">
         <v>125</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="4">
-        <v>50009</v>
+        <v>50008</v>
       </c>
       <c r="B153">
         <v>125</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="4">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="B154">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="4">
-        <v>50011</v>
+        <v>50010</v>
       </c>
       <c r="B155">
         <v>126</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="4">
-        <v>50012</v>
+        <v>50011</v>
       </c>
       <c r="B156">
         <v>126</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="4">
-        <v>50013</v>
+        <v>50012</v>
       </c>
       <c r="B157">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="4">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B158">
         <v>127</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="4">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B159">
         <v>127</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="4">
-        <v>60001</v>
+        <v>50015</v>
       </c>
       <c r="B160">
-        <v>559</v>
+        <v>127</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B161">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -2607,10 +2613,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B162">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -2618,10 +2624,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="B163">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -2629,10 +2635,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="B164">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -2640,10 +2646,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="B165">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -2651,10 +2657,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="B166">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -2662,21 +2668,21 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="4">
+        <v>60007</v>
+      </c>
+      <c r="B167">
+        <v>555</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="4">
         <v>60008</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>556</v>
-      </c>
-      <c r="C167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168">
-        <v>60009</v>
-      </c>
-      <c r="B168">
-        <v>557</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -2684,10 +2690,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="B169">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -2695,21 +2701,21 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>70001</v>
+        <v>60010</v>
       </c>
       <c r="B170">
-        <v>3001</v>
+        <v>558</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>70002</v>
+        <v>70001</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2717,10 +2723,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>70003</v>
+        <v>70002</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2728,186 +2734,186 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>80001</v>
+        <v>70003</v>
       </c>
       <c r="B173">
-        <v>7016</v>
+        <v>2</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B174">
         <v>7016</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B175">
         <v>7016</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B176">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B177">
         <v>7017</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B178">
         <v>7017</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B179">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B180">
         <v>7018</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B181">
         <v>7018</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>80010</v>
+        <v>80009</v>
       </c>
       <c r="B182">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>80011</v>
+        <v>80010</v>
       </c>
       <c r="B183">
         <v>7019</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>80012</v>
+        <v>80011</v>
       </c>
       <c r="B184">
         <v>7019</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>80013</v>
+        <v>80012</v>
       </c>
       <c r="B185">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>80014</v>
+        <v>80013</v>
       </c>
       <c r="B186">
         <v>7020</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>80015</v>
+        <v>80014</v>
       </c>
       <c r="B187">
         <v>7020</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>80016</v>
+        <v>80015</v>
       </c>
       <c r="B188">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>80017</v>
+        <v>80016</v>
       </c>
       <c r="B189">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -2915,10 +2921,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>80018</v>
+        <v>80017</v>
       </c>
       <c r="B190">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C190">
         <v>2</v>
@@ -2926,10 +2932,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>80019</v>
+        <v>80018</v>
       </c>
       <c r="B191">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -2937,10 +2943,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>80020</v>
+        <v>80019</v>
       </c>
       <c r="B192">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -2948,10 +2954,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>80021</v>
+        <v>80020</v>
       </c>
       <c r="B193">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -2959,10 +2965,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>80022</v>
+        <v>80021</v>
       </c>
       <c r="B194">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -2970,10 +2976,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>80023</v>
+        <v>80022</v>
       </c>
       <c r="B195">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -2981,10 +2987,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>80024</v>
+        <v>80023</v>
       </c>
       <c r="B196">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -2992,10 +2998,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>80025</v>
+        <v>80024</v>
       </c>
       <c r="B197">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -3003,120 +3009,120 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>81001</v>
+        <v>80025</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>7030</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>81002</v>
+        <v>81001</v>
       </c>
       <c r="B199">
         <v>6</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>81003</v>
+        <v>81002</v>
       </c>
       <c r="B200">
         <v>6</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>81004</v>
+        <v>81003</v>
       </c>
       <c r="B201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>81005</v>
+        <v>81004</v>
       </c>
       <c r="B202">
         <v>7</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>81006</v>
+        <v>81005</v>
       </c>
       <c r="B203">
         <v>7</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>81007</v>
+        <v>81006</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>81008</v>
+        <v>81007</v>
       </c>
       <c r="B205">
         <v>8</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>81009</v>
+        <v>81008</v>
       </c>
       <c r="B206">
         <v>8</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>81010</v>
+        <v>81009</v>
       </c>
       <c r="B207">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>81011</v>
+        <v>81010</v>
       </c>
       <c r="B208">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -3124,10 +3130,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>81012</v>
+        <v>81011</v>
       </c>
       <c r="B209">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -3135,10 +3141,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>81013</v>
+        <v>81012</v>
       </c>
       <c r="B210">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -3146,10 +3152,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>81014</v>
+        <v>81013</v>
       </c>
       <c r="B211">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -3157,33 +3163,32 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212">
+        <v>81014</v>
+      </c>
+      <c r="B212">
+        <v>138</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213">
         <v>81015</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <v>139</v>
       </c>
-      <c r="C212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A213" s="4">
-        <v>83001</v>
-      </c>
-      <c r="B213" s="4">
-        <v>10010</v>
-      </c>
-      <c r="C213" s="4">
-        <v>1</v>
-      </c>
-      <c r="D213" s="4"/>
+      <c r="C213">
+        <v>2</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="4">
-        <v>83002</v>
+        <v>83001</v>
       </c>
       <c r="B214" s="4">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C214" s="4">
         <v>1</v>
@@ -3192,10 +3197,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="4">
-        <v>83003</v>
+        <v>83002</v>
       </c>
       <c r="B215" s="4">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C215" s="4">
         <v>1</v>
@@ -3204,10 +3209,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="4">
-        <v>83004</v>
+        <v>83003</v>
       </c>
       <c r="B216" s="4">
-        <v>10004</v>
+        <v>10012</v>
       </c>
       <c r="C216" s="4">
         <v>1</v>
@@ -3216,10 +3221,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="4">
-        <v>83005</v>
+        <v>83004</v>
       </c>
       <c r="B217" s="4">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C217" s="4">
         <v>1</v>
@@ -3228,10 +3233,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="4">
-        <v>83006</v>
+        <v>83005</v>
       </c>
       <c r="B218" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C218" s="4">
         <v>1</v>
@@ -3240,10 +3245,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="4">
-        <v>83007</v>
+        <v>83006</v>
       </c>
       <c r="B219" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C219" s="4">
         <v>1</v>
@@ -3252,10 +3257,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
-        <v>83008</v>
+        <v>83007</v>
       </c>
       <c r="B220" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -3264,33 +3269,34 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="4">
+        <v>83008</v>
+      </c>
+      <c r="B221" s="4">
+        <v>10008</v>
+      </c>
+      <c r="C221" s="4">
+        <v>1</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="4">
         <v>83009</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B222" s="4">
         <v>10009</v>
       </c>
-      <c r="C221" s="4">
-        <v>1</v>
-      </c>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" s="3">
-        <v>83010</v>
-      </c>
-      <c r="B222" s="3">
-        <v>10013</v>
-      </c>
-      <c r="C222" s="3">
-        <v>1</v>
-      </c>
+      <c r="C222" s="4">
+        <v>1</v>
+      </c>
+      <c r="D222" s="4"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="3">
-        <v>83011</v>
+        <v>83010</v>
       </c>
       <c r="B223" s="3">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="C223" s="3">
         <v>1</v>
@@ -3298,10 +3304,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
-        <v>83012</v>
+        <v>83011</v>
       </c>
       <c r="B224" s="3">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -3309,10 +3315,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
-        <v>83013</v>
+        <v>83012</v>
       </c>
       <c r="B225" s="3">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="C225" s="3">
         <v>1</v>
@@ -3320,10 +3326,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
-        <v>83014</v>
+        <v>83013</v>
       </c>
       <c r="B226" s="3">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="C226" s="3">
         <v>1</v>
@@ -3331,10 +3337,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
-        <v>83015</v>
+        <v>83014</v>
       </c>
       <c r="B227" s="3">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="C227" s="3">
         <v>1</v>
@@ -3342,10 +3348,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
-        <v>83016</v>
+        <v>83015</v>
       </c>
       <c r="B228" s="3">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="C228" s="3">
         <v>1</v>
@@ -3353,10 +3359,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
-        <v>83017</v>
+        <v>83016</v>
       </c>
       <c r="B229" s="3">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="C229" s="3">
         <v>1</v>
@@ -3364,10 +3370,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
-        <v>83018</v>
+        <v>83017</v>
       </c>
       <c r="B230" s="3">
-        <v>10021</v>
+        <v>10020</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -3375,10 +3381,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
-        <v>83019</v>
+        <v>83018</v>
       </c>
       <c r="B231" s="3">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="C231" s="3">
         <v>1</v>
@@ -3386,10 +3392,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
-        <v>83020</v>
+        <v>83019</v>
       </c>
       <c r="B232" s="3">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
@@ -3397,33 +3403,32 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
+        <v>83020</v>
+      </c>
+      <c r="B233" s="3">
+        <v>10023</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="3">
         <v>83021</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B234" s="3">
         <v>10024</v>
       </c>
-      <c r="C233" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" s="4">
-        <v>83301</v>
-      </c>
-      <c r="B234" s="4">
-        <v>123</v>
-      </c>
-      <c r="C234" s="4">
-        <v>3</v>
-      </c>
-      <c r="D234" s="4"/>
+      <c r="C234" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="4">
-        <v>83302</v>
+        <v>83301</v>
       </c>
       <c r="B235" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C235" s="4">
         <v>3</v>
@@ -3432,10 +3437,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="4">
-        <v>83303</v>
+        <v>83302</v>
       </c>
       <c r="B236" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -3444,10 +3449,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="4">
-        <v>83304</v>
+        <v>83303</v>
       </c>
       <c r="B237" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C237" s="4">
         <v>3</v>
@@ -3456,10 +3461,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="4">
-        <v>83305</v>
+        <v>83304</v>
       </c>
       <c r="B238" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C238" s="4">
         <v>3</v>
@@ -3468,22 +3473,22 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="4">
-        <v>83306</v>
+        <v>83305</v>
       </c>
       <c r="B239" s="4">
-        <v>7021</v>
+        <v>127</v>
       </c>
       <c r="C239" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="4">
-        <v>83307</v>
+        <v>83306</v>
       </c>
       <c r="B240" s="4">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C240" s="4">
         <v>1</v>
@@ -3492,10 +3497,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="4">
-        <v>83308</v>
+        <v>83307</v>
       </c>
       <c r="B241" s="4">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C241" s="4">
         <v>1</v>
@@ -3504,10 +3509,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="4">
-        <v>83309</v>
+        <v>83308</v>
       </c>
       <c r="B242" s="4">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C242" s="4">
         <v>1</v>
@@ -3516,10 +3521,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="4">
-        <v>83310</v>
+        <v>83309</v>
       </c>
       <c r="B243" s="4">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -3528,10 +3533,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="4">
-        <v>83311</v>
+        <v>83310</v>
       </c>
       <c r="B244" s="4">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C244" s="4">
         <v>1</v>
@@ -3540,10 +3545,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="4">
-        <v>83312</v>
+        <v>83311</v>
       </c>
       <c r="B245" s="4">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C245" s="4">
         <v>1</v>
@@ -3552,10 +3557,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="4">
-        <v>83313</v>
+        <v>83312</v>
       </c>
       <c r="B246" s="4">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C246" s="4">
         <v>1</v>
@@ -3564,10 +3569,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="4">
-        <v>83314</v>
+        <v>83313</v>
       </c>
       <c r="B247" s="4">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
@@ -3576,10 +3581,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="4">
-        <v>83315</v>
+        <v>83314</v>
       </c>
       <c r="B248" s="4">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C248" s="4">
         <v>1</v>
@@ -3588,10 +3593,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="4">
-        <v>84001</v>
+        <v>83315</v>
       </c>
       <c r="B249" s="4">
-        <v>9003</v>
+        <v>7030</v>
       </c>
       <c r="C249" s="4">
         <v>1</v>
@@ -3600,10 +3605,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="4">
-        <v>84002</v>
+        <v>84001</v>
       </c>
       <c r="B250" s="4">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C250" s="4">
         <v>1</v>
@@ -3612,34 +3617,34 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="4">
-        <v>84003</v>
+        <v>84002</v>
       </c>
       <c r="B251" s="4">
-        <v>9002</v>
+        <v>9005</v>
       </c>
       <c r="C251" s="4">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="4">
-        <v>84004</v>
+        <v>84003</v>
       </c>
       <c r="B252" s="4">
-        <v>123</v>
+        <v>9002</v>
       </c>
       <c r="C252" s="4">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="4">
-        <v>84005</v>
+        <v>84004</v>
       </c>
       <c r="B253" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C253" s="4">
         <v>1</v>
@@ -3648,10 +3653,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="4">
-        <v>84006</v>
+        <v>84005</v>
       </c>
       <c r="B254" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -3660,10 +3665,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="4">
-        <v>84007</v>
+        <v>84006</v>
       </c>
       <c r="B255" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C255" s="4">
         <v>1</v>
@@ -3672,10 +3677,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="4">
-        <v>84008</v>
+        <v>84007</v>
       </c>
       <c r="B256" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C256" s="4">
         <v>1</v>
@@ -3684,10 +3689,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="4">
-        <v>84009</v>
+        <v>84008</v>
       </c>
       <c r="B257" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C257" s="4">
         <v>1</v>
@@ -3696,10 +3701,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="4">
-        <v>84010</v>
+        <v>84009</v>
       </c>
       <c r="B258" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C258" s="4">
         <v>1</v>
@@ -3708,10 +3713,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="4">
-        <v>84011</v>
+        <v>84010</v>
       </c>
       <c r="B259" s="4">
-        <v>550</v>
+        <v>129</v>
       </c>
       <c r="C259" s="4">
         <v>1</v>
@@ -3720,10 +3725,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="4">
-        <v>84012</v>
+        <v>84011</v>
       </c>
       <c r="B260" s="4">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C260" s="4">
         <v>1</v>
@@ -3732,10 +3737,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="4">
-        <v>84013</v>
+        <v>84012</v>
       </c>
       <c r="B261" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C261" s="4">
         <v>1</v>
@@ -3744,10 +3749,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="4">
-        <v>84014</v>
+        <v>84013</v>
       </c>
       <c r="B262" s="4">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C262" s="4">
         <v>1</v>
@@ -3756,10 +3761,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="4">
-        <v>84015</v>
+        <v>84014</v>
       </c>
       <c r="B263" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C263" s="4">
         <v>1</v>
@@ -3768,10 +3773,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="4">
-        <v>84016</v>
+        <v>84015</v>
       </c>
       <c r="B264" s="4">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C264" s="4">
         <v>1</v>
@@ -3780,10 +3785,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="4">
-        <v>84017</v>
+        <v>84016</v>
       </c>
       <c r="B265" s="4">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C265" s="4">
         <v>1</v>
@@ -3792,10 +3797,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="4">
-        <v>84018</v>
+        <v>84017</v>
       </c>
       <c r="B266" s="4">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C266" s="4">
         <v>1</v>
@@ -3804,10 +3809,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="4">
-        <v>84019</v>
+        <v>84018</v>
       </c>
       <c r="B267" s="4">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C267" s="4">
         <v>1</v>
@@ -3816,10 +3821,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" s="4">
-        <v>84020</v>
+        <v>84019</v>
       </c>
       <c r="B268" s="4">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C268" s="4">
         <v>1</v>
@@ -3828,10 +3833,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" s="4">
-        <v>84021</v>
+        <v>84020</v>
       </c>
       <c r="B269" s="4">
-        <v>134</v>
+        <v>559</v>
       </c>
       <c r="C269" s="4">
         <v>1</v>
@@ -3840,10 +3845,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" s="4">
-        <v>84022</v>
+        <v>84021</v>
       </c>
       <c r="B270" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C270" s="4">
         <v>1</v>
@@ -3852,10 +3857,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" s="4">
-        <v>84023</v>
+        <v>84022</v>
       </c>
       <c r="B271" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C271" s="4">
         <v>1</v>
@@ -3864,10 +3869,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" s="4">
-        <v>84024</v>
+        <v>84023</v>
       </c>
       <c r="B272" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C272" s="4">
         <v>1</v>
@@ -3876,10 +3881,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" s="4">
-        <v>84025</v>
+        <v>84024</v>
       </c>
       <c r="B273" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C273" s="4">
         <v>1</v>
@@ -3888,10 +3893,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" s="4">
-        <v>84026</v>
+        <v>84025</v>
       </c>
       <c r="B274" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C274" s="4">
         <v>1</v>
@@ -3900,10 +3905,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" s="4">
-        <v>84027</v>
+        <v>84026</v>
       </c>
       <c r="B275" s="4">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="C275" s="4">
         <v>1</v>
@@ -3912,10 +3917,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" s="4">
-        <v>84028</v>
+        <v>84027</v>
       </c>
       <c r="B276" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C276" s="4">
         <v>1</v>
@@ -3924,10 +3929,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="4">
-        <v>84029</v>
+        <v>84028</v>
       </c>
       <c r="B277" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C277" s="4">
         <v>1</v>
@@ -3936,10 +3941,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="4">
-        <v>84030</v>
+        <v>84029</v>
       </c>
       <c r="B278" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C278" s="4">
         <v>1</v>
@@ -3948,10 +3953,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="4">
-        <v>84031</v>
+        <v>84030</v>
       </c>
       <c r="B279" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C279" s="4">
         <v>1</v>
@@ -3960,10 +3965,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="4">
-        <v>84032</v>
+        <v>84031</v>
       </c>
       <c r="B280" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C280" s="4">
         <v>1</v>
@@ -3972,10 +3977,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" s="4">
-        <v>84033</v>
+        <v>84032</v>
       </c>
       <c r="B281" s="4">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C281" s="4">
         <v>1</v>
@@ -3984,10 +3989,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" s="4">
-        <v>84034</v>
+        <v>84033</v>
       </c>
       <c r="B282" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C282" s="4">
         <v>1</v>
@@ -3996,10 +4001,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="4">
-        <v>84035</v>
+        <v>84034</v>
       </c>
       <c r="B283" s="4">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C283" s="4">
         <v>1</v>
@@ -4008,10 +4013,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="4">
-        <v>84036</v>
+        <v>84035</v>
       </c>
       <c r="B284" s="4">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C284" s="4">
         <v>1</v>
@@ -4020,10 +4025,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="4">
-        <v>84037</v>
+        <v>84036</v>
       </c>
       <c r="B285" s="4">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="C285" s="4">
         <v>1</v>
@@ -4032,27 +4037,182 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="4">
-        <v>84038</v>
+        <v>84037</v>
       </c>
       <c r="B286" s="4">
-        <v>9005</v>
+        <v>600</v>
       </c>
       <c r="C286" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="4">
-        <v>84039</v>
+        <v>84038</v>
       </c>
       <c r="B287" s="4">
         <v>9005</v>
       </c>
       <c r="C287" s="4">
+        <v>6</v>
+      </c>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="4">
+        <v>84039</v>
+      </c>
+      <c r="B288" s="4">
+        <v>9005</v>
+      </c>
+      <c r="C288" s="4">
         <v>15</v>
       </c>
-      <c r="D287" s="4"/>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>300001</v>
+      </c>
+      <c r="B289">
+        <v>9004</v>
+      </c>
+      <c r="C289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>300011</v>
+      </c>
+      <c r="B290">
+        <v>1014</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>300021</v>
+      </c>
+      <c r="B291">
+        <v>1015</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>300031</v>
+      </c>
+      <c r="B292">
+        <v>1016</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>300041</v>
+      </c>
+      <c r="B293">
+        <v>1017</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>300051</v>
+      </c>
+      <c r="B294">
+        <v>1018</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>300061</v>
+      </c>
+      <c r="B295">
+        <v>1019</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>300071</v>
+      </c>
+      <c r="B296">
+        <v>1020</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>300081</v>
+      </c>
+      <c r="B297">
+        <v>1021</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>300091</v>
+      </c>
+      <c r="B298">
+        <v>1022</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>300101</v>
+      </c>
+      <c r="B299">
+        <v>1023</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>300111</v>
+      </c>
+      <c r="B300">
+        <v>1024</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>300121</v>
+      </c>
+      <c r="B301">
+        <v>1025</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F04450-C211-44CB-8F58-73622CF54164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1613DD-8B4B-4941-9173-33182776400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21690" windowHeight="12525" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M301" totalsRowShown="0">
-  <autoFilter ref="A1:M301" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M302" totalsRowShown="0">
+  <autoFilter ref="A1:M302" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -868,21 +868,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1026</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1027</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -890,10 +896,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B13">
-        <v>10004</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -901,21 +907,21 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B14">
-        <v>1001</v>
+        <v>10004</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B15">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -923,18 +929,18 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
+        <v>2003</v>
+      </c>
+      <c r="B16">
+        <v>1013</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>2004</v>
-      </c>
-      <c r="B16">
-        <v>3001</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>2005</v>
       </c>
       <c r="B17">
         <v>3001</v>
@@ -943,9 +949,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B18">
         <v>3001</v>
@@ -954,279 +960,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19">
+        <v>3001</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>2007</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>135</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>2008</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>9004</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>2009</v>
-      </c>
-      <c r="B21">
-        <v>9003</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>2010</v>
       </c>
       <c r="B22">
         <v>9003</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23">
+        <v>9003</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>2011</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>10005</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>2012</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>9003</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>10001</v>
-      </c>
-      <c r="B25">
-        <v>9000</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>10002</v>
       </c>
       <c r="B26">
         <v>9000</v>
       </c>
       <c r="C26">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B27">
         <v>9000</v>
       </c>
       <c r="C27">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B28">
         <v>9000</v>
       </c>
       <c r="C28">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B29">
         <v>9000</v>
       </c>
       <c r="C29">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>10005</v>
+      </c>
+      <c r="B30">
+        <v>9000</v>
+      </c>
+      <c r="C30">
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>10006</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>9004</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>10080</v>
-      </c>
-      <c r="B31">
-        <v>9000</v>
-      </c>
-      <c r="C31">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>10081</v>
       </c>
       <c r="B32">
         <v>9000</v>
       </c>
       <c r="C32">
-        <v>130</v>
-      </c>
-      <c r="D32">
-        <v>9001</v>
-      </c>
-      <c r="E32">
-        <v>300</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>10082</v>
+        <v>10081</v>
       </c>
       <c r="B33">
         <v>9000</v>
       </c>
       <c r="C33">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="D33">
         <v>9001</v>
       </c>
       <c r="E33">
-        <v>500</v>
-      </c>
-      <c r="F33">
-        <v>3001</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>11001</v>
+        <v>10082</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>9000</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D34">
-        <v>103</v>
+        <v>9001</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F34">
-        <v>104</v>
+        <v>3001</v>
       </c>
       <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>112</v>
-      </c>
-      <c r="I34">
-        <v>50</v>
-      </c>
-      <c r="J34">
-        <v>107</v>
-      </c>
-      <c r="K34">
-        <v>50</v>
-      </c>
-      <c r="L34">
-        <v>3001</v>
-      </c>
-      <c r="M34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B35">
+        <v>102</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>103</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>104</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>112</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>107</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
         <v>3001</v>
       </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="M35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B36">
         <v>3001</v>
       </c>
       <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>1004</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36">
-        <v>1005</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>1006</v>
-      </c>
-      <c r="I36">
-        <v>100</v>
-      </c>
-      <c r="J36">
-        <v>1007</v>
-      </c>
-      <c r="K36">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B37">
         <v>3001</v>
@@ -1235,57 +1217,81 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>1006</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>1007</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B38">
         <v>3001</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>12001</v>
+        <v>11005</v>
       </c>
       <c r="B39">
         <v>3001</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B40">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B41">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C41">
         <v>60</v>
@@ -1293,10 +1299,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="B42">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C42">
         <v>60</v>
@@ -1304,10 +1310,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="B43">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C43">
         <v>60</v>
@@ -1315,10 +1321,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>12006</v>
+        <v>12005</v>
       </c>
       <c r="B44">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C44">
         <v>60</v>
@@ -1326,10 +1332,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="B45">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C45">
         <v>60</v>
@@ -1337,10 +1343,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="B46">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C46">
         <v>60</v>
@@ -1348,10 +1354,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="B47">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C47">
         <v>60</v>
@@ -1359,10 +1365,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="B48">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -1370,10 +1376,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>12011</v>
+        <v>12010</v>
       </c>
       <c r="B49">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -1381,10 +1387,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>12012</v>
+        <v>12011</v>
       </c>
       <c r="B50">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C50">
         <v>60</v>
@@ -1392,10 +1398,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>12013</v>
+        <v>12012</v>
       </c>
       <c r="B51">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C51">
         <v>60</v>
@@ -1403,10 +1409,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="B52">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C52">
         <v>60</v>
@@ -1414,120 +1420,120 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>14001</v>
+        <v>12014</v>
       </c>
       <c r="B53">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C53">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>14002</v>
+        <v>14001</v>
       </c>
       <c r="B54">
         <v>9002</v>
       </c>
       <c r="C54">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>14003</v>
+        <v>14002</v>
       </c>
       <c r="B55">
         <v>9002</v>
       </c>
       <c r="C55">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>14004</v>
+        <v>14003</v>
       </c>
       <c r="B56">
         <v>9002</v>
       </c>
       <c r="C56">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>14005</v>
+        <v>14004</v>
       </c>
       <c r="B57">
         <v>9002</v>
       </c>
       <c r="C57">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>14006</v>
+        <v>14005</v>
       </c>
       <c r="B58">
         <v>9002</v>
       </c>
       <c r="C58">
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>14007</v>
+        <v>14006</v>
       </c>
       <c r="B59">
         <v>9002</v>
       </c>
       <c r="C59">
-        <v>11000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
+        <v>14007</v>
+      </c>
+      <c r="B60">
+        <v>9002</v>
+      </c>
+      <c r="C60">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
         <v>20001</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>102</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" s="4">
-        <v>20002</v>
-      </c>
-      <c r="B61">
-        <v>9001</v>
-      </c>
-      <c r="C61">
-        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B62">
-        <v>1001</v>
+        <v>9001</v>
       </c>
       <c r="C62">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B63">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C63">
         <v>60</v>
@@ -1535,32 +1541,32 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B64">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
-        <v>21001</v>
+        <v>20005</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>9002</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1568,21 +1574,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
-        <v>21003</v>
+        <v>21002</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
-        <v>21004</v>
+        <v>21003</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1590,40 +1596,40 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
-        <v>21006</v>
+        <v>21005</v>
       </c>
       <c r="B70">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
-        <v>21007</v>
+        <v>21006</v>
       </c>
       <c r="B71">
-        <v>3001</v>
+        <v>600</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
-        <v>21008</v>
+        <v>21007</v>
       </c>
       <c r="B72">
         <v>3001</v>
@@ -1634,7 +1640,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="B73">
         <v>3001</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
-        <v>21010</v>
+        <v>21009</v>
       </c>
       <c r="B74">
         <v>3001</v>
@@ -1656,7 +1662,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="B75">
         <v>3001</v>
@@ -1667,65 +1673,65 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
-        <v>21012</v>
+        <v>21011</v>
       </c>
       <c r="B76">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C76">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
-        <v>21013</v>
+        <v>21012</v>
       </c>
       <c r="B77">
         <v>9001</v>
       </c>
       <c r="C77">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
-        <v>21014</v>
+        <v>21013</v>
       </c>
       <c r="B78">
         <v>9001</v>
       </c>
       <c r="C78">
-        <v>5000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
-        <v>22001</v>
+        <v>21014</v>
       </c>
       <c r="B79">
-        <v>9004</v>
+        <v>9001</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
-        <v>22002</v>
+        <v>22001</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>9004</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
-        <v>22003</v>
+        <v>22002</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1733,10 +1739,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
-        <v>22004</v>
+        <v>22003</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1744,10 +1750,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
-        <v>22005</v>
+        <v>22004</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1755,10 +1761,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
-        <v>22006</v>
+        <v>22005</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1766,10 +1772,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
-        <v>22007</v>
+        <v>22006</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1777,10 +1783,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
-        <v>22008</v>
+        <v>22007</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1788,10 +1794,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
-        <v>22009</v>
+        <v>22008</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1799,10 +1805,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
-        <v>22010</v>
+        <v>22009</v>
       </c>
       <c r="B88">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1810,10 +1816,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
-        <v>22011</v>
+        <v>22010</v>
       </c>
       <c r="B89">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1821,10 +1827,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
-        <v>22012</v>
+        <v>22011</v>
       </c>
       <c r="B90">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1832,10 +1838,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
-        <v>22013</v>
+        <v>22012</v>
       </c>
       <c r="B91">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1843,10 +1849,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
-        <v>22014</v>
+        <v>22013</v>
       </c>
       <c r="B92">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1854,10 +1860,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
-        <v>22015</v>
+        <v>22014</v>
       </c>
       <c r="B93">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1865,10 +1871,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
-        <v>22016</v>
+        <v>22015</v>
       </c>
       <c r="B94">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1876,10 +1882,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
-        <v>22017</v>
+        <v>22016</v>
       </c>
       <c r="B95">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1887,10 +1893,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
-        <v>22018</v>
+        <v>22017</v>
       </c>
       <c r="B96">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1898,10 +1904,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
-        <v>22019</v>
+        <v>22018</v>
       </c>
       <c r="B97">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1909,10 +1915,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
-        <v>22020</v>
+        <v>22019</v>
       </c>
       <c r="B98">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1920,10 +1926,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
-        <v>22021</v>
+        <v>22020</v>
       </c>
       <c r="B99">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1931,10 +1937,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
-        <v>22022</v>
+        <v>22021</v>
       </c>
       <c r="B100">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1942,10 +1948,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
-        <v>22023</v>
+        <v>22022</v>
       </c>
       <c r="B101">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1953,10 +1959,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
-        <v>22024</v>
+        <v>22023</v>
       </c>
       <c r="B102">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1964,10 +1970,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
-        <v>22025</v>
+        <v>22024</v>
       </c>
       <c r="B103">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1975,10 +1981,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>22026</v>
+        <v>22025</v>
       </c>
       <c r="B104">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1986,10 +1992,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
-        <v>22027</v>
+        <v>22026</v>
       </c>
       <c r="B105">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1997,10 +2003,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
-        <v>22028</v>
+        <v>22027</v>
       </c>
       <c r="B106">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2008,10 +2014,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
-        <v>22029</v>
+        <v>22028</v>
       </c>
       <c r="B107">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2019,10 +2025,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
-        <v>22030</v>
+        <v>22029</v>
       </c>
       <c r="B108">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2030,10 +2036,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
-        <v>22031</v>
+        <v>22030</v>
       </c>
       <c r="B109">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2041,10 +2047,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
-        <v>22032</v>
+        <v>22031</v>
       </c>
       <c r="B110">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2052,10 +2058,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
-        <v>22033</v>
+        <v>22032</v>
       </c>
       <c r="B111">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2063,10 +2069,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
-        <v>22034</v>
+        <v>22033</v>
       </c>
       <c r="B112">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2074,10 +2080,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
-        <v>22035</v>
+        <v>22034</v>
       </c>
       <c r="B113">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2085,10 +2091,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
-        <v>22036</v>
+        <v>22035</v>
       </c>
       <c r="B114">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2096,10 +2102,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
-        <v>22037</v>
+        <v>22036</v>
       </c>
       <c r="B115">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2107,10 +2113,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
-        <v>22038</v>
+        <v>22037</v>
       </c>
       <c r="B116">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -2118,10 +2124,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
-        <v>22039</v>
+        <v>22038</v>
       </c>
       <c r="B117">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2129,10 +2135,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
-        <v>22040</v>
+        <v>22039</v>
       </c>
       <c r="B118">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2140,10 +2146,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
-        <v>22041</v>
+        <v>22040</v>
       </c>
       <c r="B119">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2151,10 +2157,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
-        <v>22042</v>
+        <v>22041</v>
       </c>
       <c r="B120">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2162,10 +2168,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
-        <v>22043</v>
+        <v>22042</v>
       </c>
       <c r="B121">
-        <v>7016</v>
+        <v>559</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -2173,10 +2179,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
-        <v>22044</v>
+        <v>22043</v>
       </c>
       <c r="B122">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2184,10 +2190,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
-        <v>22045</v>
+        <v>22044</v>
       </c>
       <c r="B123">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2195,10 +2201,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
-        <v>22046</v>
+        <v>22045</v>
       </c>
       <c r="B124">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -2206,10 +2212,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
-        <v>22047</v>
+        <v>22046</v>
       </c>
       <c r="B125">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -2217,10 +2223,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
-        <v>22048</v>
+        <v>22047</v>
       </c>
       <c r="B126">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2228,10 +2234,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
-        <v>22049</v>
+        <v>22048</v>
       </c>
       <c r="B127">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2239,10 +2245,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
-        <v>22050</v>
+        <v>22049</v>
       </c>
       <c r="B128">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2250,10 +2256,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
-        <v>22051</v>
+        <v>22050</v>
       </c>
       <c r="B129">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2261,10 +2267,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
-        <v>22052</v>
+        <v>22051</v>
       </c>
       <c r="B130">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2272,10 +2278,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
-        <v>22053</v>
+        <v>22052</v>
       </c>
       <c r="B131">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2283,10 +2289,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
-        <v>22054</v>
+        <v>22053</v>
       </c>
       <c r="B132">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2294,10 +2300,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
-        <v>22055</v>
+        <v>22054</v>
       </c>
       <c r="B133">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2305,10 +2311,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
-        <v>22056</v>
+        <v>22055</v>
       </c>
       <c r="B134">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2316,10 +2322,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
-        <v>22057</v>
+        <v>22056</v>
       </c>
       <c r="B135">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -2327,109 +2333,109 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
-        <v>22100</v>
+        <v>22057</v>
       </c>
       <c r="B136">
-        <v>9004</v>
+        <v>7030</v>
       </c>
       <c r="C136">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="4">
-        <v>22101</v>
+        <v>22100</v>
       </c>
       <c r="B137">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
-        <v>22102</v>
+        <v>22101</v>
       </c>
       <c r="B138">
-        <v>3001</v>
+        <v>9002</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="4">
-        <v>22103</v>
+        <v>22102</v>
       </c>
       <c r="B139">
-        <v>9004</v>
+        <v>3001</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
-        <v>22104</v>
+        <v>22103</v>
       </c>
       <c r="B140">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="4">
-        <v>22200</v>
+        <v>22104</v>
       </c>
       <c r="B141">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C141">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
-        <v>22201</v>
+        <v>22200</v>
       </c>
       <c r="B142">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="4">
-        <v>22202</v>
+        <v>22201</v>
       </c>
       <c r="B143">
         <v>9002</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="4">
-        <v>22203</v>
+        <v>22202</v>
       </c>
       <c r="B144">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="4">
-        <v>22204</v>
+        <v>22203</v>
       </c>
       <c r="B145">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -2437,186 +2443,186 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="4">
-        <v>50001</v>
+        <v>22204</v>
       </c>
       <c r="B146">
-        <v>123</v>
+        <v>9005</v>
       </c>
       <c r="C146">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="4">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B147">
         <v>123</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="4">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B148">
         <v>123</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="4">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B149">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="4">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B150">
         <v>124</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="4">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B151">
         <v>124</v>
       </c>
       <c r="C151">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="4">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B152">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C152">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="4">
-        <v>50008</v>
+        <v>50007</v>
       </c>
       <c r="B153">
         <v>125</v>
       </c>
       <c r="C153">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="4">
-        <v>50009</v>
+        <v>50008</v>
       </c>
       <c r="B154">
         <v>125</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="4">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="B155">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C155">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="4">
-        <v>50011</v>
+        <v>50010</v>
       </c>
       <c r="B156">
         <v>126</v>
       </c>
       <c r="C156">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="4">
-        <v>50012</v>
+        <v>50011</v>
       </c>
       <c r="B157">
         <v>126</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="4">
-        <v>50013</v>
+        <v>50012</v>
       </c>
       <c r="B158">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C158">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="4">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B159">
         <v>127</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="4">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B160">
         <v>127</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="4">
-        <v>60001</v>
+        <v>50015</v>
       </c>
       <c r="B161">
-        <v>559</v>
+        <v>127</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B162">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -2624,10 +2630,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B163">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -2635,10 +2641,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="B164">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -2646,10 +2652,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="B165">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -2657,10 +2663,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="B166">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -2668,10 +2674,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="B167">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -2679,21 +2685,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="4">
+        <v>60007</v>
+      </c>
+      <c r="B168">
+        <v>555</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="4">
         <v>60008</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <v>556</v>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169">
-        <v>60009</v>
-      </c>
-      <c r="B169">
-        <v>557</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -2701,10 +2707,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="B170">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -2712,21 +2718,21 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>70001</v>
+        <v>60010</v>
       </c>
       <c r="B171">
-        <v>3001</v>
+        <v>558</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>70002</v>
+        <v>70001</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2734,10 +2740,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>70003</v>
+        <v>70002</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2745,186 +2751,186 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>80001</v>
+        <v>70003</v>
       </c>
       <c r="B174">
-        <v>7016</v>
+        <v>2</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B175">
         <v>7016</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B176">
         <v>7016</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B177">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B178">
         <v>7017</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B179">
         <v>7017</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B180">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B181">
         <v>7018</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B182">
         <v>7018</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>80010</v>
+        <v>80009</v>
       </c>
       <c r="B183">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>80011</v>
+        <v>80010</v>
       </c>
       <c r="B184">
         <v>7019</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>80012</v>
+        <v>80011</v>
       </c>
       <c r="B185">
         <v>7019</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>80013</v>
+        <v>80012</v>
       </c>
       <c r="B186">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>80014</v>
+        <v>80013</v>
       </c>
       <c r="B187">
         <v>7020</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>80015</v>
+        <v>80014</v>
       </c>
       <c r="B188">
         <v>7020</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>80016</v>
+        <v>80015</v>
       </c>
       <c r="B189">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>80017</v>
+        <v>80016</v>
       </c>
       <c r="B190">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C190">
         <v>2</v>
@@ -2932,10 +2938,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>80018</v>
+        <v>80017</v>
       </c>
       <c r="B191">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -2943,10 +2949,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>80019</v>
+        <v>80018</v>
       </c>
       <c r="B192">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -2954,10 +2960,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>80020</v>
+        <v>80019</v>
       </c>
       <c r="B193">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -2965,10 +2971,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>80021</v>
+        <v>80020</v>
       </c>
       <c r="B194">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -2976,10 +2982,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>80022</v>
+        <v>80021</v>
       </c>
       <c r="B195">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -2987,10 +2993,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>80023</v>
+        <v>80022</v>
       </c>
       <c r="B196">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -2998,10 +3004,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>80024</v>
+        <v>80023</v>
       </c>
       <c r="B197">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -3009,10 +3015,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>80025</v>
+        <v>80024</v>
       </c>
       <c r="B198">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -3020,120 +3026,120 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>81001</v>
+        <v>80025</v>
       </c>
       <c r="B199">
-        <v>6</v>
+        <v>7030</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>81002</v>
+        <v>81001</v>
       </c>
       <c r="B200">
         <v>6</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>81003</v>
+        <v>81002</v>
       </c>
       <c r="B201">
         <v>6</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>81004</v>
+        <v>81003</v>
       </c>
       <c r="B202">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>81005</v>
+        <v>81004</v>
       </c>
       <c r="B203">
         <v>7</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>81006</v>
+        <v>81005</v>
       </c>
       <c r="B204">
         <v>7</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>81007</v>
+        <v>81006</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>81008</v>
+        <v>81007</v>
       </c>
       <c r="B206">
         <v>8</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>81009</v>
+        <v>81008</v>
       </c>
       <c r="B207">
         <v>8</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>81010</v>
+        <v>81009</v>
       </c>
       <c r="B208">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>81011</v>
+        <v>81010</v>
       </c>
       <c r="B209">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -3141,10 +3147,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>81012</v>
+        <v>81011</v>
       </c>
       <c r="B210">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -3152,10 +3158,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>81013</v>
+        <v>81012</v>
       </c>
       <c r="B211">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -3163,10 +3169,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>81014</v>
+        <v>81013</v>
       </c>
       <c r="B212">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -3174,33 +3180,32 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213">
+        <v>81014</v>
+      </c>
+      <c r="B213">
+        <v>138</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214">
         <v>81015</v>
       </c>
-      <c r="B213">
+      <c r="B214">
         <v>139</v>
       </c>
-      <c r="C213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A214" s="4">
-        <v>83001</v>
-      </c>
-      <c r="B214" s="4">
-        <v>10010</v>
-      </c>
-      <c r="C214" s="4">
-        <v>1</v>
-      </c>
-      <c r="D214" s="4"/>
+      <c r="C214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="4">
-        <v>83002</v>
+        <v>83001</v>
       </c>
       <c r="B215" s="4">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C215" s="4">
         <v>1</v>
@@ -3209,10 +3214,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="4">
-        <v>83003</v>
+        <v>83002</v>
       </c>
       <c r="B216" s="4">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C216" s="4">
         <v>1</v>
@@ -3221,10 +3226,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="4">
-        <v>83004</v>
+        <v>83003</v>
       </c>
       <c r="B217" s="4">
-        <v>10004</v>
+        <v>10012</v>
       </c>
       <c r="C217" s="4">
         <v>1</v>
@@ -3233,10 +3238,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="4">
-        <v>83005</v>
+        <v>83004</v>
       </c>
       <c r="B218" s="4">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C218" s="4">
         <v>1</v>
@@ -3245,10 +3250,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="4">
-        <v>83006</v>
+        <v>83005</v>
       </c>
       <c r="B219" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C219" s="4">
         <v>1</v>
@@ -3257,10 +3262,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
-        <v>83007</v>
+        <v>83006</v>
       </c>
       <c r="B220" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -3269,10 +3274,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="4">
-        <v>83008</v>
+        <v>83007</v>
       </c>
       <c r="B221" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3281,33 +3286,34 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="4">
+        <v>83008</v>
+      </c>
+      <c r="B222" s="4">
+        <v>10008</v>
+      </c>
+      <c r="C222" s="4">
+        <v>1</v>
+      </c>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="4">
         <v>83009</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B223" s="4">
         <v>10009</v>
       </c>
-      <c r="C222" s="4">
-        <v>1</v>
-      </c>
-      <c r="D222" s="4"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" s="3">
-        <v>83010</v>
-      </c>
-      <c r="B223" s="3">
-        <v>10013</v>
-      </c>
-      <c r="C223" s="3">
-        <v>1</v>
-      </c>
+      <c r="C223" s="4">
+        <v>1</v>
+      </c>
+      <c r="D223" s="4"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
-        <v>83011</v>
+        <v>83010</v>
       </c>
       <c r="B224" s="3">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -3315,10 +3321,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
-        <v>83012</v>
+        <v>83011</v>
       </c>
       <c r="B225" s="3">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="C225" s="3">
         <v>1</v>
@@ -3326,10 +3332,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
-        <v>83013</v>
+        <v>83012</v>
       </c>
       <c r="B226" s="3">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="C226" s="3">
         <v>1</v>
@@ -3337,10 +3343,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
-        <v>83014</v>
+        <v>83013</v>
       </c>
       <c r="B227" s="3">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="C227" s="3">
         <v>1</v>
@@ -3348,10 +3354,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
-        <v>83015</v>
+        <v>83014</v>
       </c>
       <c r="B228" s="3">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="C228" s="3">
         <v>1</v>
@@ -3359,10 +3365,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
-        <v>83016</v>
+        <v>83015</v>
       </c>
       <c r="B229" s="3">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="C229" s="3">
         <v>1</v>
@@ -3370,10 +3376,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
-        <v>83017</v>
+        <v>83016</v>
       </c>
       <c r="B230" s="3">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -3381,10 +3387,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
-        <v>83018</v>
+        <v>83017</v>
       </c>
       <c r="B231" s="3">
-        <v>10021</v>
+        <v>10020</v>
       </c>
       <c r="C231" s="3">
         <v>1</v>
@@ -3392,10 +3398,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
-        <v>83019</v>
+        <v>83018</v>
       </c>
       <c r="B232" s="3">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
@@ -3403,10 +3409,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
-        <v>83020</v>
+        <v>83019</v>
       </c>
       <c r="B233" s="3">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="C233" s="3">
         <v>1</v>
@@ -3414,33 +3420,32 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
+        <v>83020</v>
+      </c>
+      <c r="B234" s="3">
+        <v>10023</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="3">
         <v>83021</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B235" s="3">
         <v>10024</v>
       </c>
-      <c r="C234" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A235" s="4">
-        <v>83301</v>
-      </c>
-      <c r="B235" s="4">
-        <v>123</v>
-      </c>
-      <c r="C235" s="4">
-        <v>3</v>
-      </c>
-      <c r="D235" s="4"/>
+      <c r="C235" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="4">
-        <v>83302</v>
+        <v>83301</v>
       </c>
       <c r="B236" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -3449,10 +3454,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="4">
-        <v>83303</v>
+        <v>83302</v>
       </c>
       <c r="B237" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C237" s="4">
         <v>3</v>
@@ -3461,10 +3466,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="4">
-        <v>83304</v>
+        <v>83303</v>
       </c>
       <c r="B238" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C238" s="4">
         <v>3</v>
@@ -3473,10 +3478,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="4">
-        <v>83305</v>
+        <v>83304</v>
       </c>
       <c r="B239" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C239" s="4">
         <v>3</v>
@@ -3485,22 +3490,22 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="4">
-        <v>83306</v>
+        <v>83305</v>
       </c>
       <c r="B240" s="4">
-        <v>7021</v>
+        <v>127</v>
       </c>
       <c r="C240" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="4">
-        <v>83307</v>
+        <v>83306</v>
       </c>
       <c r="B241" s="4">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C241" s="4">
         <v>1</v>
@@ -3509,10 +3514,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="4">
-        <v>83308</v>
+        <v>83307</v>
       </c>
       <c r="B242" s="4">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C242" s="4">
         <v>1</v>
@@ -3521,10 +3526,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="4">
-        <v>83309</v>
+        <v>83308</v>
       </c>
       <c r="B243" s="4">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -3533,10 +3538,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="4">
-        <v>83310</v>
+        <v>83309</v>
       </c>
       <c r="B244" s="4">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C244" s="4">
         <v>1</v>
@@ -3545,10 +3550,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="4">
-        <v>83311</v>
+        <v>83310</v>
       </c>
       <c r="B245" s="4">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C245" s="4">
         <v>1</v>
@@ -3557,10 +3562,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="4">
-        <v>83312</v>
+        <v>83311</v>
       </c>
       <c r="B246" s="4">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C246" s="4">
         <v>1</v>
@@ -3569,10 +3574,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="4">
-        <v>83313</v>
+        <v>83312</v>
       </c>
       <c r="B247" s="4">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
@@ -3581,10 +3586,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="4">
-        <v>83314</v>
+        <v>83313</v>
       </c>
       <c r="B248" s="4">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C248" s="4">
         <v>1</v>
@@ -3593,10 +3598,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="4">
-        <v>83315</v>
+        <v>83314</v>
       </c>
       <c r="B249" s="4">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C249" s="4">
         <v>1</v>
@@ -3605,10 +3610,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="4">
-        <v>84001</v>
+        <v>83315</v>
       </c>
       <c r="B250" s="4">
-        <v>9003</v>
+        <v>7030</v>
       </c>
       <c r="C250" s="4">
         <v>1</v>
@@ -3617,10 +3622,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="4">
-        <v>84002</v>
+        <v>84001</v>
       </c>
       <c r="B251" s="4">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C251" s="4">
         <v>1</v>
@@ -3629,34 +3634,34 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="4">
-        <v>84003</v>
+        <v>84002</v>
       </c>
       <c r="B252" s="4">
-        <v>9002</v>
+        <v>9005</v>
       </c>
       <c r="C252" s="4">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="4">
-        <v>84004</v>
+        <v>84003</v>
       </c>
       <c r="B253" s="4">
-        <v>123</v>
+        <v>9002</v>
       </c>
       <c r="C253" s="4">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="4">
-        <v>84005</v>
+        <v>84004</v>
       </c>
       <c r="B254" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -3665,10 +3670,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="4">
-        <v>84006</v>
+        <v>84005</v>
       </c>
       <c r="B255" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C255" s="4">
         <v>1</v>
@@ -3677,10 +3682,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="4">
-        <v>84007</v>
+        <v>84006</v>
       </c>
       <c r="B256" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C256" s="4">
         <v>1</v>
@@ -3689,10 +3694,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="4">
-        <v>84008</v>
+        <v>84007</v>
       </c>
       <c r="B257" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C257" s="4">
         <v>1</v>
@@ -3701,10 +3706,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="4">
-        <v>84009</v>
+        <v>84008</v>
       </c>
       <c r="B258" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C258" s="4">
         <v>1</v>
@@ -3713,10 +3718,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="4">
-        <v>84010</v>
+        <v>84009</v>
       </c>
       <c r="B259" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C259" s="4">
         <v>1</v>
@@ -3725,10 +3730,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="4">
-        <v>84011</v>
+        <v>84010</v>
       </c>
       <c r="B260" s="4">
-        <v>550</v>
+        <v>129</v>
       </c>
       <c r="C260" s="4">
         <v>1</v>
@@ -3737,10 +3742,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="4">
-        <v>84012</v>
+        <v>84011</v>
       </c>
       <c r="B261" s="4">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C261" s="4">
         <v>1</v>
@@ -3749,10 +3754,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="4">
-        <v>84013</v>
+        <v>84012</v>
       </c>
       <c r="B262" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C262" s="4">
         <v>1</v>
@@ -3761,10 +3766,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="4">
-        <v>84014</v>
+        <v>84013</v>
       </c>
       <c r="B263" s="4">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C263" s="4">
         <v>1</v>
@@ -3773,10 +3778,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="4">
-        <v>84015</v>
+        <v>84014</v>
       </c>
       <c r="B264" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C264" s="4">
         <v>1</v>
@@ -3785,10 +3790,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="4">
-        <v>84016</v>
+        <v>84015</v>
       </c>
       <c r="B265" s="4">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C265" s="4">
         <v>1</v>
@@ -3797,10 +3802,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="4">
-        <v>84017</v>
+        <v>84016</v>
       </c>
       <c r="B266" s="4">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C266" s="4">
         <v>1</v>
@@ -3809,10 +3814,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="4">
-        <v>84018</v>
+        <v>84017</v>
       </c>
       <c r="B267" s="4">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C267" s="4">
         <v>1</v>
@@ -3821,10 +3826,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" s="4">
-        <v>84019</v>
+        <v>84018</v>
       </c>
       <c r="B268" s="4">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C268" s="4">
         <v>1</v>
@@ -3833,10 +3838,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" s="4">
-        <v>84020</v>
+        <v>84019</v>
       </c>
       <c r="B269" s="4">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C269" s="4">
         <v>1</v>
@@ -3845,10 +3850,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" s="4">
-        <v>84021</v>
+        <v>84020</v>
       </c>
       <c r="B270" s="4">
-        <v>134</v>
+        <v>559</v>
       </c>
       <c r="C270" s="4">
         <v>1</v>
@@ -3857,10 +3862,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" s="4">
-        <v>84022</v>
+        <v>84021</v>
       </c>
       <c r="B271" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C271" s="4">
         <v>1</v>
@@ -3869,10 +3874,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" s="4">
-        <v>84023</v>
+        <v>84022</v>
       </c>
       <c r="B272" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C272" s="4">
         <v>1</v>
@@ -3881,10 +3886,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" s="4">
-        <v>84024</v>
+        <v>84023</v>
       </c>
       <c r="B273" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C273" s="4">
         <v>1</v>
@@ -3893,10 +3898,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" s="4">
-        <v>84025</v>
+        <v>84024</v>
       </c>
       <c r="B274" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C274" s="4">
         <v>1</v>
@@ -3905,10 +3910,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" s="4">
-        <v>84026</v>
+        <v>84025</v>
       </c>
       <c r="B275" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C275" s="4">
         <v>1</v>
@@ -3917,10 +3922,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" s="4">
-        <v>84027</v>
+        <v>84026</v>
       </c>
       <c r="B276" s="4">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="C276" s="4">
         <v>1</v>
@@ -3929,10 +3934,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="4">
-        <v>84028</v>
+        <v>84027</v>
       </c>
       <c r="B277" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C277" s="4">
         <v>1</v>
@@ -3941,10 +3946,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="4">
-        <v>84029</v>
+        <v>84028</v>
       </c>
       <c r="B278" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C278" s="4">
         <v>1</v>
@@ -3953,10 +3958,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="4">
-        <v>84030</v>
+        <v>84029</v>
       </c>
       <c r="B279" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C279" s="4">
         <v>1</v>
@@ -3965,10 +3970,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="4">
-        <v>84031</v>
+        <v>84030</v>
       </c>
       <c r="B280" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C280" s="4">
         <v>1</v>
@@ -3977,10 +3982,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" s="4">
-        <v>84032</v>
+        <v>84031</v>
       </c>
       <c r="B281" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C281" s="4">
         <v>1</v>
@@ -3989,10 +3994,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" s="4">
-        <v>84033</v>
+        <v>84032</v>
       </c>
       <c r="B282" s="4">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C282" s="4">
         <v>1</v>
@@ -4001,10 +4006,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="4">
-        <v>84034</v>
+        <v>84033</v>
       </c>
       <c r="B283" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C283" s="4">
         <v>1</v>
@@ -4013,10 +4018,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="4">
-        <v>84035</v>
+        <v>84034</v>
       </c>
       <c r="B284" s="4">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C284" s="4">
         <v>1</v>
@@ -4025,10 +4030,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="4">
-        <v>84036</v>
+        <v>84035</v>
       </c>
       <c r="B285" s="4">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C285" s="4">
         <v>1</v>
@@ -4037,10 +4042,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="4">
-        <v>84037</v>
+        <v>84036</v>
       </c>
       <c r="B286" s="4">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="C286" s="4">
         <v>1</v>
@@ -4049,168 +4054,180 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="4">
-        <v>84038</v>
+        <v>84037</v>
       </c>
       <c r="B287" s="4">
-        <v>9005</v>
+        <v>600</v>
       </c>
       <c r="C287" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" s="4">
-        <v>84039</v>
+        <v>84038</v>
       </c>
       <c r="B288" s="4">
         <v>9005</v>
       </c>
       <c r="C288" s="4">
+        <v>6</v>
+      </c>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="4">
+        <v>84039</v>
+      </c>
+      <c r="B289" s="4">
+        <v>9005</v>
+      </c>
+      <c r="C289" s="4">
         <v>15</v>
       </c>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A289">
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290">
         <v>300001</v>
       </c>
-      <c r="B289">
+      <c r="B290">
         <v>9004</v>
       </c>
-      <c r="C289">
+      <c r="C290">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A290">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291">
         <v>300011</v>
       </c>
-      <c r="B290">
+      <c r="B291">
         <v>1014</v>
       </c>
-      <c r="C290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A291">
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292">
         <v>300021</v>
       </c>
-      <c r="B291">
+      <c r="B292">
         <v>1015</v>
       </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A292">
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293">
         <v>300031</v>
       </c>
-      <c r="B292">
+      <c r="B293">
         <v>1016</v>
       </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A293">
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294">
         <v>300041</v>
       </c>
-      <c r="B293">
+      <c r="B294">
         <v>1017</v>
       </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A294">
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295">
         <v>300051</v>
       </c>
-      <c r="B294">
+      <c r="B295">
         <v>1018</v>
       </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A295">
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296">
         <v>300061</v>
       </c>
-      <c r="B295">
+      <c r="B296">
         <v>1019</v>
       </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A296">
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297">
         <v>300071</v>
       </c>
-      <c r="B296">
+      <c r="B297">
         <v>1020</v>
       </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A297">
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298">
         <v>300081</v>
       </c>
-      <c r="B297">
+      <c r="B298">
         <v>1021</v>
       </c>
-      <c r="C297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A298">
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299">
         <v>300091</v>
       </c>
-      <c r="B298">
+      <c r="B299">
         <v>1022</v>
       </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A299">
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300">
         <v>300101</v>
       </c>
-      <c r="B299">
+      <c r="B300">
         <v>1023</v>
       </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A300">
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301">
         <v>300111</v>
       </c>
-      <c r="B300">
+      <c r="B301">
         <v>1024</v>
       </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A301">
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A302">
         <v>300121</v>
       </c>
-      <c r="B301">
+      <c r="B302">
         <v>1025</v>
       </c>
-      <c r="C301">
+      <c r="C302">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1613DD-8B4B-4941-9173-33182776400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0E659-E08D-4C6A-8308-C2C14D16234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +182,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,9 +231,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -263,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M302" totalsRowShown="0">
-  <autoFilter ref="A1:M302" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M308" totalsRowShown="0">
+  <autoFilter ref="A1:M308" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:M308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1518,7 +1509,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>20002</v>
       </c>
       <c r="B62">
@@ -1529,7 +1520,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>20003</v>
       </c>
       <c r="B63">
@@ -1540,7 +1531,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>20004</v>
       </c>
       <c r="B64">
@@ -1551,7 +1542,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>20005</v>
       </c>
       <c r="B65">
@@ -1562,7 +1553,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>21001</v>
       </c>
       <c r="B66">
@@ -1573,7 +1564,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>21002</v>
       </c>
       <c r="B67">
@@ -1584,7 +1575,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>21003</v>
       </c>
       <c r="B68">
@@ -1595,7 +1586,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>21004</v>
       </c>
       <c r="B69">
@@ -1606,7 +1597,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>21005</v>
       </c>
       <c r="B70">
@@ -1617,7 +1608,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>21006</v>
       </c>
       <c r="B71">
@@ -1628,7 +1619,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>21007</v>
       </c>
       <c r="B72">
@@ -1639,7 +1630,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>21008</v>
       </c>
       <c r="B73">
@@ -1650,7 +1641,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>21009</v>
       </c>
       <c r="B74">
@@ -1661,7 +1652,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>21010</v>
       </c>
       <c r="B75">
@@ -1672,7 +1663,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>21011</v>
       </c>
       <c r="B76">
@@ -1683,7 +1674,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>21012</v>
       </c>
       <c r="B77">
@@ -1694,7 +1685,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>21013</v>
       </c>
       <c r="B78">
@@ -1705,7 +1696,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>21014</v>
       </c>
       <c r="B79">
@@ -1716,7 +1707,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>22001</v>
       </c>
       <c r="B80">
@@ -1727,7 +1718,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>22002</v>
       </c>
       <c r="B81">
@@ -1738,7 +1729,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>22003</v>
       </c>
       <c r="B82">
@@ -1749,7 +1740,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>22004</v>
       </c>
       <c r="B83">
@@ -1760,7 +1751,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>22005</v>
       </c>
       <c r="B84">
@@ -1771,7 +1762,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>22006</v>
       </c>
       <c r="B85">
@@ -1782,7 +1773,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>22007</v>
       </c>
       <c r="B86">
@@ -1793,7 +1784,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>22008</v>
       </c>
       <c r="B87">
@@ -1804,7 +1795,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>22009</v>
       </c>
       <c r="B88">
@@ -1815,7 +1806,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>22010</v>
       </c>
       <c r="B89">
@@ -1826,7 +1817,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>22011</v>
       </c>
       <c r="B90">
@@ -1837,7 +1828,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>22012</v>
       </c>
       <c r="B91">
@@ -1848,7 +1839,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>22013</v>
       </c>
       <c r="B92">
@@ -1859,7 +1850,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>22014</v>
       </c>
       <c r="B93">
@@ -1870,7 +1861,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>22015</v>
       </c>
       <c r="B94">
@@ -1881,7 +1872,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>22016</v>
       </c>
       <c r="B95">
@@ -1892,7 +1883,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>22017</v>
       </c>
       <c r="B96">
@@ -1903,7 +1894,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>22018</v>
       </c>
       <c r="B97">
@@ -1914,7 +1905,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>22019</v>
       </c>
       <c r="B98">
@@ -1925,7 +1916,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>22020</v>
       </c>
       <c r="B99">
@@ -1936,7 +1927,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>22021</v>
       </c>
       <c r="B100">
@@ -1947,7 +1938,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>22022</v>
       </c>
       <c r="B101">
@@ -1958,7 +1949,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>22023</v>
       </c>
       <c r="B102">
@@ -1969,7 +1960,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>22024</v>
       </c>
       <c r="B103">
@@ -1980,7 +1971,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>22025</v>
       </c>
       <c r="B104">
@@ -1991,7 +1982,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>22026</v>
       </c>
       <c r="B105">
@@ -2002,7 +1993,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>22027</v>
       </c>
       <c r="B106">
@@ -2013,7 +2004,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>22028</v>
       </c>
       <c r="B107">
@@ -2024,7 +2015,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>22029</v>
       </c>
       <c r="B108">
@@ -2035,7 +2026,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>22030</v>
       </c>
       <c r="B109">
@@ -2046,7 +2037,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>22031</v>
       </c>
       <c r="B110">
@@ -2057,7 +2048,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>22032</v>
       </c>
       <c r="B111">
@@ -2068,7 +2059,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>22033</v>
       </c>
       <c r="B112">
@@ -2079,7 +2070,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>22034</v>
       </c>
       <c r="B113">
@@ -2090,7 +2081,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>22035</v>
       </c>
       <c r="B114">
@@ -2101,7 +2092,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>22036</v>
       </c>
       <c r="B115">
@@ -2112,7 +2103,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>22037</v>
       </c>
       <c r="B116">
@@ -2123,7 +2114,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>22038</v>
       </c>
       <c r="B117">
@@ -2134,7 +2125,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>22039</v>
       </c>
       <c r="B118">
@@ -2145,7 +2136,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>22040</v>
       </c>
       <c r="B119">
@@ -2156,7 +2147,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>22041</v>
       </c>
       <c r="B120">
@@ -2167,7 +2158,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>22042</v>
       </c>
       <c r="B121">
@@ -2178,7 +2169,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>22043</v>
       </c>
       <c r="B122">
@@ -2189,7 +2180,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>22044</v>
       </c>
       <c r="B123">
@@ -2200,7 +2191,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>22045</v>
       </c>
       <c r="B124">
@@ -2211,7 +2202,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>22046</v>
       </c>
       <c r="B125">
@@ -2222,7 +2213,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>22047</v>
       </c>
       <c r="B126">
@@ -2233,7 +2224,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>22048</v>
       </c>
       <c r="B127">
@@ -2244,7 +2235,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>22049</v>
       </c>
       <c r="B128">
@@ -2255,7 +2246,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>22050</v>
       </c>
       <c r="B129">
@@ -2266,7 +2257,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>22051</v>
       </c>
       <c r="B130">
@@ -2277,7 +2268,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>22052</v>
       </c>
       <c r="B131">
@@ -2288,7 +2279,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>22053</v>
       </c>
       <c r="B132">
@@ -2299,7 +2290,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>22054</v>
       </c>
       <c r="B133">
@@ -2310,7 +2301,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>22055</v>
       </c>
       <c r="B134">
@@ -2321,7 +2312,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>22056</v>
       </c>
       <c r="B135">
@@ -2332,7 +2323,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>22057</v>
       </c>
       <c r="B136">
@@ -2343,7 +2334,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>22100</v>
       </c>
       <c r="B137">
@@ -2354,7 +2345,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>22101</v>
       </c>
       <c r="B138">
@@ -2365,7 +2356,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>22102</v>
       </c>
       <c r="B139">
@@ -2376,7 +2367,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>22103</v>
       </c>
       <c r="B140">
@@ -2387,7 +2378,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>22104</v>
       </c>
       <c r="B141">
@@ -2398,7 +2389,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>22200</v>
       </c>
       <c r="B142">
@@ -2409,7 +2400,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>22201</v>
       </c>
       <c r="B143">
@@ -2420,7 +2411,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>22202</v>
       </c>
       <c r="B144">
@@ -2431,7 +2422,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>22203</v>
       </c>
       <c r="B145">
@@ -2442,7 +2433,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>22204</v>
       </c>
       <c r="B146">
@@ -2453,7 +2444,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>50001</v>
       </c>
       <c r="B147">
@@ -2464,7 +2455,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>50002</v>
       </c>
       <c r="B148">
@@ -2475,7 +2466,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>50003</v>
       </c>
       <c r="B149">
@@ -2486,7 +2477,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>50004</v>
       </c>
       <c r="B150">
@@ -2497,7 +2488,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>50005</v>
       </c>
       <c r="B151">
@@ -2508,7 +2499,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>50006</v>
       </c>
       <c r="B152">
@@ -2519,7 +2510,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>50007</v>
       </c>
       <c r="B153">
@@ -2530,7 +2521,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>50008</v>
       </c>
       <c r="B154">
@@ -2541,7 +2532,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>50009</v>
       </c>
       <c r="B155">
@@ -2552,7 +2543,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>50010</v>
       </c>
       <c r="B156">
@@ -2563,7 +2554,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>50011</v>
       </c>
       <c r="B157">
@@ -2574,7 +2565,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>50012</v>
       </c>
       <c r="B158">
@@ -2585,7 +2576,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>50013</v>
       </c>
       <c r="B159">
@@ -2596,7 +2587,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>50014</v>
       </c>
       <c r="B160">
@@ -2607,7 +2598,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>50015</v>
       </c>
       <c r="B161">
@@ -2618,7 +2609,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>60001</v>
       </c>
       <c r="B162">
@@ -2629,7 +2620,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>60002</v>
       </c>
       <c r="B163">
@@ -2640,7 +2631,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>60003</v>
       </c>
       <c r="B164">
@@ -2651,7 +2642,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>60004</v>
       </c>
       <c r="B165">
@@ -2662,7 +2653,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>60005</v>
       </c>
       <c r="B166">
@@ -2673,7 +2664,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>60006</v>
       </c>
       <c r="B167">
@@ -2684,7 +2675,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>60007</v>
       </c>
       <c r="B168">
@@ -2695,7 +2686,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>60008</v>
       </c>
       <c r="B169">
@@ -3201,112 +3192,112 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A215" s="4">
+      <c r="A215" s="3">
         <v>83001</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="3">
         <v>10010</v>
       </c>
-      <c r="C215" s="4">
-        <v>1</v>
-      </c>
-      <c r="D215" s="4"/>
+      <c r="C215" s="3">
+        <v>1</v>
+      </c>
+      <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A216" s="4">
+      <c r="A216" s="3">
         <v>83002</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="3">
         <v>10011</v>
       </c>
-      <c r="C216" s="4">
-        <v>1</v>
-      </c>
-      <c r="D216" s="4"/>
+      <c r="C216" s="3">
+        <v>1</v>
+      </c>
+      <c r="D216" s="3"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A217" s="4">
+      <c r="A217" s="3">
         <v>83003</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="3">
         <v>10012</v>
       </c>
-      <c r="C217" s="4">
-        <v>1</v>
-      </c>
-      <c r="D217" s="4"/>
+      <c r="C217" s="3">
+        <v>1</v>
+      </c>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" s="4">
+      <c r="A218" s="3">
         <v>83004</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="3">
         <v>10004</v>
       </c>
-      <c r="C218" s="4">
-        <v>1</v>
-      </c>
-      <c r="D218" s="4"/>
+      <c r="C218" s="3">
+        <v>1</v>
+      </c>
+      <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" s="4">
+      <c r="A219" s="3">
         <v>83005</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="3">
         <v>10005</v>
       </c>
-      <c r="C219" s="4">
-        <v>1</v>
-      </c>
-      <c r="D219" s="4"/>
+      <c r="C219" s="3">
+        <v>1</v>
+      </c>
+      <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A220" s="4">
+      <c r="A220" s="3">
         <v>83006</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="3">
         <v>10006</v>
       </c>
-      <c r="C220" s="4">
-        <v>1</v>
-      </c>
-      <c r="D220" s="4"/>
+      <c r="C220" s="3">
+        <v>1</v>
+      </c>
+      <c r="D220" s="3"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A221" s="4">
+      <c r="A221" s="3">
         <v>83007</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="3">
         <v>10007</v>
       </c>
-      <c r="C221" s="4">
-        <v>1</v>
-      </c>
-      <c r="D221" s="4"/>
+      <c r="C221" s="3">
+        <v>1</v>
+      </c>
+      <c r="D221" s="3"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" s="4">
+      <c r="A222" s="3">
         <v>83008</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="3">
         <v>10008</v>
       </c>
-      <c r="C222" s="4">
-        <v>1</v>
-      </c>
-      <c r="D222" s="4"/>
+      <c r="C222" s="3">
+        <v>1</v>
+      </c>
+      <c r="D222" s="3"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" s="4">
+      <c r="A223" s="3">
         <v>83009</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="3">
         <v>10009</v>
       </c>
-      <c r="C223" s="4">
-        <v>1</v>
-      </c>
-      <c r="D223" s="4"/>
+      <c r="C223" s="3">
+        <v>1</v>
+      </c>
+      <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
@@ -3319,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
         <v>83011</v>
       </c>
@@ -3330,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
         <v>83012</v>
       </c>
@@ -3341,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
         <v>83013</v>
       </c>
@@ -3352,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
         <v>83014</v>
       </c>
@@ -3363,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
         <v>83015</v>
       </c>
@@ -3374,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
         <v>83016</v>
       </c>
@@ -3385,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
         <v>83017</v>
       </c>
@@ -3396,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
         <v>83018</v>
       </c>
@@ -3407,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
         <v>83019</v>
       </c>
@@ -3418,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
         <v>83020</v>
       </c>
@@ -3429,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="3">
         <v>83021</v>
       </c>
@@ -3440,737 +3431,737 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A236" s="4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>83022</v>
+      </c>
+      <c r="B236">
+        <v>1029</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>83023</v>
+      </c>
+      <c r="B237">
+        <v>1030</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>83024</v>
+      </c>
+      <c r="B238">
+        <v>1031</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>83025</v>
+      </c>
+      <c r="B239">
+        <v>1032</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>83026</v>
+      </c>
+      <c r="B240">
+        <v>1033</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>83027</v>
+      </c>
+      <c r="B241">
+        <v>1034</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="3">
         <v>83301</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B242" s="3">
         <v>123</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C242" s="3">
         <v>3</v>
       </c>
-      <c r="D236" s="4"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A237" s="4">
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="3">
         <v>83302</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B243" s="3">
         <v>124</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C243" s="3">
         <v>3</v>
       </c>
-      <c r="D237" s="4"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A238" s="4">
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="3">
         <v>83303</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B244" s="3">
         <v>125</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C244" s="3">
         <v>3</v>
       </c>
-      <c r="D238" s="4"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A239" s="4">
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="3">
         <v>83304</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B245" s="3">
         <v>126</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C245" s="3">
         <v>3</v>
       </c>
-      <c r="D239" s="4"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A240" s="4">
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="3">
         <v>83305</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B246" s="3">
         <v>127</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C246" s="3">
         <v>3</v>
       </c>
-      <c r="D240" s="4"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" s="4">
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="3">
         <v>83306</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B247" s="3">
         <v>7021</v>
       </c>
-      <c r="C241" s="4">
-        <v>1</v>
-      </c>
-      <c r="D241" s="4"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" s="4">
+      <c r="C247" s="3">
+        <v>1</v>
+      </c>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="3">
         <v>83307</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B248" s="3">
         <v>7022</v>
       </c>
-      <c r="C242" s="4">
-        <v>1</v>
-      </c>
-      <c r="D242" s="4"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A243" s="4">
+      <c r="C248" s="3">
+        <v>1</v>
+      </c>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="3">
         <v>83308</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B249" s="3">
         <v>7023</v>
       </c>
-      <c r="C243" s="4">
-        <v>1</v>
-      </c>
-      <c r="D243" s="4"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A244" s="4">
+      <c r="C249" s="3">
+        <v>1</v>
+      </c>
+      <c r="D249" s="3"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="3">
         <v>83309</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B250" s="3">
         <v>7024</v>
       </c>
-      <c r="C244" s="4">
-        <v>1</v>
-      </c>
-      <c r="D244" s="4"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" s="4">
+      <c r="C250" s="3">
+        <v>1</v>
+      </c>
+      <c r="D250" s="3"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="3">
         <v>83310</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B251" s="3">
         <v>7025</v>
       </c>
-      <c r="C245" s="4">
-        <v>1</v>
-      </c>
-      <c r="D245" s="4"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A246" s="4">
+      <c r="C251" s="3">
+        <v>1</v>
+      </c>
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="3">
         <v>83311</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B252" s="3">
         <v>7026</v>
       </c>
-      <c r="C246" s="4">
-        <v>1</v>
-      </c>
-      <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A247" s="4">
+      <c r="C252" s="3">
+        <v>1</v>
+      </c>
+      <c r="D252" s="3"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="3">
         <v>83312</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B253" s="3">
         <v>7027</v>
       </c>
-      <c r="C247" s="4">
-        <v>1</v>
-      </c>
-      <c r="D247" s="4"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A248" s="4">
+      <c r="C253" s="3">
+        <v>1</v>
+      </c>
+      <c r="D253" s="3"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="3">
         <v>83313</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B254" s="3">
         <v>7028</v>
       </c>
-      <c r="C248" s="4">
-        <v>1</v>
-      </c>
-      <c r="D248" s="4"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A249" s="4">
+      <c r="C254" s="3">
+        <v>1</v>
+      </c>
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="3">
         <v>83314</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B255" s="3">
         <v>7029</v>
       </c>
-      <c r="C249" s="4">
-        <v>1</v>
-      </c>
-      <c r="D249" s="4"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A250" s="4">
+      <c r="C255" s="3">
+        <v>1</v>
+      </c>
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="3">
         <v>83315</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B256" s="3">
         <v>7030</v>
       </c>
-      <c r="C250" s="4">
-        <v>1</v>
-      </c>
-      <c r="D250" s="4"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A251" s="4">
+      <c r="C256" s="3">
+        <v>1</v>
+      </c>
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" s="3">
         <v>84001</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B257" s="3">
         <v>9003</v>
       </c>
-      <c r="C251" s="4">
-        <v>1</v>
-      </c>
-      <c r="D251" s="4"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A252" s="4">
+      <c r="C257" s="3">
+        <v>1</v>
+      </c>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="3">
         <v>84002</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B258" s="3">
         <v>9005</v>
       </c>
-      <c r="C252" s="4">
-        <v>1</v>
-      </c>
-      <c r="D252" s="4"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A253" s="4">
+      <c r="C258" s="3">
+        <v>1</v>
+      </c>
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="3">
         <v>84003</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B259" s="3">
         <v>9002</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C259" s="3">
         <v>300</v>
       </c>
-      <c r="D253" s="4"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A254" s="4">
+      <c r="D259" s="3"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="3">
         <v>84004</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B260" s="3">
         <v>123</v>
       </c>
-      <c r="C254" s="4">
-        <v>1</v>
-      </c>
-      <c r="D254" s="4"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" s="4">
+      <c r="C260" s="3">
+        <v>1</v>
+      </c>
+      <c r="D260" s="3"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="3">
         <v>84005</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B261" s="3">
         <v>124</v>
       </c>
-      <c r="C255" s="4">
-        <v>1</v>
-      </c>
-      <c r="D255" s="4"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A256" s="4">
+      <c r="C261" s="3">
+        <v>1</v>
+      </c>
+      <c r="D261" s="3"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="3">
         <v>84006</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B262" s="3">
         <v>125</v>
       </c>
-      <c r="C256" s="4">
-        <v>1</v>
-      </c>
-      <c r="D256" s="4"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A257" s="4">
+      <c r="C262" s="3">
+        <v>1</v>
+      </c>
+      <c r="D262" s="3"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" s="3">
         <v>84007</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B263" s="3">
         <v>126</v>
       </c>
-      <c r="C257" s="4">
-        <v>1</v>
-      </c>
-      <c r="D257" s="4"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A258" s="4">
+      <c r="C263" s="3">
+        <v>1</v>
+      </c>
+      <c r="D263" s="3"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" s="3">
         <v>84008</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B264" s="3">
         <v>127</v>
       </c>
-      <c r="C258" s="4">
-        <v>1</v>
-      </c>
-      <c r="D258" s="4"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A259" s="4">
+      <c r="C264" s="3">
+        <v>1</v>
+      </c>
+      <c r="D264" s="3"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" s="3">
         <v>84009</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B265" s="3">
         <v>128</v>
       </c>
-      <c r="C259" s="4">
-        <v>1</v>
-      </c>
-      <c r="D259" s="4"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="4">
+      <c r="C265" s="3">
+        <v>1</v>
+      </c>
+      <c r="D265" s="3"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="3">
         <v>84010</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B266" s="3">
         <v>129</v>
       </c>
-      <c r="C260" s="4">
-        <v>1</v>
-      </c>
-      <c r="D260" s="4"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" s="4">
+      <c r="C266" s="3">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" s="3">
         <v>84011</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B267" s="3">
         <v>550</v>
       </c>
-      <c r="C261" s="4">
-        <v>1</v>
-      </c>
-      <c r="D261" s="4"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" s="4">
+      <c r="C267" s="3">
+        <v>1</v>
+      </c>
+      <c r="D267" s="3"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="3">
         <v>84012</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B268" s="3">
         <v>551</v>
       </c>
-      <c r="C262" s="4">
-        <v>1</v>
-      </c>
-      <c r="D262" s="4"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" s="4">
+      <c r="C268" s="3">
+        <v>1</v>
+      </c>
+      <c r="D268" s="3"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="3">
         <v>84013</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B269" s="3">
         <v>552</v>
       </c>
-      <c r="C263" s="4">
-        <v>1</v>
-      </c>
-      <c r="D263" s="4"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" s="4">
+      <c r="C269" s="3">
+        <v>1</v>
+      </c>
+      <c r="D269" s="3"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="3">
         <v>84014</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B270" s="3">
         <v>553</v>
       </c>
-      <c r="C264" s="4">
-        <v>1</v>
-      </c>
-      <c r="D264" s="4"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" s="4">
+      <c r="C270" s="3">
+        <v>1</v>
+      </c>
+      <c r="D270" s="3"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="3">
         <v>84015</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B271" s="3">
         <v>554</v>
       </c>
-      <c r="C265" s="4">
-        <v>1</v>
-      </c>
-      <c r="D265" s="4"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" s="4">
+      <c r="C271" s="3">
+        <v>1</v>
+      </c>
+      <c r="D271" s="3"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="3">
         <v>84016</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B272" s="3">
         <v>555</v>
       </c>
-      <c r="C266" s="4">
-        <v>1</v>
-      </c>
-      <c r="D266" s="4"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" s="4">
+      <c r="C272" s="3">
+        <v>1</v>
+      </c>
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="3">
         <v>84017</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B273" s="3">
         <v>556</v>
       </c>
-      <c r="C267" s="4">
-        <v>1</v>
-      </c>
-      <c r="D267" s="4"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="4">
+      <c r="C273" s="3">
+        <v>1</v>
+      </c>
+      <c r="D273" s="3"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="3">
         <v>84018</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B274" s="3">
         <v>557</v>
       </c>
-      <c r="C268" s="4">
-        <v>1</v>
-      </c>
-      <c r="D268" s="4"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="4">
+      <c r="C274" s="3">
+        <v>1</v>
+      </c>
+      <c r="D274" s="3"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="3">
         <v>84019</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B275" s="3">
         <v>558</v>
       </c>
-      <c r="C269" s="4">
-        <v>1</v>
-      </c>
-      <c r="D269" s="4"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="4">
+      <c r="C275" s="3">
+        <v>1</v>
+      </c>
+      <c r="D275" s="3"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="3">
         <v>84020</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B276" s="3">
         <v>559</v>
       </c>
-      <c r="C270" s="4">
-        <v>1</v>
-      </c>
-      <c r="D270" s="4"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="4">
+      <c r="C276" s="3">
+        <v>1</v>
+      </c>
+      <c r="D276" s="3"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="3">
         <v>84021</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B277" s="3">
         <v>134</v>
       </c>
-      <c r="C271" s="4">
-        <v>1</v>
-      </c>
-      <c r="D271" s="4"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="4">
+      <c r="C277" s="3">
+        <v>1</v>
+      </c>
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="3">
         <v>84022</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B278" s="3">
         <v>135</v>
       </c>
-      <c r="C272" s="4">
-        <v>1</v>
-      </c>
-      <c r="D272" s="4"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="4">
+      <c r="C278" s="3">
+        <v>1</v>
+      </c>
+      <c r="D278" s="3"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="3">
         <v>84023</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B279" s="3">
         <v>136</v>
       </c>
-      <c r="C273" s="4">
-        <v>1</v>
-      </c>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A274" s="4">
+      <c r="C279" s="3">
+        <v>1</v>
+      </c>
+      <c r="D279" s="3"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="3">
         <v>84024</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B280" s="3">
         <v>137</v>
       </c>
-      <c r="C274" s="4">
-        <v>1</v>
-      </c>
-      <c r="D274" s="4"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A275" s="4">
+      <c r="C280" s="3">
+        <v>1</v>
+      </c>
+      <c r="D280" s="3"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="3">
         <v>84025</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B281" s="3">
         <v>138</v>
       </c>
-      <c r="C275" s="4">
-        <v>1</v>
-      </c>
-      <c r="D275" s="4"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A276" s="4">
+      <c r="C281" s="3">
+        <v>1</v>
+      </c>
+      <c r="D281" s="3"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="3">
         <v>84026</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B282" s="3">
         <v>139</v>
       </c>
-      <c r="C276" s="4">
-        <v>1</v>
-      </c>
-      <c r="D276" s="4"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A277" s="4">
+      <c r="C282" s="3">
+        <v>1</v>
+      </c>
+      <c r="D282" s="3"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="3">
         <v>84027</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B283" s="3">
         <v>500</v>
       </c>
-      <c r="C277" s="4">
-        <v>1</v>
-      </c>
-      <c r="D277" s="4"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A278" s="4">
+      <c r="C283" s="3">
+        <v>1</v>
+      </c>
+      <c r="D283" s="3"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="3">
         <v>84028</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B284" s="3">
         <v>501</v>
       </c>
-      <c r="C278" s="4">
-        <v>1</v>
-      </c>
-      <c r="D278" s="4"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A279" s="4">
+      <c r="C284" s="3">
+        <v>1</v>
+      </c>
+      <c r="D284" s="3"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="3">
         <v>84029</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B285" s="3">
         <v>502</v>
       </c>
-      <c r="C279" s="4">
-        <v>1</v>
-      </c>
-      <c r="D279" s="4"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A280" s="4">
+      <c r="C285" s="3">
+        <v>1</v>
+      </c>
+      <c r="D285" s="3"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="3">
         <v>84030</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B286" s="3">
         <v>503</v>
       </c>
-      <c r="C280" s="4">
-        <v>1</v>
-      </c>
-      <c r="D280" s="4"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A281" s="4">
+      <c r="C286" s="3">
+        <v>1</v>
+      </c>
+      <c r="D286" s="3"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="3">
         <v>84031</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B287" s="3">
         <v>504</v>
       </c>
-      <c r="C281" s="4">
-        <v>1</v>
-      </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A282" s="4">
+      <c r="C287" s="3">
+        <v>1</v>
+      </c>
+      <c r="D287" s="3"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="3">
         <v>84032</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B288" s="3">
         <v>505</v>
       </c>
-      <c r="C282" s="4">
-        <v>1</v>
-      </c>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A283" s="4">
+      <c r="C288" s="3">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="3">
         <v>84033</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B289" s="3">
         <v>506</v>
       </c>
-      <c r="C283" s="4">
-        <v>1</v>
-      </c>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A284" s="4">
+      <c r="C289" s="3">
+        <v>1</v>
+      </c>
+      <c r="D289" s="3"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="3">
         <v>84034</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B290" s="3">
         <v>507</v>
       </c>
-      <c r="C284" s="4">
-        <v>1</v>
-      </c>
-      <c r="D284" s="4"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A285" s="4">
+      <c r="C290" s="3">
+        <v>1</v>
+      </c>
+      <c r="D290" s="3"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" s="3">
         <v>84035</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B291" s="3">
         <v>508</v>
       </c>
-      <c r="C285" s="4">
-        <v>1</v>
-      </c>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A286" s="4">
+      <c r="C291" s="3">
+        <v>1</v>
+      </c>
+      <c r="D291" s="3"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="3">
         <v>84036</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B292" s="3">
         <v>509</v>
       </c>
-      <c r="C286" s="4">
-        <v>1</v>
-      </c>
-      <c r="D286" s="4"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A287" s="4">
+      <c r="C292" s="3">
+        <v>1</v>
+      </c>
+      <c r="D292" s="3"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" s="3">
         <v>84037</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B293" s="3">
         <v>600</v>
       </c>
-      <c r="C287" s="4">
-        <v>1</v>
-      </c>
-      <c r="D287" s="4"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A288" s="4">
+      <c r="C293" s="3">
+        <v>1</v>
+      </c>
+      <c r="D293" s="3"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294" s="3">
         <v>84038</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B294" s="3">
         <v>9005</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C294" s="3">
         <v>6</v>
       </c>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A289" s="4">
+      <c r="D294" s="3"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" s="3">
         <v>84039</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B295" s="3">
         <v>9005</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C295" s="3">
         <v>15</v>
       </c>
-      <c r="D289" s="4"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A290">
-        <v>300001</v>
-      </c>
-      <c r="B290">
-        <v>9004</v>
-      </c>
-      <c r="C290">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A291">
-        <v>300011</v>
-      </c>
-      <c r="B291">
-        <v>1014</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A292">
-        <v>300021</v>
-      </c>
-      <c r="B292">
-        <v>1015</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A293">
-        <v>300031</v>
-      </c>
-      <c r="B293">
-        <v>1016</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A294">
-        <v>300041</v>
-      </c>
-      <c r="B294">
-        <v>1017</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A295">
-        <v>300051</v>
-      </c>
-      <c r="B295">
-        <v>1018</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
+      <c r="D295" s="3"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296">
-        <v>300061</v>
+        <v>300001</v>
       </c>
       <c r="B296">
-        <v>1019</v>
+        <v>9004</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297">
-        <v>300071</v>
+        <v>300011</v>
       </c>
       <c r="B297">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -4178,10 +4169,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298">
-        <v>300081</v>
+        <v>300021</v>
       </c>
       <c r="B298">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -4189,10 +4180,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299">
-        <v>300091</v>
+        <v>300031</v>
       </c>
       <c r="B299">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -4200,10 +4191,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300">
-        <v>300101</v>
+        <v>300041</v>
       </c>
       <c r="B300">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -4211,10 +4202,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301">
-        <v>300111</v>
+        <v>300051</v>
       </c>
       <c r="B301">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -4222,12 +4213,78 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302">
+        <v>300061</v>
+      </c>
+      <c r="B302">
+        <v>1019</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>300071</v>
+      </c>
+      <c r="B303">
+        <v>1020</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>300081</v>
+      </c>
+      <c r="B304">
+        <v>1021</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>300091</v>
+      </c>
+      <c r="B305">
+        <v>1022</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>300101</v>
+      </c>
+      <c r="B306">
+        <v>1023</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>300111</v>
+      </c>
+      <c r="B307">
+        <v>1024</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A308">
         <v>300121</v>
       </c>
-      <c r="B302">
+      <c r="B308">
         <v>1025</v>
       </c>
-      <c r="C302">
+      <c r="C308">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69259F0-8654-4D81-987D-A635F3A0E6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8274A0F-D0C9-4515-8819-1C848DA542F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35025" yWindow="2010" windowWidth="21705" windowHeight="13155" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,10 +584,10 @@
   <dimension ref="A1:M312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -871,15 +871,9 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1027</v>
-      </c>
-      <c r="E11">
         <v>5</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8274A0F-D0C9-4515-8819-1C848DA542F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FF139B-5588-424A-873B-976A538CCA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="3192" yWindow="1212" windowWidth="19356" windowHeight="10200" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M312" totalsRowShown="0">
-  <autoFilter ref="A1:M312" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M314" totalsRowShown="0">
+  <autoFilter ref="A1:M314" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M312"/>
+  <dimension ref="A1:M314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1076,282 +1076,282 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>10001</v>
-      </c>
-      <c r="B30">
-        <v>9000</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
+      <c r="A30" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1036</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>10002</v>
-      </c>
-      <c r="B31">
-        <v>9000</v>
-      </c>
-      <c r="C31">
-        <v>900</v>
+      <c r="A31" s="4">
+        <v>3005</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1037</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B32">
         <v>9000</v>
       </c>
       <c r="C32">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B33">
         <v>9000</v>
       </c>
       <c r="C33">
-        <v>3500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B34">
         <v>9000</v>
       </c>
       <c r="C34">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B35">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>10080</v>
+        <v>10005</v>
       </c>
       <c r="B36">
         <v>9000</v>
       </c>
       <c r="C36">
-        <v>65</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>10081</v>
+        <v>10006</v>
       </c>
       <c r="B37">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="C37">
-        <v>130</v>
-      </c>
-      <c r="D37">
-        <v>9001</v>
-      </c>
-      <c r="E37">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>10082</v>
+        <v>10080</v>
       </c>
       <c r="B38">
         <v>9000</v>
       </c>
       <c r="C38">
-        <v>215</v>
-      </c>
-      <c r="D38">
-        <v>9001</v>
-      </c>
-      <c r="E38">
-        <v>500</v>
-      </c>
-      <c r="F38">
-        <v>3001</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>11001</v>
+        <v>10081</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>9000</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D39">
-        <v>103</v>
+        <v>9001</v>
       </c>
       <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="F39">
-        <v>104</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>112</v>
-      </c>
-      <c r="I39">
-        <v>50</v>
-      </c>
-      <c r="J39">
-        <v>107</v>
-      </c>
-      <c r="K39">
-        <v>50</v>
-      </c>
-      <c r="L39">
-        <v>3001</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>11002</v>
+        <v>10082</v>
       </c>
       <c r="B40">
+        <v>9000</v>
+      </c>
+      <c r="C40">
+        <v>215</v>
+      </c>
+      <c r="D40">
+        <v>9001</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
         <v>3001</v>
       </c>
-      <c r="C40">
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="B41">
-        <v>3001</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D41">
-        <v>1004</v>
+        <v>103</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41">
-        <v>1005</v>
+        <v>104</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
       <c r="H41">
-        <v>1006</v>
+        <v>112</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J41">
-        <v>1007</v>
+        <v>107</v>
       </c>
       <c r="K41">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="L41">
+        <v>3001</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="B42">
         <v>3001</v>
       </c>
       <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="B43">
         <v>3001</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1004</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>1005</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>1006</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>1007</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>12001</v>
+        <v>11004</v>
       </c>
       <c r="B44">
         <v>3001</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>12002</v>
+        <v>11005</v>
       </c>
       <c r="B45">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="C45">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>12003</v>
+        <v>12001</v>
       </c>
       <c r="B46">
-        <v>1002</v>
+        <v>3001</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>12004</v>
+        <v>12002</v>
       </c>
       <c r="B47">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C47">
         <v>60</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>12005</v>
+        <v>12003</v>
       </c>
       <c r="B48">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>12006</v>
+        <v>12004</v>
       </c>
       <c r="B49">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>12007</v>
+        <v>12005</v>
       </c>
       <c r="B50">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C50">
         <v>60</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="B51">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C51">
         <v>60</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>12009</v>
+        <v>12007</v>
       </c>
       <c r="B52">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C52">
         <v>60</v>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>12010</v>
+        <v>12008</v>
       </c>
       <c r="B53">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C53">
         <v>60</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>12011</v>
+        <v>12009</v>
       </c>
       <c r="B54">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C54">
         <v>60</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>12012</v>
+        <v>12010</v>
       </c>
       <c r="B55">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C55">
         <v>60</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>12013</v>
+        <v>12011</v>
       </c>
       <c r="B56">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C56">
         <v>60</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>12014</v>
+        <v>12012</v>
       </c>
       <c r="B57">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C57">
         <v>60</v>
@@ -1469,227 +1469,227 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>14001</v>
+        <v>12013</v>
       </c>
       <c r="B58">
-        <v>9002</v>
+        <v>1012</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>14002</v>
+        <v>12014</v>
       </c>
       <c r="B59">
-        <v>9002</v>
+        <v>1013</v>
       </c>
       <c r="C59">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>14003</v>
+        <v>14001</v>
       </c>
       <c r="B60">
         <v>9002</v>
       </c>
       <c r="C60">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>14004</v>
+        <v>14002</v>
       </c>
       <c r="B61">
         <v>9002</v>
       </c>
       <c r="C61">
-        <v>2000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>14005</v>
+        <v>14003</v>
       </c>
       <c r="B62">
         <v>9002</v>
       </c>
       <c r="C62">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>14006</v>
+        <v>14004</v>
       </c>
       <c r="B63">
         <v>9002</v>
       </c>
       <c r="C63">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>14007</v>
+        <v>14005</v>
       </c>
       <c r="B64">
         <v>9002</v>
       </c>
       <c r="C64">
-        <v>11000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
+        <v>14006</v>
+      </c>
+      <c r="B65">
+        <v>9002</v>
+      </c>
+      <c r="C65">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>14007</v>
+      </c>
+      <c r="B66">
+        <v>9002</v>
+      </c>
+      <c r="C66">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67">
         <v>20001</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>102</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3">
-        <v>20002</v>
-      </c>
-      <c r="B66">
-        <v>9001</v>
-      </c>
-      <c r="C66">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3">
-        <v>20003</v>
-      </c>
-      <c r="B67">
-        <v>1001</v>
-      </c>
-      <c r="C67">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B68">
-        <v>1013</v>
+        <v>9001</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
-        <v>20005</v>
+        <v>20003</v>
       </c>
       <c r="B69">
-        <v>9002</v>
+        <v>1001</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
-        <v>21001</v>
+        <v>20004</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>1013</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
-        <v>21002</v>
+        <v>20005</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>9002</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
-        <v>21003</v>
+        <v>21001</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
-        <v>21004</v>
+        <v>21002</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
-        <v>21005</v>
+        <v>21003</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
-        <v>21006</v>
+        <v>21004</v>
       </c>
       <c r="B75">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
-        <v>21007</v>
+        <v>21005</v>
       </c>
       <c r="B76">
-        <v>3001</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
-        <v>21008</v>
+        <v>21006</v>
       </c>
       <c r="B77">
-        <v>3001</v>
+        <v>600</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
-        <v>21009</v>
+        <v>21007</v>
       </c>
       <c r="B78">
         <v>3001</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
-        <v>21010</v>
+        <v>21008</v>
       </c>
       <c r="B79">
         <v>3001</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
-        <v>21011</v>
+        <v>21009</v>
       </c>
       <c r="B80">
         <v>3001</v>
@@ -1722,76 +1722,76 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
-        <v>21012</v>
+        <v>21010</v>
       </c>
       <c r="B81">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C81">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
-        <v>21013</v>
+        <v>21011</v>
       </c>
       <c r="B82">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="C82">
-        <v>2400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
-        <v>21014</v>
+        <v>21012</v>
       </c>
       <c r="B83">
         <v>9001</v>
       </c>
       <c r="C83">
-        <v>5000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
-        <v>22001</v>
+        <v>21013</v>
       </c>
       <c r="B84">
-        <v>9004</v>
+        <v>9001</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
-        <v>22002</v>
+        <v>21014</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>9001</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
-        <v>22003</v>
+        <v>22001</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>9004</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
-        <v>22004</v>
+        <v>22002</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
-        <v>22005</v>
+        <v>22003</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
-        <v>22006</v>
+        <v>22004</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
-        <v>22007</v>
+        <v>22005</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
-        <v>22008</v>
+        <v>22006</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
-        <v>22009</v>
+        <v>22007</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
-        <v>22010</v>
+        <v>22008</v>
       </c>
       <c r="B93">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
-        <v>22011</v>
+        <v>22009</v>
       </c>
       <c r="B94">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
-        <v>22012</v>
+        <v>22010</v>
       </c>
       <c r="B95">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
-        <v>22013</v>
+        <v>22011</v>
       </c>
       <c r="B96">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
-        <v>22014</v>
+        <v>22012</v>
       </c>
       <c r="B97">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
-        <v>22015</v>
+        <v>22013</v>
       </c>
       <c r="B98">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
-        <v>22016</v>
+        <v>22014</v>
       </c>
       <c r="B99">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1931,10 +1931,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
-        <v>22017</v>
+        <v>22015</v>
       </c>
       <c r="B100">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
-        <v>22018</v>
+        <v>22016</v>
       </c>
       <c r="B101">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
-        <v>22019</v>
+        <v>22017</v>
       </c>
       <c r="B102">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
-        <v>22020</v>
+        <v>22018</v>
       </c>
       <c r="B103">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
-        <v>22021</v>
+        <v>22019</v>
       </c>
       <c r="B104">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
-        <v>22022</v>
+        <v>22020</v>
       </c>
       <c r="B105">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1997,10 +1997,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
-        <v>22023</v>
+        <v>22021</v>
       </c>
       <c r="B106">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
-        <v>22024</v>
+        <v>22022</v>
       </c>
       <c r="B107">
-        <v>501</v>
+        <v>139</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
-        <v>22025</v>
+        <v>22023</v>
       </c>
       <c r="B108">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
-        <v>22026</v>
+        <v>22024</v>
       </c>
       <c r="B109">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
-        <v>22027</v>
+        <v>22025</v>
       </c>
       <c r="B110">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
-        <v>22028</v>
+        <v>22026</v>
       </c>
       <c r="B111">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
-        <v>22029</v>
+        <v>22027</v>
       </c>
       <c r="B112">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
-        <v>22030</v>
+        <v>22028</v>
       </c>
       <c r="B113">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
-        <v>22031</v>
+        <v>22029</v>
       </c>
       <c r="B114">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
-        <v>22032</v>
+        <v>22030</v>
       </c>
       <c r="B115">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
-        <v>22033</v>
+        <v>22031</v>
       </c>
       <c r="B116">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
-        <v>22034</v>
+        <v>22032</v>
       </c>
       <c r="B117">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
-        <v>22035</v>
+        <v>22033</v>
       </c>
       <c r="B118">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
-        <v>22036</v>
+        <v>22034</v>
       </c>
       <c r="B119">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
-        <v>22037</v>
+        <v>22035</v>
       </c>
       <c r="B120">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
-        <v>22038</v>
+        <v>22036</v>
       </c>
       <c r="B121">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
-        <v>22039</v>
+        <v>22037</v>
       </c>
       <c r="B122">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
-        <v>22040</v>
+        <v>22038</v>
       </c>
       <c r="B123">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
-        <v>22041</v>
+        <v>22039</v>
       </c>
       <c r="B124">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
-        <v>22042</v>
+        <v>22040</v>
       </c>
       <c r="B125">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
-        <v>22043</v>
+        <v>22041</v>
       </c>
       <c r="B126">
-        <v>7016</v>
+        <v>558</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
-        <v>22044</v>
+        <v>22042</v>
       </c>
       <c r="B127">
-        <v>7017</v>
+        <v>559</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
-        <v>22045</v>
+        <v>22043</v>
       </c>
       <c r="B128">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
-        <v>22046</v>
+        <v>22044</v>
       </c>
       <c r="B129">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2261,10 +2261,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
-        <v>22047</v>
+        <v>22045</v>
       </c>
       <c r="B130">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
-        <v>22048</v>
+        <v>22046</v>
       </c>
       <c r="B131">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
-        <v>22049</v>
+        <v>22047</v>
       </c>
       <c r="B132">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2294,10 +2294,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
-        <v>22050</v>
+        <v>22048</v>
       </c>
       <c r="B133">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
-        <v>22051</v>
+        <v>22049</v>
       </c>
       <c r="B134">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2316,10 +2316,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
-        <v>22052</v>
+        <v>22050</v>
       </c>
       <c r="B135">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
-        <v>22053</v>
+        <v>22051</v>
       </c>
       <c r="B136">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
-        <v>22054</v>
+        <v>22052</v>
       </c>
       <c r="B137">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
-        <v>22055</v>
+        <v>22053</v>
       </c>
       <c r="B138">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
-        <v>22056</v>
+        <v>22054</v>
       </c>
       <c r="B139">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
-        <v>22057</v>
+        <v>22055</v>
       </c>
       <c r="B140">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -2382,307 +2382,307 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
-        <v>22100</v>
+        <v>22056</v>
       </c>
       <c r="B141">
-        <v>9004</v>
+        <v>7029</v>
       </c>
       <c r="C141">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
-        <v>22101</v>
+        <v>22057</v>
       </c>
       <c r="B142">
-        <v>9002</v>
+        <v>7030</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
-        <v>22102</v>
+        <v>22100</v>
       </c>
       <c r="B143">
-        <v>3001</v>
+        <v>9004</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
-        <v>22103</v>
+        <v>22101</v>
       </c>
       <c r="B144">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C144">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
-        <v>22104</v>
+        <v>22102</v>
       </c>
       <c r="B145">
-        <v>9002</v>
+        <v>3001</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
-        <v>22200</v>
+        <v>22103</v>
       </c>
       <c r="B146">
         <v>9004</v>
       </c>
       <c r="C146">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
-        <v>22201</v>
+        <v>22104</v>
       </c>
       <c r="B147">
         <v>9002</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
-        <v>22202</v>
+        <v>22200</v>
       </c>
       <c r="B148">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
-        <v>22203</v>
+        <v>22201</v>
       </c>
       <c r="B149">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
-        <v>22204</v>
+        <v>22202</v>
       </c>
       <c r="B150">
-        <v>9005</v>
+        <v>9002</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
-        <v>50001</v>
+        <v>22203</v>
       </c>
       <c r="B151">
-        <v>123</v>
+        <v>9003</v>
       </c>
       <c r="C151">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="3">
-        <v>50002</v>
+        <v>22204</v>
       </c>
       <c r="B152">
-        <v>123</v>
+        <v>9005</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
-        <v>50003</v>
+        <v>50001</v>
       </c>
       <c r="B153">
         <v>123</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
-        <v>50004</v>
+        <v>50002</v>
       </c>
       <c r="B154">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
-        <v>50005</v>
+        <v>50003</v>
       </c>
       <c r="B155">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="3">
-        <v>50006</v>
+        <v>50004</v>
       </c>
       <c r="B156">
         <v>124</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="3">
-        <v>50007</v>
+        <v>50005</v>
       </c>
       <c r="B157">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C157">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="3">
-        <v>50008</v>
+        <v>50006</v>
       </c>
       <c r="B158">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="3">
-        <v>50009</v>
+        <v>50007</v>
       </c>
       <c r="B159">
         <v>125</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
-        <v>50010</v>
+        <v>50008</v>
       </c>
       <c r="B160">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C160">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="3">
-        <v>50011</v>
+        <v>50009</v>
       </c>
       <c r="B161">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="3">
-        <v>50012</v>
+        <v>50010</v>
       </c>
       <c r="B162">
         <v>126</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="3">
-        <v>50013</v>
+        <v>50011</v>
       </c>
       <c r="B163">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C163">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="3">
-        <v>50014</v>
+        <v>50012</v>
       </c>
       <c r="B164">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
-        <v>50015</v>
+        <v>50013</v>
       </c>
       <c r="B165">
         <v>127</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="3">
-        <v>60001</v>
+        <v>50014</v>
       </c>
       <c r="B166">
-        <v>559</v>
+        <v>127</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="3">
-        <v>60002</v>
+        <v>50015</v>
       </c>
       <c r="B167">
-        <v>550</v>
+        <v>127</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="3">
-        <v>60003</v>
+        <v>60001</v>
       </c>
       <c r="B168">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
-        <v>60004</v>
+        <v>60002</v>
       </c>
       <c r="B169">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
-        <v>60005</v>
+        <v>60003</v>
       </c>
       <c r="B170">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="3">
-        <v>60006</v>
+        <v>60004</v>
       </c>
       <c r="B171">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C171">
         <v>2</v>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
-        <v>60007</v>
+        <v>60005</v>
       </c>
       <c r="B172">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -2734,32 +2734,32 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="3">
+        <v>60006</v>
+      </c>
+      <c r="B173">
+        <v>554</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" s="3">
+        <v>60007</v>
+      </c>
+      <c r="B174">
+        <v>555</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" s="3">
         <v>60008</v>
       </c>
-      <c r="B173">
+      <c r="B175">
         <v>556</v>
-      </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A174">
-        <v>60009</v>
-      </c>
-      <c r="B174">
-        <v>557</v>
-      </c>
-      <c r="C174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A175">
-        <v>60010</v>
-      </c>
-      <c r="B175">
-        <v>558</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -2767,32 +2767,32 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>70001</v>
+        <v>60009</v>
       </c>
       <c r="B176">
-        <v>3001</v>
+        <v>557</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>70002</v>
+        <v>60010</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>558</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>70003</v>
+        <v>70001</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2800,175 +2800,175 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>80001</v>
+        <v>70002</v>
       </c>
       <c r="B179">
-        <v>7016</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>80002</v>
+        <v>70003</v>
       </c>
       <c r="B180">
-        <v>7016</v>
+        <v>2</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>80003</v>
+        <v>80001</v>
       </c>
       <c r="B181">
         <v>7016</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>80004</v>
+        <v>80002</v>
       </c>
       <c r="B182">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>80005</v>
+        <v>80003</v>
       </c>
       <c r="B183">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>80006</v>
+        <v>80004</v>
       </c>
       <c r="B184">
         <v>7017</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>80007</v>
+        <v>80005</v>
       </c>
       <c r="B185">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>80008</v>
+        <v>80006</v>
       </c>
       <c r="B186">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>80009</v>
+        <v>80007</v>
       </c>
       <c r="B187">
         <v>7018</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>80010</v>
+        <v>80008</v>
       </c>
       <c r="B188">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>80011</v>
+        <v>80009</v>
       </c>
       <c r="B189">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>80012</v>
+        <v>80010</v>
       </c>
       <c r="B190">
         <v>7019</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>80013</v>
+        <v>80011</v>
       </c>
       <c r="B191">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>80014</v>
+        <v>80012</v>
       </c>
       <c r="B192">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>80015</v>
+        <v>80013</v>
       </c>
       <c r="B193">
         <v>7020</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>80016</v>
+        <v>80014</v>
       </c>
       <c r="B194">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -2976,21 +2976,21 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>80017</v>
+        <v>80015</v>
       </c>
       <c r="B195">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>80018</v>
+        <v>80016</v>
       </c>
       <c r="B196">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -2998,10 +2998,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>80019</v>
+        <v>80017</v>
       </c>
       <c r="B197">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>80020</v>
+        <v>80018</v>
       </c>
       <c r="B198">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>80021</v>
+        <v>80019</v>
       </c>
       <c r="B199">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200">
-        <v>80022</v>
+        <v>80020</v>
       </c>
       <c r="B200">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201">
-        <v>80023</v>
+        <v>80021</v>
       </c>
       <c r="B201">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202">
-        <v>80024</v>
+        <v>80022</v>
       </c>
       <c r="B202">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203">
-        <v>80025</v>
+        <v>80023</v>
       </c>
       <c r="B203">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -3075,21 +3075,21 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204">
-        <v>81001</v>
+        <v>80024</v>
       </c>
       <c r="B204">
-        <v>6</v>
+        <v>7029</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205">
-        <v>81002</v>
+        <v>80025</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>7030</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -3097,87 +3097,87 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206">
-        <v>81003</v>
+        <v>81001</v>
       </c>
       <c r="B206">
         <v>6</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207">
-        <v>81004</v>
+        <v>81002</v>
       </c>
       <c r="B207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208">
-        <v>81005</v>
+        <v>81003</v>
       </c>
       <c r="B208">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209">
-        <v>81006</v>
+        <v>81004</v>
       </c>
       <c r="B209">
         <v>7</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210">
-        <v>81007</v>
+        <v>81005</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211">
-        <v>81008</v>
+        <v>81006</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212">
-        <v>81009</v>
+        <v>81007</v>
       </c>
       <c r="B212">
         <v>8</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213">
-        <v>81010</v>
+        <v>81008</v>
       </c>
       <c r="B213">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -3185,21 +3185,21 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214">
-        <v>81011</v>
+        <v>81009</v>
       </c>
       <c r="B214">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215">
-        <v>81012</v>
+        <v>81010</v>
       </c>
       <c r="B215">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216">
-        <v>81013</v>
+        <v>81011</v>
       </c>
       <c r="B216">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217">
-        <v>81014</v>
+        <v>81012</v>
       </c>
       <c r="B217">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -3229,45 +3229,43 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218">
+        <v>81013</v>
+      </c>
+      <c r="B218">
+        <v>137</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>81014</v>
+      </c>
+      <c r="B219">
+        <v>138</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A220">
         <v>81015</v>
       </c>
-      <c r="B218">
+      <c r="B220">
         <v>139</v>
       </c>
-      <c r="C218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A219" s="3">
-        <v>83001</v>
-      </c>
-      <c r="B219" s="3">
-        <v>10010</v>
-      </c>
-      <c r="C219" s="3">
-        <v>1</v>
-      </c>
-      <c r="D219" s="3"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A220" s="3">
-        <v>83002</v>
-      </c>
-      <c r="B220" s="3">
-        <v>10011</v>
-      </c>
-      <c r="C220" s="3">
-        <v>1</v>
-      </c>
-      <c r="D220" s="3"/>
+      <c r="C220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="3">
-        <v>83003</v>
+        <v>83001</v>
       </c>
       <c r="B221" s="3">
-        <v>10012</v>
+        <v>10010</v>
       </c>
       <c r="C221" s="3">
         <v>1</v>
@@ -3276,10 +3274,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="3">
-        <v>83004</v>
+        <v>83002</v>
       </c>
       <c r="B222" s="3">
-        <v>10004</v>
+        <v>10011</v>
       </c>
       <c r="C222" s="3">
         <v>1</v>
@@ -3288,10 +3286,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="3">
-        <v>83005</v>
+        <v>83003</v>
       </c>
       <c r="B223" s="3">
-        <v>10005</v>
+        <v>10012</v>
       </c>
       <c r="C223" s="3">
         <v>1</v>
@@ -3300,10 +3298,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="3">
-        <v>83006</v>
+        <v>83004</v>
       </c>
       <c r="B224" s="3">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -3312,10 +3310,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
-        <v>83007</v>
+        <v>83005</v>
       </c>
       <c r="B225" s="3">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="C225" s="3">
         <v>1</v>
@@ -3324,10 +3322,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="3">
-        <v>83008</v>
+        <v>83006</v>
       </c>
       <c r="B226" s="3">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="C226" s="3">
         <v>1</v>
@@ -3336,10 +3334,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
-        <v>83009</v>
+        <v>83007</v>
       </c>
       <c r="B227" s="3">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="C227" s="3">
         <v>1</v>
@@ -3348,32 +3346,34 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
-        <v>83010</v>
+        <v>83008</v>
       </c>
       <c r="B228" s="3">
-        <v>10013</v>
+        <v>10008</v>
       </c>
       <c r="C228" s="3">
         <v>1</v>
       </c>
+      <c r="D228" s="3"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
-        <v>83011</v>
+        <v>83009</v>
       </c>
       <c r="B229" s="3">
-        <v>10014</v>
+        <v>10009</v>
       </c>
       <c r="C229" s="3">
         <v>1</v>
       </c>
+      <c r="D229" s="3"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
-        <v>83012</v>
+        <v>83010</v>
       </c>
       <c r="B230" s="3">
-        <v>10015</v>
+        <v>10013</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
-        <v>83013</v>
+        <v>83011</v>
       </c>
       <c r="B231" s="3">
-        <v>10016</v>
+        <v>10014</v>
       </c>
       <c r="C231" s="3">
         <v>1</v>
@@ -3392,10 +3392,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
-        <v>83014</v>
+        <v>83012</v>
       </c>
       <c r="B232" s="3">
-        <v>10017</v>
+        <v>10015</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
-        <v>83015</v>
+        <v>83013</v>
       </c>
       <c r="B233" s="3">
-        <v>10018</v>
+        <v>10016</v>
       </c>
       <c r="C233" s="3">
         <v>1</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
-        <v>83016</v>
+        <v>83014</v>
       </c>
       <c r="B234" s="3">
-        <v>10019</v>
+        <v>10017</v>
       </c>
       <c r="C234" s="3">
         <v>1</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
-        <v>83017</v>
+        <v>83015</v>
       </c>
       <c r="B235" s="3">
-        <v>10020</v>
+        <v>10018</v>
       </c>
       <c r="C235" s="3">
         <v>1</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="3">
-        <v>83018</v>
+        <v>83016</v>
       </c>
       <c r="B236" s="3">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
-        <v>83019</v>
+        <v>83017</v>
       </c>
       <c r="B237" s="3">
-        <v>10022</v>
+        <v>10020</v>
       </c>
       <c r="C237" s="3">
         <v>1</v>
@@ -3458,10 +3458,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="3">
-        <v>83020</v>
+        <v>83018</v>
       </c>
       <c r="B238" s="3">
-        <v>10023</v>
+        <v>10021</v>
       </c>
       <c r="C238" s="3">
         <v>1</v>
@@ -3469,43 +3469,43 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
+        <v>83019</v>
+      </c>
+      <c r="B239" s="3">
+        <v>10022</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A240" s="3">
+        <v>83020</v>
+      </c>
+      <c r="B240" s="3">
+        <v>10023</v>
+      </c>
+      <c r="C240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A241" s="3">
         <v>83021</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B241" s="3">
         <v>10024</v>
       </c>
-      <c r="C239" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A240">
-        <v>83022</v>
-      </c>
-      <c r="B240">
-        <v>1029</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A241">
-        <v>83023</v>
-      </c>
-      <c r="B241">
-        <v>1030</v>
-      </c>
-      <c r="C241">
+      <c r="C241" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242">
-        <v>83024</v>
+        <v>83022</v>
       </c>
       <c r="B242">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243">
-        <v>83025</v>
+        <v>83023</v>
       </c>
       <c r="B243">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244">
-        <v>83026</v>
+        <v>83024</v>
       </c>
       <c r="B244">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3535,45 +3535,43 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245">
+        <v>83025</v>
+      </c>
+      <c r="B245">
+        <v>1032</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>83026</v>
+      </c>
+      <c r="B246">
+        <v>1033</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A247">
         <v>83027</v>
       </c>
-      <c r="B245">
+      <c r="B247">
         <v>1034</v>
       </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A246" s="3">
-        <v>83301</v>
-      </c>
-      <c r="B246" s="3">
-        <v>123</v>
-      </c>
-      <c r="C246" s="3">
-        <v>3</v>
-      </c>
-      <c r="D246" s="3"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A247" s="3">
-        <v>83302</v>
-      </c>
-      <c r="B247" s="3">
-        <v>124</v>
-      </c>
-      <c r="C247" s="3">
-        <v>3</v>
-      </c>
-      <c r="D247" s="3"/>
+      <c r="C247">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="3">
-        <v>83303</v>
+        <v>83301</v>
       </c>
       <c r="B248" s="3">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C248" s="3">
         <v>3</v>
@@ -3582,10 +3580,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="3">
-        <v>83304</v>
+        <v>83302</v>
       </c>
       <c r="B249" s="3">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C249" s="3">
         <v>3</v>
@@ -3594,10 +3592,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
-        <v>83305</v>
+        <v>83303</v>
       </c>
       <c r="B250" s="3">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C250" s="3">
         <v>3</v>
@@ -3606,34 +3604,34 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
-        <v>83306</v>
+        <v>83304</v>
       </c>
       <c r="B251" s="3">
-        <v>7021</v>
+        <v>126</v>
       </c>
       <c r="C251" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251" s="3"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="3">
-        <v>83307</v>
+        <v>83305</v>
       </c>
       <c r="B252" s="3">
-        <v>7022</v>
+        <v>127</v>
       </c>
       <c r="C252" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252" s="3"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
-        <v>83308</v>
+        <v>83306</v>
       </c>
       <c r="B253" s="3">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C253" s="3">
         <v>1</v>
@@ -3642,10 +3640,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
-        <v>83309</v>
+        <v>83307</v>
       </c>
       <c r="B254" s="3">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C254" s="3">
         <v>1</v>
@@ -3654,10 +3652,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
-        <v>83310</v>
+        <v>83308</v>
       </c>
       <c r="B255" s="3">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C255" s="3">
         <v>1</v>
@@ -3666,10 +3664,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
-        <v>83311</v>
+        <v>83309</v>
       </c>
       <c r="B256" s="3">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C256" s="3">
         <v>1</v>
@@ -3678,10 +3676,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="3">
-        <v>83312</v>
+        <v>83310</v>
       </c>
       <c r="B257" s="3">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C257" s="3">
         <v>1</v>
@@ -3690,10 +3688,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="3">
-        <v>83313</v>
+        <v>83311</v>
       </c>
       <c r="B258" s="3">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
@@ -3702,10 +3700,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="3">
-        <v>83314</v>
+        <v>83312</v>
       </c>
       <c r="B259" s="3">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C259" s="3">
         <v>1</v>
@@ -3714,10 +3712,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="3">
-        <v>83315</v>
+        <v>83313</v>
       </c>
       <c r="B260" s="3">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
@@ -3726,10 +3724,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="3">
-        <v>84001</v>
+        <v>83314</v>
       </c>
       <c r="B261" s="3">
-        <v>9003</v>
+        <v>7029</v>
       </c>
       <c r="C261" s="3">
         <v>1</v>
@@ -3738,10 +3736,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="3">
-        <v>84002</v>
+        <v>83315</v>
       </c>
       <c r="B262" s="3">
-        <v>9005</v>
+        <v>7030</v>
       </c>
       <c r="C262" s="3">
         <v>1</v>
@@ -3750,22 +3748,22 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="3">
-        <v>84003</v>
+        <v>84001</v>
       </c>
       <c r="B263" s="3">
-        <v>9002</v>
+        <v>9003</v>
       </c>
       <c r="C263" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="D263" s="3"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="3">
-        <v>84004</v>
+        <v>84002</v>
       </c>
       <c r="B264" s="3">
-        <v>123</v>
+        <v>9005</v>
       </c>
       <c r="C264" s="3">
         <v>1</v>
@@ -3774,22 +3772,22 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
-        <v>84005</v>
+        <v>84003</v>
       </c>
       <c r="B265" s="3">
-        <v>124</v>
+        <v>9002</v>
       </c>
       <c r="C265" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D265" s="3"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="3">
-        <v>84006</v>
+        <v>84004</v>
       </c>
       <c r="B266" s="3">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C266" s="3">
         <v>1</v>
@@ -3798,10 +3796,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="3">
-        <v>84007</v>
+        <v>84005</v>
       </c>
       <c r="B267" s="3">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C267" s="3">
         <v>1</v>
@@ -3810,10 +3808,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="3">
-        <v>84008</v>
+        <v>84006</v>
       </c>
       <c r="B268" s="3">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C268" s="3">
         <v>1</v>
@@ -3822,10 +3820,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="3">
-        <v>84009</v>
+        <v>84007</v>
       </c>
       <c r="B269" s="3">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C269" s="3">
         <v>1</v>
@@ -3834,10 +3832,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="3">
-        <v>84010</v>
+        <v>84008</v>
       </c>
       <c r="B270" s="3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
@@ -3846,10 +3844,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="3">
-        <v>84011</v>
+        <v>84009</v>
       </c>
       <c r="B271" s="3">
-        <v>550</v>
+        <v>128</v>
       </c>
       <c r="C271" s="3">
         <v>1</v>
@@ -3858,10 +3856,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="3">
-        <v>84012</v>
+        <v>84010</v>
       </c>
       <c r="B272" s="3">
-        <v>551</v>
+        <v>129</v>
       </c>
       <c r="C272" s="3">
         <v>1</v>
@@ -3870,10 +3868,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="3">
-        <v>84013</v>
+        <v>84011</v>
       </c>
       <c r="B273" s="3">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C273" s="3">
         <v>1</v>
@@ -3882,10 +3880,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="3">
-        <v>84014</v>
+        <v>84012</v>
       </c>
       <c r="B274" s="3">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C274" s="3">
         <v>1</v>
@@ -3894,10 +3892,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="3">
-        <v>84015</v>
+        <v>84013</v>
       </c>
       <c r="B275" s="3">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C275" s="3">
         <v>1</v>
@@ -3906,10 +3904,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="3">
-        <v>84016</v>
+        <v>84014</v>
       </c>
       <c r="B276" s="3">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C276" s="3">
         <v>1</v>
@@ -3918,10 +3916,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
-        <v>84017</v>
+        <v>84015</v>
       </c>
       <c r="B277" s="3">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C277" s="3">
         <v>1</v>
@@ -3930,10 +3928,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
-        <v>84018</v>
+        <v>84016</v>
       </c>
       <c r="B278" s="3">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C278" s="3">
         <v>1</v>
@@ -3942,10 +3940,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="3">
-        <v>84019</v>
+        <v>84017</v>
       </c>
       <c r="B279" s="3">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C279" s="3">
         <v>1</v>
@@ -3954,10 +3952,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
-        <v>84020</v>
+        <v>84018</v>
       </c>
       <c r="B280" s="3">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C280" s="3">
         <v>1</v>
@@ -3966,10 +3964,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
-        <v>84021</v>
+        <v>84019</v>
       </c>
       <c r="B281" s="3">
-        <v>134</v>
+        <v>558</v>
       </c>
       <c r="C281" s="3">
         <v>1</v>
@@ -3978,10 +3976,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
-        <v>84022</v>
+        <v>84020</v>
       </c>
       <c r="B282" s="3">
-        <v>135</v>
+        <v>559</v>
       </c>
       <c r="C282" s="3">
         <v>1</v>
@@ -3990,10 +3988,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="3">
-        <v>84023</v>
+        <v>84021</v>
       </c>
       <c r="B283" s="3">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C283" s="3">
         <v>1</v>
@@ -4002,10 +4000,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="3">
-        <v>84024</v>
+        <v>84022</v>
       </c>
       <c r="B284" s="3">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C284" s="3">
         <v>1</v>
@@ -4014,10 +4012,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
-        <v>84025</v>
+        <v>84023</v>
       </c>
       <c r="B285" s="3">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C285" s="3">
         <v>1</v>
@@ -4026,10 +4024,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="3">
-        <v>84026</v>
+        <v>84024</v>
       </c>
       <c r="B286" s="3">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C286" s="3">
         <v>1</v>
@@ -4038,10 +4036,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="3">
-        <v>84027</v>
+        <v>84025</v>
       </c>
       <c r="B287" s="3">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="C287" s="3">
         <v>1</v>
@@ -4050,10 +4048,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="3">
-        <v>84028</v>
+        <v>84026</v>
       </c>
       <c r="B288" s="3">
-        <v>501</v>
+        <v>139</v>
       </c>
       <c r="C288" s="3">
         <v>1</v>
@@ -4062,10 +4060,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="3">
-        <v>84029</v>
+        <v>84027</v>
       </c>
       <c r="B289" s="3">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C289" s="3">
         <v>1</v>
@@ -4074,10 +4072,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="3">
-        <v>84030</v>
+        <v>84028</v>
       </c>
       <c r="B290" s="3">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
@@ -4086,10 +4084,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="3">
-        <v>84031</v>
+        <v>84029</v>
       </c>
       <c r="B291" s="3">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C291" s="3">
         <v>1</v>
@@ -4098,10 +4096,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="3">
-        <v>84032</v>
+        <v>84030</v>
       </c>
       <c r="B292" s="3">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C292" s="3">
         <v>1</v>
@@ -4110,10 +4108,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="3">
-        <v>84033</v>
+        <v>84031</v>
       </c>
       <c r="B293" s="3">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C293" s="3">
         <v>1</v>
@@ -4122,10 +4120,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="3">
-        <v>84034</v>
+        <v>84032</v>
       </c>
       <c r="B294" s="3">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C294" s="3">
         <v>1</v>
@@ -4134,10 +4132,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="3">
-        <v>84035</v>
+        <v>84033</v>
       </c>
       <c r="B295" s="3">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C295" s="3">
         <v>1</v>
@@ -4146,10 +4144,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="3">
-        <v>84036</v>
+        <v>84034</v>
       </c>
       <c r="B296" s="3">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C296" s="3">
         <v>1</v>
@@ -4158,10 +4156,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
-        <v>84037</v>
+        <v>84035</v>
       </c>
       <c r="B297" s="3">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="C297" s="3">
         <v>1</v>
@@ -4170,67 +4168,69 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="3">
-        <v>84038</v>
+        <v>84036</v>
       </c>
       <c r="B298" s="3">
-        <v>9005</v>
+        <v>509</v>
       </c>
       <c r="C298" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D298" s="3"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="3">
+        <v>84037</v>
+      </c>
+      <c r="B299" s="3">
+        <v>600</v>
+      </c>
+      <c r="C299" s="3">
+        <v>1</v>
+      </c>
+      <c r="D299" s="3"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300" s="3">
+        <v>84038</v>
+      </c>
+      <c r="B300" s="3">
+        <v>9005</v>
+      </c>
+      <c r="C300" s="3">
+        <v>6</v>
+      </c>
+      <c r="D300" s="3"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A301" s="3">
         <v>84039</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B301" s="3">
         <v>9005</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C301" s="3">
         <v>15</v>
       </c>
-      <c r="D299" s="3"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A300">
-        <v>300001</v>
-      </c>
-      <c r="B300">
-        <v>9004</v>
-      </c>
-      <c r="C300">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A301">
-        <v>300011</v>
-      </c>
-      <c r="B301">
-        <v>1014</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
+      <c r="D301" s="3"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302">
-        <v>300021</v>
+        <v>300001</v>
       </c>
       <c r="B302">
-        <v>1015</v>
+        <v>9004</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303">
-        <v>300031</v>
+        <v>300011</v>
       </c>
       <c r="B303">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -4238,10 +4238,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304">
-        <v>300041</v>
+        <v>300021</v>
       </c>
       <c r="B304">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305">
-        <v>300051</v>
+        <v>300031</v>
       </c>
       <c r="B305">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306">
-        <v>300061</v>
+        <v>300041</v>
       </c>
       <c r="B306">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307">
-        <v>300071</v>
+        <v>300051</v>
       </c>
       <c r="B307">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308">
-        <v>300081</v>
+        <v>300061</v>
       </c>
       <c r="B308">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309">
-        <v>300091</v>
+        <v>300071</v>
       </c>
       <c r="B309">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310">
-        <v>300101</v>
+        <v>300081</v>
       </c>
       <c r="B310">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311">
-        <v>300111</v>
+        <v>300091</v>
       </c>
       <c r="B311">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -4326,12 +4326,34 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312">
+        <v>300101</v>
+      </c>
+      <c r="B312">
+        <v>1023</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>300111</v>
+      </c>
+      <c r="B313">
+        <v>1024</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A314">
         <v>300121</v>
       </c>
-      <c r="B312">
+      <c r="B314">
         <v>1025</v>
       </c>
-      <c r="C312">
+      <c r="C314">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FF139B-5588-424A-873B-976A538CCA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A356668E-1090-4B1B-9DCE-CCC3FD5E0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="1212" windowWidth="19356" windowHeight="10200" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M314" totalsRowShown="0">
-  <autoFilter ref="A1:M314" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M340" totalsRowShown="0">
+  <autoFilter ref="A1:M340" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,32 +581,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M314"/>
+  <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30:C31"/>
+      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -849,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -921,7 +921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2003</v>
       </c>
@@ -932,7 +932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -987,7 +987,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>3000</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>3001</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>3002</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>3003</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>3004</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>3005</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10001</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>10002</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>10003</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>10004</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>10005</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>10006</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>10080</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>10081</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>10082</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>11001</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>11002</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>11003</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>11004</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>11005</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>12001</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>12002</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>12003</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>12004</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>12005</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>12006</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>12007</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>12008</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>12009</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>12010</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>12011</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>12012</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>12013</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>12014</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>14001</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>14002</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>14003</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>14004</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>14005</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>14006</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>14007</v>
       </c>
@@ -1566,2794 +1566,3116 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>20001</v>
+        <v>15001</v>
       </c>
       <c r="B67">
-        <v>102</v>
+        <v>4006</v>
       </c>
       <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>4003</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>15002</v>
+      </c>
+      <c r="B68">
+        <v>4005</v>
+      </c>
+      <c r="C68">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3">
-        <v>20002</v>
-      </c>
-      <c r="B68">
-        <v>9001</v>
-      </c>
-      <c r="C68">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3">
-        <v>20003</v>
+      <c r="D68">
+        <v>4002</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>15003</v>
       </c>
       <c r="B69">
-        <v>1001</v>
+        <v>4004</v>
       </c>
       <c r="C69">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3">
-        <v>20004</v>
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>4001</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>15004</v>
       </c>
       <c r="B70">
-        <v>1013</v>
+        <v>4006</v>
       </c>
       <c r="C70">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3">
-        <v>20005</v>
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>4003</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>15005</v>
       </c>
       <c r="B71">
-        <v>9002</v>
+        <v>4005</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3">
-        <v>21001</v>
+      <c r="D71">
+        <v>4002</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>15006</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>4004</v>
       </c>
       <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3">
-        <v>21002</v>
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>4001</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>15101</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1014</v>
       </c>
       <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3">
-        <v>21003</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>15102</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="3">
-        <v>21004</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>15103</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>1016</v>
       </c>
       <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="3">
-        <v>21005</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>15104</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>1017</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="3">
-        <v>21006</v>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>15105</v>
       </c>
       <c r="B77">
-        <v>600</v>
+        <v>1018</v>
       </c>
       <c r="C77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="3">
-        <v>21007</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>15106</v>
       </c>
       <c r="B78">
-        <v>3001</v>
+        <v>1019</v>
       </c>
       <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3">
-        <v>21008</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>15107</v>
       </c>
       <c r="B79">
-        <v>3001</v>
+        <v>1020</v>
       </c>
       <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3">
-        <v>21009</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>15108</v>
       </c>
       <c r="B80">
-        <v>3001</v>
+        <v>1021</v>
       </c>
       <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3">
-        <v>21010</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>15109</v>
       </c>
       <c r="B81">
-        <v>3001</v>
+        <v>1022</v>
       </c>
       <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3">
-        <v>21011</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>15110</v>
       </c>
       <c r="B82">
-        <v>3001</v>
+        <v>1023</v>
       </c>
       <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="3">
-        <v>21012</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>15111</v>
       </c>
       <c r="B83">
-        <v>9001</v>
+        <v>1024</v>
       </c>
       <c r="C83">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="3">
-        <v>21013</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>15112</v>
       </c>
       <c r="B84">
-        <v>9001</v>
+        <v>1025</v>
       </c>
       <c r="C84">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3">
-        <v>21014</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>15113</v>
       </c>
       <c r="B85">
-        <v>9001</v>
+        <v>1026</v>
       </c>
       <c r="C85">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3">
-        <v>22001</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>15114</v>
       </c>
       <c r="B86">
-        <v>9004</v>
+        <v>1027</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>20001</v>
+      </c>
+      <c r="B87">
+        <v>102</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="3">
+        <v>20002</v>
+      </c>
+      <c r="B88">
+        <v>9001</v>
+      </c>
+      <c r="C88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="3">
+        <v>20003</v>
+      </c>
+      <c r="B89">
+        <v>1001</v>
+      </c>
+      <c r="C89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="3">
+        <v>20004</v>
+      </c>
+      <c r="B90">
+        <v>1013</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="3">
+        <v>20005</v>
+      </c>
+      <c r="B91">
+        <v>9002</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="3">
+        <v>21001</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="3">
+        <v>21002</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="3">
+        <v>21003</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="3">
+        <v>21004</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="3">
+        <v>21005</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="3">
+        <v>21006</v>
+      </c>
+      <c r="B97">
+        <v>600</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="3">
+        <v>21007</v>
+      </c>
+      <c r="B98">
+        <v>3001</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="3">
+        <v>21008</v>
+      </c>
+      <c r="B99">
+        <v>3001</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="3">
+        <v>21009</v>
+      </c>
+      <c r="B100">
+        <v>3001</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="3">
+        <v>21010</v>
+      </c>
+      <c r="B101">
+        <v>3001</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="3">
+        <v>21011</v>
+      </c>
+      <c r="B102">
+        <v>3001</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="3">
+        <v>21012</v>
+      </c>
+      <c r="B103">
+        <v>9001</v>
+      </c>
+      <c r="C103">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="3">
+        <v>21013</v>
+      </c>
+      <c r="B104">
+        <v>9001</v>
+      </c>
+      <c r="C104">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="3">
+        <v>21014</v>
+      </c>
+      <c r="B105">
+        <v>9001</v>
+      </c>
+      <c r="C105">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="3">
+        <v>22001</v>
+      </c>
+      <c r="B106">
+        <v>9004</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="3">
         <v>22002</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="3">
         <v>22003</v>
       </c>
-      <c r="B88">
+      <c r="B108">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="3">
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="3">
         <v>22004</v>
       </c>
-      <c r="B89">
+      <c r="B109">
         <v>3</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="3">
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="3">
         <v>22005</v>
       </c>
-      <c r="B90">
+      <c r="B110">
         <v>4</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3">
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="3">
         <v>22006</v>
       </c>
-      <c r="B91">
+      <c r="B111">
         <v>5</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3">
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="3">
         <v>22007</v>
       </c>
-      <c r="B92">
+      <c r="B112">
         <v>6</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3">
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="3">
         <v>22008</v>
       </c>
-      <c r="B93">
+      <c r="B113">
         <v>7</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3">
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="3">
         <v>22009</v>
       </c>
-      <c r="B94">
+      <c r="B114">
         <v>8</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3">
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="3">
         <v>22010</v>
       </c>
-      <c r="B95">
+      <c r="B115">
         <v>123</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="3">
         <v>22011</v>
       </c>
-      <c r="B96">
+      <c r="B116">
         <v>124</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3">
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="3">
         <v>22012</v>
       </c>
-      <c r="B97">
+      <c r="B117">
         <v>125</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3">
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
         <v>22013</v>
       </c>
-      <c r="B98">
+      <c r="B118">
         <v>126</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3">
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
         <v>22014</v>
       </c>
-      <c r="B99">
+      <c r="B119">
         <v>127</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3">
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
         <v>22015</v>
       </c>
-      <c r="B100">
+      <c r="B120">
         <v>128</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3">
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
         <v>22016</v>
       </c>
-      <c r="B101">
+      <c r="B121">
         <v>129</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="3">
         <v>22017</v>
       </c>
-      <c r="B102">
+      <c r="B122">
         <v>134</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3">
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
         <v>22018</v>
       </c>
-      <c r="B103">
+      <c r="B123">
         <v>135</v>
       </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
         <v>22019</v>
       </c>
-      <c r="B104">
+      <c r="B124">
         <v>136</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
         <v>22020</v>
       </c>
-      <c r="B105">
+      <c r="B125">
         <v>137</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3">
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
         <v>22021</v>
       </c>
-      <c r="B106">
+      <c r="B126">
         <v>138</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="3">
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
         <v>22022</v>
       </c>
-      <c r="B107">
+      <c r="B127">
         <v>139</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
         <v>22023</v>
       </c>
-      <c r="B108">
+      <c r="B128">
         <v>500</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3">
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="3">
         <v>22024</v>
       </c>
-      <c r="B109">
+      <c r="B129">
         <v>501</v>
       </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="3">
         <v>22025</v>
       </c>
-      <c r="B110">
+      <c r="B130">
         <v>502</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="3">
         <v>22026</v>
       </c>
-      <c r="B111">
+      <c r="B131">
         <v>503</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3">
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
         <v>22027</v>
       </c>
-      <c r="B112">
+      <c r="B132">
         <v>504</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="3">
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
         <v>22028</v>
       </c>
-      <c r="B113">
+      <c r="B133">
         <v>505</v>
       </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="3">
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
         <v>22029</v>
       </c>
-      <c r="B114">
+      <c r="B134">
         <v>506</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
         <v>22030</v>
       </c>
-      <c r="B115">
+      <c r="B135">
         <v>507</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="3">
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
         <v>22031</v>
       </c>
-      <c r="B116">
+      <c r="B136">
         <v>508</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="3">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
         <v>22032</v>
       </c>
-      <c r="B117">
+      <c r="B137">
         <v>509</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="3">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
         <v>22033</v>
       </c>
-      <c r="B118">
+      <c r="B138">
         <v>550</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3">
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
         <v>22034</v>
       </c>
-      <c r="B119">
+      <c r="B139">
         <v>551</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="3">
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
         <v>22035</v>
       </c>
-      <c r="B120">
+      <c r="B140">
         <v>552</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="3">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
         <v>22036</v>
       </c>
-      <c r="B121">
+      <c r="B141">
         <v>553</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3">
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
         <v>22037</v>
       </c>
-      <c r="B122">
+      <c r="B142">
         <v>554</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="3">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
         <v>22038</v>
       </c>
-      <c r="B123">
+      <c r="B143">
         <v>555</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="3">
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
         <v>22039</v>
       </c>
-      <c r="B124">
+      <c r="B144">
         <v>556</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="3">
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
         <v>22040</v>
       </c>
-      <c r="B125">
+      <c r="B145">
         <v>557</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="3">
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
         <v>22041</v>
       </c>
-      <c r="B126">
+      <c r="B146">
         <v>558</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="3">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
         <v>22042</v>
       </c>
-      <c r="B127">
+      <c r="B147">
         <v>559</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="3">
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="3">
         <v>22043</v>
       </c>
-      <c r="B128">
+      <c r="B148">
         <v>7016</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="3">
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
         <v>22044</v>
       </c>
-      <c r="B129">
+      <c r="B149">
         <v>7017</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="3">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
         <v>22045</v>
       </c>
-      <c r="B130">
+      <c r="B150">
         <v>7018</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="3">
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="3">
         <v>22046</v>
       </c>
-      <c r="B131">
+      <c r="B151">
         <v>7019</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="3">
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="3">
         <v>22047</v>
       </c>
-      <c r="B132">
+      <c r="B152">
         <v>7020</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" s="3">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="3">
         <v>22048</v>
       </c>
-      <c r="B133">
+      <c r="B153">
         <v>7021</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="3">
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="3">
         <v>22049</v>
       </c>
-      <c r="B134">
+      <c r="B154">
         <v>7022</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" s="3">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="3">
         <v>22050</v>
       </c>
-      <c r="B135">
+      <c r="B155">
         <v>7023</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" s="3">
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="3">
         <v>22051</v>
       </c>
-      <c r="B136">
+      <c r="B156">
         <v>7024</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" s="3">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="3">
         <v>22052</v>
       </c>
-      <c r="B137">
+      <c r="B157">
         <v>7025</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" s="3">
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="3">
         <v>22053</v>
       </c>
-      <c r="B138">
+      <c r="B158">
         <v>7026</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="3">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="3">
         <v>22054</v>
       </c>
-      <c r="B139">
+      <c r="B159">
         <v>7027</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140" s="3">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="3">
         <v>22055</v>
       </c>
-      <c r="B140">
+      <c r="B160">
         <v>7028</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" s="3">
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="3">
         <v>22056</v>
       </c>
-      <c r="B141">
+      <c r="B161">
         <v>7029</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" s="3">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="3">
         <v>22057</v>
       </c>
-      <c r="B142">
+      <c r="B162">
         <v>7030</v>
       </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="3">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="3">
         <v>22100</v>
       </c>
-      <c r="B143">
+      <c r="B163">
         <v>9004</v>
       </c>
-      <c r="C143">
+      <c r="C163">
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" s="3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="3">
         <v>22101</v>
       </c>
-      <c r="B144">
+      <c r="B164">
         <v>9002</v>
-      </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145" s="3">
-        <v>22102</v>
-      </c>
-      <c r="B145">
-        <v>3001</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" s="3">
-        <v>22103</v>
-      </c>
-      <c r="B146">
-        <v>9004</v>
-      </c>
-      <c r="C146">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A147" s="3">
-        <v>22104</v>
-      </c>
-      <c r="B147">
-        <v>9002</v>
-      </c>
-      <c r="C147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A148" s="3">
-        <v>22200</v>
-      </c>
-      <c r="B148">
-        <v>9004</v>
-      </c>
-      <c r="C148">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A149" s="3">
-        <v>22201</v>
-      </c>
-      <c r="B149">
-        <v>9002</v>
-      </c>
-      <c r="C149">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A150" s="3">
-        <v>22202</v>
-      </c>
-      <c r="B150">
-        <v>9002</v>
-      </c>
-      <c r="C150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A151" s="3">
-        <v>22203</v>
-      </c>
-      <c r="B151">
-        <v>9003</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152" s="3">
-        <v>22204</v>
-      </c>
-      <c r="B152">
-        <v>9005</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A153" s="3">
-        <v>50001</v>
-      </c>
-      <c r="B153">
-        <v>123</v>
-      </c>
-      <c r="C153">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A154" s="3">
-        <v>50002</v>
-      </c>
-      <c r="B154">
-        <v>123</v>
-      </c>
-      <c r="C154">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A155" s="3">
-        <v>50003</v>
-      </c>
-      <c r="B155">
-        <v>123</v>
-      </c>
-      <c r="C155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A156" s="3">
-        <v>50004</v>
-      </c>
-      <c r="B156">
-        <v>124</v>
-      </c>
-      <c r="C156">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A157" s="3">
-        <v>50005</v>
-      </c>
-      <c r="B157">
-        <v>124</v>
-      </c>
-      <c r="C157">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A158" s="3">
-        <v>50006</v>
-      </c>
-      <c r="B158">
-        <v>124</v>
-      </c>
-      <c r="C158">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A159" s="3">
-        <v>50007</v>
-      </c>
-      <c r="B159">
-        <v>125</v>
-      </c>
-      <c r="C159">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A160" s="3">
-        <v>50008</v>
-      </c>
-      <c r="B160">
-        <v>125</v>
-      </c>
-      <c r="C160">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A161" s="3">
-        <v>50009</v>
-      </c>
-      <c r="B161">
-        <v>125</v>
-      </c>
-      <c r="C161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A162" s="3">
-        <v>50010</v>
-      </c>
-      <c r="B162">
-        <v>126</v>
-      </c>
-      <c r="C162">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A163" s="3">
-        <v>50011</v>
-      </c>
-      <c r="B163">
-        <v>126</v>
-      </c>
-      <c r="C163">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A164" s="3">
-        <v>50012</v>
-      </c>
-      <c r="B164">
-        <v>126</v>
       </c>
       <c r="C164">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
+        <v>22102</v>
+      </c>
+      <c r="B165">
+        <v>3001</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="3">
+        <v>22103</v>
+      </c>
+      <c r="B166">
+        <v>9004</v>
+      </c>
+      <c r="C166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="3">
+        <v>22104</v>
+      </c>
+      <c r="B167">
+        <v>9002</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="3">
+        <v>22200</v>
+      </c>
+      <c r="B168">
+        <v>9004</v>
+      </c>
+      <c r="C168">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="3">
+        <v>22201</v>
+      </c>
+      <c r="B169">
+        <v>9002</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="3">
+        <v>22202</v>
+      </c>
+      <c r="B170">
+        <v>9002</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="3">
+        <v>22203</v>
+      </c>
+      <c r="B171">
+        <v>9003</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="3">
+        <v>22204</v>
+      </c>
+      <c r="B172">
+        <v>9005</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="3">
+        <v>50001</v>
+      </c>
+      <c r="B173">
+        <v>123</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="3">
+        <v>50002</v>
+      </c>
+      <c r="B174">
+        <v>123</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="3">
+        <v>50003</v>
+      </c>
+      <c r="B175">
+        <v>123</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="3">
+        <v>50004</v>
+      </c>
+      <c r="B176">
+        <v>124</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="3">
+        <v>50005</v>
+      </c>
+      <c r="B177">
+        <v>124</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="3">
+        <v>50006</v>
+      </c>
+      <c r="B178">
+        <v>124</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="3">
+        <v>50007</v>
+      </c>
+      <c r="B179">
+        <v>125</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="3">
+        <v>50008</v>
+      </c>
+      <c r="B180">
+        <v>125</v>
+      </c>
+      <c r="C180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="3">
+        <v>50009</v>
+      </c>
+      <c r="B181">
+        <v>125</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="3">
+        <v>50010</v>
+      </c>
+      <c r="B182">
+        <v>126</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="3">
+        <v>50011</v>
+      </c>
+      <c r="B183">
+        <v>126</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="3">
+        <v>50012</v>
+      </c>
+      <c r="B184">
+        <v>126</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="3">
         <v>50013</v>
       </c>
-      <c r="B165">
+      <c r="B185">
         <v>127</v>
       </c>
-      <c r="C165">
+      <c r="C185">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A166" s="3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="3">
         <v>50014</v>
       </c>
-      <c r="B166">
+      <c r="B186">
         <v>127</v>
       </c>
-      <c r="C166">
+      <c r="C186">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A167" s="3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="3">
         <v>50015</v>
       </c>
-      <c r="B167">
+      <c r="B187">
         <v>127</v>
       </c>
-      <c r="C167">
+      <c r="C187">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A168" s="3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="3">
         <v>60001</v>
       </c>
-      <c r="B168">
+      <c r="B188">
         <v>559</v>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A169" s="3">
-        <v>60002</v>
-      </c>
-      <c r="B169">
-        <v>550</v>
-      </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A170" s="3">
-        <v>60003</v>
-      </c>
-      <c r="B170">
-        <v>551</v>
-      </c>
-      <c r="C170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A171" s="3">
-        <v>60004</v>
-      </c>
-      <c r="B171">
-        <v>552</v>
-      </c>
-      <c r="C171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A172" s="3">
-        <v>60005</v>
-      </c>
-      <c r="B172">
-        <v>553</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A173" s="3">
-        <v>60006</v>
-      </c>
-      <c r="B173">
-        <v>554</v>
-      </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A174" s="3">
-        <v>60007</v>
-      </c>
-      <c r="B174">
-        <v>555</v>
-      </c>
-      <c r="C174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A175" s="3">
-        <v>60008</v>
-      </c>
-      <c r="B175">
-        <v>556</v>
-      </c>
-      <c r="C175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A176">
-        <v>60009</v>
-      </c>
-      <c r="B176">
-        <v>557</v>
-      </c>
-      <c r="C176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A177">
-        <v>60010</v>
-      </c>
-      <c r="B177">
-        <v>558</v>
-      </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A178">
-        <v>70001</v>
-      </c>
-      <c r="B178">
-        <v>3001</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A179">
-        <v>70002</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A180">
-        <v>70003</v>
-      </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A181">
-        <v>80001</v>
-      </c>
-      <c r="B181">
-        <v>7016</v>
-      </c>
-      <c r="C181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A182">
-        <v>80002</v>
-      </c>
-      <c r="B182">
-        <v>7016</v>
-      </c>
-      <c r="C182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A183">
-        <v>80003</v>
-      </c>
-      <c r="B183">
-        <v>7016</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A184">
-        <v>80004</v>
-      </c>
-      <c r="B184">
-        <v>7017</v>
-      </c>
-      <c r="C184">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A185">
-        <v>80005</v>
-      </c>
-      <c r="B185">
-        <v>7017</v>
-      </c>
-      <c r="C185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A186">
-        <v>80006</v>
-      </c>
-      <c r="B186">
-        <v>7017</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A187">
-        <v>80007</v>
-      </c>
-      <c r="B187">
-        <v>7018</v>
-      </c>
-      <c r="C187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A188">
-        <v>80008</v>
-      </c>
-      <c r="B188">
-        <v>7018</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A189">
-        <v>80009</v>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="3">
+        <v>60002</v>
       </c>
       <c r="B189">
-        <v>7018</v>
+        <v>550</v>
       </c>
       <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A190">
-        <v>80010</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="3">
+        <v>60003</v>
       </c>
       <c r="B190">
-        <v>7019</v>
+        <v>551</v>
       </c>
       <c r="C190">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A191">
-        <v>80011</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="3">
+        <v>60004</v>
       </c>
       <c r="B191">
-        <v>7019</v>
+        <v>552</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A192">
-        <v>80012</v>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="3">
+        <v>60005</v>
       </c>
       <c r="B192">
-        <v>7019</v>
+        <v>553</v>
       </c>
       <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A193">
-        <v>80013</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="3">
+        <v>60006</v>
       </c>
       <c r="B193">
-        <v>7020</v>
+        <v>554</v>
       </c>
       <c r="C193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A194">
-        <v>80014</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="3">
+        <v>60007</v>
       </c>
       <c r="B194">
-        <v>7020</v>
+        <v>555</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A195">
-        <v>80015</v>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="3">
+        <v>60008</v>
       </c>
       <c r="B195">
-        <v>7020</v>
+        <v>556</v>
       </c>
       <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>80016</v>
+        <v>60009</v>
       </c>
       <c r="B196">
-        <v>7021</v>
+        <v>557</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>80017</v>
+        <v>60010</v>
       </c>
       <c r="B197">
-        <v>7022</v>
+        <v>558</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>80018</v>
+        <v>70001</v>
       </c>
       <c r="B198">
-        <v>7023</v>
+        <v>3001</v>
       </c>
       <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>70002</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>70003</v>
+      </c>
+      <c r="B200">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A199">
-        <v>80019</v>
-      </c>
-      <c r="B199">
-        <v>7024</v>
-      </c>
-      <c r="C199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A200">
-        <v>80020</v>
-      </c>
-      <c r="B200">
-        <v>7025</v>
-      </c>
       <c r="C200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>80021</v>
+        <v>80001</v>
       </c>
       <c r="B201">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="C201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>80022</v>
+        <v>80002</v>
       </c>
       <c r="B202">
-        <v>7027</v>
+        <v>7016</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>80023</v>
+        <v>80003</v>
       </c>
       <c r="B203">
-        <v>7028</v>
+        <v>7016</v>
       </c>
       <c r="C203">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>80024</v>
+        <v>80004</v>
       </c>
       <c r="B204">
-        <v>7029</v>
+        <v>7017</v>
       </c>
       <c r="C204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>80025</v>
+        <v>80005</v>
       </c>
       <c r="B205">
-        <v>7030</v>
+        <v>7017</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>81001</v>
+        <v>80006</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>7017</v>
       </c>
       <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>80007</v>
+      </c>
+      <c r="B207">
+        <v>7018</v>
+      </c>
+      <c r="C207">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A207">
-        <v>81002</v>
-      </c>
-      <c r="B207">
-        <v>6</v>
-      </c>
-      <c r="C207">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>80008</v>
+      </c>
+      <c r="B208">
+        <v>7018</v>
+      </c>
+      <c r="C208">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A208">
-        <v>81003</v>
-      </c>
-      <c r="B208">
-        <v>6</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>81004</v>
+        <v>80009</v>
       </c>
       <c r="B209">
-        <v>7</v>
+        <v>7018</v>
       </c>
       <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>80010</v>
+      </c>
+      <c r="B210">
+        <v>7019</v>
+      </c>
+      <c r="C210">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A210">
-        <v>81005</v>
-      </c>
-      <c r="B210">
-        <v>7</v>
-      </c>
-      <c r="C210">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>80011</v>
+      </c>
+      <c r="B211">
+        <v>7019</v>
+      </c>
+      <c r="C211">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A211">
-        <v>81006</v>
-      </c>
-      <c r="B211">
-        <v>7</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>81007</v>
+        <v>80012</v>
       </c>
       <c r="B212">
-        <v>8</v>
+        <v>7019</v>
       </c>
       <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>80013</v>
+      </c>
+      <c r="B213">
+        <v>7020</v>
+      </c>
+      <c r="C213">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A213">
-        <v>81008</v>
-      </c>
-      <c r="B213">
-        <v>8</v>
-      </c>
-      <c r="C213">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>80014</v>
+      </c>
+      <c r="B214">
+        <v>7020</v>
+      </c>
+      <c r="C214">
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A214">
-        <v>81009</v>
-      </c>
-      <c r="B214">
-        <v>8</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>81010</v>
+        <v>80015</v>
       </c>
       <c r="B215">
-        <v>134</v>
+        <v>7020</v>
       </c>
       <c r="C215">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>81011</v>
+        <v>80016</v>
       </c>
       <c r="B216">
-        <v>135</v>
+        <v>7021</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>81012</v>
+        <v>80017</v>
       </c>
       <c r="B217">
-        <v>136</v>
+        <v>7022</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>81013</v>
+        <v>80018</v>
       </c>
       <c r="B218">
-        <v>137</v>
+        <v>7023</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>81014</v>
+        <v>80019</v>
       </c>
       <c r="B219">
-        <v>138</v>
+        <v>7024</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>81015</v>
+        <v>80020</v>
       </c>
       <c r="B220">
-        <v>139</v>
+        <v>7025</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A221" s="3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>80021</v>
+      </c>
+      <c r="B221">
+        <v>7026</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>80022</v>
+      </c>
+      <c r="B222">
+        <v>7027</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>80023</v>
+      </c>
+      <c r="B223">
+        <v>7028</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>80024</v>
+      </c>
+      <c r="B224">
+        <v>7029</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>80025</v>
+      </c>
+      <c r="B225">
+        <v>7030</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>81001</v>
+      </c>
+      <c r="B226">
+        <v>6</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>81002</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>81003</v>
+      </c>
+      <c r="B228">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>81004</v>
+      </c>
+      <c r="B229">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>81005</v>
+      </c>
+      <c r="B230">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>81006</v>
+      </c>
+      <c r="B231">
+        <v>7</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>81007</v>
+      </c>
+      <c r="B232">
+        <v>8</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>81008</v>
+      </c>
+      <c r="B233">
+        <v>8</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>81009</v>
+      </c>
+      <c r="B234">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>81010</v>
+      </c>
+      <c r="B235">
+        <v>134</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>81011</v>
+      </c>
+      <c r="B236">
+        <v>135</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>81012</v>
+      </c>
+      <c r="B237">
+        <v>136</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>81013</v>
+      </c>
+      <c r="B238">
+        <v>137</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>81014</v>
+      </c>
+      <c r="B239">
+        <v>138</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>81015</v>
+      </c>
+      <c r="B240">
+        <v>139</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" s="3">
         <v>83001</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B241" s="3">
         <v>10010</v>
       </c>
-      <c r="C221" s="3">
-        <v>1</v>
-      </c>
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A222" s="3">
+      <c r="C241" s="3">
+        <v>1</v>
+      </c>
+      <c r="D241" s="3"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="3">
         <v>83002</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B242" s="3">
         <v>10011</v>
       </c>
-      <c r="C222" s="3">
-        <v>1</v>
-      </c>
-      <c r="D222" s="3"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A223" s="3">
+      <c r="C242" s="3">
+        <v>1</v>
+      </c>
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="3">
         <v>83003</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B243" s="3">
         <v>10012</v>
       </c>
-      <c r="C223" s="3">
-        <v>1</v>
-      </c>
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A224" s="3">
+      <c r="C243" s="3">
+        <v>1</v>
+      </c>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="3">
         <v>83004</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B244" s="3">
         <v>10004</v>
       </c>
-      <c r="C224" s="3">
-        <v>1</v>
-      </c>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A225" s="3">
+      <c r="C244" s="3">
+        <v>1</v>
+      </c>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="3">
         <v>83005</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B245" s="3">
         <v>10005</v>
       </c>
-      <c r="C225" s="3">
-        <v>1</v>
-      </c>
-      <c r="D225" s="3"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A226" s="3">
+      <c r="C245" s="3">
+        <v>1</v>
+      </c>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="3">
         <v>83006</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B246" s="3">
         <v>10006</v>
       </c>
-      <c r="C226" s="3">
-        <v>1</v>
-      </c>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A227" s="3">
+      <c r="C246" s="3">
+        <v>1</v>
+      </c>
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="3">
         <v>83007</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B247" s="3">
         <v>10007</v>
       </c>
-      <c r="C227" s="3">
-        <v>1</v>
-      </c>
-      <c r="D227" s="3"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A228" s="3">
+      <c r="C247" s="3">
+        <v>1</v>
+      </c>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="3">
         <v>83008</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B248" s="3">
         <v>10008</v>
       </c>
-      <c r="C228" s="3">
-        <v>1</v>
-      </c>
-      <c r="D228" s="3"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A229" s="3">
+      <c r="C248" s="3">
+        <v>1</v>
+      </c>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="3">
         <v>83009</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B249" s="3">
         <v>10009</v>
       </c>
-      <c r="C229" s="3">
-        <v>1</v>
-      </c>
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A230" s="3">
+      <c r="C249" s="3">
+        <v>1</v>
+      </c>
+      <c r="D249" s="3"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="3">
         <v>83010</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B250" s="3">
         <v>10013</v>
       </c>
-      <c r="C230" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A231" s="3">
+      <c r="C250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="3">
         <v>83011</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B251" s="3">
         <v>10014</v>
       </c>
-      <c r="C231" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A232" s="3">
+      <c r="C251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="3">
         <v>83012</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B252" s="3">
         <v>10015</v>
       </c>
-      <c r="C232" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A233" s="3">
+      <c r="C252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="3">
         <v>83013</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B253" s="3">
         <v>10016</v>
       </c>
-      <c r="C233" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A234" s="3">
+      <c r="C253" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="3">
         <v>83014</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B254" s="3">
         <v>10017</v>
       </c>
-      <c r="C234" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A235" s="3">
+      <c r="C254" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="3">
         <v>83015</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B255" s="3">
         <v>10018</v>
       </c>
-      <c r="C235" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A236" s="3">
+      <c r="C255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="3">
         <v>83016</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B256" s="3">
         <v>10019</v>
       </c>
-      <c r="C236" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A237" s="3">
+      <c r="C256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" s="3">
         <v>83017</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B257" s="3">
         <v>10020</v>
       </c>
-      <c r="C237" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A238" s="3">
+      <c r="C257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="3">
         <v>83018</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B258" s="3">
         <v>10021</v>
       </c>
-      <c r="C238" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A239" s="3">
+      <c r="C258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="3">
         <v>83019</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B259" s="3">
         <v>10022</v>
       </c>
-      <c r="C239" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A240" s="3">
+      <c r="C259" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="3">
         <v>83020</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B260" s="3">
         <v>10023</v>
       </c>
-      <c r="C240" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A241" s="3">
+      <c r="C260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="3">
         <v>83021</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B261" s="3">
         <v>10024</v>
       </c>
-      <c r="C241" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A242">
+      <c r="C261" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262">
         <v>83022</v>
       </c>
-      <c r="B242">
+      <c r="B262">
         <v>1029</v>
       </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A243">
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263">
         <v>83023</v>
       </c>
-      <c r="B243">
+      <c r="B263">
         <v>1030</v>
       </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A244">
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264">
         <v>83024</v>
       </c>
-      <c r="B244">
+      <c r="B264">
         <v>1031</v>
       </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A245">
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265">
         <v>83025</v>
       </c>
-      <c r="B245">
+      <c r="B265">
         <v>1032</v>
       </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A246">
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266">
         <v>83026</v>
       </c>
-      <c r="B246">
+      <c r="B266">
         <v>1033</v>
       </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A247">
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267">
         <v>83027</v>
       </c>
-      <c r="B247">
+      <c r="B267">
         <v>1034</v>
       </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A248" s="3">
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="3">
         <v>83301</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B268" s="3">
         <v>123</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C268" s="3">
         <v>3</v>
       </c>
-      <c r="D248" s="3"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A249" s="3">
+      <c r="D268" s="3"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="3">
         <v>83302</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B269" s="3">
         <v>124</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C269" s="3">
         <v>3</v>
       </c>
-      <c r="D249" s="3"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A250" s="3">
+      <c r="D269" s="3"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="3">
         <v>83303</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B270" s="3">
         <v>125</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C270" s="3">
         <v>3</v>
       </c>
-      <c r="D250" s="3"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A251" s="3">
+      <c r="D270" s="3"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="3">
         <v>83304</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B271" s="3">
         <v>126</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C271" s="3">
         <v>3</v>
       </c>
-      <c r="D251" s="3"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A252" s="3">
+      <c r="D271" s="3"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="3">
         <v>83305</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B272" s="3">
         <v>127</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C272" s="3">
         <v>3</v>
       </c>
-      <c r="D252" s="3"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A253" s="3">
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="3">
         <v>83306</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B273" s="3">
         <v>7021</v>
       </c>
-      <c r="C253" s="3">
-        <v>1</v>
-      </c>
-      <c r="D253" s="3"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A254" s="3">
+      <c r="C273" s="3">
+        <v>1</v>
+      </c>
+      <c r="D273" s="3"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="3">
         <v>83307</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B274" s="3">
         <v>7022</v>
       </c>
-      <c r="C254" s="3">
-        <v>1</v>
-      </c>
-      <c r="D254" s="3"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A255" s="3">
+      <c r="C274" s="3">
+        <v>1</v>
+      </c>
+      <c r="D274" s="3"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="3">
         <v>83308</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B275" s="3">
         <v>7023</v>
       </c>
-      <c r="C255" s="3">
-        <v>1</v>
-      </c>
-      <c r="D255" s="3"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A256" s="3">
+      <c r="C275" s="3">
+        <v>1</v>
+      </c>
+      <c r="D275" s="3"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="3">
         <v>83309</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B276" s="3">
         <v>7024</v>
       </c>
-      <c r="C256" s="3">
-        <v>1</v>
-      </c>
-      <c r="D256" s="3"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A257" s="3">
+      <c r="C276" s="3">
+        <v>1</v>
+      </c>
+      <c r="D276" s="3"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="3">
         <v>83310</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B277" s="3">
         <v>7025</v>
       </c>
-      <c r="C257" s="3">
-        <v>1</v>
-      </c>
-      <c r="D257" s="3"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A258" s="3">
+      <c r="C277" s="3">
+        <v>1</v>
+      </c>
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="3">
         <v>83311</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B278" s="3">
         <v>7026</v>
       </c>
-      <c r="C258" s="3">
-        <v>1</v>
-      </c>
-      <c r="D258" s="3"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A259" s="3">
+      <c r="C278" s="3">
+        <v>1</v>
+      </c>
+      <c r="D278" s="3"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="3">
         <v>83312</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B279" s="3">
         <v>7027</v>
       </c>
-      <c r="C259" s="3">
-        <v>1</v>
-      </c>
-      <c r="D259" s="3"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A260" s="3">
+      <c r="C279" s="3">
+        <v>1</v>
+      </c>
+      <c r="D279" s="3"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="3">
         <v>83313</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B280" s="3">
         <v>7028</v>
       </c>
-      <c r="C260" s="3">
-        <v>1</v>
-      </c>
-      <c r="D260" s="3"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A261" s="3">
+      <c r="C280" s="3">
+        <v>1</v>
+      </c>
+      <c r="D280" s="3"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="3">
         <v>83314</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B281" s="3">
         <v>7029</v>
       </c>
-      <c r="C261" s="3">
-        <v>1</v>
-      </c>
-      <c r="D261" s="3"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A262" s="3">
+      <c r="C281" s="3">
+        <v>1</v>
+      </c>
+      <c r="D281" s="3"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="3">
         <v>83315</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B282" s="3">
         <v>7030</v>
       </c>
-      <c r="C262" s="3">
-        <v>1</v>
-      </c>
-      <c r="D262" s="3"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A263" s="3">
+      <c r="C282" s="3">
+        <v>1</v>
+      </c>
+      <c r="D282" s="3"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="3">
         <v>84001</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B283" s="3">
         <v>9003</v>
       </c>
-      <c r="C263" s="3">
-        <v>1</v>
-      </c>
-      <c r="D263" s="3"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A264" s="3">
+      <c r="C283" s="3">
+        <v>1</v>
+      </c>
+      <c r="D283" s="3"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="3">
         <v>84002</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B284" s="3">
         <v>9005</v>
       </c>
-      <c r="C264" s="3">
-        <v>1</v>
-      </c>
-      <c r="D264" s="3"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A265" s="3">
+      <c r="C284" s="3">
+        <v>1</v>
+      </c>
+      <c r="D284" s="3"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="3">
         <v>84003</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B285" s="3">
         <v>9002</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C285" s="3">
         <v>300</v>
       </c>
-      <c r="D265" s="3"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A266" s="3">
+      <c r="D285" s="3"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="3">
         <v>84004</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B286" s="3">
         <v>123</v>
       </c>
-      <c r="C266" s="3">
-        <v>1</v>
-      </c>
-      <c r="D266" s="3"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A267" s="3">
+      <c r="C286" s="3">
+        <v>1</v>
+      </c>
+      <c r="D286" s="3"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="3">
         <v>84005</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B287" s="3">
         <v>124</v>
       </c>
-      <c r="C267" s="3">
-        <v>1</v>
-      </c>
-      <c r="D267" s="3"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A268" s="3">
+      <c r="C287" s="3">
+        <v>1</v>
+      </c>
+      <c r="D287" s="3"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="3">
         <v>84006</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B288" s="3">
         <v>125</v>
       </c>
-      <c r="C268" s="3">
-        <v>1</v>
-      </c>
-      <c r="D268" s="3"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A269" s="3">
+      <c r="C288" s="3">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="3">
         <v>84007</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B289" s="3">
         <v>126</v>
       </c>
-      <c r="C269" s="3">
-        <v>1</v>
-      </c>
-      <c r="D269" s="3"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A270" s="3">
+      <c r="C289" s="3">
+        <v>1</v>
+      </c>
+      <c r="D289" s="3"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="3">
         <v>84008</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B290" s="3">
         <v>127</v>
       </c>
-      <c r="C270" s="3">
-        <v>1</v>
-      </c>
-      <c r="D270" s="3"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A271" s="3">
+      <c r="C290" s="3">
+        <v>1</v>
+      </c>
+      <c r="D290" s="3"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" s="3">
         <v>84009</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B291" s="3">
         <v>128</v>
       </c>
-      <c r="C271" s="3">
-        <v>1</v>
-      </c>
-      <c r="D271" s="3"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A272" s="3">
+      <c r="C291" s="3">
+        <v>1</v>
+      </c>
+      <c r="D291" s="3"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="3">
         <v>84010</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B292" s="3">
         <v>129</v>
       </c>
-      <c r="C272" s="3">
-        <v>1</v>
-      </c>
-      <c r="D272" s="3"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A273" s="3">
+      <c r="C292" s="3">
+        <v>1</v>
+      </c>
+      <c r="D292" s="3"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" s="3">
         <v>84011</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B293" s="3">
         <v>550</v>
       </c>
-      <c r="C273" s="3">
-        <v>1</v>
-      </c>
-      <c r="D273" s="3"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A274" s="3">
+      <c r="C293" s="3">
+        <v>1</v>
+      </c>
+      <c r="D293" s="3"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294" s="3">
         <v>84012</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B294" s="3">
         <v>551</v>
       </c>
-      <c r="C274" s="3">
-        <v>1</v>
-      </c>
-      <c r="D274" s="3"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A275" s="3">
+      <c r="C294" s="3">
+        <v>1</v>
+      </c>
+      <c r="D294" s="3"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" s="3">
         <v>84013</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B295" s="3">
         <v>552</v>
       </c>
-      <c r="C275" s="3">
-        <v>1</v>
-      </c>
-      <c r="D275" s="3"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A276" s="3">
+      <c r="C295" s="3">
+        <v>1</v>
+      </c>
+      <c r="D295" s="3"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296" s="3">
         <v>84014</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B296" s="3">
         <v>553</v>
       </c>
-      <c r="C276" s="3">
-        <v>1</v>
-      </c>
-      <c r="D276" s="3"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A277" s="3">
+      <c r="C296" s="3">
+        <v>1</v>
+      </c>
+      <c r="D296" s="3"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" s="3">
         <v>84015</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B297" s="3">
         <v>554</v>
       </c>
-      <c r="C277" s="3">
-        <v>1</v>
-      </c>
-      <c r="D277" s="3"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A278" s="3">
+      <c r="C297" s="3">
+        <v>1</v>
+      </c>
+      <c r="D297" s="3"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" s="3">
         <v>84016</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B298" s="3">
         <v>555</v>
       </c>
-      <c r="C278" s="3">
-        <v>1</v>
-      </c>
-      <c r="D278" s="3"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A279" s="3">
+      <c r="C298" s="3">
+        <v>1</v>
+      </c>
+      <c r="D298" s="3"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299" s="3">
         <v>84017</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B299" s="3">
         <v>556</v>
       </c>
-      <c r="C279" s="3">
-        <v>1</v>
-      </c>
-      <c r="D279" s="3"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A280" s="3">
+      <c r="C299" s="3">
+        <v>1</v>
+      </c>
+      <c r="D299" s="3"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300" s="3">
         <v>84018</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B300" s="3">
         <v>557</v>
       </c>
-      <c r="C280" s="3">
-        <v>1</v>
-      </c>
-      <c r="D280" s="3"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A281" s="3">
+      <c r="C300" s="3">
+        <v>1</v>
+      </c>
+      <c r="D300" s="3"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301" s="3">
         <v>84019</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B301" s="3">
         <v>558</v>
       </c>
-      <c r="C281" s="3">
-        <v>1</v>
-      </c>
-      <c r="D281" s="3"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A282" s="3">
+      <c r="C301" s="3">
+        <v>1</v>
+      </c>
+      <c r="D301" s="3"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A302" s="3">
         <v>84020</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B302" s="3">
         <v>559</v>
       </c>
-      <c r="C282" s="3">
-        <v>1</v>
-      </c>
-      <c r="D282" s="3"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A283" s="3">
+      <c r="C302" s="3">
+        <v>1</v>
+      </c>
+      <c r="D302" s="3"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A303" s="3">
         <v>84021</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B303" s="3">
         <v>134</v>
       </c>
-      <c r="C283" s="3">
-        <v>1</v>
-      </c>
-      <c r="D283" s="3"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A284" s="3">
+      <c r="C303" s="3">
+        <v>1</v>
+      </c>
+      <c r="D303" s="3"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A304" s="3">
         <v>84022</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B304" s="3">
         <v>135</v>
       </c>
-      <c r="C284" s="3">
-        <v>1</v>
-      </c>
-      <c r="D284" s="3"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A285" s="3">
+      <c r="C304" s="3">
+        <v>1</v>
+      </c>
+      <c r="D304" s="3"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A305" s="3">
         <v>84023</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B305" s="3">
         <v>136</v>
       </c>
-      <c r="C285" s="3">
-        <v>1</v>
-      </c>
-      <c r="D285" s="3"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A286" s="3">
+      <c r="C305" s="3">
+        <v>1</v>
+      </c>
+      <c r="D305" s="3"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A306" s="3">
         <v>84024</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B306" s="3">
         <v>137</v>
       </c>
-      <c r="C286" s="3">
-        <v>1</v>
-      </c>
-      <c r="D286" s="3"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A287" s="3">
+      <c r="C306" s="3">
+        <v>1</v>
+      </c>
+      <c r="D306" s="3"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A307" s="3">
         <v>84025</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B307" s="3">
         <v>138</v>
       </c>
-      <c r="C287" s="3">
-        <v>1</v>
-      </c>
-      <c r="D287" s="3"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A288" s="3">
+      <c r="C307" s="3">
+        <v>1</v>
+      </c>
+      <c r="D307" s="3"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A308" s="3">
         <v>84026</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B308" s="3">
         <v>139</v>
       </c>
-      <c r="C288" s="3">
-        <v>1</v>
-      </c>
-      <c r="D288" s="3"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A289" s="3">
+      <c r="C308" s="3">
+        <v>1</v>
+      </c>
+      <c r="D308" s="3"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309" s="3">
         <v>84027</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B309" s="3">
         <v>500</v>
       </c>
-      <c r="C289" s="3">
-        <v>1</v>
-      </c>
-      <c r="D289" s="3"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A290" s="3">
+      <c r="C309" s="3">
+        <v>1</v>
+      </c>
+      <c r="D309" s="3"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A310" s="3">
         <v>84028</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B310" s="3">
         <v>501</v>
       </c>
-      <c r="C290" s="3">
-        <v>1</v>
-      </c>
-      <c r="D290" s="3"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A291" s="3">
+      <c r="C310" s="3">
+        <v>1</v>
+      </c>
+      <c r="D310" s="3"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" s="3">
         <v>84029</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B311" s="3">
         <v>502</v>
       </c>
-      <c r="C291" s="3">
-        <v>1</v>
-      </c>
-      <c r="D291" s="3"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A292" s="3">
+      <c r="C311" s="3">
+        <v>1</v>
+      </c>
+      <c r="D311" s="3"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312" s="3">
         <v>84030</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B312" s="3">
         <v>503</v>
       </c>
-      <c r="C292" s="3">
-        <v>1</v>
-      </c>
-      <c r="D292" s="3"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A293" s="3">
+      <c r="C312" s="3">
+        <v>1</v>
+      </c>
+      <c r="D312" s="3"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313" s="3">
         <v>84031</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B313" s="3">
         <v>504</v>
       </c>
-      <c r="C293" s="3">
-        <v>1</v>
-      </c>
-      <c r="D293" s="3"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A294" s="3">
+      <c r="C313" s="3">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314" s="3">
         <v>84032</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B314" s="3">
         <v>505</v>
       </c>
-      <c r="C294" s="3">
-        <v>1</v>
-      </c>
-      <c r="D294" s="3"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A295" s="3">
+      <c r="C314" s="3">
+        <v>1</v>
+      </c>
+      <c r="D314" s="3"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A315" s="3">
         <v>84033</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B315" s="3">
         <v>506</v>
       </c>
-      <c r="C295" s="3">
-        <v>1</v>
-      </c>
-      <c r="D295" s="3"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A296" s="3">
+      <c r="C315" s="3">
+        <v>1</v>
+      </c>
+      <c r="D315" s="3"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316" s="3">
         <v>84034</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B316" s="3">
         <v>507</v>
       </c>
-      <c r="C296" s="3">
-        <v>1</v>
-      </c>
-      <c r="D296" s="3"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A297" s="3">
+      <c r="C316" s="3">
+        <v>1</v>
+      </c>
+      <c r="D316" s="3"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317" s="3">
         <v>84035</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B317" s="3">
         <v>508</v>
       </c>
-      <c r="C297" s="3">
-        <v>1</v>
-      </c>
-      <c r="D297" s="3"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A298" s="3">
+      <c r="C317" s="3">
+        <v>1</v>
+      </c>
+      <c r="D317" s="3"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318" s="3">
         <v>84036</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B318" s="3">
         <v>509</v>
       </c>
-      <c r="C298" s="3">
-        <v>1</v>
-      </c>
-      <c r="D298" s="3"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A299" s="3">
+      <c r="C318" s="3">
+        <v>1</v>
+      </c>
+      <c r="D318" s="3"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319" s="3">
         <v>84037</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B319" s="3">
         <v>600</v>
       </c>
-      <c r="C299" s="3">
-        <v>1</v>
-      </c>
-      <c r="D299" s="3"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A300" s="3">
+      <c r="C319" s="3">
+        <v>1</v>
+      </c>
+      <c r="D319" s="3"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" s="3">
         <v>84038</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B320" s="3">
         <v>9005</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C320" s="3">
         <v>6</v>
       </c>
-      <c r="D300" s="3"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A301" s="3">
+      <c r="D320" s="3"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" s="3">
         <v>84039</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B321" s="3">
         <v>9005</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C321" s="3">
         <v>15</v>
       </c>
-      <c r="D301" s="3"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A302">
+      <c r="D321" s="3"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>85001</v>
+      </c>
+      <c r="B322">
+        <v>10013</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>85002</v>
+      </c>
+      <c r="B323">
+        <v>10014</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>85003</v>
+      </c>
+      <c r="B324">
+        <v>10015</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>85004</v>
+      </c>
+      <c r="B325" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C325" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>85005</v>
+      </c>
+      <c r="B326" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C326" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327">
+        <v>85006</v>
+      </c>
+      <c r="B327" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C327" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328">
         <v>300001</v>
       </c>
-      <c r="B302">
+      <c r="B328">
         <v>9004</v>
       </c>
-      <c r="C302">
+      <c r="C328">
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A303">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329">
         <v>300011</v>
       </c>
-      <c r="B303">
+      <c r="B329">
         <v>1014</v>
       </c>
-      <c r="C303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A304">
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330">
         <v>300021</v>
       </c>
-      <c r="B304">
+      <c r="B330">
         <v>1015</v>
       </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A305">
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331">
         <v>300031</v>
       </c>
-      <c r="B305">
+      <c r="B331">
         <v>1016</v>
       </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A306">
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332">
         <v>300041</v>
       </c>
-      <c r="B306">
+      <c r="B332">
         <v>1017</v>
       </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A307">
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A333">
         <v>300051</v>
       </c>
-      <c r="B307">
+      <c r="B333">
         <v>1018</v>
       </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A308">
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A334">
         <v>300061</v>
       </c>
-      <c r="B308">
+      <c r="B334">
         <v>1019</v>
       </c>
-      <c r="C308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A309">
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A335">
         <v>300071</v>
       </c>
-      <c r="B309">
+      <c r="B335">
         <v>1020</v>
       </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A310">
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A336">
         <v>300081</v>
       </c>
-      <c r="B310">
+      <c r="B336">
         <v>1021</v>
       </c>
-      <c r="C310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A311">
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A337">
         <v>300091</v>
       </c>
-      <c r="B311">
+      <c r="B337">
         <v>1022</v>
       </c>
-      <c r="C311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A312">
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A338">
         <v>300101</v>
       </c>
-      <c r="B312">
+      <c r="B338">
         <v>1023</v>
       </c>
-      <c r="C312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A313">
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A339">
         <v>300111</v>
       </c>
-      <c r="B313">
+      <c r="B339">
         <v>1024</v>
       </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A314">
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A340">
         <v>300121</v>
       </c>
-      <c r="B314">
+      <c r="B340">
         <v>1025</v>
       </c>
-      <c r="C314">
+      <c r="C340">
         <v>1</v>
       </c>
     </row>
@@ -4375,42 +4697,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A356668E-1090-4B1B-9DCE-CCC3FD5E0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C671288B-752B-48E1-98A7-913C8F616599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M340" totalsRowShown="0">
-  <autoFilter ref="A1:M340" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M349" totalsRowShown="0">
+  <autoFilter ref="A1:M349" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M340"/>
+  <dimension ref="A1:M349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="3">
         <v>83017</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="3">
         <v>83018</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" s="3">
         <v>83019</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="3">
         <v>83020</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="3">
         <v>83021</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>83022</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>83023</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>83024</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>83025</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>83026</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>83027</v>
       </c>
@@ -3822,180 +3822,171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="3">
-        <v>83301</v>
-      </c>
-      <c r="B268" s="3">
-        <v>123</v>
-      </c>
-      <c r="C268" s="3">
-        <v>3</v>
-      </c>
-      <c r="D268" s="3"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="3">
-        <v>83302</v>
-      </c>
-      <c r="B269" s="3">
-        <v>124</v>
-      </c>
-      <c r="C269" s="3">
-        <v>3</v>
-      </c>
-      <c r="D269" s="3"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="3">
-        <v>83303</v>
-      </c>
-      <c r="B270" s="3">
-        <v>125</v>
-      </c>
-      <c r="C270" s="3">
-        <v>3</v>
-      </c>
-      <c r="D270" s="3"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="3">
-        <v>83304</v>
-      </c>
-      <c r="B271" s="3">
-        <v>126</v>
-      </c>
-      <c r="C271" s="3">
-        <v>3</v>
-      </c>
-      <c r="D271" s="3"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="3">
-        <v>83305</v>
-      </c>
-      <c r="B272" s="3">
-        <v>127</v>
-      </c>
-      <c r="C272" s="3">
-        <v>3</v>
-      </c>
-      <c r="D272" s="3"/>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>83028</v>
+      </c>
+      <c r="B268">
+        <v>10025</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>83029</v>
+      </c>
+      <c r="B269">
+        <v>10026</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>83030</v>
+      </c>
+      <c r="B270">
+        <v>10027</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>83031</v>
+      </c>
+      <c r="B271">
+        <v>10028</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>83032</v>
+      </c>
+      <c r="B272">
+        <v>10029</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="3">
-        <v>83306</v>
-      </c>
-      <c r="B273" s="3">
-        <v>7021</v>
-      </c>
-      <c r="C273" s="3">
-        <v>1</v>
-      </c>
-      <c r="D273" s="3"/>
+      <c r="A273">
+        <v>83033</v>
+      </c>
+      <c r="B273">
+        <v>10030</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A274" s="3">
-        <v>83307</v>
-      </c>
-      <c r="B274" s="3">
-        <v>7022</v>
-      </c>
-      <c r="C274" s="3">
-        <v>1</v>
-      </c>
-      <c r="D274" s="3"/>
+      <c r="A274">
+        <v>83034</v>
+      </c>
+      <c r="B274">
+        <v>10031</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A275" s="3">
-        <v>83308</v>
-      </c>
-      <c r="B275" s="3">
-        <v>7023</v>
-      </c>
-      <c r="C275" s="3">
-        <v>1</v>
-      </c>
-      <c r="D275" s="3"/>
+      <c r="A275">
+        <v>83035</v>
+      </c>
+      <c r="B275">
+        <v>10032</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A276" s="3">
-        <v>83309</v>
-      </c>
-      <c r="B276" s="3">
-        <v>7024</v>
-      </c>
-      <c r="C276" s="3">
-        <v>1</v>
-      </c>
-      <c r="D276" s="3"/>
+      <c r="A276">
+        <v>83036</v>
+      </c>
+      <c r="B276">
+        <v>10033</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="3">
-        <v>83310</v>
+        <v>83301</v>
       </c>
       <c r="B277" s="3">
-        <v>7025</v>
+        <v>123</v>
       </c>
       <c r="C277" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D277" s="3"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="3">
-        <v>83311</v>
+        <v>83302</v>
       </c>
       <c r="B278" s="3">
-        <v>7026</v>
+        <v>124</v>
       </c>
       <c r="C278" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D278" s="3"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="3">
-        <v>83312</v>
+        <v>83303</v>
       </c>
       <c r="B279" s="3">
-        <v>7027</v>
+        <v>125</v>
       </c>
       <c r="C279" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279" s="3"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="3">
-        <v>83313</v>
+        <v>83304</v>
       </c>
       <c r="B280" s="3">
-        <v>7028</v>
+        <v>126</v>
       </c>
       <c r="C280" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D280" s="3"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" s="3">
-        <v>83314</v>
+        <v>83305</v>
       </c>
       <c r="B281" s="3">
-        <v>7029</v>
+        <v>127</v>
       </c>
       <c r="C281" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D281" s="3"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" s="3">
-        <v>83315</v>
+        <v>83306</v>
       </c>
       <c r="B282" s="3">
-        <v>7030</v>
+        <v>7021</v>
       </c>
       <c r="C282" s="3">
         <v>1</v>
@@ -4004,10 +3995,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="3">
-        <v>84001</v>
+        <v>83307</v>
       </c>
       <c r="B283" s="3">
-        <v>9003</v>
+        <v>7022</v>
       </c>
       <c r="C283" s="3">
         <v>1</v>
@@ -4016,10 +4007,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="3">
-        <v>84002</v>
+        <v>83308</v>
       </c>
       <c r="B284" s="3">
-        <v>9005</v>
+        <v>7023</v>
       </c>
       <c r="C284" s="3">
         <v>1</v>
@@ -4028,22 +4019,22 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="3">
-        <v>84003</v>
+        <v>83309</v>
       </c>
       <c r="B285" s="3">
-        <v>9002</v>
+        <v>7024</v>
       </c>
       <c r="C285" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="D285" s="3"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="3">
-        <v>84004</v>
+        <v>83310</v>
       </c>
       <c r="B286" s="3">
-        <v>123</v>
+        <v>7025</v>
       </c>
       <c r="C286" s="3">
         <v>1</v>
@@ -4052,10 +4043,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="3">
-        <v>84005</v>
+        <v>83311</v>
       </c>
       <c r="B287" s="3">
-        <v>124</v>
+        <v>7026</v>
       </c>
       <c r="C287" s="3">
         <v>1</v>
@@ -4064,10 +4055,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" s="3">
-        <v>84006</v>
+        <v>83312</v>
       </c>
       <c r="B288" s="3">
-        <v>125</v>
+        <v>7027</v>
       </c>
       <c r="C288" s="3">
         <v>1</v>
@@ -4076,10 +4067,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
-        <v>84007</v>
+        <v>83313</v>
       </c>
       <c r="B289" s="3">
-        <v>126</v>
+        <v>7028</v>
       </c>
       <c r="C289" s="3">
         <v>1</v>
@@ -4088,10 +4079,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
-        <v>84008</v>
+        <v>83314</v>
       </c>
       <c r="B290" s="3">
-        <v>127</v>
+        <v>7029</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
@@ -4100,10 +4091,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" s="3">
-        <v>84009</v>
+        <v>83315</v>
       </c>
       <c r="B291" s="3">
-        <v>128</v>
+        <v>7030</v>
       </c>
       <c r="C291" s="3">
         <v>1</v>
@@ -4112,10 +4103,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" s="3">
-        <v>84010</v>
+        <v>84001</v>
       </c>
       <c r="B292" s="3">
-        <v>129</v>
+        <v>9003</v>
       </c>
       <c r="C292" s="3">
         <v>1</v>
@@ -4124,10 +4115,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
-        <v>84011</v>
+        <v>84002</v>
       </c>
       <c r="B293" s="3">
-        <v>550</v>
+        <v>9005</v>
       </c>
       <c r="C293" s="3">
         <v>1</v>
@@ -4136,22 +4127,22 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
-        <v>84012</v>
+        <v>84003</v>
       </c>
       <c r="B294" s="3">
-        <v>551</v>
+        <v>9002</v>
       </c>
       <c r="C294" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D294" s="3"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" s="3">
-        <v>84013</v>
+        <v>84004</v>
       </c>
       <c r="B295" s="3">
-        <v>552</v>
+        <v>123</v>
       </c>
       <c r="C295" s="3">
         <v>1</v>
@@ -4160,10 +4151,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" s="3">
-        <v>84014</v>
+        <v>84005</v>
       </c>
       <c r="B296" s="3">
-        <v>553</v>
+        <v>124</v>
       </c>
       <c r="C296" s="3">
         <v>1</v>
@@ -4172,10 +4163,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
-        <v>84015</v>
+        <v>84006</v>
       </c>
       <c r="B297" s="3">
-        <v>554</v>
+        <v>125</v>
       </c>
       <c r="C297" s="3">
         <v>1</v>
@@ -4184,10 +4175,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
-        <v>84016</v>
+        <v>84007</v>
       </c>
       <c r="B298" s="3">
-        <v>555</v>
+        <v>126</v>
       </c>
       <c r="C298" s="3">
         <v>1</v>
@@ -4196,10 +4187,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" s="3">
-        <v>84017</v>
+        <v>84008</v>
       </c>
       <c r="B299" s="3">
-        <v>556</v>
+        <v>127</v>
       </c>
       <c r="C299" s="3">
         <v>1</v>
@@ -4208,10 +4199,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" s="3">
-        <v>84018</v>
+        <v>84009</v>
       </c>
       <c r="B300" s="3">
-        <v>557</v>
+        <v>128</v>
       </c>
       <c r="C300" s="3">
         <v>1</v>
@@ -4220,10 +4211,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
-        <v>84019</v>
+        <v>84010</v>
       </c>
       <c r="B301" s="3">
-        <v>558</v>
+        <v>129</v>
       </c>
       <c r="C301" s="3">
         <v>1</v>
@@ -4232,10 +4223,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
-        <v>84020</v>
+        <v>84011</v>
       </c>
       <c r="B302" s="3">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C302" s="3">
         <v>1</v>
@@ -4244,10 +4235,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" s="3">
-        <v>84021</v>
+        <v>84012</v>
       </c>
       <c r="B303" s="3">
-        <v>134</v>
+        <v>551</v>
       </c>
       <c r="C303" s="3">
         <v>1</v>
@@ -4256,10 +4247,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" s="3">
-        <v>84022</v>
+        <v>84013</v>
       </c>
       <c r="B304" s="3">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="C304" s="3">
         <v>1</v>
@@ -4268,10 +4259,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" s="3">
-        <v>84023</v>
+        <v>84014</v>
       </c>
       <c r="B305" s="3">
-        <v>136</v>
+        <v>553</v>
       </c>
       <c r="C305" s="3">
         <v>1</v>
@@ -4280,10 +4271,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" s="3">
-        <v>84024</v>
+        <v>84015</v>
       </c>
       <c r="B306" s="3">
-        <v>137</v>
+        <v>554</v>
       </c>
       <c r="C306" s="3">
         <v>1</v>
@@ -4292,10 +4283,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" s="3">
-        <v>84025</v>
+        <v>84016</v>
       </c>
       <c r="B307" s="3">
-        <v>138</v>
+        <v>555</v>
       </c>
       <c r="C307" s="3">
         <v>1</v>
@@ -4304,10 +4295,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" s="3">
-        <v>84026</v>
+        <v>84017</v>
       </c>
       <c r="B308" s="3">
-        <v>139</v>
+        <v>556</v>
       </c>
       <c r="C308" s="3">
         <v>1</v>
@@ -4316,10 +4307,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" s="3">
-        <v>84027</v>
+        <v>84018</v>
       </c>
       <c r="B309" s="3">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="C309" s="3">
         <v>1</v>
@@ -4328,10 +4319,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" s="3">
-        <v>84028</v>
+        <v>84019</v>
       </c>
       <c r="B310" s="3">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="C310" s="3">
         <v>1</v>
@@ -4340,10 +4331,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" s="3">
-        <v>84029</v>
+        <v>84020</v>
       </c>
       <c r="B311" s="3">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="C311" s="3">
         <v>1</v>
@@ -4352,10 +4343,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" s="3">
-        <v>84030</v>
+        <v>84021</v>
       </c>
       <c r="B312" s="3">
-        <v>503</v>
+        <v>134</v>
       </c>
       <c r="C312" s="3">
         <v>1</v>
@@ -4364,10 +4355,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" s="3">
-        <v>84031</v>
+        <v>84022</v>
       </c>
       <c r="B313" s="3">
-        <v>504</v>
+        <v>135</v>
       </c>
       <c r="C313" s="3">
         <v>1</v>
@@ -4376,10 +4367,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" s="3">
-        <v>84032</v>
+        <v>84023</v>
       </c>
       <c r="B314" s="3">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="C314" s="3">
         <v>1</v>
@@ -4388,10 +4379,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" s="3">
-        <v>84033</v>
+        <v>84024</v>
       </c>
       <c r="B315" s="3">
-        <v>506</v>
+        <v>137</v>
       </c>
       <c r="C315" s="3">
         <v>1</v>
@@ -4400,10 +4391,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" s="3">
-        <v>84034</v>
+        <v>84025</v>
       </c>
       <c r="B316" s="3">
-        <v>507</v>
+        <v>138</v>
       </c>
       <c r="C316" s="3">
         <v>1</v>
@@ -4412,10 +4403,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" s="3">
-        <v>84035</v>
+        <v>84026</v>
       </c>
       <c r="B317" s="3">
-        <v>508</v>
+        <v>139</v>
       </c>
       <c r="C317" s="3">
         <v>1</v>
@@ -4424,10 +4415,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" s="3">
-        <v>84036</v>
+        <v>84027</v>
       </c>
       <c r="B318" s="3">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C318" s="3">
         <v>1</v>
@@ -4436,10 +4427,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" s="3">
-        <v>84037</v>
+        <v>84028</v>
       </c>
       <c r="B319" s="3">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="C319" s="3">
         <v>1</v>
@@ -4448,133 +4439,142 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" s="3">
-        <v>84038</v>
+        <v>84029</v>
       </c>
       <c r="B320" s="3">
-        <v>9005</v>
+        <v>502</v>
       </c>
       <c r="C320" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D320" s="3"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" s="3">
+        <v>84030</v>
+      </c>
+      <c r="B321" s="3">
+        <v>503</v>
+      </c>
+      <c r="C321" s="3">
+        <v>1</v>
+      </c>
+      <c r="D321" s="3"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322" s="3">
+        <v>84031</v>
+      </c>
+      <c r="B322" s="3">
+        <v>504</v>
+      </c>
+      <c r="C322" s="3">
+        <v>1</v>
+      </c>
+      <c r="D322" s="3"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323" s="3">
+        <v>84032</v>
+      </c>
+      <c r="B323" s="3">
+        <v>505</v>
+      </c>
+      <c r="C323" s="3">
+        <v>1</v>
+      </c>
+      <c r="D323" s="3"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324" s="3">
+        <v>84033</v>
+      </c>
+      <c r="B324" s="3">
+        <v>506</v>
+      </c>
+      <c r="C324" s="3">
+        <v>1</v>
+      </c>
+      <c r="D324" s="3"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" s="3">
+        <v>84034</v>
+      </c>
+      <c r="B325" s="3">
+        <v>507</v>
+      </c>
+      <c r="C325" s="3">
+        <v>1</v>
+      </c>
+      <c r="D325" s="3"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" s="3">
+        <v>84035</v>
+      </c>
+      <c r="B326" s="3">
+        <v>508</v>
+      </c>
+      <c r="C326" s="3">
+        <v>1</v>
+      </c>
+      <c r="D326" s="3"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327" s="3">
+        <v>84036</v>
+      </c>
+      <c r="B327" s="3">
+        <v>509</v>
+      </c>
+      <c r="C327" s="3">
+        <v>1</v>
+      </c>
+      <c r="D327" s="3"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" s="3">
+        <v>84037</v>
+      </c>
+      <c r="B328" s="3">
+        <v>600</v>
+      </c>
+      <c r="C328" s="3">
+        <v>1</v>
+      </c>
+      <c r="D328" s="3"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329" s="3">
+        <v>84038</v>
+      </c>
+      <c r="B329" s="3">
+        <v>9005</v>
+      </c>
+      <c r="C329" s="3">
+        <v>6</v>
+      </c>
+      <c r="D329" s="3"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330" s="3">
         <v>84039</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B330" s="3">
         <v>9005</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C330" s="3">
         <v>15</v>
       </c>
-      <c r="D321" s="3"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A322">
-        <v>85001</v>
-      </c>
-      <c r="B322">
-        <v>10013</v>
-      </c>
-      <c r="C322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A323">
-        <v>85002</v>
-      </c>
-      <c r="B323">
-        <v>10014</v>
-      </c>
-      <c r="C323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A324">
-        <v>85003</v>
-      </c>
-      <c r="B324">
-        <v>10015</v>
-      </c>
-      <c r="C324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A325">
-        <v>85004</v>
-      </c>
-      <c r="B325" s="3">
-        <v>9002</v>
-      </c>
-      <c r="C325" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A326">
-        <v>85005</v>
-      </c>
-      <c r="B326" s="3">
-        <v>9002</v>
-      </c>
-      <c r="C326" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A327">
-        <v>85006</v>
-      </c>
-      <c r="B327" s="3">
-        <v>9002</v>
-      </c>
-      <c r="C327" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A328">
-        <v>300001</v>
-      </c>
-      <c r="B328">
-        <v>9004</v>
-      </c>
-      <c r="C328">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A329">
-        <v>300011</v>
-      </c>
-      <c r="B329">
-        <v>1014</v>
-      </c>
-      <c r="C329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A330">
-        <v>300021</v>
-      </c>
-      <c r="B330">
-        <v>1015</v>
-      </c>
-      <c r="C330">
-        <v>1</v>
-      </c>
+      <c r="D330" s="3"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331">
-        <v>300031</v>
+        <v>85001</v>
       </c>
       <c r="B331">
-        <v>1016</v>
+        <v>10013</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332">
-        <v>300041</v>
+        <v>85002</v>
       </c>
       <c r="B332">
-        <v>1017</v>
+        <v>10014</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333">
-        <v>300051</v>
+        <v>85003</v>
       </c>
       <c r="B333">
-        <v>1018</v>
+        <v>10015</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -4604,54 +4604,54 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334">
-        <v>300061</v>
-      </c>
-      <c r="B334">
-        <v>1019</v>
-      </c>
-      <c r="C334">
-        <v>1</v>
+        <v>85004</v>
+      </c>
+      <c r="B334" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C334" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335">
-        <v>300071</v>
-      </c>
-      <c r="B335">
-        <v>1020</v>
-      </c>
-      <c r="C335">
-        <v>1</v>
+        <v>85005</v>
+      </c>
+      <c r="B335" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C335" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336">
-        <v>300081</v>
-      </c>
-      <c r="B336">
-        <v>1021</v>
-      </c>
-      <c r="C336">
-        <v>1</v>
+        <v>85006</v>
+      </c>
+      <c r="B336" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C336" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337">
-        <v>300091</v>
+        <v>300001</v>
       </c>
       <c r="B337">
-        <v>1022</v>
+        <v>9004</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338">
-        <v>300101</v>
+        <v>300011</v>
       </c>
       <c r="B338">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -4659,10 +4659,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339">
-        <v>300111</v>
+        <v>300021</v>
       </c>
       <c r="B339">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -4670,12 +4670,111 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340">
+        <v>300031</v>
+      </c>
+      <c r="B340">
+        <v>1016</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A341">
+        <v>300041</v>
+      </c>
+      <c r="B341">
+        <v>1017</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A342">
+        <v>300051</v>
+      </c>
+      <c r="B342">
+        <v>1018</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A343">
+        <v>300061</v>
+      </c>
+      <c r="B343">
+        <v>1019</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A344">
+        <v>300071</v>
+      </c>
+      <c r="B344">
+        <v>1020</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A345">
+        <v>300081</v>
+      </c>
+      <c r="B345">
+        <v>1021</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A346">
+        <v>300091</v>
+      </c>
+      <c r="B346">
+        <v>1022</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A347">
+        <v>300101</v>
+      </c>
+      <c r="B347">
+        <v>1023</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A348">
+        <v>300111</v>
+      </c>
+      <c r="B348">
+        <v>1024</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A349">
         <v>300121</v>
       </c>
-      <c r="B340">
+      <c r="B349">
         <v>1025</v>
       </c>
-      <c r="C340">
+      <c r="C349">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C671288B-752B-48E1-98A7-913C8F616599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D3B40C-172D-41DB-8176-6F6E376A783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="6324" yWindow="1092" windowWidth="20316" windowHeight="11352" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M349" totalsRowShown="0">
-  <autoFilter ref="A1:M349" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M351" totalsRowShown="0">
+  <autoFilter ref="A1:M351" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1"/>
@@ -581,32 +581,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M349"/>
+  <dimension ref="A1:M351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E275" sqref="E275"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -849,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>11</v>
       </c>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -921,7 +921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2003</v>
       </c>
@@ -932,7 +932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -987,7 +987,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>3000</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>3001</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>2000</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>3002</v>
       </c>
@@ -1061,10 +1061,10 @@
         <v>2001</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>3003</v>
       </c>
@@ -1072,10 +1072,10 @@
         <v>2002</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>3004</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>3005</v>
       </c>
@@ -1097,877 +1097,877 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
+        <v>3006</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>3007</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34">
         <v>10001</v>
-      </c>
-      <c r="B32">
-        <v>9000</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>10002</v>
-      </c>
-      <c r="B33">
-        <v>9000</v>
-      </c>
-      <c r="C33">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>10003</v>
       </c>
       <c r="B34">
         <v>9000</v>
       </c>
       <c r="C34">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B35">
         <v>9000</v>
       </c>
       <c r="C35">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B36">
         <v>9000</v>
       </c>
       <c r="C36">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B37">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="C37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>10080</v>
+        <v>10005</v>
       </c>
       <c r="B38">
         <v>9000</v>
       </c>
       <c r="C38">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>10081</v>
+        <v>10006</v>
       </c>
       <c r="B39">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="C39">
-        <v>130</v>
-      </c>
-      <c r="D39">
-        <v>9001</v>
-      </c>
-      <c r="E39">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>10082</v>
+        <v>10080</v>
       </c>
       <c r="B40">
         <v>9000</v>
       </c>
       <c r="C40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>10081</v>
+      </c>
+      <c r="B41">
+        <v>9000</v>
+      </c>
+      <c r="C41">
+        <v>130</v>
+      </c>
+      <c r="D41">
+        <v>9001</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>10082</v>
+      </c>
+      <c r="B42">
+        <v>9000</v>
+      </c>
+      <c r="C42">
         <v>215</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>9001</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>500</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>3001</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43">
         <v>11001</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>102</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>100</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>103</v>
-      </c>
-      <c r="E41">
-        <v>100</v>
-      </c>
-      <c r="F41">
-        <v>104</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41">
-        <v>112</v>
-      </c>
-      <c r="I41">
-        <v>50</v>
-      </c>
-      <c r="J41">
-        <v>107</v>
-      </c>
-      <c r="K41">
-        <v>50</v>
-      </c>
-      <c r="L41">
-        <v>3001</v>
-      </c>
-      <c r="M41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>11002</v>
-      </c>
-      <c r="B42">
-        <v>3001</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>11003</v>
-      </c>
-      <c r="B43">
-        <v>3001</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>1004</v>
       </c>
       <c r="E43">
         <v>100</v>
       </c>
       <c r="F43">
-        <v>1005</v>
+        <v>104</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43">
-        <v>1006</v>
+        <v>112</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J43">
-        <v>1007</v>
+        <v>107</v>
       </c>
       <c r="K43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="L43">
+        <v>3001</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="B44">
         <v>3001</v>
       </c>
       <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="B45">
         <v>3001</v>
       </c>
       <c r="C45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1004</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>1005</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>1006</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>1007</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>12001</v>
+        <v>11004</v>
       </c>
       <c r="B46">
         <v>3001</v>
       </c>
       <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47">
+        <v>11005</v>
+      </c>
+      <c r="B47">
+        <v>3001</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>12001</v>
+      </c>
+      <c r="B48">
+        <v>3001</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
         <v>12002</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>1001</v>
-      </c>
-      <c r="C47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>12003</v>
-      </c>
-      <c r="B48">
-        <v>1002</v>
-      </c>
-      <c r="C48">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>12004</v>
-      </c>
-      <c r="B49">
-        <v>1003</v>
       </c>
       <c r="C49">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>12005</v>
+        <v>12003</v>
       </c>
       <c r="B50">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C50">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>12006</v>
+        <v>12004</v>
       </c>
       <c r="B51">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>12007</v>
+        <v>12005</v>
       </c>
       <c r="B52">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C52">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="B53">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C53">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>12009</v>
+        <v>12007</v>
       </c>
       <c r="B54">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C54">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>12010</v>
+        <v>12008</v>
       </c>
       <c r="B55">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C55">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>12011</v>
+        <v>12009</v>
       </c>
       <c r="B56">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C56">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>12012</v>
+        <v>12010</v>
       </c>
       <c r="B57">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C57">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>12013</v>
+        <v>12011</v>
       </c>
       <c r="B58">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C58">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>12014</v>
+        <v>12012</v>
       </c>
       <c r="B59">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C59">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
+        <v>12013</v>
+      </c>
+      <c r="B60">
+        <v>1012</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>12014</v>
+      </c>
+      <c r="B61">
+        <v>1013</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62">
         <v>14001</v>
-      </c>
-      <c r="B60">
-        <v>9002</v>
-      </c>
-      <c r="C60">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <v>14002</v>
-      </c>
-      <c r="B61">
-        <v>9002</v>
-      </c>
-      <c r="C61">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62">
-        <v>14003</v>
       </c>
       <c r="B62">
         <v>9002</v>
       </c>
       <c r="C62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>14004</v>
+        <v>14002</v>
       </c>
       <c r="B63">
         <v>9002</v>
       </c>
       <c r="C63">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>14005</v>
+        <v>14003</v>
       </c>
       <c r="B64">
         <v>9002</v>
       </c>
       <c r="C64">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>14006</v>
+        <v>14004</v>
       </c>
       <c r="B65">
         <v>9002</v>
       </c>
       <c r="C65">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>14007</v>
+        <v>14005</v>
       </c>
       <c r="B66">
         <v>9002</v>
       </c>
       <c r="C66">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>14006</v>
+      </c>
+      <c r="B67">
+        <v>9002</v>
+      </c>
+      <c r="C67">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>14007</v>
+      </c>
+      <c r="B68">
+        <v>9002</v>
+      </c>
+      <c r="C68">
         <v>11000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69">
         <v>15001</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>4006</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>20</v>
       </c>
-      <c r="D67">
+      <c r="D69">
         <v>4003</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70">
         <v>15002</v>
       </c>
-      <c r="B68">
+      <c r="B70">
         <v>4005</v>
-      </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>4002</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>15003</v>
-      </c>
-      <c r="B69">
-        <v>4004</v>
-      </c>
-      <c r="C69">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>4001</v>
-      </c>
-      <c r="E69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>15004</v>
-      </c>
-      <c r="B70">
-        <v>4006</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
+        <v>15003</v>
+      </c>
+      <c r="B71">
+        <v>4004</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>4001</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>15004</v>
+      </c>
+      <c r="B72">
+        <v>4006</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>4003</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73">
         <v>15005</v>
       </c>
-      <c r="B71">
+      <c r="B73">
         <v>4005</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>5</v>
       </c>
-      <c r="D71">
+      <c r="D73">
         <v>4002</v>
       </c>
-      <c r="E71">
+      <c r="E73">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74">
         <v>15006</v>
       </c>
-      <c r="B72">
+      <c r="B74">
         <v>4004</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>5</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <v>4001</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75">
         <v>15101</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>1014</v>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>15102</v>
-      </c>
-      <c r="B74">
-        <v>1015</v>
-      </c>
-      <c r="C74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>15103</v>
-      </c>
-      <c r="B75">
-        <v>1016</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>15104</v>
+        <v>15102</v>
       </c>
       <c r="B76">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>15105</v>
+        <v>15103</v>
       </c>
       <c r="B77">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>15106</v>
+        <v>15104</v>
       </c>
       <c r="B78">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>15107</v>
+        <v>15105</v>
       </c>
       <c r="B79">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>15108</v>
+        <v>15106</v>
       </c>
       <c r="B80">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>15109</v>
+        <v>15107</v>
       </c>
       <c r="B81">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>15110</v>
+        <v>15108</v>
       </c>
       <c r="B82">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C82">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>15111</v>
+        <v>15109</v>
       </c>
       <c r="B83">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>15112</v>
+        <v>15110</v>
       </c>
       <c r="B84">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>15113</v>
+        <v>15111</v>
       </c>
       <c r="B85">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>15114</v>
+        <v>15112</v>
       </c>
       <c r="B86">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>20001</v>
+        <v>15113</v>
       </c>
       <c r="B87">
-        <v>102</v>
+        <v>1026</v>
       </c>
       <c r="C87">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" s="3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>15114</v>
+      </c>
+      <c r="B88">
+        <v>1027</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>20001</v>
+      </c>
+      <c r="B89">
+        <v>102</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="3">
         <v>20002</v>
       </c>
-      <c r="B88">
+      <c r="B90">
         <v>9001</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" s="3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="3">
         <v>20003</v>
       </c>
-      <c r="B89">
+      <c r="B91">
         <v>1001</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" s="3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="3">
         <v>20004</v>
       </c>
-      <c r="B90">
+      <c r="B92">
         <v>1013</v>
       </c>
-      <c r="C90">
+      <c r="C92">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" s="3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="3">
         <v>20005</v>
       </c>
-      <c r="B91">
+      <c r="B93">
         <v>9002</v>
       </c>
-      <c r="C91">
+      <c r="C93">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" s="3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="3">
         <v>21001</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" s="3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="3">
         <v>21002</v>
       </c>
-      <c r="B93">
+      <c r="B95">
         <v>2</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" s="3">
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="3">
         <v>21003</v>
       </c>
-      <c r="B94">
+      <c r="B96">
         <v>3</v>
       </c>
-      <c r="C94">
+      <c r="C96">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" s="3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="3">
         <v>21004</v>
       </c>
-      <c r="B95">
+      <c r="B97">
         <v>4</v>
       </c>
-      <c r="C95">
+      <c r="C97">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" s="3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="3">
         <v>21005</v>
       </c>
-      <c r="B96">
+      <c r="B98">
         <v>5</v>
       </c>
-      <c r="C96">
+      <c r="C98">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" s="3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="3">
         <v>21006</v>
       </c>
-      <c r="B97">
+      <c r="B99">
         <v>600</v>
       </c>
-      <c r="C97">
+      <c r="C99">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" s="3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="3">
         <v>21007</v>
-      </c>
-      <c r="B98">
-        <v>3001</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" s="3">
-        <v>21008</v>
-      </c>
-      <c r="B99">
-        <v>3001</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" s="3">
-        <v>21009</v>
       </c>
       <c r="B100">
         <v>3001</v>
@@ -1976,9 +1976,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
-        <v>21010</v>
+        <v>21008</v>
       </c>
       <c r="B101">
         <v>3001</v>
@@ -1987,9 +1987,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
-        <v>21011</v>
+        <v>21009</v>
       </c>
       <c r="B102">
         <v>3001</v>
@@ -1998,2783 +1998,2805 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
+        <v>21010</v>
+      </c>
+      <c r="B103">
+        <v>3001</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="3">
+        <v>21011</v>
+      </c>
+      <c r="B104">
+        <v>3001</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="3">
         <v>21012</v>
-      </c>
-      <c r="B103">
-        <v>9001</v>
-      </c>
-      <c r="C103">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" s="3">
-        <v>21013</v>
-      </c>
-      <c r="B104">
-        <v>9001</v>
-      </c>
-      <c r="C104">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" s="3">
-        <v>21014</v>
       </c>
       <c r="B105">
         <v>9001</v>
       </c>
       <c r="C105">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="3">
+        <v>21013</v>
+      </c>
+      <c r="B106">
+        <v>9001</v>
+      </c>
+      <c r="C106">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="3">
+        <v>21014</v>
+      </c>
+      <c r="B107">
+        <v>9001</v>
+      </c>
+      <c r="C107">
         <v>5000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" s="3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="3">
         <v>22001</v>
       </c>
-      <c r="B106">
+      <c r="B108">
         <v>9004</v>
       </c>
-      <c r="C106">
+      <c r="C108">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" s="3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="3">
         <v>22002</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" s="3">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="3">
         <v>22003</v>
       </c>
-      <c r="B108">
+      <c r="B110">
         <v>2</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109" s="3">
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="3">
         <v>22004</v>
       </c>
-      <c r="B109">
+      <c r="B111">
         <v>3</v>
       </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" s="3">
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="3">
         <v>22005</v>
       </c>
-      <c r="B110">
+      <c r="B112">
         <v>4</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111" s="3">
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="3">
         <v>22006</v>
       </c>
-      <c r="B111">
+      <c r="B113">
         <v>5</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112" s="3">
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="3">
         <v>22007</v>
       </c>
-      <c r="B112">
+      <c r="B114">
         <v>6</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113" s="3">
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="3">
         <v>22008</v>
       </c>
-      <c r="B113">
+      <c r="B115">
         <v>7</v>
       </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114" s="3">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="3">
         <v>22009</v>
       </c>
-      <c r="B114">
+      <c r="B116">
         <v>8</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" s="3">
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="3">
         <v>22010</v>
       </c>
-      <c r="B115">
+      <c r="B117">
         <v>123</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116" s="3">
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="3">
         <v>22011</v>
       </c>
-      <c r="B116">
+      <c r="B118">
         <v>124</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117" s="3">
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="3">
         <v>22012</v>
       </c>
-      <c r="B117">
+      <c r="B119">
         <v>125</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="3">
         <v>22013</v>
       </c>
-      <c r="B118">
+      <c r="B120">
         <v>126</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="3">
         <v>22014</v>
       </c>
-      <c r="B119">
+      <c r="B121">
         <v>127</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="3">
         <v>22015</v>
       </c>
-      <c r="B120">
+      <c r="B122">
         <v>128</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="3">
         <v>22016</v>
       </c>
-      <c r="B121">
+      <c r="B123">
         <v>129</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="3">
         <v>22017</v>
       </c>
-      <c r="B122">
+      <c r="B124">
         <v>134</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="3">
         <v>22018</v>
       </c>
-      <c r="B123">
+      <c r="B125">
         <v>135</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="3">
         <v>22019</v>
       </c>
-      <c r="B124">
+      <c r="B126">
         <v>136</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="3">
         <v>22020</v>
       </c>
-      <c r="B125">
+      <c r="B127">
         <v>137</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="3">
         <v>22021</v>
       </c>
-      <c r="B126">
+      <c r="B128">
         <v>138</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="3">
         <v>22022</v>
       </c>
-      <c r="B127">
+      <c r="B129">
         <v>139</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="3">
         <v>22023</v>
       </c>
-      <c r="B128">
+      <c r="B130">
         <v>500</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" s="3">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="3">
         <v>22024</v>
       </c>
-      <c r="B129">
+      <c r="B131">
         <v>501</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" s="3">
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="3">
         <v>22025</v>
       </c>
-      <c r="B130">
+      <c r="B132">
         <v>502</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="3">
         <v>22026</v>
       </c>
-      <c r="B131">
+      <c r="B133">
         <v>503</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="3">
         <v>22027</v>
       </c>
-      <c r="B132">
+      <c r="B134">
         <v>504</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="3">
         <v>22028</v>
       </c>
-      <c r="B133">
+      <c r="B135">
         <v>505</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="3">
         <v>22029</v>
       </c>
-      <c r="B134">
+      <c r="B136">
         <v>506</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="3">
         <v>22030</v>
       </c>
-      <c r="B135">
+      <c r="B137">
         <v>507</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="3">
         <v>22031</v>
       </c>
-      <c r="B136">
+      <c r="B138">
         <v>508</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="3">
         <v>22032</v>
       </c>
-      <c r="B137">
+      <c r="B139">
         <v>509</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="3">
         <v>22033</v>
       </c>
-      <c r="B138">
+      <c r="B140">
         <v>550</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="3">
         <v>22034</v>
       </c>
-      <c r="B139">
+      <c r="B141">
         <v>551</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="3">
         <v>22035</v>
       </c>
-      <c r="B140">
+      <c r="B142">
         <v>552</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="3">
         <v>22036</v>
       </c>
-      <c r="B141">
+      <c r="B143">
         <v>553</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="3">
         <v>22037</v>
       </c>
-      <c r="B142">
+      <c r="B144">
         <v>554</v>
       </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="3">
         <v>22038</v>
       </c>
-      <c r="B143">
+      <c r="B145">
         <v>555</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" s="3">
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="3">
         <v>22039</v>
       </c>
-      <c r="B144">
+      <c r="B146">
         <v>556</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" s="3">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="3">
         <v>22040</v>
       </c>
-      <c r="B145">
+      <c r="B147">
         <v>557</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146" s="3">
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="3">
         <v>22041</v>
       </c>
-      <c r="B146">
+      <c r="B148">
         <v>558</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147" s="3">
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="3">
         <v>22042</v>
       </c>
-      <c r="B147">
+      <c r="B149">
         <v>559</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" s="3">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="3">
         <v>22043</v>
       </c>
-      <c r="B148">
+      <c r="B150">
         <v>7016</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" s="3">
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="3">
         <v>22044</v>
       </c>
-      <c r="B149">
+      <c r="B151">
         <v>7017</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" s="3">
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="3">
         <v>22045</v>
       </c>
-      <c r="B150">
+      <c r="B152">
         <v>7018</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" s="3">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="3">
         <v>22046</v>
       </c>
-      <c r="B151">
+      <c r="B153">
         <v>7019</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" s="3">
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="3">
         <v>22047</v>
       </c>
-      <c r="B152">
+      <c r="B154">
         <v>7020</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" s="3">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="3">
         <v>22048</v>
       </c>
-      <c r="B153">
+      <c r="B155">
         <v>7021</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" s="3">
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" s="3">
         <v>22049</v>
       </c>
-      <c r="B154">
+      <c r="B156">
         <v>7022</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" s="3">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" s="3">
         <v>22050</v>
       </c>
-      <c r="B155">
+      <c r="B157">
         <v>7023</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="3">
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" s="3">
         <v>22051</v>
       </c>
-      <c r="B156">
+      <c r="B158">
         <v>7024</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" s="3">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" s="3">
         <v>22052</v>
       </c>
-      <c r="B157">
+      <c r="B159">
         <v>7025</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="3">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" s="3">
         <v>22053</v>
       </c>
-      <c r="B158">
+      <c r="B160">
         <v>7026</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" s="3">
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="3">
         <v>22054</v>
       </c>
-      <c r="B159">
+      <c r="B161">
         <v>7027</v>
       </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="3">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" s="3">
         <v>22055</v>
       </c>
-      <c r="B160">
+      <c r="B162">
         <v>7028</v>
       </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="3">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" s="3">
         <v>22056</v>
       </c>
-      <c r="B161">
+      <c r="B163">
         <v>7029</v>
       </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="3">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" s="3">
         <v>22057</v>
       </c>
-      <c r="B162">
+      <c r="B164">
         <v>7030</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="3">
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" s="3">
         <v>22100</v>
       </c>
-      <c r="B163">
+      <c r="B165">
         <v>9004</v>
       </c>
-      <c r="C163">
+      <c r="C165">
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" s="3">
         <v>22101</v>
       </c>
-      <c r="B164">
+      <c r="B166">
         <v>9002</v>
       </c>
-      <c r="C164">
+      <c r="C166">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" s="3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" s="3">
         <v>22102</v>
       </c>
-      <c r="B165">
+      <c r="B167">
         <v>3001</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" s="3">
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" s="3">
         <v>22103</v>
-      </c>
-      <c r="B166">
-        <v>9004</v>
-      </c>
-      <c r="C166">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" s="3">
-        <v>22104</v>
-      </c>
-      <c r="B167">
-        <v>9002</v>
-      </c>
-      <c r="C167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="3">
-        <v>22200</v>
       </c>
       <c r="B168">
         <v>9004</v>
       </c>
       <c r="C168">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
-        <v>22201</v>
+        <v>22104</v>
       </c>
       <c r="B169">
         <v>9002</v>
       </c>
       <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170" s="3">
+        <v>22200</v>
+      </c>
+      <c r="B170">
+        <v>9004</v>
+      </c>
+      <c r="C170">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171" s="3">
+        <v>22201</v>
+      </c>
+      <c r="B171">
+        <v>9002</v>
+      </c>
+      <c r="C171">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" s="3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172" s="3">
         <v>22202</v>
       </c>
-      <c r="B170">
+      <c r="B172">
         <v>9002</v>
       </c>
-      <c r="C170">
+      <c r="C172">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" s="3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" s="3">
         <v>22203</v>
       </c>
-      <c r="B171">
+      <c r="B173">
         <v>9003</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="3">
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" s="3">
         <v>22204</v>
       </c>
-      <c r="B172">
+      <c r="B174">
         <v>9005</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A173" s="3">
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" s="3">
         <v>50001</v>
-      </c>
-      <c r="B173">
-        <v>123</v>
-      </c>
-      <c r="C173">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A174" s="3">
-        <v>50002</v>
-      </c>
-      <c r="B174">
-        <v>123</v>
-      </c>
-      <c r="C174">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A175" s="3">
-        <v>50003</v>
       </c>
       <c r="B175">
         <v>123</v>
       </c>
       <c r="C175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176" s="3">
+        <v>50002</v>
+      </c>
+      <c r="B176">
+        <v>123</v>
+      </c>
+      <c r="C176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" s="3">
+        <v>50003</v>
+      </c>
+      <c r="B177">
+        <v>123</v>
+      </c>
+      <c r="C177">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176" s="3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178" s="3">
         <v>50004</v>
-      </c>
-      <c r="B176">
-        <v>124</v>
-      </c>
-      <c r="C176">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" s="3">
-        <v>50005</v>
-      </c>
-      <c r="B177">
-        <v>124</v>
-      </c>
-      <c r="C177">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" s="3">
-        <v>50006</v>
       </c>
       <c r="B178">
         <v>124</v>
       </c>
       <c r="C178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179" s="3">
+        <v>50005</v>
+      </c>
+      <c r="B179">
+        <v>124</v>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180" s="3">
+        <v>50006</v>
+      </c>
+      <c r="B180">
+        <v>124</v>
+      </c>
+      <c r="C180">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" s="3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181" s="3">
         <v>50007</v>
-      </c>
-      <c r="B179">
-        <v>125</v>
-      </c>
-      <c r="C179">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" s="3">
-        <v>50008</v>
-      </c>
-      <c r="B180">
-        <v>125</v>
-      </c>
-      <c r="C180">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" s="3">
-        <v>50009</v>
       </c>
       <c r="B181">
         <v>125</v>
       </c>
       <c r="C181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182" s="3">
+        <v>50008</v>
+      </c>
+      <c r="B182">
+        <v>125</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183" s="3">
+        <v>50009</v>
+      </c>
+      <c r="B183">
+        <v>125</v>
+      </c>
+      <c r="C183">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" s="3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184" s="3">
         <v>50010</v>
-      </c>
-      <c r="B182">
-        <v>126</v>
-      </c>
-      <c r="C182">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183" s="3">
-        <v>50011</v>
-      </c>
-      <c r="B183">
-        <v>126</v>
-      </c>
-      <c r="C183">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" s="3">
-        <v>50012</v>
       </c>
       <c r="B184">
         <v>126</v>
       </c>
       <c r="C184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185" s="3">
+        <v>50011</v>
+      </c>
+      <c r="B185">
+        <v>126</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186" s="3">
+        <v>50012</v>
+      </c>
+      <c r="B186">
+        <v>126</v>
+      </c>
+      <c r="C186">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" s="3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187" s="3">
         <v>50013</v>
-      </c>
-      <c r="B185">
-        <v>127</v>
-      </c>
-      <c r="C185">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" s="3">
-        <v>50014</v>
-      </c>
-      <c r="B186">
-        <v>127</v>
-      </c>
-      <c r="C186">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" s="3">
-        <v>50015</v>
       </c>
       <c r="B187">
         <v>127</v>
       </c>
       <c r="C187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188" s="3">
+        <v>50014</v>
+      </c>
+      <c r="B188">
+        <v>127</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189" s="3">
+        <v>50015</v>
+      </c>
+      <c r="B189">
+        <v>127</v>
+      </c>
+      <c r="C189">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188" s="3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190" s="3">
         <v>60001</v>
       </c>
-      <c r="B188">
+      <c r="B190">
         <v>559</v>
-      </c>
-      <c r="C188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189" s="3">
-        <v>60002</v>
-      </c>
-      <c r="B189">
-        <v>550</v>
-      </c>
-      <c r="C189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190" s="3">
-        <v>60003</v>
-      </c>
-      <c r="B190">
-        <v>551</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
-        <v>60004</v>
+        <v>60002</v>
       </c>
       <c r="B191">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
-        <v>60005</v>
+        <v>60003</v>
       </c>
       <c r="B192">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="3">
-        <v>60006</v>
+        <v>60004</v>
       </c>
       <c r="B193">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="3">
-        <v>60007</v>
+        <v>60005</v>
       </c>
       <c r="B194">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="B195">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196">
-        <v>60009</v>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196" s="3">
+        <v>60007</v>
       </c>
       <c r="B196">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A197">
-        <v>60010</v>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197" s="3">
+        <v>60008</v>
       </c>
       <c r="B197">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198">
+        <v>60009</v>
+      </c>
+      <c r="B198">
+        <v>557</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>60010</v>
+      </c>
+      <c r="B199">
+        <v>558</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200">
         <v>70001</v>
       </c>
-      <c r="B198">
+      <c r="B200">
         <v>3001</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A199">
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201">
         <v>70002</v>
       </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A200">
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202">
         <v>70003</v>
       </c>
-      <c r="B200">
+      <c r="B202">
         <v>2</v>
       </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A201">
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203">
         <v>80001</v>
-      </c>
-      <c r="B201">
-        <v>7016</v>
-      </c>
-      <c r="C201">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A202">
-        <v>80002</v>
-      </c>
-      <c r="B202">
-        <v>7016</v>
-      </c>
-      <c r="C202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A203">
-        <v>80003</v>
       </c>
       <c r="B203">
         <v>7016</v>
       </c>
       <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204">
+        <v>80002</v>
+      </c>
+      <c r="B204">
+        <v>7016</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>80003</v>
+      </c>
+      <c r="B205">
+        <v>7016</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A206">
         <v>80004</v>
-      </c>
-      <c r="B204">
-        <v>7017</v>
-      </c>
-      <c r="C204">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A205">
-        <v>80005</v>
-      </c>
-      <c r="B205">
-        <v>7017</v>
-      </c>
-      <c r="C205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A206">
-        <v>80006</v>
       </c>
       <c r="B206">
         <v>7017</v>
       </c>
       <c r="C206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207">
+        <v>80005</v>
+      </c>
+      <c r="B207">
+        <v>7017</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>80006</v>
+      </c>
+      <c r="B208">
+        <v>7017</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A209">
         <v>80007</v>
-      </c>
-      <c r="B207">
-        <v>7018</v>
-      </c>
-      <c r="C207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208">
-        <v>80008</v>
-      </c>
-      <c r="B208">
-        <v>7018</v>
-      </c>
-      <c r="C208">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A209">
-        <v>80009</v>
       </c>
       <c r="B209">
         <v>7018</v>
       </c>
       <c r="C209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210">
+        <v>80008</v>
+      </c>
+      <c r="B210">
+        <v>7018</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>80009</v>
+      </c>
+      <c r="B211">
+        <v>7018</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A212">
         <v>80010</v>
-      </c>
-      <c r="B210">
-        <v>7019</v>
-      </c>
-      <c r="C210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A211">
-        <v>80011</v>
-      </c>
-      <c r="B211">
-        <v>7019</v>
-      </c>
-      <c r="C211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A212">
-        <v>80012</v>
       </c>
       <c r="B212">
         <v>7019</v>
       </c>
       <c r="C212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213">
+        <v>80011</v>
+      </c>
+      <c r="B213">
+        <v>7019</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>80012</v>
+      </c>
+      <c r="B214">
+        <v>7019</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A215">
         <v>80013</v>
-      </c>
-      <c r="B213">
-        <v>7020</v>
-      </c>
-      <c r="C213">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A214">
-        <v>80014</v>
-      </c>
-      <c r="B214">
-        <v>7020</v>
-      </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A215">
-        <v>80015</v>
       </c>
       <c r="B215">
         <v>7020</v>
       </c>
       <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216">
-        <v>80016</v>
+        <v>80014</v>
       </c>
       <c r="B216">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217">
-        <v>80017</v>
+        <v>80015</v>
       </c>
       <c r="B217">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218">
-        <v>80018</v>
+        <v>80016</v>
       </c>
       <c r="B218">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219">
-        <v>80019</v>
+        <v>80017</v>
       </c>
       <c r="B219">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220">
-        <v>80020</v>
+        <v>80018</v>
       </c>
       <c r="B220">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221">
-        <v>80021</v>
+        <v>80019</v>
       </c>
       <c r="B221">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222">
-        <v>80022</v>
+        <v>80020</v>
       </c>
       <c r="B222">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223">
-        <v>80023</v>
+        <v>80021</v>
       </c>
       <c r="B223">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224">
-        <v>80024</v>
+        <v>80022</v>
       </c>
       <c r="B224">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225">
-        <v>80025</v>
+        <v>80023</v>
       </c>
       <c r="B225">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226">
-        <v>81001</v>
+        <v>80024</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <v>7029</v>
       </c>
       <c r="C226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227">
-        <v>81002</v>
+        <v>80025</v>
       </c>
       <c r="B227">
-        <v>6</v>
+        <v>7030</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228">
-        <v>81003</v>
+        <v>81001</v>
       </c>
       <c r="B228">
         <v>6</v>
       </c>
       <c r="C228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229">
+        <v>81002</v>
+      </c>
+      <c r="B229">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>81003</v>
+      </c>
+      <c r="B230">
+        <v>6</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231">
         <v>81004</v>
-      </c>
-      <c r="B229">
-        <v>7</v>
-      </c>
-      <c r="C229">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A230">
-        <v>81005</v>
-      </c>
-      <c r="B230">
-        <v>7</v>
-      </c>
-      <c r="C230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A231">
-        <v>81006</v>
       </c>
       <c r="B231">
         <v>7</v>
       </c>
       <c r="C231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232">
+        <v>81005</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>81006</v>
+      </c>
+      <c r="B233">
+        <v>7</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234">
         <v>81007</v>
-      </c>
-      <c r="B232">
-        <v>8</v>
-      </c>
-      <c r="C232">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A233">
-        <v>81008</v>
-      </c>
-      <c r="B233">
-        <v>8</v>
-      </c>
-      <c r="C233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A234">
-        <v>81009</v>
       </c>
       <c r="B234">
         <v>8</v>
       </c>
       <c r="C234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235">
-        <v>81010</v>
+        <v>81008</v>
       </c>
       <c r="B235">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236">
-        <v>81011</v>
+        <v>81009</v>
       </c>
       <c r="B236">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="C236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237">
-        <v>81012</v>
+        <v>81010</v>
       </c>
       <c r="B237">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C237">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238">
-        <v>81013</v>
+        <v>81011</v>
       </c>
       <c r="B238">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239">
-        <v>81014</v>
+        <v>81012</v>
       </c>
       <c r="B239">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240">
-        <v>81015</v>
+        <v>81013</v>
       </c>
       <c r="B240">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" s="3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>81014</v>
+      </c>
+      <c r="B241">
+        <v>138</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>81015</v>
+      </c>
+      <c r="B242">
+        <v>139</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A243" s="3">
         <v>83001</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B243" s="3">
         <v>10010</v>
       </c>
-      <c r="C241" s="3">
-        <v>1</v>
-      </c>
-      <c r="D241" s="3"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" s="3">
+      <c r="C243" s="3">
+        <v>1</v>
+      </c>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A244" s="3">
         <v>83002</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B244" s="3">
         <v>10011</v>
       </c>
-      <c r="C242" s="3">
-        <v>1</v>
-      </c>
-      <c r="D242" s="3"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A243" s="3">
+      <c r="C244" s="3">
+        <v>1</v>
+      </c>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A245" s="3">
         <v>83003</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B245" s="3">
         <v>10012</v>
       </c>
-      <c r="C243" s="3">
-        <v>1</v>
-      </c>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A244" s="3">
+      <c r="C245" s="3">
+        <v>1</v>
+      </c>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A246" s="3">
         <v>83004</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B246" s="3">
         <v>10004</v>
       </c>
-      <c r="C244" s="3">
-        <v>1</v>
-      </c>
-      <c r="D244" s="3"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" s="3">
+      <c r="C246" s="3">
+        <v>1</v>
+      </c>
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A247" s="3">
         <v>83005</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B247" s="3">
         <v>10005</v>
       </c>
-      <c r="C245" s="3">
-        <v>1</v>
-      </c>
-      <c r="D245" s="3"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A246" s="3">
+      <c r="C247" s="3">
+        <v>1</v>
+      </c>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A248" s="3">
         <v>83006</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B248" s="3">
         <v>10006</v>
       </c>
-      <c r="C246" s="3">
-        <v>1</v>
-      </c>
-      <c r="D246" s="3"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A247" s="3">
+      <c r="C248" s="3">
+        <v>1</v>
+      </c>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A249" s="3">
         <v>83007</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B249" s="3">
         <v>10007</v>
       </c>
-      <c r="C247" s="3">
-        <v>1</v>
-      </c>
-      <c r="D247" s="3"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A248" s="3">
+      <c r="C249" s="3">
+        <v>1</v>
+      </c>
+      <c r="D249" s="3"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A250" s="3">
         <v>83008</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B250" s="3">
         <v>10008</v>
       </c>
-      <c r="C248" s="3">
-        <v>1</v>
-      </c>
-      <c r="D248" s="3"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A249" s="3">
+      <c r="C250" s="3">
+        <v>1</v>
+      </c>
+      <c r="D250" s="3"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A251" s="3">
         <v>83009</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B251" s="3">
         <v>10009</v>
       </c>
-      <c r="C249" s="3">
-        <v>1</v>
-      </c>
-      <c r="D249" s="3"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A250" s="3">
+      <c r="C251" s="3">
+        <v>1</v>
+      </c>
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A252" s="3">
         <v>83010</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B252" s="3">
         <v>10013</v>
       </c>
-      <c r="C250" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A251" s="3">
+      <c r="C252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A253" s="3">
         <v>83011</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B253" s="3">
         <v>10014</v>
       </c>
-      <c r="C251" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A252" s="3">
+      <c r="C253" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A254" s="3">
         <v>83012</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B254" s="3">
         <v>10015</v>
       </c>
-      <c r="C252" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A253" s="3">
+      <c r="C254" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A255" s="3">
         <v>83013</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B255" s="3">
         <v>10016</v>
       </c>
-      <c r="C253" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A254" s="3">
+      <c r="C255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A256" s="3">
         <v>83014</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B256" s="3">
         <v>10017</v>
       </c>
-      <c r="C254" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" s="3">
+      <c r="C256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A257" s="3">
         <v>83015</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B257" s="3">
         <v>10018</v>
       </c>
-      <c r="C255" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A256" s="3">
+      <c r="C257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A258" s="3">
         <v>83016</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B258" s="3">
         <v>10019</v>
       </c>
-      <c r="C256" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A257" s="3">
+      <c r="C258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A259" s="3">
         <v>83017</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B259" s="3">
         <v>10020</v>
       </c>
-      <c r="C257" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A258" s="3">
+      <c r="C259" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A260" s="3">
         <v>83018</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B260" s="3">
         <v>10021</v>
       </c>
-      <c r="C258" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A259" s="3">
+      <c r="C260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A261" s="3">
         <v>83019</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B261" s="3">
         <v>10022</v>
       </c>
-      <c r="C259" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A260" s="3">
+      <c r="C261" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A262" s="3">
         <v>83020</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B262" s="3">
         <v>10023</v>
       </c>
-      <c r="C260" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A261" s="3">
+      <c r="C262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A263" s="3">
         <v>83021</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B263" s="3">
         <v>10024</v>
       </c>
-      <c r="C261" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A262">
+      <c r="C263" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A264">
         <v>83022</v>
       </c>
-      <c r="B262">
+      <c r="B264">
         <v>1029</v>
       </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A263">
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A265">
         <v>83023</v>
       </c>
-      <c r="B263">
+      <c r="B265">
         <v>1030</v>
       </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A264">
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A266">
         <v>83024</v>
       </c>
-      <c r="B264">
+      <c r="B266">
         <v>1031</v>
       </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A265">
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A267">
         <v>83025</v>
       </c>
-      <c r="B265">
+      <c r="B267">
         <v>1032</v>
       </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A266">
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A268">
         <v>83026</v>
       </c>
-      <c r="B266">
+      <c r="B268">
         <v>1033</v>
       </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A267">
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A269">
         <v>83027</v>
       </c>
-      <c r="B267">
+      <c r="B269">
         <v>1034</v>
       </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A268">
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A270">
         <v>83028</v>
       </c>
-      <c r="B268">
+      <c r="B270">
         <v>10025</v>
       </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A269">
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A271">
         <v>83029</v>
       </c>
-      <c r="B269">
+      <c r="B271">
         <v>10026</v>
       </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A270">
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A272">
         <v>83030</v>
       </c>
-      <c r="B270">
+      <c r="B272">
         <v>10027</v>
       </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A271">
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A273">
         <v>83031</v>
       </c>
-      <c r="B271">
+      <c r="B273">
         <v>10028</v>
       </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A272">
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A274">
         <v>83032</v>
       </c>
-      <c r="B272">
+      <c r="B274">
         <v>10029</v>
       </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273">
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A275">
         <v>83033</v>
       </c>
-      <c r="B273">
+      <c r="B275">
         <v>10030</v>
       </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A274">
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A276">
         <v>83034</v>
       </c>
-      <c r="B274">
+      <c r="B276">
         <v>10031</v>
       </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A275">
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A277">
         <v>83035</v>
       </c>
-      <c r="B275">
+      <c r="B277">
         <v>10032</v>
       </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A276">
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A278">
         <v>83036</v>
       </c>
-      <c r="B276">
+      <c r="B278">
         <v>10033</v>
       </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A277" s="3">
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A279" s="3">
         <v>83301</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B279" s="3">
         <v>123</v>
-      </c>
-      <c r="C277" s="3">
-        <v>3</v>
-      </c>
-      <c r="D277" s="3"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A278" s="3">
-        <v>83302</v>
-      </c>
-      <c r="B278" s="3">
-        <v>124</v>
-      </c>
-      <c r="C278" s="3">
-        <v>3</v>
-      </c>
-      <c r="D278" s="3"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A279" s="3">
-        <v>83303</v>
-      </c>
-      <c r="B279" s="3">
-        <v>125</v>
       </c>
       <c r="C279" s="3">
         <v>3</v>
       </c>
       <c r="D279" s="3"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
-        <v>83304</v>
+        <v>83302</v>
       </c>
       <c r="B280" s="3">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C280" s="3">
         <v>3</v>
       </c>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
-        <v>83305</v>
+        <v>83303</v>
       </c>
       <c r="B281" s="3">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C281" s="3">
         <v>3</v>
       </c>
       <c r="D281" s="3"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
+        <v>83304</v>
+      </c>
+      <c r="B282" s="3">
+        <v>126</v>
+      </c>
+      <c r="C282" s="3">
+        <v>3</v>
+      </c>
+      <c r="D282" s="3"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A283" s="3">
+        <v>83305</v>
+      </c>
+      <c r="B283" s="3">
+        <v>127</v>
+      </c>
+      <c r="C283" s="3">
+        <v>3</v>
+      </c>
+      <c r="D283" s="3"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A284" s="3">
         <v>83306</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B284" s="3">
         <v>7021</v>
       </c>
-      <c r="C282" s="3">
-        <v>1</v>
-      </c>
-      <c r="D282" s="3"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A283" s="3">
+      <c r="C284" s="3">
+        <v>1</v>
+      </c>
+      <c r="D284" s="3"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A285" s="3">
         <v>83307</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B285" s="3">
         <v>7022</v>
       </c>
-      <c r="C283" s="3">
-        <v>1</v>
-      </c>
-      <c r="D283" s="3"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A284" s="3">
+      <c r="C285" s="3">
+        <v>1</v>
+      </c>
+      <c r="D285" s="3"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A286" s="3">
         <v>83308</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B286" s="3">
         <v>7023</v>
       </c>
-      <c r="C284" s="3">
-        <v>1</v>
-      </c>
-      <c r="D284" s="3"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A285" s="3">
+      <c r="C286" s="3">
+        <v>1</v>
+      </c>
+      <c r="D286" s="3"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A287" s="3">
         <v>83309</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B287" s="3">
         <v>7024</v>
       </c>
-      <c r="C285" s="3">
-        <v>1</v>
-      </c>
-      <c r="D285" s="3"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A286" s="3">
+      <c r="C287" s="3">
+        <v>1</v>
+      </c>
+      <c r="D287" s="3"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A288" s="3">
         <v>83310</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B288" s="3">
         <v>7025</v>
       </c>
-      <c r="C286" s="3">
-        <v>1</v>
-      </c>
-      <c r="D286" s="3"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A287" s="3">
+      <c r="C288" s="3">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A289" s="3">
         <v>83311</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B289" s="3">
         <v>7026</v>
       </c>
-      <c r="C287" s="3">
-        <v>1</v>
-      </c>
-      <c r="D287" s="3"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A288" s="3">
+      <c r="C289" s="3">
+        <v>1</v>
+      </c>
+      <c r="D289" s="3"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A290" s="3">
         <v>83312</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B290" s="3">
         <v>7027</v>
       </c>
-      <c r="C288" s="3">
-        <v>1</v>
-      </c>
-      <c r="D288" s="3"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A289" s="3">
+      <c r="C290" s="3">
+        <v>1</v>
+      </c>
+      <c r="D290" s="3"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A291" s="3">
         <v>83313</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B291" s="3">
         <v>7028</v>
       </c>
-      <c r="C289" s="3">
-        <v>1</v>
-      </c>
-      <c r="D289" s="3"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A290" s="3">
+      <c r="C291" s="3">
+        <v>1</v>
+      </c>
+      <c r="D291" s="3"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A292" s="3">
         <v>83314</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B292" s="3">
         <v>7029</v>
       </c>
-      <c r="C290" s="3">
-        <v>1</v>
-      </c>
-      <c r="D290" s="3"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A291" s="3">
+      <c r="C292" s="3">
+        <v>1</v>
+      </c>
+      <c r="D292" s="3"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A293" s="3">
         <v>83315</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B293" s="3">
         <v>7030</v>
       </c>
-      <c r="C291" s="3">
-        <v>1</v>
-      </c>
-      <c r="D291" s="3"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A292" s="3">
+      <c r="C293" s="3">
+        <v>1</v>
+      </c>
+      <c r="D293" s="3"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A294" s="3">
         <v>84001</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B294" s="3">
         <v>9003</v>
       </c>
-      <c r="C292" s="3">
-        <v>1</v>
-      </c>
-      <c r="D292" s="3"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A293" s="3">
+      <c r="C294" s="3">
+        <v>1</v>
+      </c>
+      <c r="D294" s="3"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A295" s="3">
         <v>84002</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B295" s="3">
         <v>9005</v>
       </c>
-      <c r="C293" s="3">
-        <v>1</v>
-      </c>
-      <c r="D293" s="3"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A294" s="3">
+      <c r="C295" s="3">
+        <v>1</v>
+      </c>
+      <c r="D295" s="3"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A296" s="3">
         <v>84003</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B296" s="3">
         <v>9002</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C296" s="3">
         <v>300</v>
       </c>
-      <c r="D294" s="3"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A295" s="3">
+      <c r="D296" s="3"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A297" s="3">
         <v>84004</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B297" s="3">
         <v>123</v>
       </c>
-      <c r="C295" s="3">
-        <v>1</v>
-      </c>
-      <c r="D295" s="3"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A296" s="3">
+      <c r="C297" s="3">
+        <v>1</v>
+      </c>
+      <c r="D297" s="3"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A298" s="3">
         <v>84005</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B298" s="3">
         <v>124</v>
       </c>
-      <c r="C296" s="3">
-        <v>1</v>
-      </c>
-      <c r="D296" s="3"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A297" s="3">
+      <c r="C298" s="3">
+        <v>1</v>
+      </c>
+      <c r="D298" s="3"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A299" s="3">
         <v>84006</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B299" s="3">
         <v>125</v>
       </c>
-      <c r="C297" s="3">
-        <v>1</v>
-      </c>
-      <c r="D297" s="3"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A298" s="3">
+      <c r="C299" s="3">
+        <v>1</v>
+      </c>
+      <c r="D299" s="3"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300" s="3">
         <v>84007</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B300" s="3">
         <v>126</v>
       </c>
-      <c r="C298" s="3">
-        <v>1</v>
-      </c>
-      <c r="D298" s="3"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A299" s="3">
+      <c r="C300" s="3">
+        <v>1</v>
+      </c>
+      <c r="D300" s="3"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A301" s="3">
         <v>84008</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B301" s="3">
         <v>127</v>
       </c>
-      <c r="C299" s="3">
-        <v>1</v>
-      </c>
-      <c r="D299" s="3"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A300" s="3">
+      <c r="C301" s="3">
+        <v>1</v>
+      </c>
+      <c r="D301" s="3"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A302" s="3">
         <v>84009</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B302" s="3">
         <v>128</v>
       </c>
-      <c r="C300" s="3">
-        <v>1</v>
-      </c>
-      <c r="D300" s="3"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A301" s="3">
+      <c r="C302" s="3">
+        <v>1</v>
+      </c>
+      <c r="D302" s="3"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A303" s="3">
         <v>84010</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B303" s="3">
         <v>129</v>
       </c>
-      <c r="C301" s="3">
-        <v>1</v>
-      </c>
-      <c r="D301" s="3"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A302" s="3">
+      <c r="C303" s="3">
+        <v>1</v>
+      </c>
+      <c r="D303" s="3"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A304" s="3">
         <v>84011</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B304" s="3">
         <v>550</v>
       </c>
-      <c r="C302" s="3">
-        <v>1</v>
-      </c>
-      <c r="D302" s="3"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A303" s="3">
+      <c r="C304" s="3">
+        <v>1</v>
+      </c>
+      <c r="D304" s="3"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A305" s="3">
         <v>84012</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B305" s="3">
         <v>551</v>
       </c>
-      <c r="C303" s="3">
-        <v>1</v>
-      </c>
-      <c r="D303" s="3"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A304" s="3">
+      <c r="C305" s="3">
+        <v>1</v>
+      </c>
+      <c r="D305" s="3"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A306" s="3">
         <v>84013</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B306" s="3">
         <v>552</v>
       </c>
-      <c r="C304" s="3">
-        <v>1</v>
-      </c>
-      <c r="D304" s="3"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A305" s="3">
+      <c r="C306" s="3">
+        <v>1</v>
+      </c>
+      <c r="D306" s="3"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A307" s="3">
         <v>84014</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B307" s="3">
         <v>553</v>
       </c>
-      <c r="C305" s="3">
-        <v>1</v>
-      </c>
-      <c r="D305" s="3"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A306" s="3">
+      <c r="C307" s="3">
+        <v>1</v>
+      </c>
+      <c r="D307" s="3"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A308" s="3">
         <v>84015</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B308" s="3">
         <v>554</v>
       </c>
-      <c r="C306" s="3">
-        <v>1</v>
-      </c>
-      <c r="D306" s="3"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A307" s="3">
+      <c r="C308" s="3">
+        <v>1</v>
+      </c>
+      <c r="D308" s="3"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A309" s="3">
         <v>84016</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B309" s="3">
         <v>555</v>
       </c>
-      <c r="C307" s="3">
-        <v>1</v>
-      </c>
-      <c r="D307" s="3"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A308" s="3">
+      <c r="C309" s="3">
+        <v>1</v>
+      </c>
+      <c r="D309" s="3"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A310" s="3">
         <v>84017</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B310" s="3">
         <v>556</v>
       </c>
-      <c r="C308" s="3">
-        <v>1</v>
-      </c>
-      <c r="D308" s="3"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A309" s="3">
+      <c r="C310" s="3">
+        <v>1</v>
+      </c>
+      <c r="D310" s="3"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A311" s="3">
         <v>84018</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B311" s="3">
         <v>557</v>
       </c>
-      <c r="C309" s="3">
-        <v>1</v>
-      </c>
-      <c r="D309" s="3"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A310" s="3">
+      <c r="C311" s="3">
+        <v>1</v>
+      </c>
+      <c r="D311" s="3"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A312" s="3">
         <v>84019</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B312" s="3">
         <v>558</v>
       </c>
-      <c r="C310" s="3">
-        <v>1</v>
-      </c>
-      <c r="D310" s="3"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A311" s="3">
+      <c r="C312" s="3">
+        <v>1</v>
+      </c>
+      <c r="D312" s="3"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A313" s="3">
         <v>84020</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B313" s="3">
         <v>559</v>
       </c>
-      <c r="C311" s="3">
-        <v>1</v>
-      </c>
-      <c r="D311" s="3"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A312" s="3">
+      <c r="C313" s="3">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A314" s="3">
         <v>84021</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B314" s="3">
         <v>134</v>
       </c>
-      <c r="C312" s="3">
-        <v>1</v>
-      </c>
-      <c r="D312" s="3"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A313" s="3">
+      <c r="C314" s="3">
+        <v>1</v>
+      </c>
+      <c r="D314" s="3"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A315" s="3">
         <v>84022</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B315" s="3">
         <v>135</v>
       </c>
-      <c r="C313" s="3">
-        <v>1</v>
-      </c>
-      <c r="D313" s="3"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A314" s="3">
+      <c r="C315" s="3">
+        <v>1</v>
+      </c>
+      <c r="D315" s="3"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A316" s="3">
         <v>84023</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B316" s="3">
         <v>136</v>
       </c>
-      <c r="C314" s="3">
-        <v>1</v>
-      </c>
-      <c r="D314" s="3"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A315" s="3">
+      <c r="C316" s="3">
+        <v>1</v>
+      </c>
+      <c r="D316" s="3"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A317" s="3">
         <v>84024</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B317" s="3">
         <v>137</v>
       </c>
-      <c r="C315" s="3">
-        <v>1</v>
-      </c>
-      <c r="D315" s="3"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A316" s="3">
+      <c r="C317" s="3">
+        <v>1</v>
+      </c>
+      <c r="D317" s="3"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A318" s="3">
         <v>84025</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B318" s="3">
         <v>138</v>
       </c>
-      <c r="C316" s="3">
-        <v>1</v>
-      </c>
-      <c r="D316" s="3"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A317" s="3">
+      <c r="C318" s="3">
+        <v>1</v>
+      </c>
+      <c r="D318" s="3"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A319" s="3">
         <v>84026</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B319" s="3">
         <v>139</v>
       </c>
-      <c r="C317" s="3">
-        <v>1</v>
-      </c>
-      <c r="D317" s="3"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A318" s="3">
+      <c r="C319" s="3">
+        <v>1</v>
+      </c>
+      <c r="D319" s="3"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A320" s="3">
         <v>84027</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B320" s="3">
         <v>500</v>
       </c>
-      <c r="C318" s="3">
-        <v>1</v>
-      </c>
-      <c r="D318" s="3"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A319" s="3">
+      <c r="C320" s="3">
+        <v>1</v>
+      </c>
+      <c r="D320" s="3"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A321" s="3">
         <v>84028</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B321" s="3">
         <v>501</v>
       </c>
-      <c r="C319" s="3">
-        <v>1</v>
-      </c>
-      <c r="D319" s="3"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A320" s="3">
+      <c r="C321" s="3">
+        <v>1</v>
+      </c>
+      <c r="D321" s="3"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A322" s="3">
         <v>84029</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B322" s="3">
         <v>502</v>
       </c>
-      <c r="C320" s="3">
-        <v>1</v>
-      </c>
-      <c r="D320" s="3"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A321" s="3">
+      <c r="C322" s="3">
+        <v>1</v>
+      </c>
+      <c r="D322" s="3"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A323" s="3">
         <v>84030</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B323" s="3">
         <v>503</v>
       </c>
-      <c r="C321" s="3">
-        <v>1</v>
-      </c>
-      <c r="D321" s="3"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A322" s="3">
+      <c r="C323" s="3">
+        <v>1</v>
+      </c>
+      <c r="D323" s="3"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A324" s="3">
         <v>84031</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B324" s="3">
         <v>504</v>
       </c>
-      <c r="C322" s="3">
-        <v>1</v>
-      </c>
-      <c r="D322" s="3"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A323" s="3">
+      <c r="C324" s="3">
+        <v>1</v>
+      </c>
+      <c r="D324" s="3"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A325" s="3">
         <v>84032</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B325" s="3">
         <v>505</v>
       </c>
-      <c r="C323" s="3">
-        <v>1</v>
-      </c>
-      <c r="D323" s="3"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A324" s="3">
+      <c r="C325" s="3">
+        <v>1</v>
+      </c>
+      <c r="D325" s="3"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A326" s="3">
         <v>84033</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B326" s="3">
         <v>506</v>
       </c>
-      <c r="C324" s="3">
-        <v>1</v>
-      </c>
-      <c r="D324" s="3"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A325" s="3">
+      <c r="C326" s="3">
+        <v>1</v>
+      </c>
+      <c r="D326" s="3"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A327" s="3">
         <v>84034</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B327" s="3">
         <v>507</v>
       </c>
-      <c r="C325" s="3">
-        <v>1</v>
-      </c>
-      <c r="D325" s="3"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A326" s="3">
+      <c r="C327" s="3">
+        <v>1</v>
+      </c>
+      <c r="D327" s="3"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A328" s="3">
         <v>84035</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B328" s="3">
         <v>508</v>
       </c>
-      <c r="C326" s="3">
-        <v>1</v>
-      </c>
-      <c r="D326" s="3"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A327" s="3">
+      <c r="C328" s="3">
+        <v>1</v>
+      </c>
+      <c r="D328" s="3"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A329" s="3">
         <v>84036</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B329" s="3">
         <v>509</v>
       </c>
-      <c r="C327" s="3">
-        <v>1</v>
-      </c>
-      <c r="D327" s="3"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A328" s="3">
+      <c r="C329" s="3">
+        <v>1</v>
+      </c>
+      <c r="D329" s="3"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A330" s="3">
         <v>84037</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B330" s="3">
         <v>600</v>
       </c>
-      <c r="C328" s="3">
-        <v>1</v>
-      </c>
-      <c r="D328" s="3"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A329" s="3">
+      <c r="C330" s="3">
+        <v>1</v>
+      </c>
+      <c r="D330" s="3"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A331" s="3">
         <v>84038</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B331" s="3">
         <v>9005</v>
       </c>
-      <c r="C329" s="3">
+      <c r="C331" s="3">
         <v>6</v>
       </c>
-      <c r="D329" s="3"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A330" s="3">
+      <c r="D331" s="3"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A332" s="3">
         <v>84039</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B332" s="3">
         <v>9005</v>
       </c>
-      <c r="C330" s="3">
+      <c r="C332" s="3">
         <v>15</v>
       </c>
-      <c r="D330" s="3"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A331">
+      <c r="D332" s="3"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A333">
         <v>85001</v>
       </c>
-      <c r="B331">
+      <c r="B333">
         <v>10013</v>
       </c>
-      <c r="C331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A332">
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A334">
         <v>85002</v>
       </c>
-      <c r="B332">
+      <c r="B334">
         <v>10014</v>
       </c>
-      <c r="C332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A333">
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A335">
         <v>85003</v>
       </c>
-      <c r="B333">
+      <c r="B335">
         <v>10015</v>
       </c>
-      <c r="C333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A334">
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A336">
         <v>85004</v>
-      </c>
-      <c r="B334" s="3">
-        <v>9002</v>
-      </c>
-      <c r="C334" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A335">
-        <v>85005</v>
-      </c>
-      <c r="B335" s="3">
-        <v>9002</v>
-      </c>
-      <c r="C335" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A336">
-        <v>85006</v>
       </c>
       <c r="B336" s="3">
         <v>9002</v>
       </c>
       <c r="C336" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>85005</v>
+      </c>
+      <c r="B337" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C337" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>85006</v>
+      </c>
+      <c r="B338" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C338" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A337">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339">
         <v>300001</v>
       </c>
-      <c r="B337">
+      <c r="B339">
         <v>9004</v>
       </c>
-      <c r="C337">
+      <c r="C339">
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A338">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340">
         <v>300011</v>
       </c>
-      <c r="B338">
+      <c r="B340">
         <v>1014</v>
       </c>
-      <c r="C338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A339">
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341">
         <v>300021</v>
       </c>
-      <c r="B339">
+      <c r="B341">
         <v>1015</v>
       </c>
-      <c r="C339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A340">
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342">
         <v>300031</v>
       </c>
-      <c r="B340">
+      <c r="B342">
         <v>1016</v>
       </c>
-      <c r="C340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A341">
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343">
         <v>300041</v>
       </c>
-      <c r="B341">
+      <c r="B343">
         <v>1017</v>
       </c>
-      <c r="C341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A342">
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344">
         <v>300051</v>
       </c>
-      <c r="B342">
+      <c r="B344">
         <v>1018</v>
       </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A343">
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345">
         <v>300061</v>
       </c>
-      <c r="B343">
+      <c r="B345">
         <v>1019</v>
       </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A344">
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346">
         <v>300071</v>
       </c>
-      <c r="B344">
+      <c r="B346">
         <v>1020</v>
       </c>
-      <c r="C344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A345">
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347">
         <v>300081</v>
       </c>
-      <c r="B345">
+      <c r="B347">
         <v>1021</v>
       </c>
-      <c r="C345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A346">
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348">
         <v>300091</v>
       </c>
-      <c r="B346">
+      <c r="B348">
         <v>1022</v>
       </c>
-      <c r="C346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A347">
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349">
         <v>300101</v>
       </c>
-      <c r="B347">
+      <c r="B349">
         <v>1023</v>
       </c>
-      <c r="C347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A348">
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350">
         <v>300111</v>
       </c>
-      <c r="B348">
+      <c r="B350">
         <v>1024</v>
       </c>
-      <c r="C348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A349">
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351">
         <v>300121</v>
       </c>
-      <c r="B349">
+      <c r="B351">
         <v>1025</v>
       </c>
-      <c r="C349">
+      <c r="C351">
         <v>1</v>
       </c>
     </row>
@@ -4796,42 +4818,42 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB0EE0-8936-405C-B7EE-33DB13F13C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55535902-77F4-4446-8892-A7F3654B8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -570,22 +570,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M351" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M351" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M351" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{E4DB376D-E862-45C6-A541-878FDDF0C6DC}" name="BonusCount1" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{896F1D7A-7BAB-48C8-AC4D-DE0F187F3823}" name="Bonus2" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A03DA85C-EC01-47BC-8FCF-92A32EB84533}" name="BonusCount2" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{DB407CC4-899A-4B4F-B1D3-06F04A1F15D5}" name="Bonus3" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D2B6DB30-AB5D-4CC2-B3BE-2D62791BA29D}" name="BonusCount3" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{5411C4C0-FEF4-4E18-8E1D-29C6B448622F}" name="Bonus4" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{14EBE6A4-91DA-4C5C-A9DB-AC33F89E4F0D}" name="BonusCount4" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{B2A3457B-90A4-483A-9486-5DD8EE745BAB}" name="Bonus5" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{BE42EA42-5571-4F8F-A4BB-05CEE8D74C25}" name="BonusCount5" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{18DF769C-603C-4EEA-BF91-6050965BDAF6}" name="Bonus6" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{59C3D129-942B-4888-996D-811D54E2D027}" name="BonusCount6" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E4DB376D-E862-45C6-A541-878FDDF0C6DC}" name="BonusCount1" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{896F1D7A-7BAB-48C8-AC4D-DE0F187F3823}" name="Bonus2" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A03DA85C-EC01-47BC-8FCF-92A32EB84533}" name="BonusCount2" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{DB407CC4-899A-4B4F-B1D3-06F04A1F15D5}" name="Bonus3" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D2B6DB30-AB5D-4CC2-B3BE-2D62791BA29D}" name="BonusCount3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{5411C4C0-FEF4-4E18-8E1D-29C6B448622F}" name="Bonus4" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{14EBE6A4-91DA-4C5C-A9DB-AC33F89E4F0D}" name="BonusCount4" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{B2A3457B-90A4-483A-9486-5DD8EE745BAB}" name="Bonus5" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{BE42EA42-5571-4F8F-A4BB-05CEE8D74C25}" name="BonusCount5" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{18DF769C-603C-4EEA-BF91-6050965BDAF6}" name="Bonus6" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{59C3D129-942B-4888-996D-811D54E2D027}" name="BonusCount6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,7 +894,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1198,10 +1198,10 @@
         <v>2004</v>
       </c>
       <c r="B17" s="3">
-        <v>3001</v>
+        <v>4006</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55535902-77F4-4446-8892-A7F3654B8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD536E52-B50B-49EB-8D54-B649D58666D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -894,7 +894,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1253,7 +1253,7 @@
         <v>2009</v>
       </c>
       <c r="B22" s="3">
-        <v>9003</v>
+        <v>1039</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1264,10 +1264,10 @@
         <v>2010</v>
       </c>
       <c r="B23" s="3">
-        <v>9003</v>
+        <v>1039</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD536E52-B50B-49EB-8D54-B649D58666D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17D92A-9CB1-40F1-9486-014B79131A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -570,8 +570,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M351" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M351" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M337" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M337" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1" dataDxfId="11"/>
@@ -888,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M351"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2319,10 +2319,10 @@
         <v>22001</v>
       </c>
       <c r="B108" s="3">
-        <v>9004</v>
+        <v>500</v>
       </c>
       <c r="C108" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
@@ -2330,7 +2330,7 @@
         <v>22002</v>
       </c>
       <c r="B109" s="3">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>22003</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>502</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -2352,7 +2352,7 @@
         <v>22004</v>
       </c>
       <c r="B111" s="3">
-        <v>3</v>
+        <v>503</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>22005</v>
       </c>
       <c r="B112" s="3">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>22006</v>
       </c>
       <c r="B113" s="3">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>22007</v>
       </c>
       <c r="B114" s="3">
-        <v>6</v>
+        <v>506</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>22008</v>
       </c>
       <c r="B115" s="3">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
@@ -2407,7 +2407,7 @@
         <v>22009</v>
       </c>
       <c r="B116" s="3">
-        <v>8</v>
+        <v>508</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -2418,7 +2418,7 @@
         <v>22010</v>
       </c>
       <c r="B117" s="3">
-        <v>123</v>
+        <v>509</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>22011</v>
       </c>
       <c r="B118" s="3">
-        <v>124</v>
+        <v>550</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>22012</v>
       </c>
       <c r="B119" s="3">
-        <v>125</v>
+        <v>551</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
@@ -2451,7 +2451,7 @@
         <v>22013</v>
       </c>
       <c r="B120" s="3">
-        <v>126</v>
+        <v>552</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -2462,7 +2462,7 @@
         <v>22014</v>
       </c>
       <c r="B121" s="3">
-        <v>127</v>
+        <v>553</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>22015</v>
       </c>
       <c r="B122" s="3">
-        <v>128</v>
+        <v>554</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>22016</v>
       </c>
       <c r="B123" s="3">
-        <v>129</v>
+        <v>555</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>22017</v>
       </c>
       <c r="B124" s="3">
-        <v>134</v>
+        <v>556</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>22018</v>
       </c>
       <c r="B125" s="3">
-        <v>135</v>
+        <v>557</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>22019</v>
       </c>
       <c r="B126" s="3">
-        <v>136</v>
+        <v>558</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -2528,7 +2528,7 @@
         <v>22020</v>
       </c>
       <c r="B127" s="3">
-        <v>137</v>
+        <v>559</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>22021</v>
       </c>
       <c r="B128" s="3">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -2550,7 +2550,7 @@
         <v>22022</v>
       </c>
       <c r="B129" s="3">
-        <v>139</v>
+        <v>1014</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>22023</v>
       </c>
       <c r="B130" s="3">
-        <v>500</v>
+        <v>1015</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>22024</v>
       </c>
       <c r="B131" s="3">
-        <v>501</v>
+        <v>1016</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
@@ -2583,7 +2583,7 @@
         <v>22025</v>
       </c>
       <c r="B132" s="3">
-        <v>502</v>
+        <v>1017</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -2594,7 +2594,7 @@
         <v>22026</v>
       </c>
       <c r="B133" s="3">
-        <v>503</v>
+        <v>1018</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>22027</v>
       </c>
       <c r="B134" s="3">
-        <v>504</v>
+        <v>1019</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>22028</v>
       </c>
       <c r="B135" s="3">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
@@ -2627,7 +2627,7 @@
         <v>22029</v>
       </c>
       <c r="B136" s="3">
-        <v>506</v>
+        <v>1021</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>22030</v>
       </c>
       <c r="B137" s="3">
-        <v>507</v>
+        <v>1022</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -2649,7 +2649,7 @@
         <v>22031</v>
       </c>
       <c r="B138" s="3">
-        <v>508</v>
+        <v>1023</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>22032</v>
       </c>
       <c r="B139" s="3">
-        <v>509</v>
+        <v>1024</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -2671,7 +2671,7 @@
         <v>22033</v>
       </c>
       <c r="B140" s="3">
-        <v>550</v>
+        <v>1025</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>22034</v>
       </c>
       <c r="B141" s="3">
-        <v>551</v>
+        <v>1026</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>22035</v>
       </c>
       <c r="B142" s="3">
-        <v>552</v>
+        <v>1027</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -2704,7 +2704,7 @@
         <v>22036</v>
       </c>
       <c r="B143" s="3">
-        <v>553</v>
+        <v>1029</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>22037</v>
       </c>
       <c r="B144" s="3">
-        <v>554</v>
+        <v>1030</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>22038</v>
       </c>
       <c r="B145" s="3">
-        <v>555</v>
+        <v>1031</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -2737,7 +2737,7 @@
         <v>22039</v>
       </c>
       <c r="B146" s="3">
-        <v>556</v>
+        <v>1032</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -2748,7 +2748,7 @@
         <v>22040</v>
       </c>
       <c r="B147" s="3">
-        <v>557</v>
+        <v>1033</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>22041</v>
       </c>
       <c r="B148" s="3">
-        <v>558</v>
+        <v>1034</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>22042</v>
       </c>
       <c r="B149" s="3">
-        <v>559</v>
+        <v>1039</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>22043</v>
       </c>
       <c r="B150" s="3">
-        <v>7016</v>
+        <v>2000</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -2792,7 +2792,7 @@
         <v>22044</v>
       </c>
       <c r="B151" s="3">
-        <v>7017</v>
+        <v>2001</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
@@ -2803,7 +2803,7 @@
         <v>22045</v>
       </c>
       <c r="B152" s="3">
-        <v>7018</v>
+        <v>2002</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -2814,7 +2814,7 @@
         <v>22046</v>
       </c>
       <c r="B153" s="3">
-        <v>7019</v>
+        <v>2003</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>22047</v>
       </c>
       <c r="B154" s="3">
-        <v>7020</v>
+        <v>2004</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
@@ -2836,7 +2836,7 @@
         <v>22048</v>
       </c>
       <c r="B155" s="3">
-        <v>7021</v>
+        <v>4001</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>22049</v>
       </c>
       <c r="B156" s="3">
-        <v>7022</v>
+        <v>4002</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
@@ -2858,7 +2858,7 @@
         <v>22050</v>
       </c>
       <c r="B157" s="3">
-        <v>7023</v>
+        <v>4003</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
@@ -2869,7 +2869,7 @@
         <v>22051</v>
       </c>
       <c r="B158" s="3">
-        <v>7024</v>
+        <v>4004</v>
       </c>
       <c r="C158" s="3">
         <v>1</v>
@@ -2880,7 +2880,7 @@
         <v>22052</v>
       </c>
       <c r="B159" s="3">
-        <v>7025</v>
+        <v>4005</v>
       </c>
       <c r="C159" s="3">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>22053</v>
       </c>
       <c r="B160" s="3">
-        <v>7026</v>
+        <v>4006</v>
       </c>
       <c r="C160" s="3">
         <v>1</v>
@@ -2899,65 +2899,65 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
-        <v>22054</v>
+        <v>50001</v>
       </c>
       <c r="B161" s="3">
-        <v>7027</v>
+        <v>123</v>
       </c>
       <c r="C161" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
-        <v>22055</v>
+        <v>50002</v>
       </c>
       <c r="B162" s="3">
-        <v>7028</v>
+        <v>123</v>
       </c>
       <c r="C162" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
-        <v>22056</v>
+        <v>50003</v>
       </c>
       <c r="B163" s="3">
-        <v>7029</v>
+        <v>123</v>
       </c>
       <c r="C163" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
-        <v>22057</v>
+        <v>50004</v>
       </c>
       <c r="B164" s="3">
-        <v>7030</v>
+        <v>124</v>
       </c>
       <c r="C164" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
-        <v>22100</v>
+        <v>50005</v>
       </c>
       <c r="B165" s="3">
-        <v>9004</v>
+        <v>124</v>
       </c>
       <c r="C165" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
-        <v>22101</v>
+        <v>50006</v>
       </c>
       <c r="B166" s="3">
-        <v>9002</v>
+        <v>124</v>
       </c>
       <c r="C166" s="3">
         <v>5</v>
@@ -2965,65 +2965,65 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
-        <v>22102</v>
+        <v>50007</v>
       </c>
       <c r="B167" s="3">
-        <v>3001</v>
+        <v>125</v>
       </c>
       <c r="C167" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
-        <v>22103</v>
+        <v>50008</v>
       </c>
       <c r="B168" s="3">
-        <v>9004</v>
+        <v>125</v>
       </c>
       <c r="C168" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="3">
-        <v>22104</v>
+        <v>50009</v>
       </c>
       <c r="B169" s="3">
-        <v>9002</v>
+        <v>125</v>
       </c>
       <c r="C169" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
-        <v>22200</v>
+        <v>50010</v>
       </c>
       <c r="B170" s="3">
-        <v>9004</v>
+        <v>126</v>
       </c>
       <c r="C170" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="3">
-        <v>22201</v>
+        <v>50011</v>
       </c>
       <c r="B171" s="3">
-        <v>9002</v>
+        <v>126</v>
       </c>
       <c r="C171" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="3">
-        <v>22202</v>
+        <v>50012</v>
       </c>
       <c r="B172" s="3">
-        <v>9002</v>
+        <v>126</v>
       </c>
       <c r="C172" s="3">
         <v>5</v>
@@ -3031,197 +3031,197 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="3">
-        <v>22203</v>
+        <v>50013</v>
       </c>
       <c r="B173" s="3">
-        <v>9003</v>
+        <v>127</v>
       </c>
       <c r="C173" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="3">
-        <v>22204</v>
+        <v>50014</v>
       </c>
       <c r="B174" s="3">
-        <v>9005</v>
+        <v>127</v>
       </c>
       <c r="C174" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="3">
-        <v>50001</v>
+        <v>50015</v>
       </c>
       <c r="B175" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C175" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="3">
-        <v>50002</v>
+        <v>60001</v>
       </c>
       <c r="B176" s="3">
-        <v>123</v>
+        <v>559</v>
       </c>
       <c r="C176" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="3">
-        <v>50003</v>
+        <v>60002</v>
       </c>
       <c r="B177" s="3">
-        <v>123</v>
+        <v>550</v>
       </c>
       <c r="C177" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="3">
-        <v>50004</v>
+        <v>60003</v>
       </c>
       <c r="B178" s="3">
-        <v>124</v>
+        <v>551</v>
       </c>
       <c r="C178" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="3">
-        <v>50005</v>
+        <v>60004</v>
       </c>
       <c r="B179" s="3">
-        <v>124</v>
+        <v>552</v>
       </c>
       <c r="C179" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="3">
-        <v>50006</v>
+        <v>60005</v>
       </c>
       <c r="B180" s="3">
-        <v>124</v>
+        <v>553</v>
       </c>
       <c r="C180" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="3">
-        <v>50007</v>
+        <v>60006</v>
       </c>
       <c r="B181" s="3">
-        <v>125</v>
+        <v>554</v>
       </c>
       <c r="C181" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="3">
-        <v>50008</v>
+        <v>60007</v>
       </c>
       <c r="B182" s="3">
-        <v>125</v>
+        <v>555</v>
       </c>
       <c r="C182" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="3">
-        <v>50009</v>
+        <v>60008</v>
       </c>
       <c r="B183" s="3">
-        <v>125</v>
+        <v>556</v>
       </c>
       <c r="C183" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="3">
-        <v>50010</v>
+        <v>60009</v>
       </c>
       <c r="B184" s="3">
-        <v>126</v>
+        <v>557</v>
       </c>
       <c r="C184" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="3">
-        <v>50011</v>
+        <v>60010</v>
       </c>
       <c r="B185" s="3">
-        <v>126</v>
+        <v>558</v>
       </c>
       <c r="C185" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="3">
-        <v>50012</v>
+        <v>70001</v>
       </c>
       <c r="B186" s="3">
-        <v>126</v>
+        <v>3001</v>
       </c>
       <c r="C186" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="3">
-        <v>50013</v>
+        <v>70002</v>
       </c>
       <c r="B187" s="3">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="C187" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="3">
-        <v>50014</v>
+        <v>70003</v>
       </c>
       <c r="B188" s="3">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="C188" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="3">
-        <v>50015</v>
+        <v>80001</v>
       </c>
       <c r="B189" s="3">
-        <v>127</v>
+        <v>7016</v>
       </c>
       <c r="C189" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="3">
-        <v>60001</v>
+        <v>80002</v>
       </c>
       <c r="B190" s="3">
-        <v>559</v>
+        <v>7016</v>
       </c>
       <c r="C190" s="3">
         <v>2</v>
@@ -3229,32 +3229,32 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="3">
-        <v>60002</v>
+        <v>80003</v>
       </c>
       <c r="B191" s="3">
-        <v>550</v>
+        <v>7016</v>
       </c>
       <c r="C191" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="3">
-        <v>60003</v>
+        <v>80004</v>
       </c>
       <c r="B192" s="3">
-        <v>551</v>
+        <v>7017</v>
       </c>
       <c r="C192" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="3">
-        <v>60004</v>
+        <v>80005</v>
       </c>
       <c r="B193" s="3">
-        <v>552</v>
+        <v>7017</v>
       </c>
       <c r="C193" s="3">
         <v>2</v>
@@ -3262,32 +3262,32 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="3">
-        <v>60005</v>
+        <v>80006</v>
       </c>
       <c r="B194" s="3">
-        <v>553</v>
+        <v>7017</v>
       </c>
       <c r="C194" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="3">
-        <v>60006</v>
+        <v>80007</v>
       </c>
       <c r="B195" s="3">
-        <v>554</v>
+        <v>7018</v>
       </c>
       <c r="C195" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="3">
-        <v>60007</v>
+        <v>80008</v>
       </c>
       <c r="B196" s="3">
-        <v>555</v>
+        <v>7018</v>
       </c>
       <c r="C196" s="3">
         <v>2</v>
@@ -3295,32 +3295,32 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="3">
-        <v>60008</v>
+        <v>80009</v>
       </c>
       <c r="B197" s="3">
-        <v>556</v>
+        <v>7018</v>
       </c>
       <c r="C197" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="3">
-        <v>60009</v>
+        <v>80010</v>
       </c>
       <c r="B198" s="3">
-        <v>557</v>
+        <v>7019</v>
       </c>
       <c r="C198" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="3">
-        <v>60010</v>
+        <v>80011</v>
       </c>
       <c r="B199" s="3">
-        <v>558</v>
+        <v>7019</v>
       </c>
       <c r="C199" s="3">
         <v>2</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="3">
-        <v>70001</v>
+        <v>80012</v>
       </c>
       <c r="B200" s="3">
-        <v>3001</v>
+        <v>7019</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
@@ -3339,43 +3339,43 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="3">
-        <v>70002</v>
+        <v>80013</v>
       </c>
       <c r="B201" s="3">
-        <v>1</v>
+        <v>7020</v>
       </c>
       <c r="C201" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="3">
-        <v>70003</v>
+        <v>80014</v>
       </c>
       <c r="B202" s="3">
+        <v>7020</v>
+      </c>
+      <c r="C202" s="3">
         <v>2</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="3">
-        <v>80001</v>
+        <v>80015</v>
       </c>
       <c r="B203" s="3">
-        <v>7016</v>
+        <v>7020</v>
       </c>
       <c r="C203" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="3">
-        <v>80002</v>
+        <v>80016</v>
       </c>
       <c r="B204" s="3">
-        <v>7016</v>
+        <v>7021</v>
       </c>
       <c r="C204" s="3">
         <v>2</v>
@@ -3383,32 +3383,32 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="3">
-        <v>80003</v>
+        <v>80017</v>
       </c>
       <c r="B205" s="3">
-        <v>7016</v>
+        <v>7022</v>
       </c>
       <c r="C205" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="3">
-        <v>80004</v>
+        <v>80018</v>
       </c>
       <c r="B206" s="3">
-        <v>7017</v>
+        <v>7023</v>
       </c>
       <c r="C206" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="3">
-        <v>80005</v>
+        <v>80019</v>
       </c>
       <c r="B207" s="3">
-        <v>7017</v>
+        <v>7024</v>
       </c>
       <c r="C207" s="3">
         <v>2</v>
@@ -3416,32 +3416,32 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="3">
-        <v>80006</v>
+        <v>80020</v>
       </c>
       <c r="B208" s="3">
-        <v>7017</v>
+        <v>7025</v>
       </c>
       <c r="C208" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="3">
-        <v>80007</v>
+        <v>80021</v>
       </c>
       <c r="B209" s="3">
-        <v>7018</v>
+        <v>7026</v>
       </c>
       <c r="C209" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="3">
-        <v>80008</v>
+        <v>80022</v>
       </c>
       <c r="B210" s="3">
-        <v>7018</v>
+        <v>7027</v>
       </c>
       <c r="C210" s="3">
         <v>2</v>
@@ -3449,32 +3449,32 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="3">
-        <v>80009</v>
+        <v>80023</v>
       </c>
       <c r="B211" s="3">
-        <v>7018</v>
+        <v>7028</v>
       </c>
       <c r="C211" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="3">
-        <v>80010</v>
+        <v>80024</v>
       </c>
       <c r="B212" s="3">
-        <v>7019</v>
+        <v>7029</v>
       </c>
       <c r="C212" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="3">
-        <v>80011</v>
+        <v>80025</v>
       </c>
       <c r="B213" s="3">
-        <v>7019</v>
+        <v>7030</v>
       </c>
       <c r="C213" s="3">
         <v>2</v>
@@ -3482,54 +3482,54 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="3">
-        <v>80012</v>
+        <v>81001</v>
       </c>
       <c r="B214" s="3">
-        <v>7019</v>
+        <v>6</v>
       </c>
       <c r="C214" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="3">
-        <v>80013</v>
+        <v>81002</v>
       </c>
       <c r="B215" s="3">
-        <v>7020</v>
+        <v>6</v>
       </c>
       <c r="C215" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="3">
-        <v>80014</v>
+        <v>81003</v>
       </c>
       <c r="B216" s="3">
-        <v>7020</v>
+        <v>6</v>
       </c>
       <c r="C216" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="3">
-        <v>80015</v>
+        <v>81004</v>
       </c>
       <c r="B217" s="3">
-        <v>7020</v>
+        <v>7</v>
       </c>
       <c r="C217" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="3">
-        <v>80016</v>
+        <v>81005</v>
       </c>
       <c r="B218" s="3">
-        <v>7021</v>
+        <v>7</v>
       </c>
       <c r="C218" s="3">
         <v>2</v>
@@ -3537,32 +3537,32 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="3">
-        <v>80017</v>
+        <v>81006</v>
       </c>
       <c r="B219" s="3">
-        <v>7022</v>
+        <v>7</v>
       </c>
       <c r="C219" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="3">
-        <v>80018</v>
+        <v>81007</v>
       </c>
       <c r="B220" s="3">
-        <v>7023</v>
+        <v>8</v>
       </c>
       <c r="C220" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="3">
-        <v>80019</v>
+        <v>81008</v>
       </c>
       <c r="B221" s="3">
-        <v>7024</v>
+        <v>8</v>
       </c>
       <c r="C221" s="3">
         <v>2</v>
@@ -3570,21 +3570,21 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="3">
-        <v>80020</v>
+        <v>81009</v>
       </c>
       <c r="B222" s="3">
-        <v>7025</v>
+        <v>8</v>
       </c>
       <c r="C222" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="3">
-        <v>80021</v>
+        <v>81010</v>
       </c>
       <c r="B223" s="3">
-        <v>7026</v>
+        <v>134</v>
       </c>
       <c r="C223" s="3">
         <v>2</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
-        <v>80022</v>
+        <v>81011</v>
       </c>
       <c r="B224" s="3">
-        <v>7027</v>
+        <v>135</v>
       </c>
       <c r="C224" s="3">
         <v>2</v>
@@ -3603,10 +3603,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
-        <v>80023</v>
+        <v>81012</v>
       </c>
       <c r="B225" s="3">
-        <v>7028</v>
+        <v>136</v>
       </c>
       <c r="C225" s="3">
         <v>2</v>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
-        <v>80024</v>
+        <v>81013</v>
       </c>
       <c r="B226" s="3">
-        <v>7029</v>
+        <v>137</v>
       </c>
       <c r="C226" s="3">
         <v>2</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
-        <v>80025</v>
+        <v>81014</v>
       </c>
       <c r="B227" s="3">
-        <v>7030</v>
+        <v>138</v>
       </c>
       <c r="C227" s="3">
         <v>2</v>
@@ -3636,32 +3636,32 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
-        <v>81001</v>
+        <v>81015</v>
       </c>
       <c r="B228" s="3">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C228" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
-        <v>81002</v>
+        <v>83001</v>
       </c>
       <c r="B229" s="3">
-        <v>6</v>
+        <v>10010</v>
       </c>
       <c r="C229" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
-        <v>81003</v>
+        <v>83002</v>
       </c>
       <c r="B230" s="3">
-        <v>6</v>
+        <v>10011</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -3669,32 +3669,32 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
-        <v>81004</v>
+        <v>83003</v>
       </c>
       <c r="B231" s="3">
-        <v>7</v>
+        <v>10012</v>
       </c>
       <c r="C231" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
-        <v>81005</v>
+        <v>83004</v>
       </c>
       <c r="B232" s="3">
-        <v>7</v>
+        <v>10004</v>
       </c>
       <c r="C232" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
-        <v>81006</v>
+        <v>83005</v>
       </c>
       <c r="B233" s="3">
-        <v>7</v>
+        <v>10005</v>
       </c>
       <c r="C233" s="3">
         <v>1</v>
@@ -3702,32 +3702,32 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
-        <v>81007</v>
+        <v>83006</v>
       </c>
       <c r="B234" s="3">
-        <v>8</v>
+        <v>10006</v>
       </c>
       <c r="C234" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="3">
-        <v>81008</v>
+        <v>83007</v>
       </c>
       <c r="B235" s="3">
-        <v>8</v>
+        <v>10007</v>
       </c>
       <c r="C235" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="3">
-        <v>81009</v>
+        <v>83008</v>
       </c>
       <c r="B236" s="3">
-        <v>8</v>
+        <v>10008</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
@@ -3735,76 +3735,76 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="3">
-        <v>81010</v>
+        <v>83009</v>
       </c>
       <c r="B237" s="3">
-        <v>134</v>
+        <v>10009</v>
       </c>
       <c r="C237" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="3">
-        <v>81011</v>
+        <v>83010</v>
       </c>
       <c r="B238" s="3">
-        <v>135</v>
+        <v>10013</v>
       </c>
       <c r="C238" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="3">
-        <v>81012</v>
+        <v>83011</v>
       </c>
       <c r="B239" s="3">
-        <v>136</v>
+        <v>10014</v>
       </c>
       <c r="C239" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="3">
-        <v>81013</v>
+        <v>83012</v>
       </c>
       <c r="B240" s="3">
-        <v>137</v>
+        <v>10015</v>
       </c>
       <c r="C240" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="3">
-        <v>81014</v>
+        <v>83013</v>
       </c>
       <c r="B241" s="3">
-        <v>138</v>
+        <v>10016</v>
       </c>
       <c r="C241" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="3">
-        <v>81015</v>
+        <v>83014</v>
       </c>
       <c r="B242" s="3">
-        <v>139</v>
+        <v>10017</v>
       </c>
       <c r="C242" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="3">
-        <v>83001</v>
+        <v>83015</v>
       </c>
       <c r="B243" s="3">
-        <v>10010</v>
+        <v>10018</v>
       </c>
       <c r="C243" s="3">
         <v>1</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="3">
-        <v>83002</v>
+        <v>83016</v>
       </c>
       <c r="B244" s="3">
-        <v>10011</v>
+        <v>10019</v>
       </c>
       <c r="C244" s="3">
         <v>1</v>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="3">
-        <v>83003</v>
+        <v>83017</v>
       </c>
       <c r="B245" s="3">
-        <v>10012</v>
+        <v>10020</v>
       </c>
       <c r="C245" s="3">
         <v>1</v>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="3">
-        <v>83004</v>
+        <v>83018</v>
       </c>
       <c r="B246" s="3">
-        <v>10004</v>
+        <v>10021</v>
       </c>
       <c r="C246" s="3">
         <v>1</v>
@@ -3845,10 +3845,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="3">
-        <v>83005</v>
+        <v>83019</v>
       </c>
       <c r="B247" s="3">
-        <v>10005</v>
+        <v>10022</v>
       </c>
       <c r="C247" s="3">
         <v>1</v>
@@ -3856,10 +3856,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="3">
-        <v>83006</v>
+        <v>83020</v>
       </c>
       <c r="B248" s="3">
-        <v>10006</v>
+        <v>10023</v>
       </c>
       <c r="C248" s="3">
         <v>1</v>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="3">
-        <v>83007</v>
+        <v>83021</v>
       </c>
       <c r="B249" s="3">
-        <v>10007</v>
+        <v>10024</v>
       </c>
       <c r="C249" s="3">
         <v>1</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="3">
-        <v>83008</v>
+        <v>83022</v>
       </c>
       <c r="B250" s="3">
-        <v>10008</v>
+        <v>1029</v>
       </c>
       <c r="C250" s="3">
         <v>1</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="3">
-        <v>83009</v>
+        <v>83023</v>
       </c>
       <c r="B251" s="3">
-        <v>10009</v>
+        <v>1030</v>
       </c>
       <c r="C251" s="3">
         <v>1</v>
@@ -3900,10 +3900,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="3">
-        <v>83010</v>
+        <v>83024</v>
       </c>
       <c r="B252" s="3">
-        <v>10013</v>
+        <v>1031</v>
       </c>
       <c r="C252" s="3">
         <v>1</v>
@@ -3911,10 +3911,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="3">
-        <v>83011</v>
+        <v>83025</v>
       </c>
       <c r="B253" s="3">
-        <v>10014</v>
+        <v>1032</v>
       </c>
       <c r="C253" s="3">
         <v>1</v>
@@ -3922,10 +3922,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="3">
-        <v>83012</v>
+        <v>83026</v>
       </c>
       <c r="B254" s="3">
-        <v>10015</v>
+        <v>1033</v>
       </c>
       <c r="C254" s="3">
         <v>1</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="3">
-        <v>83013</v>
+        <v>83027</v>
       </c>
       <c r="B255" s="3">
-        <v>10016</v>
+        <v>1034</v>
       </c>
       <c r="C255" s="3">
         <v>1</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="3">
-        <v>83014</v>
+        <v>83028</v>
       </c>
       <c r="B256" s="3">
-        <v>10017</v>
+        <v>10025</v>
       </c>
       <c r="C256" s="3">
         <v>1</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="3">
-        <v>83015</v>
+        <v>83029</v>
       </c>
       <c r="B257" s="3">
-        <v>10018</v>
+        <v>10026</v>
       </c>
       <c r="C257" s="3">
         <v>1</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="3">
-        <v>83016</v>
+        <v>83030</v>
       </c>
       <c r="B258" s="3">
-        <v>10019</v>
+        <v>10027</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" s="3">
-        <v>83017</v>
+        <v>83031</v>
       </c>
       <c r="B259" s="3">
-        <v>10020</v>
+        <v>10028</v>
       </c>
       <c r="C259" s="3">
         <v>1</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="3">
-        <v>83018</v>
+        <v>83032</v>
       </c>
       <c r="B260" s="3">
-        <v>10021</v>
+        <v>10029</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="3">
-        <v>83019</v>
+        <v>83033</v>
       </c>
       <c r="B261" s="3">
-        <v>10022</v>
+        <v>10030</v>
       </c>
       <c r="C261" s="3">
         <v>1</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="3">
-        <v>83020</v>
+        <v>83034</v>
       </c>
       <c r="B262" s="3">
-        <v>10023</v>
+        <v>10031</v>
       </c>
       <c r="C262" s="3">
         <v>1</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="3">
-        <v>83021</v>
+        <v>83035</v>
       </c>
       <c r="B263" s="3">
-        <v>10024</v>
+        <v>10032</v>
       </c>
       <c r="C263" s="3">
         <v>1</v>
@@ -4032,10 +4032,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="3">
-        <v>83022</v>
+        <v>83036</v>
       </c>
       <c r="B264" s="3">
-        <v>1029</v>
+        <v>10033</v>
       </c>
       <c r="C264" s="3">
         <v>1</v>
@@ -4043,65 +4043,65 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="3">
-        <v>83023</v>
+        <v>83301</v>
       </c>
       <c r="B265" s="3">
-        <v>1030</v>
+        <v>123</v>
       </c>
       <c r="C265" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="3">
-        <v>83024</v>
+        <v>83302</v>
       </c>
       <c r="B266" s="3">
-        <v>1031</v>
+        <v>124</v>
       </c>
       <c r="C266" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" s="3">
-        <v>83025</v>
+        <v>83303</v>
       </c>
       <c r="B267" s="3">
-        <v>1032</v>
+        <v>125</v>
       </c>
       <c r="C267" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" s="3">
-        <v>83026</v>
+        <v>83304</v>
       </c>
       <c r="B268" s="3">
-        <v>1033</v>
+        <v>126</v>
       </c>
       <c r="C268" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" s="3">
-        <v>83027</v>
+        <v>83305</v>
       </c>
       <c r="B269" s="3">
-        <v>1034</v>
+        <v>127</v>
       </c>
       <c r="C269" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="3">
-        <v>83028</v>
+        <v>83306</v>
       </c>
       <c r="B270" s="3">
-        <v>10025</v>
+        <v>7021</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
@@ -4109,10 +4109,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="3">
-        <v>83029</v>
+        <v>83307</v>
       </c>
       <c r="B271" s="3">
-        <v>10026</v>
+        <v>7022</v>
       </c>
       <c r="C271" s="3">
         <v>1</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="3">
-        <v>83030</v>
+        <v>83308</v>
       </c>
       <c r="B272" s="3">
-        <v>10027</v>
+        <v>7023</v>
       </c>
       <c r="C272" s="3">
         <v>1</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="3">
-        <v>83031</v>
+        <v>83309</v>
       </c>
       <c r="B273" s="3">
-        <v>10028</v>
+        <v>7024</v>
       </c>
       <c r="C273" s="3">
         <v>1</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" s="3">
-        <v>83032</v>
+        <v>83310</v>
       </c>
       <c r="B274" s="3">
-        <v>10029</v>
+        <v>7025</v>
       </c>
       <c r="C274" s="3">
         <v>1</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" s="3">
-        <v>83033</v>
+        <v>83311</v>
       </c>
       <c r="B275" s="3">
-        <v>10030</v>
+        <v>7026</v>
       </c>
       <c r="C275" s="3">
         <v>1</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="3">
-        <v>83034</v>
+        <v>83312</v>
       </c>
       <c r="B276" s="3">
-        <v>10031</v>
+        <v>7027</v>
       </c>
       <c r="C276" s="3">
         <v>1</v>
@@ -4175,10 +4175,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="3">
-        <v>83035</v>
+        <v>83313</v>
       </c>
       <c r="B277" s="3">
-        <v>10032</v>
+        <v>7028</v>
       </c>
       <c r="C277" s="3">
         <v>1</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="3">
-        <v>83036</v>
+        <v>83314</v>
       </c>
       <c r="B278" s="3">
-        <v>10033</v>
+        <v>7029</v>
       </c>
       <c r="C278" s="3">
         <v>1</v>
@@ -4197,65 +4197,65 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="3">
-        <v>83301</v>
+        <v>83315</v>
       </c>
       <c r="B279" s="3">
-        <v>123</v>
+        <v>7030</v>
       </c>
       <c r="C279" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="3">
-        <v>83302</v>
+        <v>84001</v>
       </c>
       <c r="B280" s="3">
-        <v>124</v>
+        <v>9003</v>
       </c>
       <c r="C280" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="3">
-        <v>83303</v>
+        <v>84002</v>
       </c>
       <c r="B281" s="3">
-        <v>125</v>
+        <v>9005</v>
       </c>
       <c r="C281" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282" s="3">
-        <v>83304</v>
+        <v>84003</v>
       </c>
       <c r="B282" s="3">
-        <v>126</v>
+        <v>9002</v>
       </c>
       <c r="C282" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" s="3">
-        <v>83305</v>
+        <v>84004</v>
       </c>
       <c r="B283" s="3">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C283" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284" s="3">
-        <v>83306</v>
+        <v>84005</v>
       </c>
       <c r="B284" s="3">
-        <v>7021</v>
+        <v>124</v>
       </c>
       <c r="C284" s="3">
         <v>1</v>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="3">
-        <v>83307</v>
+        <v>84006</v>
       </c>
       <c r="B285" s="3">
-        <v>7022</v>
+        <v>125</v>
       </c>
       <c r="C285" s="3">
         <v>1</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="3">
-        <v>83308</v>
+        <v>84007</v>
       </c>
       <c r="B286" s="3">
-        <v>7023</v>
+        <v>126</v>
       </c>
       <c r="C286" s="3">
         <v>1</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="3">
-        <v>83309</v>
+        <v>84008</v>
       </c>
       <c r="B287" s="3">
-        <v>7024</v>
+        <v>127</v>
       </c>
       <c r="C287" s="3">
         <v>1</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="3">
-        <v>83310</v>
+        <v>84009</v>
       </c>
       <c r="B288" s="3">
-        <v>7025</v>
+        <v>128</v>
       </c>
       <c r="C288" s="3">
         <v>1</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
-        <v>83311</v>
+        <v>84010</v>
       </c>
       <c r="B289" s="3">
-        <v>7026</v>
+        <v>129</v>
       </c>
       <c r="C289" s="3">
         <v>1</v>
@@ -4318,10 +4318,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
-        <v>83312</v>
+        <v>84011</v>
       </c>
       <c r="B290" s="3">
-        <v>7027</v>
+        <v>550</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="3">
-        <v>83313</v>
+        <v>84012</v>
       </c>
       <c r="B291" s="3">
-        <v>7028</v>
+        <v>551</v>
       </c>
       <c r="C291" s="3">
         <v>1</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="3">
-        <v>83314</v>
+        <v>84013</v>
       </c>
       <c r="B292" s="3">
-        <v>7029</v>
+        <v>552</v>
       </c>
       <c r="C292" s="3">
         <v>1</v>
@@ -4351,10 +4351,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
-        <v>83315</v>
+        <v>84014</v>
       </c>
       <c r="B293" s="3">
-        <v>7030</v>
+        <v>553</v>
       </c>
       <c r="C293" s="3">
         <v>1</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
-        <v>84001</v>
+        <v>84015</v>
       </c>
       <c r="B294" s="3">
-        <v>9003</v>
+        <v>554</v>
       </c>
       <c r="C294" s="3">
         <v>1</v>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="3">
-        <v>84002</v>
+        <v>84016</v>
       </c>
       <c r="B295" s="3">
-        <v>9005</v>
+        <v>555</v>
       </c>
       <c r="C295" s="3">
         <v>1</v>
@@ -4384,21 +4384,21 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="3">
-        <v>84003</v>
+        <v>84017</v>
       </c>
       <c r="B296" s="3">
-        <v>9002</v>
+        <v>556</v>
       </c>
       <c r="C296" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
-        <v>84004</v>
+        <v>84018</v>
       </c>
       <c r="B297" s="3">
-        <v>123</v>
+        <v>557</v>
       </c>
       <c r="C297" s="3">
         <v>1</v>
@@ -4406,10 +4406,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
-        <v>84005</v>
+        <v>84019</v>
       </c>
       <c r="B298" s="3">
-        <v>124</v>
+        <v>558</v>
       </c>
       <c r="C298" s="3">
         <v>1</v>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="3">
-        <v>84006</v>
+        <v>84020</v>
       </c>
       <c r="B299" s="3">
-        <v>125</v>
+        <v>559</v>
       </c>
       <c r="C299" s="3">
         <v>1</v>
@@ -4428,10 +4428,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="3">
-        <v>84007</v>
+        <v>84021</v>
       </c>
       <c r="B300" s="3">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C300" s="3">
         <v>1</v>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
-        <v>84008</v>
+        <v>84022</v>
       </c>
       <c r="B301" s="3">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C301" s="3">
         <v>1</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
-        <v>84009</v>
+        <v>84023</v>
       </c>
       <c r="B302" s="3">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C302" s="3">
         <v>1</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="3">
-        <v>84010</v>
+        <v>84024</v>
       </c>
       <c r="B303" s="3">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C303" s="3">
         <v>1</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="3">
-        <v>84011</v>
+        <v>84025</v>
       </c>
       <c r="B304" s="3">
-        <v>550</v>
+        <v>138</v>
       </c>
       <c r="C304" s="3">
         <v>1</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="3">
-        <v>84012</v>
+        <v>84026</v>
       </c>
       <c r="B305" s="3">
-        <v>551</v>
+        <v>139</v>
       </c>
       <c r="C305" s="3">
         <v>1</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="3">
-        <v>84013</v>
+        <v>84027</v>
       </c>
       <c r="B306" s="3">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="C306" s="3">
         <v>1</v>
@@ -4505,10 +4505,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="3">
-        <v>84014</v>
+        <v>84028</v>
       </c>
       <c r="B307" s="3">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="C307" s="3">
         <v>1</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="3">
-        <v>84015</v>
+        <v>84029</v>
       </c>
       <c r="B308" s="3">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="C308" s="3">
         <v>1</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="3">
-        <v>84016</v>
+        <v>84030</v>
       </c>
       <c r="B309" s="3">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="C309" s="3">
         <v>1</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="3">
-        <v>84017</v>
+        <v>84031</v>
       </c>
       <c r="B310" s="3">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="C310" s="3">
         <v>1</v>
@@ -4549,10 +4549,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="3">
-        <v>84018</v>
+        <v>84032</v>
       </c>
       <c r="B311" s="3">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="C311" s="3">
         <v>1</v>
@@ -4560,10 +4560,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="3">
-        <v>84019</v>
+        <v>84033</v>
       </c>
       <c r="B312" s="3">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="C312" s="3">
         <v>1</v>
@@ -4571,10 +4571,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="3">
-        <v>84020</v>
+        <v>84034</v>
       </c>
       <c r="B313" s="3">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="C313" s="3">
         <v>1</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="3">
-        <v>84021</v>
+        <v>84035</v>
       </c>
       <c r="B314" s="3">
-        <v>134</v>
+        <v>508</v>
       </c>
       <c r="C314" s="3">
         <v>1</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="3">
-        <v>84022</v>
+        <v>84036</v>
       </c>
       <c r="B315" s="3">
-        <v>135</v>
+        <v>509</v>
       </c>
       <c r="C315" s="3">
         <v>1</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="3">
-        <v>84023</v>
+        <v>84037</v>
       </c>
       <c r="B316" s="3">
-        <v>136</v>
+        <v>600</v>
       </c>
       <c r="C316" s="3">
         <v>1</v>
@@ -4615,32 +4615,32 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="3">
-        <v>84024</v>
+        <v>84038</v>
       </c>
       <c r="B317" s="3">
-        <v>137</v>
+        <v>9005</v>
       </c>
       <c r="C317" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="3">
-        <v>84025</v>
+        <v>84039</v>
       </c>
       <c r="B318" s="3">
-        <v>138</v>
+        <v>9005</v>
       </c>
       <c r="C318" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="3">
-        <v>84026</v>
+        <v>85001</v>
       </c>
       <c r="B319" s="3">
-        <v>139</v>
+        <v>10013</v>
       </c>
       <c r="C319" s="3">
         <v>1</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="3">
-        <v>84027</v>
+        <v>85002</v>
       </c>
       <c r="B320" s="3">
-        <v>500</v>
+        <v>10014</v>
       </c>
       <c r="C320" s="3">
         <v>1</v>
@@ -4659,10 +4659,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321" s="3">
-        <v>84028</v>
+        <v>85003</v>
       </c>
       <c r="B321" s="3">
-        <v>501</v>
+        <v>10015</v>
       </c>
       <c r="C321" s="3">
         <v>1</v>
@@ -4670,54 +4670,54 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322" s="3">
-        <v>84029</v>
+        <v>85004</v>
       </c>
       <c r="B322" s="3">
-        <v>502</v>
+        <v>9002</v>
       </c>
       <c r="C322" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323" s="3">
-        <v>84030</v>
+        <v>85005</v>
       </c>
       <c r="B323" s="3">
-        <v>503</v>
+        <v>9002</v>
       </c>
       <c r="C323" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324" s="3">
-        <v>84031</v>
+        <v>85006</v>
       </c>
       <c r="B324" s="3">
-        <v>504</v>
+        <v>9002</v>
       </c>
       <c r="C324" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325" s="3">
-        <v>84032</v>
+        <v>300001</v>
       </c>
       <c r="B325" s="3">
-        <v>505</v>
+        <v>9004</v>
       </c>
       <c r="C325" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326" s="3">
-        <v>84033</v>
+        <v>300011</v>
       </c>
       <c r="B326" s="3">
-        <v>506</v>
+        <v>1014</v>
       </c>
       <c r="C326" s="3">
         <v>1</v>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327" s="3">
-        <v>84034</v>
+        <v>300021</v>
       </c>
       <c r="B327" s="3">
-        <v>507</v>
+        <v>1015</v>
       </c>
       <c r="C327" s="3">
         <v>1</v>
@@ -4736,10 +4736,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328" s="3">
-        <v>84035</v>
+        <v>300031</v>
       </c>
       <c r="B328" s="3">
-        <v>508</v>
+        <v>1016</v>
       </c>
       <c r="C328" s="3">
         <v>1</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329" s="3">
-        <v>84036</v>
+        <v>300041</v>
       </c>
       <c r="B329" s="3">
-        <v>509</v>
+        <v>1017</v>
       </c>
       <c r="C329" s="3">
         <v>1</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330" s="3">
-        <v>84037</v>
+        <v>300051</v>
       </c>
       <c r="B330" s="3">
-        <v>600</v>
+        <v>1018</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
@@ -4769,32 +4769,32 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331" s="3">
-        <v>84038</v>
+        <v>300061</v>
       </c>
       <c r="B331" s="3">
-        <v>9005</v>
+        <v>1019</v>
       </c>
       <c r="C331" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332" s="3">
-        <v>84039</v>
+        <v>300071</v>
       </c>
       <c r="B332" s="3">
-        <v>9005</v>
+        <v>1020</v>
       </c>
       <c r="C332" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A333" s="3">
-        <v>85001</v>
+        <v>300081</v>
       </c>
       <c r="B333" s="3">
-        <v>10013</v>
+        <v>1021</v>
       </c>
       <c r="C333" s="3">
         <v>1</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A334" s="3">
-        <v>85002</v>
+        <v>300091</v>
       </c>
       <c r="B334" s="3">
-        <v>10014</v>
+        <v>1022</v>
       </c>
       <c r="C334" s="3">
         <v>1</v>
@@ -4813,10 +4813,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335" s="3">
-        <v>85003</v>
+        <v>300101</v>
       </c>
       <c r="B335" s="3">
-        <v>10015</v>
+        <v>1023</v>
       </c>
       <c r="C335" s="3">
         <v>1</v>
@@ -4824,177 +4824,23 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336" s="3">
-        <v>85004</v>
+        <v>300111</v>
       </c>
       <c r="B336" s="3">
-        <v>9002</v>
+        <v>1024</v>
       </c>
       <c r="C336" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337" s="3">
-        <v>85005</v>
+        <v>300121</v>
       </c>
       <c r="B337" s="3">
-        <v>9002</v>
+        <v>1025</v>
       </c>
       <c r="C337" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A338" s="3">
-        <v>85006</v>
-      </c>
-      <c r="B338" s="3">
-        <v>9002</v>
-      </c>
-      <c r="C338" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A339" s="3">
-        <v>300001</v>
-      </c>
-      <c r="B339" s="3">
-        <v>9004</v>
-      </c>
-      <c r="C339" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A340" s="3">
-        <v>300011</v>
-      </c>
-      <c r="B340" s="3">
-        <v>1014</v>
-      </c>
-      <c r="C340" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A341" s="3">
-        <v>300021</v>
-      </c>
-      <c r="B341" s="3">
-        <v>1015</v>
-      </c>
-      <c r="C341" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A342" s="3">
-        <v>300031</v>
-      </c>
-      <c r="B342" s="3">
-        <v>1016</v>
-      </c>
-      <c r="C342" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A343" s="3">
-        <v>300041</v>
-      </c>
-      <c r="B343" s="3">
-        <v>1017</v>
-      </c>
-      <c r="C343" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A344" s="3">
-        <v>300051</v>
-      </c>
-      <c r="B344" s="3">
-        <v>1018</v>
-      </c>
-      <c r="C344" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A345" s="3">
-        <v>300061</v>
-      </c>
-      <c r="B345" s="3">
-        <v>1019</v>
-      </c>
-      <c r="C345" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A346" s="3">
-        <v>300071</v>
-      </c>
-      <c r="B346" s="3">
-        <v>1020</v>
-      </c>
-      <c r="C346" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A347" s="3">
-        <v>300081</v>
-      </c>
-      <c r="B347" s="3">
-        <v>1021</v>
-      </c>
-      <c r="C347" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A348" s="3">
-        <v>300091</v>
-      </c>
-      <c r="B348" s="3">
-        <v>1022</v>
-      </c>
-      <c r="C348" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A349" s="3">
-        <v>300101</v>
-      </c>
-      <c r="B349" s="3">
-        <v>1023</v>
-      </c>
-      <c r="C349" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A350" s="3">
-        <v>300111</v>
-      </c>
-      <c r="B350" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C350" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A351" s="3">
-        <v>300121</v>
-      </c>
-      <c r="B351" s="3">
-        <v>1025</v>
-      </c>
-      <c r="C351" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17D92A-9CB1-40F1-9486-014B79131A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3C8C7-48DC-410C-BA78-504E444A061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,14 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -223,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +242,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,8 +584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M337" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M337" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M346" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M346" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1" dataDxfId="11"/>
@@ -888,13 +902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:M346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomRight" activeCell="F335" sqref="F335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -972,6 +986,24 @@
       <c r="E2" s="3">
         <v>10</v>
       </c>
+      <c r="F2" s="3">
+        <v>2006</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2007</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2008</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
@@ -989,6 +1021,24 @@
       <c r="E3" s="3">
         <v>15</v>
       </c>
+      <c r="F3" s="3">
+        <v>2006</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2007</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2008</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -1308,10 +1358,10 @@
         <v>3001</v>
       </c>
       <c r="B27" s="3">
-        <v>2000</v>
+        <v>1036</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -1319,10 +1369,10 @@
         <v>3002</v>
       </c>
       <c r="B28" s="3">
-        <v>2001</v>
+        <v>1037</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -1330,10 +1380,10 @@
         <v>3003</v>
       </c>
       <c r="B29" s="3">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -1341,300 +1391,300 @@
         <v>3004</v>
       </c>
       <c r="B30" s="3">
-        <v>1036</v>
+        <v>2001</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
-        <v>3005</v>
+        <v>10001</v>
       </c>
       <c r="B31" s="3">
-        <v>1037</v>
+        <v>9000</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
-        <v>3006</v>
+        <v>10002</v>
       </c>
       <c r="B32" s="3">
-        <v>2003</v>
+        <v>9000</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
-        <v>3007</v>
+        <v>10003</v>
       </c>
       <c r="B33" s="3">
-        <v>2004</v>
+        <v>9000</v>
       </c>
       <c r="C33" s="3">
-        <v>3</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="B34" s="3">
         <v>9000</v>
       </c>
       <c r="C34" s="3">
-        <v>100</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
-        <v>10002</v>
+        <v>10005</v>
       </c>
       <c r="B35" s="3">
         <v>9000</v>
       </c>
       <c r="C35" s="3">
-        <v>900</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="B36" s="3">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="C36" s="3">
-        <v>2000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
-        <v>10004</v>
+        <v>10080</v>
       </c>
       <c r="B37" s="3">
         <v>9000</v>
       </c>
       <c r="C37" s="3">
-        <v>3500</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
-        <v>10005</v>
+        <v>10081</v>
       </c>
       <c r="B38" s="3">
         <v>9000</v>
       </c>
       <c r="C38" s="3">
-        <v>6000</v>
+        <v>130</v>
+      </c>
+      <c r="D38" s="3">
+        <v>9001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
-        <v>10006</v>
+        <v>10082</v>
       </c>
       <c r="B39" s="3">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>215</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>500</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
-        <v>10080</v>
+        <v>11001</v>
       </c>
       <c r="B40" s="3">
-        <v>9000</v>
+        <v>102</v>
       </c>
       <c r="C40" s="3">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="D40" s="3">
+        <v>103</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100</v>
+      </c>
+      <c r="F40" s="3">
+        <v>104</v>
+      </c>
+      <c r="G40" s="3">
+        <v>100</v>
+      </c>
+      <c r="H40" s="3">
+        <v>112</v>
+      </c>
+      <c r="I40" s="3">
+        <v>50</v>
+      </c>
+      <c r="J40" s="3">
+        <v>107</v>
+      </c>
+      <c r="K40" s="3">
+        <v>50</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3001</v>
+      </c>
+      <c r="M40" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
-        <v>10081</v>
+        <v>11002</v>
       </c>
       <c r="B41" s="3">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C41" s="3">
-        <v>130</v>
-      </c>
-      <c r="D41" s="3">
-        <v>9001</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
-        <v>10082</v>
+        <v>11003</v>
       </c>
       <c r="B42" s="3">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="C42" s="3">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>9001</v>
+        <v>1004</v>
       </c>
       <c r="E42" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
-        <v>3001</v>
+        <v>1005</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1006</v>
+      </c>
+      <c r="I42" s="3">
+        <v>100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1007</v>
+      </c>
+      <c r="K42" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
-        <v>11001</v>
+        <v>11004</v>
       </c>
       <c r="B43" s="3">
-        <v>102</v>
+        <v>3001</v>
       </c>
       <c r="C43" s="3">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>112</v>
-      </c>
-      <c r="I43" s="3">
-        <v>50</v>
-      </c>
-      <c r="J43" s="3">
-        <v>107</v>
-      </c>
-      <c r="K43" s="3">
-        <v>50</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3001</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
-        <v>11002</v>
+        <v>11005</v>
       </c>
       <c r="B44" s="3">
         <v>3001</v>
       </c>
       <c r="C44" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
-        <v>11003</v>
+        <v>12001</v>
       </c>
       <c r="B45" s="3">
         <v>3001</v>
       </c>
       <c r="C45" s="3">
-        <v>3</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1004</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1005</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1006</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1007</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
-        <v>11004</v>
+        <v>12002</v>
       </c>
       <c r="B46" s="3">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="C46" s="3">
-        <v>3</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
-        <v>11005</v>
+        <v>12003</v>
       </c>
       <c r="B47" s="3">
-        <v>3001</v>
+        <v>1002</v>
       </c>
       <c r="C47" s="3">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
-        <v>12001</v>
+        <v>12004</v>
       </c>
       <c r="B48" s="3">
-        <v>3001</v>
+        <v>1003</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
-        <v>12002</v>
+        <v>12005</v>
       </c>
       <c r="B49" s="3">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C49" s="3">
         <v>60</v>
@@ -1642,10 +1692,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
-        <v>12003</v>
+        <v>12006</v>
       </c>
       <c r="B50" s="3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C50" s="3">
         <v>60</v>
@@ -1653,10 +1703,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
-        <v>12004</v>
+        <v>12007</v>
       </c>
       <c r="B51" s="3">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C51" s="3">
         <v>60</v>
@@ -1664,10 +1714,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
-        <v>12005</v>
+        <v>12008</v>
       </c>
       <c r="B52" s="3">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C52" s="3">
         <v>60</v>
@@ -1675,10 +1725,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
-        <v>12006</v>
+        <v>12009</v>
       </c>
       <c r="B53" s="3">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C53" s="3">
         <v>60</v>
@@ -1686,10 +1736,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
-        <v>12007</v>
+        <v>12010</v>
       </c>
       <c r="B54" s="3">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C54" s="3">
         <v>60</v>
@@ -1697,10 +1747,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
-        <v>12008</v>
+        <v>12011</v>
       </c>
       <c r="B55" s="3">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C55" s="3">
         <v>60</v>
@@ -1708,10 +1758,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
-        <v>12009</v>
+        <v>12012</v>
       </c>
       <c r="B56" s="3">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C56" s="3">
         <v>60</v>
@@ -1719,10 +1769,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
-        <v>12010</v>
+        <v>12013</v>
       </c>
       <c r="B57" s="3">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C57" s="3">
         <v>60</v>
@@ -1730,10 +1780,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
-        <v>12011</v>
+        <v>12014</v>
       </c>
       <c r="B58" s="3">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C58" s="3">
         <v>60</v>
@@ -1741,222 +1791,222 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
-        <v>12012</v>
+        <v>14001</v>
       </c>
       <c r="B59" s="3">
-        <v>1011</v>
+        <v>9002</v>
       </c>
       <c r="C59" s="3">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
-        <v>12013</v>
+        <v>14002</v>
       </c>
       <c r="B60" s="3">
-        <v>1012</v>
+        <v>9002</v>
       </c>
       <c r="C60" s="3">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
-        <v>12014</v>
+        <v>14003</v>
       </c>
       <c r="B61" s="3">
-        <v>1013</v>
+        <v>9002</v>
       </c>
       <c r="C61" s="3">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
-        <v>14001</v>
+        <v>14004</v>
       </c>
       <c r="B62" s="3">
         <v>9002</v>
       </c>
       <c r="C62" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
-        <v>14002</v>
+        <v>14005</v>
       </c>
       <c r="B63" s="3">
         <v>9002</v>
       </c>
       <c r="C63" s="3">
-        <v>600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
-        <v>14003</v>
+        <v>14006</v>
       </c>
       <c r="B64" s="3">
         <v>9002</v>
       </c>
       <c r="C64" s="3">
-        <v>1000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
-        <v>14004</v>
+        <v>14007</v>
       </c>
       <c r="B65" s="3">
         <v>9002</v>
       </c>
       <c r="C65" s="3">
-        <v>2000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
-        <v>14005</v>
+        <v>15001</v>
       </c>
       <c r="B66" s="3">
-        <v>9002</v>
+        <v>4006</v>
       </c>
       <c r="C66" s="3">
-        <v>4000</v>
+        <v>20</v>
+      </c>
+      <c r="D66" s="3">
+        <v>4003</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
-        <v>14006</v>
+        <v>15002</v>
       </c>
       <c r="B67" s="3">
-        <v>9002</v>
+        <v>4005</v>
       </c>
       <c r="C67" s="3">
-        <v>7000</v>
+        <v>10</v>
+      </c>
+      <c r="D67" s="3">
+        <v>4002</v>
+      </c>
+      <c r="E67" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
-        <v>14007</v>
+        <v>15003</v>
       </c>
       <c r="B68" s="3">
-        <v>9002</v>
+        <v>4004</v>
       </c>
       <c r="C68" s="3">
-        <v>11000</v>
+        <v>10</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4001</v>
+      </c>
+      <c r="E68" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
-        <v>15001</v>
+        <v>15004</v>
       </c>
       <c r="B69" s="3">
         <v>4006</v>
       </c>
       <c r="C69" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D69" s="3">
         <v>4003</v>
       </c>
       <c r="E69" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
-        <v>15002</v>
+        <v>15005</v>
       </c>
       <c r="B70" s="3">
         <v>4005</v>
       </c>
       <c r="C70" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3">
         <v>4002</v>
       </c>
       <c r="E70" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
-        <v>15003</v>
+        <v>15006</v>
       </c>
       <c r="B71" s="3">
         <v>4004</v>
       </c>
       <c r="C71" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3">
         <v>4001</v>
       </c>
       <c r="E71" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
-        <v>15004</v>
+        <v>15101</v>
       </c>
       <c r="B72" s="3">
-        <v>4006</v>
+        <v>1014</v>
       </c>
       <c r="C72" s="3">
         <v>10</v>
       </c>
-      <c r="D72" s="3">
-        <v>4003</v>
-      </c>
-      <c r="E72" s="3">
-        <v>10</v>
-      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
-        <v>15005</v>
+        <v>15102</v>
       </c>
       <c r="B73" s="3">
-        <v>4005</v>
+        <v>1015</v>
       </c>
       <c r="C73" s="3">
-        <v>5</v>
-      </c>
-      <c r="D73" s="3">
-        <v>4002</v>
-      </c>
-      <c r="E73" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
-        <v>15006</v>
+        <v>15103</v>
       </c>
       <c r="B74" s="3">
-        <v>4004</v>
+        <v>1016</v>
       </c>
       <c r="C74" s="3">
-        <v>5</v>
-      </c>
-      <c r="D74" s="3">
-        <v>4001</v>
-      </c>
-      <c r="E74" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
-        <v>15101</v>
+        <v>15104</v>
       </c>
       <c r="B75" s="3">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C75" s="3">
         <v>10</v>
@@ -1964,10 +2014,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
-        <v>15102</v>
+        <v>15105</v>
       </c>
       <c r="B76" s="3">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C76" s="3">
         <v>10</v>
@@ -1975,10 +2025,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <v>15103</v>
+        <v>15106</v>
       </c>
       <c r="B77" s="3">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C77" s="3">
         <v>10</v>
@@ -1986,10 +2036,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
-        <v>15104</v>
+        <v>15107</v>
       </c>
       <c r="B78" s="3">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C78" s="3">
         <v>10</v>
@@ -1997,10 +2047,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <v>15105</v>
+        <v>15108</v>
       </c>
       <c r="B79" s="3">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C79" s="3">
         <v>10</v>
@@ -2008,10 +2058,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
-        <v>15106</v>
+        <v>15109</v>
       </c>
       <c r="B80" s="3">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C80" s="3">
         <v>10</v>
@@ -2019,10 +2069,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
-        <v>15107</v>
+        <v>15110</v>
       </c>
       <c r="B81" s="3">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C81" s="3">
         <v>10</v>
@@ -2030,10 +2080,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
-        <v>15108</v>
+        <v>15111</v>
       </c>
       <c r="B82" s="3">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C82" s="3">
         <v>10</v>
@@ -2041,10 +2091,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
-        <v>15109</v>
+        <v>15112</v>
       </c>
       <c r="B83" s="3">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C83" s="3">
         <v>10</v>
@@ -2052,10 +2102,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
-        <v>15110</v>
+        <v>15113</v>
       </c>
       <c r="B84" s="3">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
@@ -2063,10 +2113,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
-        <v>15111</v>
+        <v>15114</v>
       </c>
       <c r="B85" s="3">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C85" s="3">
         <v>10</v>
@@ -2074,10 +2124,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
-        <v>15112</v>
+        <v>20001</v>
       </c>
       <c r="B86" s="3">
-        <v>1025</v>
+        <v>102</v>
       </c>
       <c r="C86" s="3">
         <v>10</v>
@@ -2085,150 +2135,150 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
-        <v>15113</v>
+        <v>20002</v>
       </c>
       <c r="B87" s="3">
-        <v>1026</v>
+        <v>9001</v>
       </c>
       <c r="C87" s="3">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
-        <v>15114</v>
+        <v>20003</v>
       </c>
       <c r="B88" s="3">
-        <v>1027</v>
+        <v>1001</v>
       </c>
       <c r="C88" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
-        <v>20001</v>
+        <v>20004</v>
       </c>
       <c r="B89" s="3">
-        <v>102</v>
+        <v>1013</v>
       </c>
       <c r="C89" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
-        <v>20002</v>
+        <v>20005</v>
       </c>
       <c r="B90" s="3">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="C90" s="3">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
-        <v>20003</v>
+        <v>21001</v>
       </c>
       <c r="B91" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
-        <v>20004</v>
+        <v>21002</v>
       </c>
       <c r="B92" s="3">
-        <v>1013</v>
+        <v>2</v>
       </c>
       <c r="C92" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
-        <v>20005</v>
+        <v>21003</v>
       </c>
       <c r="B93" s="3">
-        <v>9002</v>
+        <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
-        <v>21001</v>
+        <v>21004</v>
       </c>
       <c r="B94" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
-        <v>21002</v>
+        <v>21005</v>
       </c>
       <c r="B95" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C95" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
-        <v>21003</v>
+        <v>21006</v>
       </c>
       <c r="B96" s="3">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="C96" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
-        <v>21004</v>
+        <v>21007</v>
       </c>
       <c r="B97" s="3">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="C97" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
-        <v>21005</v>
+        <v>21008</v>
       </c>
       <c r="B98" s="3">
-        <v>5</v>
+        <v>3001</v>
       </c>
       <c r="C98" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
-        <v>21006</v>
+        <v>21009</v>
       </c>
       <c r="B99" s="3">
-        <v>600</v>
+        <v>3001</v>
       </c>
       <c r="C99" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
-        <v>21007</v>
+        <v>21010</v>
       </c>
       <c r="B100" s="3">
         <v>3001</v>
@@ -2239,7 +2289,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
-        <v>21008</v>
+        <v>21011</v>
       </c>
       <c r="B101" s="3">
         <v>3001</v>
@@ -2250,76 +2300,76 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
-        <v>21009</v>
+        <v>21012</v>
       </c>
       <c r="B102" s="3">
-        <v>3001</v>
+        <v>9001</v>
       </c>
       <c r="C102" s="3">
-        <v>1</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
-        <v>21010</v>
+        <v>21013</v>
       </c>
       <c r="B103" s="3">
-        <v>3001</v>
+        <v>9001</v>
       </c>
       <c r="C103" s="3">
-        <v>1</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
-        <v>21011</v>
+        <v>21014</v>
       </c>
       <c r="B104" s="3">
-        <v>3001</v>
+        <v>9001</v>
       </c>
       <c r="C104" s="3">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
-        <v>21012</v>
+        <v>22001</v>
       </c>
       <c r="B105" s="3">
-        <v>9001</v>
+        <v>500</v>
       </c>
       <c r="C105" s="3">
-        <v>1200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
-        <v>21013</v>
+        <v>22002</v>
       </c>
       <c r="B106" s="3">
-        <v>9001</v>
+        <v>501</v>
       </c>
       <c r="C106" s="3">
-        <v>2400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
-        <v>21014</v>
+        <v>22003</v>
       </c>
       <c r="B107" s="3">
-        <v>9001</v>
+        <v>502</v>
       </c>
       <c r="C107" s="3">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
-        <v>22001</v>
+        <v>22004</v>
       </c>
       <c r="B108" s="3">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -2327,10 +2377,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
-        <v>22002</v>
+        <v>22005</v>
       </c>
       <c r="B109" s="3">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -2338,10 +2388,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
-        <v>22003</v>
+        <v>22006</v>
       </c>
       <c r="B110" s="3">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -2349,10 +2399,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
-        <v>22004</v>
+        <v>22007</v>
       </c>
       <c r="B111" s="3">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
@@ -2360,10 +2410,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
-        <v>22005</v>
+        <v>22008</v>
       </c>
       <c r="B112" s="3">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -2371,10 +2421,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
-        <v>22006</v>
+        <v>22009</v>
       </c>
       <c r="B113" s="3">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
@@ -2382,10 +2432,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
-        <v>22007</v>
+        <v>22010</v>
       </c>
       <c r="B114" s="3">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -2393,10 +2443,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
-        <v>22008</v>
+        <v>22011</v>
       </c>
       <c r="B115" s="3">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
@@ -2404,10 +2454,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
-        <v>22009</v>
+        <v>22012</v>
       </c>
       <c r="B116" s="3">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -2415,10 +2465,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
-        <v>22010</v>
+        <v>22013</v>
       </c>
       <c r="B117" s="3">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
@@ -2426,10 +2476,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
-        <v>22011</v>
+        <v>22014</v>
       </c>
       <c r="B118" s="3">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -2437,10 +2487,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
-        <v>22012</v>
+        <v>22015</v>
       </c>
       <c r="B119" s="3">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
@@ -2448,10 +2498,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
-        <v>22013</v>
+        <v>22016</v>
       </c>
       <c r="B120" s="3">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -2459,10 +2509,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
-        <v>22014</v>
+        <v>22017</v>
       </c>
       <c r="B121" s="3">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
@@ -2470,10 +2520,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
-        <v>22015</v>
+        <v>22018</v>
       </c>
       <c r="B122" s="3">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -2481,10 +2531,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
-        <v>22016</v>
+        <v>22019</v>
       </c>
       <c r="B123" s="3">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
@@ -2492,10 +2542,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
-        <v>22017</v>
+        <v>22020</v>
       </c>
       <c r="B124" s="3">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -2503,10 +2553,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
-        <v>22018</v>
+        <v>22021</v>
       </c>
       <c r="B125" s="3">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -2514,10 +2564,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
-        <v>22019</v>
+        <v>22022</v>
       </c>
       <c r="B126" s="3">
-        <v>558</v>
+        <v>1014</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -2525,10 +2575,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
-        <v>22020</v>
+        <v>22023</v>
       </c>
       <c r="B127" s="3">
-        <v>559</v>
+        <v>1015</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
@@ -2536,10 +2586,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
-        <v>22021</v>
+        <v>22024</v>
       </c>
       <c r="B128" s="3">
-        <v>600</v>
+        <v>1016</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -2547,10 +2597,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
-        <v>22022</v>
+        <v>22025</v>
       </c>
       <c r="B129" s="3">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -2558,10 +2608,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
-        <v>22023</v>
+        <v>22026</v>
       </c>
       <c r="B130" s="3">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -2569,10 +2619,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
-        <v>22024</v>
+        <v>22027</v>
       </c>
       <c r="B131" s="3">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
@@ -2580,10 +2630,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
-        <v>22025</v>
+        <v>22028</v>
       </c>
       <c r="B132" s="3">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -2591,10 +2641,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
-        <v>22026</v>
+        <v>22029</v>
       </c>
       <c r="B133" s="3">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -2602,10 +2652,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
-        <v>22027</v>
+        <v>22030</v>
       </c>
       <c r="B134" s="3">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -2613,10 +2663,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
-        <v>22028</v>
+        <v>22031</v>
       </c>
       <c r="B135" s="3">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
@@ -2624,10 +2674,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
-        <v>22029</v>
+        <v>22032</v>
       </c>
       <c r="B136" s="3">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -2635,10 +2685,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
-        <v>22030</v>
+        <v>22033</v>
       </c>
       <c r="B137" s="3">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -2646,10 +2696,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
-        <v>22031</v>
+        <v>22034</v>
       </c>
       <c r="B138" s="3">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -2657,10 +2707,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
-        <v>22032</v>
+        <v>22035</v>
       </c>
       <c r="B139" s="3">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -2668,10 +2718,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
-        <v>22033</v>
+        <v>22036</v>
       </c>
       <c r="B140" s="3">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -2679,10 +2729,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
-        <v>22034</v>
+        <v>22037</v>
       </c>
       <c r="B141" s="3">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -2690,10 +2740,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
-        <v>22035</v>
+        <v>22038</v>
       </c>
       <c r="B142" s="3">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -2701,10 +2751,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
-        <v>22036</v>
+        <v>22039</v>
       </c>
       <c r="B143" s="3">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -2712,10 +2762,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
-        <v>22037</v>
+        <v>22040</v>
       </c>
       <c r="B144" s="3">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -2723,10 +2773,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
-        <v>22038</v>
+        <v>22041</v>
       </c>
       <c r="B145" s="3">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -2734,10 +2784,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
-        <v>22039</v>
+        <v>22042</v>
       </c>
       <c r="B146" s="3">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -2745,10 +2795,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
-        <v>22040</v>
+        <v>22043</v>
       </c>
       <c r="B147" s="3">
-        <v>1033</v>
+        <v>2009</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -2756,10 +2806,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
-        <v>22041</v>
+        <v>22044</v>
       </c>
       <c r="B148" s="3">
-        <v>1034</v>
+        <v>2010</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -2767,10 +2817,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
-        <v>22042</v>
+        <v>22045</v>
       </c>
       <c r="B149" s="3">
-        <v>1039</v>
+        <v>2011</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
@@ -2778,10 +2828,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
-        <v>22043</v>
+        <v>22046</v>
       </c>
       <c r="B150" s="3">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -2789,10 +2839,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
-        <v>22044</v>
+        <v>22047</v>
       </c>
       <c r="B151" s="3">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
@@ -2800,10 +2850,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
-        <v>22045</v>
+        <v>22048</v>
       </c>
       <c r="B152" s="3">
-        <v>2002</v>
+        <v>4001</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -2811,10 +2861,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
-        <v>22046</v>
+        <v>22049</v>
       </c>
       <c r="B153" s="3">
-        <v>2003</v>
+        <v>4002</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
@@ -2822,10 +2872,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
-        <v>22047</v>
+        <v>22050</v>
       </c>
       <c r="B154" s="3">
-        <v>2004</v>
+        <v>4003</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
@@ -2833,10 +2883,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
-        <v>22048</v>
+        <v>22051</v>
       </c>
       <c r="B155" s="3">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
@@ -2844,10 +2894,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
-        <v>22049</v>
+        <v>22052</v>
       </c>
       <c r="B156" s="3">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
@@ -2855,10 +2905,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
-        <v>22050</v>
+        <v>22053</v>
       </c>
       <c r="B157" s="3">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
@@ -2866,43 +2916,43 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
-        <v>22051</v>
+        <v>50001</v>
       </c>
       <c r="B158" s="3">
-        <v>4004</v>
+        <v>123</v>
       </c>
       <c r="C158" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
-        <v>22052</v>
+        <v>50002</v>
       </c>
       <c r="B159" s="3">
-        <v>4005</v>
+        <v>123</v>
       </c>
       <c r="C159" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
-        <v>22053</v>
+        <v>50003</v>
       </c>
       <c r="B160" s="3">
-        <v>4006</v>
+        <v>123</v>
       </c>
       <c r="C160" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
-        <v>50001</v>
+        <v>50004</v>
       </c>
       <c r="B161" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C161" s="3">
         <v>10</v>
@@ -2910,10 +2960,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
-        <v>50002</v>
+        <v>50005</v>
       </c>
       <c r="B162" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C162" s="3">
         <v>7</v>
@@ -2921,10 +2971,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
-        <v>50003</v>
+        <v>50006</v>
       </c>
       <c r="B163" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C163" s="3">
         <v>5</v>
@@ -2932,10 +2982,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
-        <v>50004</v>
+        <v>50007</v>
       </c>
       <c r="B164" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C164" s="3">
         <v>10</v>
@@ -2943,10 +2993,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
-        <v>50005</v>
+        <v>50008</v>
       </c>
       <c r="B165" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C165" s="3">
         <v>7</v>
@@ -2954,10 +3004,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
-        <v>50006</v>
+        <v>50009</v>
       </c>
       <c r="B166" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C166" s="3">
         <v>5</v>
@@ -2965,10 +3015,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
-        <v>50007</v>
+        <v>50010</v>
       </c>
       <c r="B167" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C167" s="3">
         <v>10</v>
@@ -2976,10 +3026,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
-        <v>50008</v>
+        <v>50011</v>
       </c>
       <c r="B168" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C168" s="3">
         <v>7</v>
@@ -2987,10 +3037,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="3">
-        <v>50009</v>
+        <v>50012</v>
       </c>
       <c r="B169" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C169" s="3">
         <v>5</v>
@@ -2998,10 +3048,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
-        <v>50010</v>
+        <v>50013</v>
       </c>
       <c r="B170" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C170" s="3">
         <v>10</v>
@@ -3009,10 +3059,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="3">
-        <v>50011</v>
+        <v>50014</v>
       </c>
       <c r="B171" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C171" s="3">
         <v>7</v>
@@ -3020,10 +3070,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="3">
-        <v>50012</v>
+        <v>50015</v>
       </c>
       <c r="B172" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C172" s="3">
         <v>5</v>
@@ -3031,43 +3081,43 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="3">
-        <v>50013</v>
+        <v>60001</v>
       </c>
       <c r="B173" s="3">
-        <v>127</v>
+        <v>559</v>
       </c>
       <c r="C173" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="3">
-        <v>50014</v>
+        <v>60002</v>
       </c>
       <c r="B174" s="3">
-        <v>127</v>
+        <v>550</v>
       </c>
       <c r="C174" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="3">
-        <v>50015</v>
+        <v>60003</v>
       </c>
       <c r="B175" s="3">
-        <v>127</v>
+        <v>551</v>
       </c>
       <c r="C175" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="3">
-        <v>60001</v>
+        <v>60004</v>
       </c>
       <c r="B176" s="3">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C176" s="3">
         <v>2</v>
@@ -3075,10 +3125,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="3">
-        <v>60002</v>
+        <v>60005</v>
       </c>
       <c r="B177" s="3">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C177" s="3">
         <v>2</v>
@@ -3086,10 +3136,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="3">
-        <v>60003</v>
+        <v>60006</v>
       </c>
       <c r="B178" s="3">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C178" s="3">
         <v>2</v>
@@ -3097,10 +3147,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="3">
-        <v>60004</v>
+        <v>60007</v>
       </c>
       <c r="B179" s="3">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C179" s="3">
         <v>2</v>
@@ -3108,10 +3158,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="3">
-        <v>60005</v>
+        <v>60008</v>
       </c>
       <c r="B180" s="3">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C180" s="3">
         <v>2</v>
@@ -3119,10 +3169,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="3">
-        <v>60006</v>
+        <v>60009</v>
       </c>
       <c r="B181" s="3">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C181" s="3">
         <v>2</v>
@@ -3130,10 +3180,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="3">
-        <v>60007</v>
+        <v>60010</v>
       </c>
       <c r="B182" s="3">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C182" s="3">
         <v>2</v>
@@ -3141,65 +3191,65 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="3">
-        <v>60008</v>
+        <v>70001</v>
       </c>
       <c r="B183" s="3">
-        <v>556</v>
+        <v>3001</v>
       </c>
       <c r="C183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="3">
-        <v>60009</v>
+        <v>70002</v>
       </c>
       <c r="B184" s="3">
-        <v>557</v>
+        <v>1</v>
       </c>
       <c r="C184" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="3">
-        <v>60010</v>
+        <v>70003</v>
       </c>
       <c r="B185" s="3">
-        <v>558</v>
+        <v>2</v>
       </c>
       <c r="C185" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="3">
-        <v>70001</v>
+        <v>80001</v>
       </c>
       <c r="B186" s="3">
-        <v>3001</v>
+        <v>7016</v>
       </c>
       <c r="C186" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="3">
-        <v>70002</v>
+        <v>80002</v>
       </c>
       <c r="B187" s="3">
-        <v>1</v>
+        <v>7016</v>
       </c>
       <c r="C187" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="3">
-        <v>70003</v>
+        <v>80003</v>
       </c>
       <c r="B188" s="3">
-        <v>2</v>
+        <v>7016</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
@@ -3207,10 +3257,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="3">
-        <v>80001</v>
+        <v>80004</v>
       </c>
       <c r="B189" s="3">
-        <v>7016</v>
+        <v>7017</v>
       </c>
       <c r="C189" s="3">
         <v>3</v>
@@ -3218,10 +3268,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="3">
-        <v>80002</v>
+        <v>80005</v>
       </c>
       <c r="B190" s="3">
-        <v>7016</v>
+        <v>7017</v>
       </c>
       <c r="C190" s="3">
         <v>2</v>
@@ -3229,10 +3279,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="3">
-        <v>80003</v>
+        <v>80006</v>
       </c>
       <c r="B191" s="3">
-        <v>7016</v>
+        <v>7017</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
@@ -3240,10 +3290,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="3">
-        <v>80004</v>
+        <v>80007</v>
       </c>
       <c r="B192" s="3">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="C192" s="3">
         <v>3</v>
@@ -3251,10 +3301,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="3">
-        <v>80005</v>
+        <v>80008</v>
       </c>
       <c r="B193" s="3">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="C193" s="3">
         <v>2</v>
@@ -3262,10 +3312,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="3">
-        <v>80006</v>
+        <v>80009</v>
       </c>
       <c r="B194" s="3">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
@@ -3273,10 +3323,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="3">
-        <v>80007</v>
+        <v>80010</v>
       </c>
       <c r="B195" s="3">
-        <v>7018</v>
+        <v>7019</v>
       </c>
       <c r="C195" s="3">
         <v>3</v>
@@ -3284,10 +3334,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="3">
-        <v>80008</v>
+        <v>80011</v>
       </c>
       <c r="B196" s="3">
-        <v>7018</v>
+        <v>7019</v>
       </c>
       <c r="C196" s="3">
         <v>2</v>
@@ -3295,10 +3345,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="3">
-        <v>80009</v>
+        <v>80012</v>
       </c>
       <c r="B197" s="3">
-        <v>7018</v>
+        <v>7019</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
@@ -3306,10 +3356,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="3">
-        <v>80010</v>
+        <v>80013</v>
       </c>
       <c r="B198" s="3">
-        <v>7019</v>
+        <v>7020</v>
       </c>
       <c r="C198" s="3">
         <v>3</v>
@@ -3317,10 +3367,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="3">
-        <v>80011</v>
+        <v>80014</v>
       </c>
       <c r="B199" s="3">
-        <v>7019</v>
+        <v>7020</v>
       </c>
       <c r="C199" s="3">
         <v>2</v>
@@ -3328,10 +3378,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="3">
-        <v>80012</v>
+        <v>80015</v>
       </c>
       <c r="B200" s="3">
-        <v>7019</v>
+        <v>7020</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
@@ -3339,21 +3389,21 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="3">
-        <v>80013</v>
+        <v>80016</v>
       </c>
       <c r="B201" s="3">
-        <v>7020</v>
+        <v>7021</v>
       </c>
       <c r="C201" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="3">
-        <v>80014</v>
+        <v>80017</v>
       </c>
       <c r="B202" s="3">
-        <v>7020</v>
+        <v>7022</v>
       </c>
       <c r="C202" s="3">
         <v>2</v>
@@ -3361,21 +3411,21 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="3">
-        <v>80015</v>
+        <v>80018</v>
       </c>
       <c r="B203" s="3">
-        <v>7020</v>
+        <v>7023</v>
       </c>
       <c r="C203" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="3">
-        <v>80016</v>
+        <v>80019</v>
       </c>
       <c r="B204" s="3">
-        <v>7021</v>
+        <v>7024</v>
       </c>
       <c r="C204" s="3">
         <v>2</v>
@@ -3383,10 +3433,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="3">
-        <v>80017</v>
+        <v>80020</v>
       </c>
       <c r="B205" s="3">
-        <v>7022</v>
+        <v>7025</v>
       </c>
       <c r="C205" s="3">
         <v>2</v>
@@ -3394,10 +3444,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="3">
-        <v>80018</v>
+        <v>80021</v>
       </c>
       <c r="B206" s="3">
-        <v>7023</v>
+        <v>7026</v>
       </c>
       <c r="C206" s="3">
         <v>2</v>
@@ -3405,10 +3455,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="3">
-        <v>80019</v>
+        <v>80022</v>
       </c>
       <c r="B207" s="3">
-        <v>7024</v>
+        <v>7027</v>
       </c>
       <c r="C207" s="3">
         <v>2</v>
@@ -3416,10 +3466,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="3">
-        <v>80020</v>
+        <v>80023</v>
       </c>
       <c r="B208" s="3">
-        <v>7025</v>
+        <v>7028</v>
       </c>
       <c r="C208" s="3">
         <v>2</v>
@@ -3427,10 +3477,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="3">
-        <v>80021</v>
+        <v>80024</v>
       </c>
       <c r="B209" s="3">
-        <v>7026</v>
+        <v>7029</v>
       </c>
       <c r="C209" s="3">
         <v>2</v>
@@ -3438,10 +3488,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="3">
-        <v>80022</v>
+        <v>80025</v>
       </c>
       <c r="B210" s="3">
-        <v>7027</v>
+        <v>7030</v>
       </c>
       <c r="C210" s="3">
         <v>2</v>
@@ -3449,21 +3499,21 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="3">
-        <v>80023</v>
+        <v>81001</v>
       </c>
       <c r="B211" s="3">
-        <v>7028</v>
+        <v>6</v>
       </c>
       <c r="C211" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="3">
-        <v>80024</v>
+        <v>81002</v>
       </c>
       <c r="B212" s="3">
-        <v>7029</v>
+        <v>6</v>
       </c>
       <c r="C212" s="3">
         <v>2</v>
@@ -3471,21 +3521,21 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="3">
-        <v>80025</v>
+        <v>81003</v>
       </c>
       <c r="B213" s="3">
-        <v>7030</v>
+        <v>6</v>
       </c>
       <c r="C213" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="3">
-        <v>81001</v>
+        <v>81004</v>
       </c>
       <c r="B214" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" s="3">
         <v>3</v>
@@ -3493,10 +3543,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="3">
-        <v>81002</v>
+        <v>81005</v>
       </c>
       <c r="B215" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" s="3">
         <v>2</v>
@@ -3504,10 +3554,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="3">
-        <v>81003</v>
+        <v>81006</v>
       </c>
       <c r="B216" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" s="3">
         <v>1</v>
@@ -3515,10 +3565,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="3">
-        <v>81004</v>
+        <v>81007</v>
       </c>
       <c r="B217" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" s="3">
         <v>3</v>
@@ -3526,10 +3576,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="3">
-        <v>81005</v>
+        <v>81008</v>
       </c>
       <c r="B218" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" s="3">
         <v>2</v>
@@ -3537,10 +3587,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="3">
-        <v>81006</v>
+        <v>81009</v>
       </c>
       <c r="B219" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" s="3">
         <v>1</v>
@@ -3548,21 +3598,21 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="3">
-        <v>81007</v>
+        <v>81010</v>
       </c>
       <c r="B220" s="3">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C220" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="3">
-        <v>81008</v>
+        <v>81011</v>
       </c>
       <c r="B221" s="3">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C221" s="3">
         <v>2</v>
@@ -3570,21 +3620,21 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="3">
-        <v>81009</v>
+        <v>81012</v>
       </c>
       <c r="B222" s="3">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C222" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="3">
-        <v>81010</v>
+        <v>81013</v>
       </c>
       <c r="B223" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C223" s="3">
         <v>2</v>
@@ -3592,10 +3642,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
-        <v>81011</v>
+        <v>81014</v>
       </c>
       <c r="B224" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C224" s="3">
         <v>2</v>
@@ -3603,10 +3653,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
-        <v>81012</v>
+        <v>81015</v>
       </c>
       <c r="B225" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C225" s="3">
         <v>2</v>
@@ -3614,43 +3664,43 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
-        <v>81013</v>
+        <v>83001</v>
       </c>
       <c r="B226" s="3">
-        <v>137</v>
+        <v>10010</v>
       </c>
       <c r="C226" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
-        <v>81014</v>
+        <v>83002</v>
       </c>
       <c r="B227" s="3">
-        <v>138</v>
+        <v>10011</v>
       </c>
       <c r="C227" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
-        <v>81015</v>
+        <v>83003</v>
       </c>
       <c r="B228" s="3">
-        <v>139</v>
+        <v>10012</v>
       </c>
       <c r="C228" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
-        <v>83001</v>
+        <v>83004</v>
       </c>
       <c r="B229" s="3">
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="C229" s="3">
         <v>1</v>
@@ -3658,10 +3708,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
-        <v>83002</v>
+        <v>83005</v>
       </c>
       <c r="B230" s="3">
-        <v>10011</v>
+        <v>10005</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -3669,10 +3719,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
-        <v>83003</v>
+        <v>83006</v>
       </c>
       <c r="B231" s="3">
-        <v>10012</v>
+        <v>10006</v>
       </c>
       <c r="C231" s="3">
         <v>1</v>
@@ -3680,10 +3730,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
-        <v>83004</v>
+        <v>83007</v>
       </c>
       <c r="B232" s="3">
-        <v>10004</v>
+        <v>10007</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
@@ -3691,10 +3741,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
-        <v>83005</v>
+        <v>83008</v>
       </c>
       <c r="B233" s="3">
-        <v>10005</v>
+        <v>10008</v>
       </c>
       <c r="C233" s="3">
         <v>1</v>
@@ -3702,10 +3752,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
-        <v>83006</v>
+        <v>83009</v>
       </c>
       <c r="B234" s="3">
-        <v>10006</v>
+        <v>10009</v>
       </c>
       <c r="C234" s="3">
         <v>1</v>
@@ -3713,10 +3763,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="3">
-        <v>83007</v>
+        <v>83010</v>
       </c>
       <c r="B235" s="3">
-        <v>10007</v>
+        <v>10013</v>
       </c>
       <c r="C235" s="3">
         <v>1</v>
@@ -3724,10 +3774,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="3">
-        <v>83008</v>
+        <v>83011</v>
       </c>
       <c r="B236" s="3">
-        <v>10008</v>
+        <v>10014</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
@@ -3735,10 +3785,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="3">
-        <v>83009</v>
+        <v>83012</v>
       </c>
       <c r="B237" s="3">
-        <v>10009</v>
+        <v>10015</v>
       </c>
       <c r="C237" s="3">
         <v>1</v>
@@ -3746,10 +3796,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="3">
-        <v>83010</v>
+        <v>83013</v>
       </c>
       <c r="B238" s="3">
-        <v>10013</v>
+        <v>10016</v>
       </c>
       <c r="C238" s="3">
         <v>1</v>
@@ -3757,10 +3807,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="3">
-        <v>83011</v>
+        <v>83014</v>
       </c>
       <c r="B239" s="3">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C239" s="3">
         <v>1</v>
@@ -3768,10 +3818,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="3">
-        <v>83012</v>
+        <v>83015</v>
       </c>
       <c r="B240" s="3">
-        <v>10015</v>
+        <v>10018</v>
       </c>
       <c r="C240" s="3">
         <v>1</v>
@@ -3779,10 +3829,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="3">
-        <v>83013</v>
+        <v>83016</v>
       </c>
       <c r="B241" s="3">
-        <v>10016</v>
+        <v>10019</v>
       </c>
       <c r="C241" s="3">
         <v>1</v>
@@ -3790,10 +3840,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="3">
-        <v>83014</v>
+        <v>83017</v>
       </c>
       <c r="B242" s="3">
-        <v>10017</v>
+        <v>10020</v>
       </c>
       <c r="C242" s="3">
         <v>1</v>
@@ -3801,10 +3851,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="3">
-        <v>83015</v>
+        <v>83018</v>
       </c>
       <c r="B243" s="3">
-        <v>10018</v>
+        <v>10021</v>
       </c>
       <c r="C243" s="3">
         <v>1</v>
@@ -3812,10 +3862,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="3">
-        <v>83016</v>
+        <v>83019</v>
       </c>
       <c r="B244" s="3">
-        <v>10019</v>
+        <v>10022</v>
       </c>
       <c r="C244" s="3">
         <v>1</v>
@@ -3823,10 +3873,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="3">
-        <v>83017</v>
+        <v>83020</v>
       </c>
       <c r="B245" s="3">
-        <v>10020</v>
+        <v>10023</v>
       </c>
       <c r="C245" s="3">
         <v>1</v>
@@ -3834,10 +3884,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="3">
-        <v>83018</v>
+        <v>83021</v>
       </c>
       <c r="B246" s="3">
-        <v>10021</v>
+        <v>10024</v>
       </c>
       <c r="C246" s="3">
         <v>1</v>
@@ -3845,10 +3895,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="3">
-        <v>83019</v>
+        <v>83022</v>
       </c>
       <c r="B247" s="3">
-        <v>10022</v>
+        <v>1029</v>
       </c>
       <c r="C247" s="3">
         <v>1</v>
@@ -3856,10 +3906,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="3">
-        <v>83020</v>
+        <v>83023</v>
       </c>
       <c r="B248" s="3">
-        <v>10023</v>
+        <v>1030</v>
       </c>
       <c r="C248" s="3">
         <v>1</v>
@@ -3867,10 +3917,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="3">
-        <v>83021</v>
+        <v>83024</v>
       </c>
       <c r="B249" s="3">
-        <v>10024</v>
+        <v>1031</v>
       </c>
       <c r="C249" s="3">
         <v>1</v>
@@ -3878,10 +3928,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="3">
-        <v>83022</v>
+        <v>83025</v>
       </c>
       <c r="B250" s="3">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C250" s="3">
         <v>1</v>
@@ -3889,10 +3939,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="3">
-        <v>83023</v>
+        <v>83026</v>
       </c>
       <c r="B251" s="3">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C251" s="3">
         <v>1</v>
@@ -3900,10 +3950,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="3">
-        <v>83024</v>
+        <v>83027</v>
       </c>
       <c r="B252" s="3">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C252" s="3">
         <v>1</v>
@@ -3911,10 +3961,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="3">
-        <v>83025</v>
+        <v>83028</v>
       </c>
       <c r="B253" s="3">
-        <v>1032</v>
+        <v>10025</v>
       </c>
       <c r="C253" s="3">
         <v>1</v>
@@ -3922,10 +3972,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="3">
-        <v>83026</v>
+        <v>83029</v>
       </c>
       <c r="B254" s="3">
-        <v>1033</v>
+        <v>10026</v>
       </c>
       <c r="C254" s="3">
         <v>1</v>
@@ -3933,10 +3983,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="3">
-        <v>83027</v>
+        <v>83030</v>
       </c>
       <c r="B255" s="3">
-        <v>1034</v>
+        <v>10027</v>
       </c>
       <c r="C255" s="3">
         <v>1</v>
@@ -3944,10 +3994,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="3">
-        <v>83028</v>
+        <v>83031</v>
       </c>
       <c r="B256" s="3">
-        <v>10025</v>
+        <v>10028</v>
       </c>
       <c r="C256" s="3">
         <v>1</v>
@@ -3955,10 +4005,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="3">
-        <v>83029</v>
+        <v>83032</v>
       </c>
       <c r="B257" s="3">
-        <v>10026</v>
+        <v>10029</v>
       </c>
       <c r="C257" s="3">
         <v>1</v>
@@ -3966,10 +4016,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="3">
-        <v>83030</v>
+        <v>83033</v>
       </c>
       <c r="B258" s="3">
-        <v>10027</v>
+        <v>10030</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
@@ -3977,10 +4027,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" s="3">
-        <v>83031</v>
+        <v>83034</v>
       </c>
       <c r="B259" s="3">
-        <v>10028</v>
+        <v>10031</v>
       </c>
       <c r="C259" s="3">
         <v>1</v>
@@ -3988,10 +4038,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="3">
-        <v>83032</v>
+        <v>83035</v>
       </c>
       <c r="B260" s="3">
-        <v>10029</v>
+        <v>10032</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
@@ -3999,10 +4049,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="3">
-        <v>83033</v>
+        <v>83036</v>
       </c>
       <c r="B261" s="3">
-        <v>10030</v>
+        <v>10033</v>
       </c>
       <c r="C261" s="3">
         <v>1</v>
@@ -4010,43 +4060,43 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="3">
-        <v>83034</v>
+        <v>83301</v>
       </c>
       <c r="B262" s="3">
-        <v>10031</v>
+        <v>123</v>
       </c>
       <c r="C262" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="3">
-        <v>83035</v>
+        <v>83302</v>
       </c>
       <c r="B263" s="3">
-        <v>10032</v>
+        <v>124</v>
       </c>
       <c r="C263" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="3">
-        <v>83036</v>
+        <v>83303</v>
       </c>
       <c r="B264" s="3">
-        <v>10033</v>
+        <v>125</v>
       </c>
       <c r="C264" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="3">
-        <v>83301</v>
+        <v>83304</v>
       </c>
       <c r="B265" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C265" s="3">
         <v>3</v>
@@ -4054,10 +4104,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="3">
-        <v>83302</v>
+        <v>83305</v>
       </c>
       <c r="B266" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C266" s="3">
         <v>3</v>
@@ -4065,43 +4115,43 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" s="3">
-        <v>83303</v>
+        <v>83306</v>
       </c>
       <c r="B267" s="3">
-        <v>125</v>
+        <v>7021</v>
       </c>
       <c r="C267" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" s="3">
-        <v>83304</v>
+        <v>83307</v>
       </c>
       <c r="B268" s="3">
-        <v>126</v>
+        <v>7022</v>
       </c>
       <c r="C268" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" s="3">
-        <v>83305</v>
+        <v>83308</v>
       </c>
       <c r="B269" s="3">
-        <v>127</v>
+        <v>7023</v>
       </c>
       <c r="C269" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="3">
-        <v>83306</v>
+        <v>83309</v>
       </c>
       <c r="B270" s="3">
-        <v>7021</v>
+        <v>7024</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
@@ -4109,10 +4159,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="3">
-        <v>83307</v>
+        <v>83310</v>
       </c>
       <c r="B271" s="3">
-        <v>7022</v>
+        <v>7025</v>
       </c>
       <c r="C271" s="3">
         <v>1</v>
@@ -4120,10 +4170,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="3">
-        <v>83308</v>
+        <v>83311</v>
       </c>
       <c r="B272" s="3">
-        <v>7023</v>
+        <v>7026</v>
       </c>
       <c r="C272" s="3">
         <v>1</v>
@@ -4131,10 +4181,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="3">
-        <v>83309</v>
+        <v>83312</v>
       </c>
       <c r="B273" s="3">
-        <v>7024</v>
+        <v>7027</v>
       </c>
       <c r="C273" s="3">
         <v>1</v>
@@ -4142,10 +4192,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" s="3">
-        <v>83310</v>
+        <v>83313</v>
       </c>
       <c r="B274" s="3">
-        <v>7025</v>
+        <v>7028</v>
       </c>
       <c r="C274" s="3">
         <v>1</v>
@@ -4153,10 +4203,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" s="3">
-        <v>83311</v>
+        <v>83314</v>
       </c>
       <c r="B275" s="3">
-        <v>7026</v>
+        <v>7029</v>
       </c>
       <c r="C275" s="3">
         <v>1</v>
@@ -4164,10 +4214,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="3">
-        <v>83312</v>
+        <v>83315</v>
       </c>
       <c r="B276" s="3">
-        <v>7027</v>
+        <v>7030</v>
       </c>
       <c r="C276" s="3">
         <v>1</v>
@@ -4175,10 +4225,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="3">
-        <v>83313</v>
+        <v>84001</v>
       </c>
       <c r="B277" s="3">
-        <v>7028</v>
+        <v>9003</v>
       </c>
       <c r="C277" s="3">
         <v>1</v>
@@ -4186,10 +4236,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="3">
-        <v>83314</v>
+        <v>84002</v>
       </c>
       <c r="B278" s="3">
-        <v>7029</v>
+        <v>9005</v>
       </c>
       <c r="C278" s="3">
         <v>1</v>
@@ -4197,21 +4247,21 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="3">
-        <v>83315</v>
+        <v>84003</v>
       </c>
       <c r="B279" s="3">
-        <v>7030</v>
+        <v>9002</v>
       </c>
       <c r="C279" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="3">
-        <v>84001</v>
+        <v>84004</v>
       </c>
       <c r="B280" s="3">
-        <v>9003</v>
+        <v>123</v>
       </c>
       <c r="C280" s="3">
         <v>1</v>
@@ -4219,10 +4269,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="3">
-        <v>84002</v>
+        <v>84005</v>
       </c>
       <c r="B281" s="3">
-        <v>9005</v>
+        <v>124</v>
       </c>
       <c r="C281" s="3">
         <v>1</v>
@@ -4230,21 +4280,21 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282" s="3">
-        <v>84003</v>
+        <v>84006</v>
       </c>
       <c r="B282" s="3">
-        <v>9002</v>
+        <v>125</v>
       </c>
       <c r="C282" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" s="3">
-        <v>84004</v>
+        <v>84007</v>
       </c>
       <c r="B283" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C283" s="3">
         <v>1</v>
@@ -4252,10 +4302,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284" s="3">
-        <v>84005</v>
+        <v>84008</v>
       </c>
       <c r="B284" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C284" s="3">
         <v>1</v>
@@ -4263,10 +4313,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="3">
-        <v>84006</v>
+        <v>84009</v>
       </c>
       <c r="B285" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C285" s="3">
         <v>1</v>
@@ -4274,10 +4324,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="3">
-        <v>84007</v>
+        <v>84010</v>
       </c>
       <c r="B286" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C286" s="3">
         <v>1</v>
@@ -4285,10 +4335,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="3">
-        <v>84008</v>
+        <v>84011</v>
       </c>
       <c r="B287" s="3">
-        <v>127</v>
+        <v>550</v>
       </c>
       <c r="C287" s="3">
         <v>1</v>
@@ -4296,10 +4346,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="3">
-        <v>84009</v>
+        <v>84012</v>
       </c>
       <c r="B288" s="3">
-        <v>128</v>
+        <v>551</v>
       </c>
       <c r="C288" s="3">
         <v>1</v>
@@ -4307,10 +4357,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
-        <v>84010</v>
+        <v>84013</v>
       </c>
       <c r="B289" s="3">
-        <v>129</v>
+        <v>552</v>
       </c>
       <c r="C289" s="3">
         <v>1</v>
@@ -4318,10 +4368,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
-        <v>84011</v>
+        <v>84014</v>
       </c>
       <c r="B290" s="3">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
@@ -4329,10 +4379,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="3">
-        <v>84012</v>
+        <v>84015</v>
       </c>
       <c r="B291" s="3">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C291" s="3">
         <v>1</v>
@@ -4340,10 +4390,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="3">
-        <v>84013</v>
+        <v>84016</v>
       </c>
       <c r="B292" s="3">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C292" s="3">
         <v>1</v>
@@ -4351,10 +4401,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
-        <v>84014</v>
+        <v>84017</v>
       </c>
       <c r="B293" s="3">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C293" s="3">
         <v>1</v>
@@ -4362,10 +4412,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
-        <v>84015</v>
+        <v>84018</v>
       </c>
       <c r="B294" s="3">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C294" s="3">
         <v>1</v>
@@ -4373,10 +4423,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="3">
-        <v>84016</v>
+        <v>84019</v>
       </c>
       <c r="B295" s="3">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C295" s="3">
         <v>1</v>
@@ -4384,10 +4434,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="3">
-        <v>84017</v>
+        <v>84020</v>
       </c>
       <c r="B296" s="3">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C296" s="3">
         <v>1</v>
@@ -4395,10 +4445,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
-        <v>84018</v>
+        <v>84021</v>
       </c>
       <c r="B297" s="3">
-        <v>557</v>
+        <v>134</v>
       </c>
       <c r="C297" s="3">
         <v>1</v>
@@ -4406,10 +4456,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
-        <v>84019</v>
+        <v>84022</v>
       </c>
       <c r="B298" s="3">
-        <v>558</v>
+        <v>135</v>
       </c>
       <c r="C298" s="3">
         <v>1</v>
@@ -4417,10 +4467,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="3">
-        <v>84020</v>
+        <v>84023</v>
       </c>
       <c r="B299" s="3">
-        <v>559</v>
+        <v>136</v>
       </c>
       <c r="C299" s="3">
         <v>1</v>
@@ -4428,10 +4478,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="3">
-        <v>84021</v>
+        <v>84024</v>
       </c>
       <c r="B300" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C300" s="3">
         <v>1</v>
@@ -4439,10 +4489,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
-        <v>84022</v>
+        <v>84025</v>
       </c>
       <c r="B301" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C301" s="3">
         <v>1</v>
@@ -4450,10 +4500,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
-        <v>84023</v>
+        <v>84026</v>
       </c>
       <c r="B302" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C302" s="3">
         <v>1</v>
@@ -4461,10 +4511,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="3">
-        <v>84024</v>
+        <v>84027</v>
       </c>
       <c r="B303" s="3">
-        <v>137</v>
+        <v>500</v>
       </c>
       <c r="C303" s="3">
         <v>1</v>
@@ -4472,10 +4522,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="3">
-        <v>84025</v>
+        <v>84028</v>
       </c>
       <c r="B304" s="3">
-        <v>138</v>
+        <v>501</v>
       </c>
       <c r="C304" s="3">
         <v>1</v>
@@ -4483,10 +4533,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="3">
-        <v>84026</v>
+        <v>84029</v>
       </c>
       <c r="B305" s="3">
-        <v>139</v>
+        <v>502</v>
       </c>
       <c r="C305" s="3">
         <v>1</v>
@@ -4494,10 +4544,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="3">
-        <v>84027</v>
+        <v>84030</v>
       </c>
       <c r="B306" s="3">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C306" s="3">
         <v>1</v>
@@ -4505,10 +4555,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="3">
-        <v>84028</v>
+        <v>84031</v>
       </c>
       <c r="B307" s="3">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C307" s="3">
         <v>1</v>
@@ -4516,10 +4566,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="3">
-        <v>84029</v>
+        <v>84032</v>
       </c>
       <c r="B308" s="3">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C308" s="3">
         <v>1</v>
@@ -4527,10 +4577,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="3">
-        <v>84030</v>
+        <v>84033</v>
       </c>
       <c r="B309" s="3">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C309" s="3">
         <v>1</v>
@@ -4538,10 +4588,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="3">
-        <v>84031</v>
+        <v>84034</v>
       </c>
       <c r="B310" s="3">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C310" s="3">
         <v>1</v>
@@ -4549,10 +4599,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="3">
-        <v>84032</v>
+        <v>84035</v>
       </c>
       <c r="B311" s="3">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C311" s="3">
         <v>1</v>
@@ -4560,10 +4610,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="3">
-        <v>84033</v>
+        <v>84036</v>
       </c>
       <c r="B312" s="3">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C312" s="3">
         <v>1</v>
@@ -4571,10 +4621,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="3">
-        <v>84034</v>
+        <v>84037</v>
       </c>
       <c r="B313" s="3">
-        <v>507</v>
+        <v>600</v>
       </c>
       <c r="C313" s="3">
         <v>1</v>
@@ -4582,32 +4632,32 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="3">
-        <v>84035</v>
+        <v>84038</v>
       </c>
       <c r="B314" s="3">
-        <v>508</v>
+        <v>9005</v>
       </c>
       <c r="C314" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="3">
-        <v>84036</v>
+        <v>84039</v>
       </c>
       <c r="B315" s="3">
-        <v>509</v>
+        <v>9005</v>
       </c>
       <c r="C315" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="3">
-        <v>84037</v>
+        <v>85001</v>
       </c>
       <c r="B316" s="3">
-        <v>600</v>
+        <v>10013</v>
       </c>
       <c r="C316" s="3">
         <v>1</v>
@@ -4615,234 +4665,453 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="3">
-        <v>84038</v>
+        <v>85002</v>
       </c>
       <c r="B317" s="3">
-        <v>9005</v>
+        <v>10014</v>
       </c>
       <c r="C317" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="3">
-        <v>84039</v>
+        <v>85003</v>
       </c>
       <c r="B318" s="3">
-        <v>9005</v>
+        <v>10015</v>
       </c>
       <c r="C318" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="3">
-        <v>85001</v>
+        <v>85004</v>
       </c>
       <c r="B319" s="3">
-        <v>10013</v>
+        <v>9002</v>
       </c>
       <c r="C319" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="3">
-        <v>85002</v>
+        <v>85005</v>
       </c>
       <c r="B320" s="3">
-        <v>10014</v>
+        <v>9002</v>
       </c>
       <c r="C320" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" s="3">
-        <v>85003</v>
+        <v>85006</v>
       </c>
       <c r="B321" s="3">
-        <v>10015</v>
+        <v>9002</v>
       </c>
       <c r="C321" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" s="3">
-        <v>85004</v>
+        <v>300001</v>
       </c>
       <c r="B322" s="3">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C322" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" s="3">
-        <v>85005</v>
+        <v>300011</v>
       </c>
       <c r="B323" s="3">
-        <v>9002</v>
+        <v>1014</v>
       </c>
       <c r="C323" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" s="3">
-        <v>85006</v>
+        <v>300021</v>
       </c>
       <c r="B324" s="3">
-        <v>9002</v>
+        <v>1015</v>
       </c>
       <c r="C324" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" s="3">
-        <v>300001</v>
+        <v>300031</v>
       </c>
       <c r="B325" s="3">
-        <v>9004</v>
+        <v>1016</v>
       </c>
       <c r="C325" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A326" s="3">
+        <v>300041</v>
+      </c>
+      <c r="B326" s="3">
+        <v>1017</v>
+      </c>
+      <c r="C326" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A327" s="3">
+        <v>300051</v>
+      </c>
+      <c r="B327" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C327" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A328" s="3">
+        <v>300061</v>
+      </c>
+      <c r="B328" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C328" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A329" s="3">
+        <v>300071</v>
+      </c>
+      <c r="B329" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C329" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A330" s="3">
+        <v>300081</v>
+      </c>
+      <c r="B330" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C330" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A331" s="3">
+        <v>300091</v>
+      </c>
+      <c r="B331" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C331" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A332" s="3">
+        <v>300101</v>
+      </c>
+      <c r="B332" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C332" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A333" s="3">
+        <v>300111</v>
+      </c>
+      <c r="B333" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C333" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A334" s="3">
+        <v>300121</v>
+      </c>
+      <c r="B334" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C334" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A335" s="3">
+        <v>300131</v>
+      </c>
+      <c r="B335" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C335" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A326" s="3">
-        <v>300011</v>
-      </c>
-      <c r="B326" s="3">
-        <v>1014</v>
-      </c>
-      <c r="C326" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A327" s="3">
-        <v>300021</v>
-      </c>
-      <c r="B327" s="3">
-        <v>1015</v>
-      </c>
-      <c r="C327" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A328" s="3">
-        <v>300031</v>
-      </c>
-      <c r="B328" s="3">
-        <v>1016</v>
-      </c>
-      <c r="C328" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A329" s="3">
-        <v>300041</v>
-      </c>
-      <c r="B329" s="3">
-        <v>1017</v>
-      </c>
-      <c r="C329" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A330" s="3">
-        <v>300051</v>
-      </c>
-      <c r="B330" s="3">
-        <v>1018</v>
-      </c>
-      <c r="C330" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A331" s="3">
-        <v>300061</v>
-      </c>
-      <c r="B331" s="3">
-        <v>1019</v>
-      </c>
-      <c r="C331" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A332" s="3">
-        <v>300071</v>
-      </c>
-      <c r="B332" s="3">
-        <v>1020</v>
-      </c>
-      <c r="C332" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A333" s="3">
-        <v>300081</v>
-      </c>
-      <c r="B333" s="3">
-        <v>1021</v>
-      </c>
-      <c r="C333" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A334" s="3">
-        <v>300091</v>
-      </c>
-      <c r="B334" s="3">
-        <v>1022</v>
-      </c>
-      <c r="C334" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A335" s="3">
-        <v>300101</v>
-      </c>
-      <c r="B335" s="3">
-        <v>1023</v>
-      </c>
-      <c r="C335" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
+      <c r="H335" s="4"/>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4"/>
+      <c r="K335" s="4"/>
+      <c r="L335" s="4"/>
+      <c r="M335" s="4"/>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A336" s="3">
-        <v>300111</v>
-      </c>
-      <c r="B336" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C336" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+        <v>300141</v>
+      </c>
+      <c r="B336" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C336" s="4">
+        <v>5</v>
+      </c>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
+      <c r="I336" s="4"/>
+      <c r="J336" s="4"/>
+      <c r="K336" s="4"/>
+      <c r="L336" s="4"/>
+      <c r="M336" s="4"/>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="3">
-        <v>300121</v>
-      </c>
-      <c r="B337" s="3">
-        <v>1025</v>
-      </c>
-      <c r="C337" s="3">
-        <v>1</v>
-      </c>
+        <v>300151</v>
+      </c>
+      <c r="B337" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C337" s="4">
+        <v>5</v>
+      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
+      <c r="H337" s="4"/>
+      <c r="I337" s="4"/>
+      <c r="J337" s="4"/>
+      <c r="K337" s="4"/>
+      <c r="L337" s="4"/>
+      <c r="M337" s="4"/>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A338" s="3">
+        <v>300161</v>
+      </c>
+      <c r="B338" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C338" s="4">
+        <v>5</v>
+      </c>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
+      <c r="I338" s="4"/>
+      <c r="J338" s="4"/>
+      <c r="K338" s="4"/>
+      <c r="L338" s="4"/>
+      <c r="M338" s="4"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A339" s="3">
+        <v>300171</v>
+      </c>
+      <c r="B339" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C339" s="4">
+        <v>5</v>
+      </c>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
+      <c r="G339" s="4"/>
+      <c r="H339" s="4"/>
+      <c r="I339" s="4"/>
+      <c r="J339" s="4"/>
+      <c r="K339" s="4"/>
+      <c r="L339" s="4"/>
+      <c r="M339" s="4"/>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A340" s="3">
+        <v>300181</v>
+      </c>
+      <c r="B340" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C340" s="4">
+        <v>5</v>
+      </c>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
+      <c r="H340" s="4"/>
+      <c r="I340" s="4"/>
+      <c r="J340" s="4"/>
+      <c r="K340" s="4"/>
+      <c r="L340" s="4"/>
+      <c r="M340" s="4"/>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A341" s="3">
+        <v>300191</v>
+      </c>
+      <c r="B341" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C341" s="4">
+        <v>5</v>
+      </c>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
+      <c r="H341" s="4"/>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4"/>
+      <c r="K341" s="4"/>
+      <c r="L341" s="4"/>
+      <c r="M341" s="4"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A342" s="3">
+        <v>300201</v>
+      </c>
+      <c r="B342" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C342" s="4">
+        <v>5</v>
+      </c>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
+      <c r="I342" s="4"/>
+      <c r="J342" s="4"/>
+      <c r="K342" s="4"/>
+      <c r="L342" s="4"/>
+      <c r="M342" s="4"/>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A343" s="3">
+        <v>300211</v>
+      </c>
+      <c r="B343" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C343" s="4">
+        <v>5</v>
+      </c>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
+      <c r="I343" s="4"/>
+      <c r="J343" s="4"/>
+      <c r="K343" s="4"/>
+      <c r="L343" s="4"/>
+      <c r="M343" s="4"/>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A344" s="3">
+        <v>300221</v>
+      </c>
+      <c r="B344" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C344" s="4">
+        <v>5</v>
+      </c>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
+      <c r="G344" s="4"/>
+      <c r="H344" s="4"/>
+      <c r="I344" s="4"/>
+      <c r="J344" s="4"/>
+      <c r="K344" s="4"/>
+      <c r="L344" s="4"/>
+      <c r="M344" s="4"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A345" s="3">
+        <v>300231</v>
+      </c>
+      <c r="B345" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C345" s="4">
+        <v>5</v>
+      </c>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+      <c r="K345" s="4"/>
+      <c r="L345" s="4"/>
+      <c r="M345" s="4"/>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A346" s="3">
+        <v>300241</v>
+      </c>
+      <c r="B346" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C346" s="4">
+        <v>5</v>
+      </c>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
+      <c r="H346" s="4"/>
+      <c r="I346" s="4"/>
+      <c r="J346" s="4"/>
+      <c r="K346" s="4"/>
+      <c r="L346" s="4"/>
+      <c r="M346" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3C8C7-48DC-410C-BA78-504E444A061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C733627-3478-4837-8C45-9BB004401E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M346" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M346" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}" name="テーブル1" displayName="テーブル1" ref="A1:M355" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M355" xr:uid="{48760C31-326A-43BC-9D2F-453EFD6BC44B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{405E9A53-31D2-467D-949C-62F946D9990C}" name="ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{BC16BA2C-E7AC-4D86-AFED-2639B522A6B8}" name="Bonus1" dataDxfId="11"/>
@@ -902,13 +902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3042B-2951-4345-B428-6846CDC37CDC}">
-  <dimension ref="A1:M346"/>
+  <dimension ref="A1:M355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F335" sqref="F335"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1189,890 +1189,1016 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>101</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1039</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1005</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>102</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1034</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>103</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1017</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>104</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1029</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>105</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>106</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>107</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>108</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1005</v>
+      </c>
+      <c r="E20" s="4">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
         <v>1000</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
         <v>1001</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
         <v>2001</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B23" s="3">
         <v>10004</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
         <v>2002</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B24" s="3">
         <v>1001</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
         <v>2003</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B25" s="3">
         <v>1013</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C25" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <v>2004</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B26" s="3">
         <v>4006</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C26" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
         <v>2005</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B27" s="3">
         <v>3001</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
         <v>2006</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B28" s="3">
         <v>3001</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
         <v>2007</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B29" s="3">
         <v>135</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>2008</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9004</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
-        <v>2009</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1039</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1039</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B24" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B25" s="3">
-        <v>9003</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1035</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>3001</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1036</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
-        <v>3002</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1037</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
-        <v>3003</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2004</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="3">
+        <v>9004</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1039</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1039</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9003</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>3001</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1036</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>3002</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1037</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
         <v>3004</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B39" s="3">
         <v>2001</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C39" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
         <v>10001</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B40" s="3">
         <v>9000</v>
-      </c>
-      <c r="C31" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
-        <v>10002</v>
-      </c>
-      <c r="B32" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C32" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <v>10003</v>
-      </c>
-      <c r="B33" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
-        <v>10004</v>
-      </c>
-      <c r="B34" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>10005</v>
-      </c>
-      <c r="B35" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C35" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
-        <v>10006</v>
-      </c>
-      <c r="B36" s="3">
-        <v>9004</v>
-      </c>
-      <c r="C36" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
-        <v>10080</v>
-      </c>
-      <c r="B37" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C37" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="3">
-        <v>10081</v>
-      </c>
-      <c r="B38" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>130</v>
-      </c>
-      <c r="D38" s="3">
-        <v>9001</v>
-      </c>
-      <c r="E38" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="3">
-        <v>10082</v>
-      </c>
-      <c r="B39" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C39" s="3">
-        <v>215</v>
-      </c>
-      <c r="D39" s="3">
-        <v>9001</v>
-      </c>
-      <c r="E39" s="3">
-        <v>500</v>
-      </c>
-      <c r="F39" s="3">
-        <v>3001</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="3">
-        <v>11001</v>
-      </c>
-      <c r="B40" s="3">
-        <v>102</v>
       </c>
       <c r="C40" s="3">
         <v>100</v>
       </c>
-      <c r="D40" s="3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C41" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <v>10006</v>
+      </c>
+      <c r="B45" s="3">
+        <v>9004</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <v>10080</v>
+      </c>
+      <c r="B46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C46" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <v>10081</v>
+      </c>
+      <c r="B47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C47" s="3">
+        <v>130</v>
+      </c>
+      <c r="D47" s="3">
+        <v>9001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <v>10082</v>
+      </c>
+      <c r="B48" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C48" s="3">
+        <v>215</v>
+      </c>
+      <c r="D48" s="3">
+        <v>9001</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3001</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <v>11001</v>
+      </c>
+      <c r="B49" s="3">
+        <v>102</v>
+      </c>
+      <c r="C49" s="3">
+        <v>100</v>
+      </c>
+      <c r="D49" s="3">
         <v>103</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F49" s="3">
         <v>104</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H49" s="3">
         <v>112</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I49" s="3">
         <v>50</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J49" s="3">
         <v>107</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K49" s="3">
         <v>50</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L49" s="3">
         <v>3001</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M49" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
         <v>11002</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B50" s="3">
         <v>3001</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
         <v>11003</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B51" s="3">
         <v>3001</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C51" s="3">
         <v>3</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D51" s="3">
         <v>1004</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E51" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F51" s="3">
         <v>1005</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G51" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H51" s="3">
         <v>1006</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I51" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J51" s="3">
         <v>1007</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K51" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
         <v>11004</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B52" s="3">
         <v>3001</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C52" s="3">
         <v>3</v>
       </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F52" s="3">
         <v>2</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G52" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
         <v>11005</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B53" s="3">
         <v>3001</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C53" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
         <v>12001</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B54" s="3">
         <v>3001</v>
       </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="3">
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
         <v>12002</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B55" s="3">
         <v>1001</v>
-      </c>
-      <c r="C46" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
-        <v>12003</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C47" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" s="3">
-        <v>12004</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C48" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
-        <v>12005</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1004</v>
-      </c>
-      <c r="C49" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="3">
-        <v>12006</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C50" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
-        <v>12007</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C51" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
-        <v>12008</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C52" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="3">
-        <v>12009</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1008</v>
-      </c>
-      <c r="C53" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
-        <v>12010</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1009</v>
-      </c>
-      <c r="C54" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
-        <v>12011</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1010</v>
       </c>
       <c r="C55" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
-        <v>12012</v>
+        <v>12003</v>
       </c>
       <c r="B56" s="3">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="C56" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
-        <v>12013</v>
+        <v>12004</v>
       </c>
       <c r="B57" s="3">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C57" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
-        <v>12014</v>
+        <v>12005</v>
       </c>
       <c r="B58" s="3">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C58" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
-        <v>14001</v>
+        <v>12006</v>
       </c>
       <c r="B59" s="3">
-        <v>9002</v>
+        <v>1005</v>
       </c>
       <c r="C59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
-        <v>14002</v>
+        <v>12007</v>
       </c>
       <c r="B60" s="3">
-        <v>9002</v>
+        <v>1006</v>
       </c>
       <c r="C60" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
-        <v>14003</v>
+        <v>12008</v>
       </c>
       <c r="B61" s="3">
-        <v>9002</v>
+        <v>1007</v>
       </c>
       <c r="C61" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
-        <v>14004</v>
+        <v>12009</v>
       </c>
       <c r="B62" s="3">
-        <v>9002</v>
+        <v>1008</v>
       </c>
       <c r="C62" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
-        <v>14005</v>
+        <v>12010</v>
       </c>
       <c r="B63" s="3">
-        <v>9002</v>
+        <v>1009</v>
       </c>
       <c r="C63" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
-        <v>14006</v>
+        <v>12011</v>
       </c>
       <c r="B64" s="3">
-        <v>9002</v>
+        <v>1010</v>
       </c>
       <c r="C64" s="3">
-        <v>7000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
-        <v>14007</v>
+        <v>12012</v>
       </c>
       <c r="B65" s="3">
-        <v>9002</v>
+        <v>1011</v>
       </c>
       <c r="C65" s="3">
-        <v>11000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
-        <v>15001</v>
+        <v>12013</v>
       </c>
       <c r="B66" s="3">
-        <v>4006</v>
+        <v>1012</v>
       </c>
       <c r="C66" s="3">
-        <v>20</v>
-      </c>
-      <c r="D66" s="3">
-        <v>4003</v>
-      </c>
-      <c r="E66" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
-        <v>15002</v>
+        <v>12014</v>
       </c>
       <c r="B67" s="3">
-        <v>4005</v>
+        <v>1013</v>
       </c>
       <c r="C67" s="3">
-        <v>10</v>
-      </c>
-      <c r="D67" s="3">
-        <v>4002</v>
-      </c>
-      <c r="E67" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
-        <v>15003</v>
+        <v>14001</v>
       </c>
       <c r="B68" s="3">
-        <v>4004</v>
+        <v>9002</v>
       </c>
       <c r="C68" s="3">
-        <v>10</v>
-      </c>
-      <c r="D68" s="3">
-        <v>4001</v>
-      </c>
-      <c r="E68" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
-        <v>15004</v>
+        <v>14002</v>
       </c>
       <c r="B69" s="3">
-        <v>4006</v>
+        <v>9002</v>
       </c>
       <c r="C69" s="3">
-        <v>10</v>
-      </c>
-      <c r="D69" s="3">
-        <v>4003</v>
-      </c>
-      <c r="E69" s="3">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
-        <v>15005</v>
+        <v>14003</v>
       </c>
       <c r="B70" s="3">
-        <v>4005</v>
+        <v>9002</v>
       </c>
       <c r="C70" s="3">
-        <v>5</v>
-      </c>
-      <c r="D70" s="3">
-        <v>4002</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
-        <v>15006</v>
+        <v>14004</v>
       </c>
       <c r="B71" s="3">
-        <v>4004</v>
+        <v>9002</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
-      </c>
-      <c r="D71" s="3">
-        <v>4001</v>
-      </c>
-      <c r="E71" s="3">
-        <v>5</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
-        <v>15101</v>
+        <v>14005</v>
       </c>
       <c r="B72" s="3">
-        <v>1014</v>
+        <v>9002</v>
       </c>
       <c r="C72" s="3">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
-        <v>15102</v>
+        <v>14006</v>
       </c>
       <c r="B73" s="3">
-        <v>1015</v>
+        <v>9002</v>
       </c>
       <c r="C73" s="3">
-        <v>10</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
-        <v>15103</v>
+        <v>14007</v>
       </c>
       <c r="B74" s="3">
-        <v>1016</v>
+        <v>9002</v>
       </c>
       <c r="C74" s="3">
-        <v>10</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
-        <v>15104</v>
+        <v>15001</v>
       </c>
       <c r="B75" s="3">
-        <v>1017</v>
+        <v>4006</v>
       </c>
       <c r="C75" s="3">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4003</v>
+      </c>
+      <c r="E75" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
-        <v>15105</v>
+        <v>15002</v>
       </c>
       <c r="B76" s="3">
-        <v>1018</v>
+        <v>4005</v>
       </c>
       <c r="C76" s="3">
         <v>10</v>
       </c>
+      <c r="D76" s="3">
+        <v>4002</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <v>15106</v>
+        <v>15003</v>
       </c>
       <c r="B77" s="3">
-        <v>1019</v>
+        <v>4004</v>
       </c>
       <c r="C77" s="3">
         <v>10</v>
       </c>
+      <c r="D77" s="3">
+        <v>4001</v>
+      </c>
+      <c r="E77" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
-        <v>15107</v>
+        <v>15004</v>
       </c>
       <c r="B78" s="3">
-        <v>1020</v>
+        <v>4006</v>
       </c>
       <c r="C78" s="3">
         <v>10</v>
       </c>
+      <c r="D78" s="3">
+        <v>4003</v>
+      </c>
+      <c r="E78" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <v>15108</v>
+        <v>15005</v>
       </c>
       <c r="B79" s="3">
-        <v>1021</v>
+        <v>4005</v>
       </c>
       <c r="C79" s="3">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D79" s="3">
+        <v>4002</v>
+      </c>
+      <c r="E79" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
-        <v>15109</v>
+        <v>15006</v>
       </c>
       <c r="B80" s="3">
-        <v>1022</v>
+        <v>4004</v>
       </c>
       <c r="C80" s="3">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>4001</v>
+      </c>
+      <c r="E80" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
-        <v>15110</v>
+        <v>15101</v>
       </c>
       <c r="B81" s="3">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C81" s="3">
         <v>10</v>
@@ -2080,10 +2206,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
-        <v>15111</v>
+        <v>15102</v>
       </c>
       <c r="B82" s="3">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="C82" s="3">
         <v>10</v>
@@ -2091,10 +2217,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
-        <v>15112</v>
+        <v>15103</v>
       </c>
       <c r="B83" s="3">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="C83" s="3">
         <v>10</v>
@@ -2102,10 +2228,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
-        <v>15113</v>
+        <v>15104</v>
       </c>
       <c r="B84" s="3">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
@@ -2113,10 +2239,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
-        <v>15114</v>
+        <v>15105</v>
       </c>
       <c r="B85" s="3">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C85" s="3">
         <v>10</v>
@@ -2124,10 +2250,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
-        <v>20001</v>
+        <v>15106</v>
       </c>
       <c r="B86" s="3">
-        <v>102</v>
+        <v>1019</v>
       </c>
       <c r="C86" s="3">
         <v>10</v>
@@ -2135,98 +2261,98 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
-        <v>20002</v>
+        <v>15107</v>
       </c>
       <c r="B87" s="3">
-        <v>9001</v>
+        <v>1020</v>
       </c>
       <c r="C87" s="3">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
-        <v>20003</v>
+        <v>15108</v>
       </c>
       <c r="B88" s="3">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="C88" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
-        <v>20004</v>
+        <v>15109</v>
       </c>
       <c r="B89" s="3">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="C89" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
-        <v>20005</v>
+        <v>15110</v>
       </c>
       <c r="B90" s="3">
-        <v>9002</v>
+        <v>1023</v>
       </c>
       <c r="C90" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
-        <v>21001</v>
+        <v>15111</v>
       </c>
       <c r="B91" s="3">
-        <v>1</v>
+        <v>1024</v>
       </c>
       <c r="C91" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
-        <v>21002</v>
+        <v>15112</v>
       </c>
       <c r="B92" s="3">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="C92" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
-        <v>21003</v>
+        <v>15113</v>
       </c>
       <c r="B93" s="3">
-        <v>3</v>
+        <v>1026</v>
       </c>
       <c r="C93" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
-        <v>21004</v>
+        <v>15114</v>
       </c>
       <c r="B94" s="3">
-        <v>4</v>
+        <v>1027</v>
       </c>
       <c r="C94" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
-        <v>21005</v>
+        <v>20001</v>
       </c>
       <c r="B95" s="3">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C95" s="3">
         <v>10</v>
@@ -2234,54 +2360,54 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
-        <v>21006</v>
+        <v>20002</v>
       </c>
       <c r="B96" s="3">
-        <v>600</v>
+        <v>9001</v>
       </c>
       <c r="C96" s="3">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
-        <v>21007</v>
+        <v>20003</v>
       </c>
       <c r="B97" s="3">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="C97" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
-        <v>21008</v>
+        <v>20004</v>
       </c>
       <c r="B98" s="3">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="C98" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
-        <v>21009</v>
+        <v>20005</v>
       </c>
       <c r="B99" s="3">
-        <v>3001</v>
+        <v>9002</v>
       </c>
       <c r="C99" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
-        <v>21010</v>
+        <v>21001</v>
       </c>
       <c r="B100" s="3">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -2289,10 +2415,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
-        <v>21011</v>
+        <v>21002</v>
       </c>
       <c r="B101" s="3">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -2300,54 +2426,54 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
-        <v>21012</v>
+        <v>21003</v>
       </c>
       <c r="B102" s="3">
-        <v>9001</v>
+        <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>1200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
-        <v>21013</v>
+        <v>21004</v>
       </c>
       <c r="B103" s="3">
-        <v>9001</v>
+        <v>4</v>
       </c>
       <c r="C103" s="3">
-        <v>2400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
-        <v>21014</v>
+        <v>21005</v>
       </c>
       <c r="B104" s="3">
-        <v>9001</v>
+        <v>5</v>
       </c>
       <c r="C104" s="3">
-        <v>5000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
-        <v>22001</v>
+        <v>21006</v>
       </c>
       <c r="B105" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C105" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
-        <v>22002</v>
+        <v>21007</v>
       </c>
       <c r="B106" s="3">
-        <v>501</v>
+        <v>3001</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -2355,10 +2481,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
-        <v>22003</v>
+        <v>21008</v>
       </c>
       <c r="B107" s="3">
-        <v>502</v>
+        <v>3001</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
@@ -2366,10 +2492,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
-        <v>22004</v>
+        <v>21009</v>
       </c>
       <c r="B108" s="3">
-        <v>503</v>
+        <v>3001</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -2377,10 +2503,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
-        <v>22005</v>
+        <v>21010</v>
       </c>
       <c r="B109" s="3">
-        <v>504</v>
+        <v>3001</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -2388,10 +2514,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
-        <v>22006</v>
+        <v>21011</v>
       </c>
       <c r="B110" s="3">
-        <v>505</v>
+        <v>3001</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -2399,43 +2525,43 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
-        <v>22007</v>
+        <v>21012</v>
       </c>
       <c r="B111" s="3">
-        <v>506</v>
+        <v>9001</v>
       </c>
       <c r="C111" s="3">
-        <v>1</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
-        <v>22008</v>
+        <v>21013</v>
       </c>
       <c r="B112" s="3">
-        <v>507</v>
+        <v>9001</v>
       </c>
       <c r="C112" s="3">
-        <v>1</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
-        <v>22009</v>
+        <v>21014</v>
       </c>
       <c r="B113" s="3">
-        <v>508</v>
+        <v>9001</v>
       </c>
       <c r="C113" s="3">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
-        <v>22010</v>
+        <v>22001</v>
       </c>
       <c r="B114" s="3">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -2443,10 +2569,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
-        <v>22011</v>
+        <v>22002</v>
       </c>
       <c r="B115" s="3">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
@@ -2454,10 +2580,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
-        <v>22012</v>
+        <v>22003</v>
       </c>
       <c r="B116" s="3">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -2465,10 +2591,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
-        <v>22013</v>
+        <v>22004</v>
       </c>
       <c r="B117" s="3">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
@@ -2476,10 +2602,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
-        <v>22014</v>
+        <v>22005</v>
       </c>
       <c r="B118" s="3">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -2487,10 +2613,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
-        <v>22015</v>
+        <v>22006</v>
       </c>
       <c r="B119" s="3">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
@@ -2498,10 +2624,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
-        <v>22016</v>
+        <v>22007</v>
       </c>
       <c r="B120" s="3">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -2509,10 +2635,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
-        <v>22017</v>
+        <v>22008</v>
       </c>
       <c r="B121" s="3">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
@@ -2520,10 +2646,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
-        <v>22018</v>
+        <v>22009</v>
       </c>
       <c r="B122" s="3">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -2531,10 +2657,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
-        <v>22019</v>
+        <v>22010</v>
       </c>
       <c r="B123" s="3">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
@@ -2542,10 +2668,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
-        <v>22020</v>
+        <v>22011</v>
       </c>
       <c r="B124" s="3">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -2553,10 +2679,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
-        <v>22021</v>
+        <v>22012</v>
       </c>
       <c r="B125" s="3">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -2564,10 +2690,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
-        <v>22022</v>
+        <v>22013</v>
       </c>
       <c r="B126" s="3">
-        <v>1014</v>
+        <v>552</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -2575,10 +2701,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
-        <v>22023</v>
+        <v>22014</v>
       </c>
       <c r="B127" s="3">
-        <v>1015</v>
+        <v>553</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
@@ -2586,10 +2712,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
-        <v>22024</v>
+        <v>22015</v>
       </c>
       <c r="B128" s="3">
-        <v>1016</v>
+        <v>554</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -2597,10 +2723,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
-        <v>22025</v>
+        <v>22016</v>
       </c>
       <c r="B129" s="3">
-        <v>1017</v>
+        <v>555</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -2608,10 +2734,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
-        <v>22026</v>
+        <v>22017</v>
       </c>
       <c r="B130" s="3">
-        <v>1018</v>
+        <v>556</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -2619,10 +2745,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
-        <v>22027</v>
+        <v>22018</v>
       </c>
       <c r="B131" s="3">
-        <v>1019</v>
+        <v>557</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
@@ -2630,10 +2756,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
-        <v>22028</v>
+        <v>22019</v>
       </c>
       <c r="B132" s="3">
-        <v>1020</v>
+        <v>558</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -2641,10 +2767,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
-        <v>22029</v>
+        <v>22020</v>
       </c>
       <c r="B133" s="3">
-        <v>1021</v>
+        <v>559</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -2652,10 +2778,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
-        <v>22030</v>
+        <v>22021</v>
       </c>
       <c r="B134" s="3">
-        <v>1022</v>
+        <v>600</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -2663,10 +2789,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
-        <v>22031</v>
+        <v>22022</v>
       </c>
       <c r="B135" s="3">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
@@ -2674,10 +2800,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
-        <v>22032</v>
+        <v>22023</v>
       </c>
       <c r="B136" s="3">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -2685,10 +2811,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
-        <v>22033</v>
+        <v>22024</v>
       </c>
       <c r="B137" s="3">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -2696,10 +2822,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
-        <v>22034</v>
+        <v>22025</v>
       </c>
       <c r="B138" s="3">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -2707,10 +2833,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
-        <v>22035</v>
+        <v>22026</v>
       </c>
       <c r="B139" s="3">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -2718,10 +2844,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
-        <v>22036</v>
+        <v>22027</v>
       </c>
       <c r="B140" s="3">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -2729,10 +2855,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
-        <v>22037</v>
+        <v>22028</v>
       </c>
       <c r="B141" s="3">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -2740,10 +2866,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
-        <v>22038</v>
+        <v>22029</v>
       </c>
       <c r="B142" s="3">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -2751,10 +2877,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
-        <v>22039</v>
+        <v>22030</v>
       </c>
       <c r="B143" s="3">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -2762,10 +2888,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
-        <v>22040</v>
+        <v>22031</v>
       </c>
       <c r="B144" s="3">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -2773,10 +2899,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
-        <v>22041</v>
+        <v>22032</v>
       </c>
       <c r="B145" s="3">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -2784,10 +2910,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
-        <v>22042</v>
+        <v>22033</v>
       </c>
       <c r="B146" s="3">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -2795,10 +2921,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
-        <v>22043</v>
+        <v>22034</v>
       </c>
       <c r="B147" s="3">
-        <v>2009</v>
+        <v>1026</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -2806,10 +2932,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
-        <v>22044</v>
+        <v>22035</v>
       </c>
       <c r="B148" s="3">
-        <v>2010</v>
+        <v>1027</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -2817,10 +2943,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
-        <v>22045</v>
+        <v>22036</v>
       </c>
       <c r="B149" s="3">
-        <v>2011</v>
+        <v>1029</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
@@ -2828,10 +2954,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
-        <v>22046</v>
+        <v>22037</v>
       </c>
       <c r="B150" s="3">
-        <v>2012</v>
+        <v>1030</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -2839,10 +2965,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
-        <v>22047</v>
+        <v>22038</v>
       </c>
       <c r="B151" s="3">
-        <v>2013</v>
+        <v>1031</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
@@ -2850,10 +2976,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
-        <v>22048</v>
+        <v>22039</v>
       </c>
       <c r="B152" s="3">
-        <v>4001</v>
+        <v>1032</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -2861,10 +2987,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
-        <v>22049</v>
+        <v>22040</v>
       </c>
       <c r="B153" s="3">
-        <v>4002</v>
+        <v>1033</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
@@ -2872,10 +2998,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
-        <v>22050</v>
+        <v>22041</v>
       </c>
       <c r="B154" s="3">
-        <v>4003</v>
+        <v>1034</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
@@ -2883,10 +3009,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
-        <v>22051</v>
+        <v>22042</v>
       </c>
       <c r="B155" s="3">
-        <v>4004</v>
+        <v>1039</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
@@ -2894,10 +3020,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
-        <v>22052</v>
+        <v>22043</v>
       </c>
       <c r="B156" s="3">
-        <v>4005</v>
+        <v>2009</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
@@ -2905,10 +3031,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
-        <v>22053</v>
+        <v>22044</v>
       </c>
       <c r="B157" s="3">
-        <v>4006</v>
+        <v>2010</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
@@ -2916,109 +3042,109 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
-        <v>50001</v>
+        <v>22045</v>
       </c>
       <c r="B158" s="3">
-        <v>123</v>
+        <v>2011</v>
       </c>
       <c r="C158" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
-        <v>50002</v>
+        <v>22046</v>
       </c>
       <c r="B159" s="3">
-        <v>123</v>
+        <v>2012</v>
       </c>
       <c r="C159" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
-        <v>50003</v>
+        <v>22047</v>
       </c>
       <c r="B160" s="3">
-        <v>123</v>
+        <v>2013</v>
       </c>
       <c r="C160" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
-        <v>50004</v>
+        <v>22048</v>
       </c>
       <c r="B161" s="3">
-        <v>124</v>
+        <v>4001</v>
       </c>
       <c r="C161" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
-        <v>50005</v>
+        <v>22049</v>
       </c>
       <c r="B162" s="3">
-        <v>124</v>
+        <v>4002</v>
       </c>
       <c r="C162" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
-        <v>50006</v>
+        <v>22050</v>
       </c>
       <c r="B163" s="3">
-        <v>124</v>
+        <v>4003</v>
       </c>
       <c r="C163" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
-        <v>50007</v>
+        <v>22051</v>
       </c>
       <c r="B164" s="3">
-        <v>125</v>
+        <v>4004</v>
       </c>
       <c r="C164" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
-        <v>50008</v>
+        <v>22052</v>
       </c>
       <c r="B165" s="3">
-        <v>125</v>
+        <v>4005</v>
       </c>
       <c r="C165" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
-        <v>50009</v>
+        <v>22053</v>
       </c>
       <c r="B166" s="3">
-        <v>125</v>
+        <v>4006</v>
       </c>
       <c r="C166" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
-        <v>50010</v>
+        <v>50001</v>
       </c>
       <c r="B167" s="3">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C167" s="3">
         <v>10</v>
@@ -3026,10 +3152,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
-        <v>50011</v>
+        <v>50002</v>
       </c>
       <c r="B168" s="3">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C168" s="3">
         <v>7</v>
@@ -3037,10 +3163,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="3">
-        <v>50012</v>
+        <v>50003</v>
       </c>
       <c r="B169" s="3">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C169" s="3">
         <v>5</v>
@@ -3048,10 +3174,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
-        <v>50013</v>
+        <v>50004</v>
       </c>
       <c r="B170" s="3">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C170" s="3">
         <v>10</v>
@@ -3059,10 +3185,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="3">
-        <v>50014</v>
+        <v>50005</v>
       </c>
       <c r="B171" s="3">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C171" s="3">
         <v>7</v>
@@ -3070,10 +3196,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="3">
-        <v>50015</v>
+        <v>50006</v>
       </c>
       <c r="B172" s="3">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C172" s="3">
         <v>5</v>
@@ -3081,109 +3207,109 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="3">
-        <v>60001</v>
+        <v>50007</v>
       </c>
       <c r="B173" s="3">
-        <v>559</v>
+        <v>125</v>
       </c>
       <c r="C173" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="3">
-        <v>60002</v>
+        <v>50008</v>
       </c>
       <c r="B174" s="3">
-        <v>550</v>
+        <v>125</v>
       </c>
       <c r="C174" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="3">
-        <v>60003</v>
+        <v>50009</v>
       </c>
       <c r="B175" s="3">
-        <v>551</v>
+        <v>125</v>
       </c>
       <c r="C175" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="3">
-        <v>60004</v>
+        <v>50010</v>
       </c>
       <c r="B176" s="3">
-        <v>552</v>
+        <v>126</v>
       </c>
       <c r="C176" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="3">
-        <v>60005</v>
+        <v>50011</v>
       </c>
       <c r="B177" s="3">
-        <v>553</v>
+        <v>126</v>
       </c>
       <c r="C177" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="3">
-        <v>60006</v>
+        <v>50012</v>
       </c>
       <c r="B178" s="3">
-        <v>554</v>
+        <v>126</v>
       </c>
       <c r="C178" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="3">
-        <v>60007</v>
+        <v>50013</v>
       </c>
       <c r="B179" s="3">
-        <v>555</v>
+        <v>127</v>
       </c>
       <c r="C179" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="3">
-        <v>60008</v>
+        <v>50014</v>
       </c>
       <c r="B180" s="3">
-        <v>556</v>
+        <v>127</v>
       </c>
       <c r="C180" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="3">
-        <v>60009</v>
+        <v>50015</v>
       </c>
       <c r="B181" s="3">
-        <v>557</v>
+        <v>127</v>
       </c>
       <c r="C181" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="3">
-        <v>60010</v>
+        <v>60001</v>
       </c>
       <c r="B182" s="3">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C182" s="3">
         <v>2</v>
@@ -3191,54 +3317,54 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="3">
-        <v>70001</v>
+        <v>60002</v>
       </c>
       <c r="B183" s="3">
-        <v>3001</v>
+        <v>550</v>
       </c>
       <c r="C183" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="3">
-        <v>70002</v>
+        <v>60003</v>
       </c>
       <c r="B184" s="3">
-        <v>1</v>
+        <v>551</v>
       </c>
       <c r="C184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="3">
-        <v>70003</v>
+        <v>60004</v>
       </c>
       <c r="B185" s="3">
+        <v>552</v>
+      </c>
+      <c r="C185" s="3">
         <v>2</v>
-      </c>
-      <c r="C185" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="3">
-        <v>80001</v>
+        <v>60005</v>
       </c>
       <c r="B186" s="3">
-        <v>7016</v>
+        <v>553</v>
       </c>
       <c r="C186" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="3">
-        <v>80002</v>
+        <v>60006</v>
       </c>
       <c r="B187" s="3">
-        <v>7016</v>
+        <v>554</v>
       </c>
       <c r="C187" s="3">
         <v>2</v>
@@ -3246,32 +3372,32 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="3">
-        <v>80003</v>
+        <v>60007</v>
       </c>
       <c r="B188" s="3">
-        <v>7016</v>
+        <v>555</v>
       </c>
       <c r="C188" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="3">
-        <v>80004</v>
+        <v>60008</v>
       </c>
       <c r="B189" s="3">
-        <v>7017</v>
+        <v>556</v>
       </c>
       <c r="C189" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="3">
-        <v>80005</v>
+        <v>60009</v>
       </c>
       <c r="B190" s="3">
-        <v>7017</v>
+        <v>557</v>
       </c>
       <c r="C190" s="3">
         <v>2</v>
@@ -3279,43 +3405,43 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="3">
-        <v>80006</v>
+        <v>60010</v>
       </c>
       <c r="B191" s="3">
-        <v>7017</v>
+        <v>558</v>
       </c>
       <c r="C191" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="3">
-        <v>80007</v>
+        <v>70001</v>
       </c>
       <c r="B192" s="3">
-        <v>7018</v>
+        <v>3001</v>
       </c>
       <c r="C192" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="3">
-        <v>80008</v>
+        <v>70002</v>
       </c>
       <c r="B193" s="3">
-        <v>7018</v>
+        <v>1</v>
       </c>
       <c r="C193" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="3">
-        <v>80009</v>
+        <v>70003</v>
       </c>
       <c r="B194" s="3">
-        <v>7018</v>
+        <v>2</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
@@ -3323,10 +3449,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="3">
-        <v>80010</v>
+        <v>80001</v>
       </c>
       <c r="B195" s="3">
-        <v>7019</v>
+        <v>7016</v>
       </c>
       <c r="C195" s="3">
         <v>3</v>
@@ -3334,10 +3460,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="3">
-        <v>80011</v>
+        <v>80002</v>
       </c>
       <c r="B196" s="3">
-        <v>7019</v>
+        <v>7016</v>
       </c>
       <c r="C196" s="3">
         <v>2</v>
@@ -3345,10 +3471,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="3">
-        <v>80012</v>
+        <v>80003</v>
       </c>
       <c r="B197" s="3">
-        <v>7019</v>
+        <v>7016</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
@@ -3356,10 +3482,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="3">
-        <v>80013</v>
+        <v>80004</v>
       </c>
       <c r="B198" s="3">
-        <v>7020</v>
+        <v>7017</v>
       </c>
       <c r="C198" s="3">
         <v>3</v>
@@ -3367,10 +3493,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="3">
-        <v>80014</v>
+        <v>80005</v>
       </c>
       <c r="B199" s="3">
-        <v>7020</v>
+        <v>7017</v>
       </c>
       <c r="C199" s="3">
         <v>2</v>
@@ -3378,10 +3504,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="3">
-        <v>80015</v>
+        <v>80006</v>
       </c>
       <c r="B200" s="3">
-        <v>7020</v>
+        <v>7017</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
@@ -3389,21 +3515,21 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="3">
-        <v>80016</v>
+        <v>80007</v>
       </c>
       <c r="B201" s="3">
-        <v>7021</v>
+        <v>7018</v>
       </c>
       <c r="C201" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="3">
-        <v>80017</v>
+        <v>80008</v>
       </c>
       <c r="B202" s="3">
-        <v>7022</v>
+        <v>7018</v>
       </c>
       <c r="C202" s="3">
         <v>2</v>
@@ -3411,32 +3537,32 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="3">
-        <v>80018</v>
+        <v>80009</v>
       </c>
       <c r="B203" s="3">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="C203" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="3">
-        <v>80019</v>
+        <v>80010</v>
       </c>
       <c r="B204" s="3">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="C204" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="3">
-        <v>80020</v>
+        <v>80011</v>
       </c>
       <c r="B205" s="3">
-        <v>7025</v>
+        <v>7019</v>
       </c>
       <c r="C205" s="3">
         <v>2</v>
@@ -3444,32 +3570,32 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="3">
-        <v>80021</v>
+        <v>80012</v>
       </c>
       <c r="B206" s="3">
-        <v>7026</v>
+        <v>7019</v>
       </c>
       <c r="C206" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="3">
-        <v>80022</v>
+        <v>80013</v>
       </c>
       <c r="B207" s="3">
-        <v>7027</v>
+        <v>7020</v>
       </c>
       <c r="C207" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="3">
-        <v>80023</v>
+        <v>80014</v>
       </c>
       <c r="B208" s="3">
-        <v>7028</v>
+        <v>7020</v>
       </c>
       <c r="C208" s="3">
         <v>2</v>
@@ -3477,21 +3603,21 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="3">
-        <v>80024</v>
+        <v>80015</v>
       </c>
       <c r="B209" s="3">
-        <v>7029</v>
+        <v>7020</v>
       </c>
       <c r="C209" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="3">
-        <v>80025</v>
+        <v>80016</v>
       </c>
       <c r="B210" s="3">
-        <v>7030</v>
+        <v>7021</v>
       </c>
       <c r="C210" s="3">
         <v>2</v>
@@ -3499,21 +3625,21 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="3">
-        <v>81001</v>
+        <v>80017</v>
       </c>
       <c r="B211" s="3">
-        <v>6</v>
+        <v>7022</v>
       </c>
       <c r="C211" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="3">
-        <v>81002</v>
+        <v>80018</v>
       </c>
       <c r="B212" s="3">
-        <v>6</v>
+        <v>7023</v>
       </c>
       <c r="C212" s="3">
         <v>2</v>
@@ -3521,32 +3647,32 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="3">
-        <v>81003</v>
+        <v>80019</v>
       </c>
       <c r="B213" s="3">
-        <v>6</v>
+        <v>7024</v>
       </c>
       <c r="C213" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="3">
-        <v>81004</v>
+        <v>80020</v>
       </c>
       <c r="B214" s="3">
-        <v>7</v>
+        <v>7025</v>
       </c>
       <c r="C214" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="3">
-        <v>81005</v>
+        <v>80021</v>
       </c>
       <c r="B215" s="3">
-        <v>7</v>
+        <v>7026</v>
       </c>
       <c r="C215" s="3">
         <v>2</v>
@@ -3554,32 +3680,32 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="3">
-        <v>81006</v>
+        <v>80022</v>
       </c>
       <c r="B216" s="3">
-        <v>7</v>
+        <v>7027</v>
       </c>
       <c r="C216" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="3">
-        <v>81007</v>
+        <v>80023</v>
       </c>
       <c r="B217" s="3">
-        <v>8</v>
+        <v>7028</v>
       </c>
       <c r="C217" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="3">
-        <v>81008</v>
+        <v>80024</v>
       </c>
       <c r="B218" s="3">
-        <v>8</v>
+        <v>7029</v>
       </c>
       <c r="C218" s="3">
         <v>2</v>
@@ -3587,32 +3713,32 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="3">
-        <v>81009</v>
+        <v>80025</v>
       </c>
       <c r="B219" s="3">
-        <v>8</v>
+        <v>7030</v>
       </c>
       <c r="C219" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="3">
-        <v>81010</v>
+        <v>81001</v>
       </c>
       <c r="B220" s="3">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C220" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="3">
-        <v>81011</v>
+        <v>81002</v>
       </c>
       <c r="B221" s="3">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="C221" s="3">
         <v>2</v>
@@ -3620,32 +3746,32 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="3">
-        <v>81012</v>
+        <v>81003</v>
       </c>
       <c r="B222" s="3">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C222" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="3">
-        <v>81013</v>
+        <v>81004</v>
       </c>
       <c r="B223" s="3">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C223" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
-        <v>81014</v>
+        <v>81005</v>
       </c>
       <c r="B224" s="3">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C224" s="3">
         <v>2</v>
@@ -3653,43 +3779,43 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
-        <v>81015</v>
+        <v>81006</v>
       </c>
       <c r="B225" s="3">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C225" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
-        <v>83001</v>
+        <v>81007</v>
       </c>
       <c r="B226" s="3">
-        <v>10010</v>
+        <v>8</v>
       </c>
       <c r="C226" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
-        <v>83002</v>
+        <v>81008</v>
       </c>
       <c r="B227" s="3">
-        <v>10011</v>
+        <v>8</v>
       </c>
       <c r="C227" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
-        <v>83003</v>
+        <v>81009</v>
       </c>
       <c r="B228" s="3">
-        <v>10012</v>
+        <v>8</v>
       </c>
       <c r="C228" s="3">
         <v>1</v>
@@ -3697,76 +3823,76 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
-        <v>83004</v>
+        <v>81010</v>
       </c>
       <c r="B229" s="3">
-        <v>10004</v>
+        <v>134</v>
       </c>
       <c r="C229" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
-        <v>83005</v>
+        <v>81011</v>
       </c>
       <c r="B230" s="3">
-        <v>10005</v>
+        <v>135</v>
       </c>
       <c r="C230" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
-        <v>83006</v>
+        <v>81012</v>
       </c>
       <c r="B231" s="3">
-        <v>10006</v>
+        <v>136</v>
       </c>
       <c r="C231" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
-        <v>83007</v>
+        <v>81013</v>
       </c>
       <c r="B232" s="3">
-        <v>10007</v>
+        <v>137</v>
       </c>
       <c r="C232" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
-        <v>83008</v>
+        <v>81014</v>
       </c>
       <c r="B233" s="3">
-        <v>10008</v>
+        <v>138</v>
       </c>
       <c r="C233" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
-        <v>83009</v>
+        <v>81015</v>
       </c>
       <c r="B234" s="3">
-        <v>10009</v>
+        <v>139</v>
       </c>
       <c r="C234" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="3">
-        <v>83010</v>
+        <v>83001</v>
       </c>
       <c r="B235" s="3">
-        <v>10013</v>
+        <v>10010</v>
       </c>
       <c r="C235" s="3">
         <v>1</v>
@@ -3774,10 +3900,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="3">
-        <v>83011</v>
+        <v>83002</v>
       </c>
       <c r="B236" s="3">
-        <v>10014</v>
+        <v>10011</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
@@ -3785,10 +3911,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="3">
-        <v>83012</v>
+        <v>83003</v>
       </c>
       <c r="B237" s="3">
-        <v>10015</v>
+        <v>10012</v>
       </c>
       <c r="C237" s="3">
         <v>1</v>
@@ -3796,10 +3922,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="3">
-        <v>83013</v>
+        <v>83004</v>
       </c>
       <c r="B238" s="3">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="C238" s="3">
         <v>1</v>
@@ -3807,10 +3933,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="3">
-        <v>83014</v>
+        <v>83005</v>
       </c>
       <c r="B239" s="3">
-        <v>10017</v>
+        <v>10005</v>
       </c>
       <c r="C239" s="3">
         <v>1</v>
@@ -3818,10 +3944,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="3">
-        <v>83015</v>
+        <v>83006</v>
       </c>
       <c r="B240" s="3">
-        <v>10018</v>
+        <v>10006</v>
       </c>
       <c r="C240" s="3">
         <v>1</v>
@@ -3829,10 +3955,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="3">
-        <v>83016</v>
+        <v>83007</v>
       </c>
       <c r="B241" s="3">
-        <v>10019</v>
+        <v>10007</v>
       </c>
       <c r="C241" s="3">
         <v>1</v>
@@ -3840,10 +3966,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="3">
-        <v>83017</v>
+        <v>83008</v>
       </c>
       <c r="B242" s="3">
-        <v>10020</v>
+        <v>10008</v>
       </c>
       <c r="C242" s="3">
         <v>1</v>
@@ -3851,10 +3977,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="3">
-        <v>83018</v>
+        <v>83009</v>
       </c>
       <c r="B243" s="3">
-        <v>10021</v>
+        <v>10009</v>
       </c>
       <c r="C243" s="3">
         <v>1</v>
@@ -3862,10 +3988,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="3">
-        <v>83019</v>
+        <v>83010</v>
       </c>
       <c r="B244" s="3">
-        <v>10022</v>
+        <v>10013</v>
       </c>
       <c r="C244" s="3">
         <v>1</v>
@@ -3873,10 +3999,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="3">
-        <v>83020</v>
+        <v>83011</v>
       </c>
       <c r="B245" s="3">
-        <v>10023</v>
+        <v>10014</v>
       </c>
       <c r="C245" s="3">
         <v>1</v>
@@ -3884,10 +4010,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="3">
-        <v>83021</v>
+        <v>83012</v>
       </c>
       <c r="B246" s="3">
-        <v>10024</v>
+        <v>10015</v>
       </c>
       <c r="C246" s="3">
         <v>1</v>
@@ -3895,10 +4021,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="3">
-        <v>83022</v>
+        <v>83013</v>
       </c>
       <c r="B247" s="3">
-        <v>1029</v>
+        <v>10016</v>
       </c>
       <c r="C247" s="3">
         <v>1</v>
@@ -3906,10 +4032,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="3">
-        <v>83023</v>
+        <v>83014</v>
       </c>
       <c r="B248" s="3">
-        <v>1030</v>
+        <v>10017</v>
       </c>
       <c r="C248" s="3">
         <v>1</v>
@@ -3917,10 +4043,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="3">
-        <v>83024</v>
+        <v>83015</v>
       </c>
       <c r="B249" s="3">
-        <v>1031</v>
+        <v>10018</v>
       </c>
       <c r="C249" s="3">
         <v>1</v>
@@ -3928,10 +4054,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="3">
-        <v>83025</v>
+        <v>83016</v>
       </c>
       <c r="B250" s="3">
-        <v>1032</v>
+        <v>10019</v>
       </c>
       <c r="C250" s="3">
         <v>1</v>
@@ -3939,10 +4065,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="3">
-        <v>83026</v>
+        <v>83017</v>
       </c>
       <c r="B251" s="3">
-        <v>1033</v>
+        <v>10020</v>
       </c>
       <c r="C251" s="3">
         <v>1</v>
@@ -3950,10 +4076,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="3">
-        <v>83027</v>
+        <v>83018</v>
       </c>
       <c r="B252" s="3">
-        <v>1034</v>
+        <v>10021</v>
       </c>
       <c r="C252" s="3">
         <v>1</v>
@@ -3961,10 +4087,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="3">
-        <v>83028</v>
+        <v>83019</v>
       </c>
       <c r="B253" s="3">
-        <v>10025</v>
+        <v>10022</v>
       </c>
       <c r="C253" s="3">
         <v>1</v>
@@ -3972,10 +4098,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="3">
-        <v>83029</v>
+        <v>83020</v>
       </c>
       <c r="B254" s="3">
-        <v>10026</v>
+        <v>10023</v>
       </c>
       <c r="C254" s="3">
         <v>1</v>
@@ -3983,10 +4109,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="3">
-        <v>83030</v>
+        <v>83021</v>
       </c>
       <c r="B255" s="3">
-        <v>10027</v>
+        <v>10024</v>
       </c>
       <c r="C255" s="3">
         <v>1</v>
@@ -3994,10 +4120,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="3">
-        <v>83031</v>
+        <v>83022</v>
       </c>
       <c r="B256" s="3">
-        <v>10028</v>
+        <v>1029</v>
       </c>
       <c r="C256" s="3">
         <v>1</v>
@@ -4005,10 +4131,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="3">
-        <v>83032</v>
+        <v>83023</v>
       </c>
       <c r="B257" s="3">
-        <v>10029</v>
+        <v>1030</v>
       </c>
       <c r="C257" s="3">
         <v>1</v>
@@ -4016,10 +4142,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="3">
-        <v>83033</v>
+        <v>83024</v>
       </c>
       <c r="B258" s="3">
-        <v>10030</v>
+        <v>1031</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
@@ -4027,10 +4153,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" s="3">
-        <v>83034</v>
+        <v>83025</v>
       </c>
       <c r="B259" s="3">
-        <v>10031</v>
+        <v>1032</v>
       </c>
       <c r="C259" s="3">
         <v>1</v>
@@ -4038,10 +4164,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="3">
-        <v>83035</v>
+        <v>83026</v>
       </c>
       <c r="B260" s="3">
-        <v>10032</v>
+        <v>1033</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
@@ -4049,10 +4175,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="3">
-        <v>83036</v>
+        <v>83027</v>
       </c>
       <c r="B261" s="3">
-        <v>10033</v>
+        <v>1034</v>
       </c>
       <c r="C261" s="3">
         <v>1</v>
@@ -4060,65 +4186,65 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="3">
-        <v>83301</v>
+        <v>83028</v>
       </c>
       <c r="B262" s="3">
-        <v>123</v>
+        <v>10025</v>
       </c>
       <c r="C262" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="3">
-        <v>83302</v>
+        <v>83029</v>
       </c>
       <c r="B263" s="3">
-        <v>124</v>
+        <v>10026</v>
       </c>
       <c r="C263" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="3">
-        <v>83303</v>
+        <v>83030</v>
       </c>
       <c r="B264" s="3">
-        <v>125</v>
+        <v>10027</v>
       </c>
       <c r="C264" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="3">
-        <v>83304</v>
+        <v>83031</v>
       </c>
       <c r="B265" s="3">
-        <v>126</v>
+        <v>10028</v>
       </c>
       <c r="C265" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="3">
-        <v>83305</v>
+        <v>83032</v>
       </c>
       <c r="B266" s="3">
-        <v>127</v>
+        <v>10029</v>
       </c>
       <c r="C266" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" s="3">
-        <v>83306</v>
+        <v>83033</v>
       </c>
       <c r="B267" s="3">
-        <v>7021</v>
+        <v>10030</v>
       </c>
       <c r="C267" s="3">
         <v>1</v>
@@ -4126,10 +4252,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" s="3">
-        <v>83307</v>
+        <v>83034</v>
       </c>
       <c r="B268" s="3">
-        <v>7022</v>
+        <v>10031</v>
       </c>
       <c r="C268" s="3">
         <v>1</v>
@@ -4137,10 +4263,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" s="3">
-        <v>83308</v>
+        <v>83035</v>
       </c>
       <c r="B269" s="3">
-        <v>7023</v>
+        <v>10032</v>
       </c>
       <c r="C269" s="3">
         <v>1</v>
@@ -4148,10 +4274,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="3">
-        <v>83309</v>
+        <v>83036</v>
       </c>
       <c r="B270" s="3">
-        <v>7024</v>
+        <v>10033</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
@@ -4159,65 +4285,65 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="3">
-        <v>83310</v>
+        <v>83301</v>
       </c>
       <c r="B271" s="3">
-        <v>7025</v>
+        <v>123</v>
       </c>
       <c r="C271" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="3">
-        <v>83311</v>
+        <v>83302</v>
       </c>
       <c r="B272" s="3">
-        <v>7026</v>
+        <v>124</v>
       </c>
       <c r="C272" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="3">
-        <v>83312</v>
+        <v>83303</v>
       </c>
       <c r="B273" s="3">
-        <v>7027</v>
+        <v>125</v>
       </c>
       <c r="C273" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" s="3">
-        <v>83313</v>
+        <v>83304</v>
       </c>
       <c r="B274" s="3">
-        <v>7028</v>
+        <v>126</v>
       </c>
       <c r="C274" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" s="3">
-        <v>83314</v>
+        <v>83305</v>
       </c>
       <c r="B275" s="3">
-        <v>7029</v>
+        <v>127</v>
       </c>
       <c r="C275" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="3">
-        <v>83315</v>
+        <v>83306</v>
       </c>
       <c r="B276" s="3">
-        <v>7030</v>
+        <v>7021</v>
       </c>
       <c r="C276" s="3">
         <v>1</v>
@@ -4225,10 +4351,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="3">
-        <v>84001</v>
+        <v>83307</v>
       </c>
       <c r="B277" s="3">
-        <v>9003</v>
+        <v>7022</v>
       </c>
       <c r="C277" s="3">
         <v>1</v>
@@ -4236,10 +4362,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="3">
-        <v>84002</v>
+        <v>83308</v>
       </c>
       <c r="B278" s="3">
-        <v>9005</v>
+        <v>7023</v>
       </c>
       <c r="C278" s="3">
         <v>1</v>
@@ -4247,21 +4373,21 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="3">
-        <v>84003</v>
+        <v>83309</v>
       </c>
       <c r="B279" s="3">
-        <v>9002</v>
+        <v>7024</v>
       </c>
       <c r="C279" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="3">
-        <v>84004</v>
+        <v>83310</v>
       </c>
       <c r="B280" s="3">
-        <v>123</v>
+        <v>7025</v>
       </c>
       <c r="C280" s="3">
         <v>1</v>
@@ -4269,10 +4395,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="3">
-        <v>84005</v>
+        <v>83311</v>
       </c>
       <c r="B281" s="3">
-        <v>124</v>
+        <v>7026</v>
       </c>
       <c r="C281" s="3">
         <v>1</v>
@@ -4280,10 +4406,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282" s="3">
-        <v>84006</v>
+        <v>83312</v>
       </c>
       <c r="B282" s="3">
-        <v>125</v>
+        <v>7027</v>
       </c>
       <c r="C282" s="3">
         <v>1</v>
@@ -4291,10 +4417,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" s="3">
-        <v>84007</v>
+        <v>83313</v>
       </c>
       <c r="B283" s="3">
-        <v>126</v>
+        <v>7028</v>
       </c>
       <c r="C283" s="3">
         <v>1</v>
@@ -4302,10 +4428,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284" s="3">
-        <v>84008</v>
+        <v>83314</v>
       </c>
       <c r="B284" s="3">
-        <v>127</v>
+        <v>7029</v>
       </c>
       <c r="C284" s="3">
         <v>1</v>
@@ -4313,10 +4439,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="3">
-        <v>84009</v>
+        <v>83315</v>
       </c>
       <c r="B285" s="3">
-        <v>128</v>
+        <v>7030</v>
       </c>
       <c r="C285" s="3">
         <v>1</v>
@@ -4324,10 +4450,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="3">
-        <v>84010</v>
+        <v>84001</v>
       </c>
       <c r="B286" s="3">
-        <v>129</v>
+        <v>9003</v>
       </c>
       <c r="C286" s="3">
         <v>1</v>
@@ -4335,10 +4461,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="3">
-        <v>84011</v>
+        <v>84002</v>
       </c>
       <c r="B287" s="3">
-        <v>550</v>
+        <v>9005</v>
       </c>
       <c r="C287" s="3">
         <v>1</v>
@@ -4346,21 +4472,21 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="3">
-        <v>84012</v>
+        <v>84003</v>
       </c>
       <c r="B288" s="3">
-        <v>551</v>
+        <v>9002</v>
       </c>
       <c r="C288" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
-        <v>84013</v>
+        <v>84004</v>
       </c>
       <c r="B289" s="3">
-        <v>552</v>
+        <v>123</v>
       </c>
       <c r="C289" s="3">
         <v>1</v>
@@ -4368,10 +4494,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
-        <v>84014</v>
+        <v>84005</v>
       </c>
       <c r="B290" s="3">
-        <v>553</v>
+        <v>124</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
@@ -4379,10 +4505,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="3">
-        <v>84015</v>
+        <v>84006</v>
       </c>
       <c r="B291" s="3">
-        <v>554</v>
+        <v>125</v>
       </c>
       <c r="C291" s="3">
         <v>1</v>
@@ -4390,10 +4516,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="3">
-        <v>84016</v>
+        <v>84007</v>
       </c>
       <c r="B292" s="3">
-        <v>555</v>
+        <v>126</v>
       </c>
       <c r="C292" s="3">
         <v>1</v>
@@ -4401,10 +4527,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
-        <v>84017</v>
+        <v>84008</v>
       </c>
       <c r="B293" s="3">
-        <v>556</v>
+        <v>127</v>
       </c>
       <c r="C293" s="3">
         <v>1</v>
@@ -4412,10 +4538,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
-        <v>84018</v>
+        <v>84009</v>
       </c>
       <c r="B294" s="3">
-        <v>557</v>
+        <v>128</v>
       </c>
       <c r="C294" s="3">
         <v>1</v>
@@ -4423,10 +4549,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="3">
-        <v>84019</v>
+        <v>84010</v>
       </c>
       <c r="B295" s="3">
-        <v>558</v>
+        <v>129</v>
       </c>
       <c r="C295" s="3">
         <v>1</v>
@@ -4434,10 +4560,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="3">
-        <v>84020</v>
+        <v>84011</v>
       </c>
       <c r="B296" s="3">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C296" s="3">
         <v>1</v>
@@ -4445,10 +4571,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
-        <v>84021</v>
+        <v>84012</v>
       </c>
       <c r="B297" s="3">
-        <v>134</v>
+        <v>551</v>
       </c>
       <c r="C297" s="3">
         <v>1</v>
@@ -4456,10 +4582,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
-        <v>84022</v>
+        <v>84013</v>
       </c>
       <c r="B298" s="3">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="C298" s="3">
         <v>1</v>
@@ -4467,10 +4593,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="3">
-        <v>84023</v>
+        <v>84014</v>
       </c>
       <c r="B299" s="3">
-        <v>136</v>
+        <v>553</v>
       </c>
       <c r="C299" s="3">
         <v>1</v>
@@ -4478,10 +4604,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="3">
-        <v>84024</v>
+        <v>84015</v>
       </c>
       <c r="B300" s="3">
-        <v>137</v>
+        <v>554</v>
       </c>
       <c r="C300" s="3">
         <v>1</v>
@@ -4489,10 +4615,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
-        <v>84025</v>
+        <v>84016</v>
       </c>
       <c r="B301" s="3">
-        <v>138</v>
+        <v>555</v>
       </c>
       <c r="C301" s="3">
         <v>1</v>
@@ -4500,10 +4626,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
-        <v>84026</v>
+        <v>84017</v>
       </c>
       <c r="B302" s="3">
-        <v>139</v>
+        <v>556</v>
       </c>
       <c r="C302" s="3">
         <v>1</v>
@@ -4511,10 +4637,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="3">
-        <v>84027</v>
+        <v>84018</v>
       </c>
       <c r="B303" s="3">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="C303" s="3">
         <v>1</v>
@@ -4522,10 +4648,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="3">
-        <v>84028</v>
+        <v>84019</v>
       </c>
       <c r="B304" s="3">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="C304" s="3">
         <v>1</v>
@@ -4533,10 +4659,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="3">
-        <v>84029</v>
+        <v>84020</v>
       </c>
       <c r="B305" s="3">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="C305" s="3">
         <v>1</v>
@@ -4544,10 +4670,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="3">
-        <v>84030</v>
+        <v>84021</v>
       </c>
       <c r="B306" s="3">
-        <v>503</v>
+        <v>134</v>
       </c>
       <c r="C306" s="3">
         <v>1</v>
@@ -4555,10 +4681,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="3">
-        <v>84031</v>
+        <v>84022</v>
       </c>
       <c r="B307" s="3">
-        <v>504</v>
+        <v>135</v>
       </c>
       <c r="C307" s="3">
         <v>1</v>
@@ -4566,10 +4692,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="3">
-        <v>84032</v>
+        <v>84023</v>
       </c>
       <c r="B308" s="3">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="C308" s="3">
         <v>1</v>
@@ -4577,10 +4703,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="3">
-        <v>84033</v>
+        <v>84024</v>
       </c>
       <c r="B309" s="3">
-        <v>506</v>
+        <v>137</v>
       </c>
       <c r="C309" s="3">
         <v>1</v>
@@ -4588,10 +4714,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="3">
-        <v>84034</v>
+        <v>84025</v>
       </c>
       <c r="B310" s="3">
-        <v>507</v>
+        <v>138</v>
       </c>
       <c r="C310" s="3">
         <v>1</v>
@@ -4599,10 +4725,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="3">
-        <v>84035</v>
+        <v>84026</v>
       </c>
       <c r="B311" s="3">
-        <v>508</v>
+        <v>139</v>
       </c>
       <c r="C311" s="3">
         <v>1</v>
@@ -4610,10 +4736,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="3">
-        <v>84036</v>
+        <v>84027</v>
       </c>
       <c r="B312" s="3">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C312" s="3">
         <v>1</v>
@@ -4621,10 +4747,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="3">
-        <v>84037</v>
+        <v>84028</v>
       </c>
       <c r="B313" s="3">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="C313" s="3">
         <v>1</v>
@@ -4632,32 +4758,32 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="3">
-        <v>84038</v>
+        <v>84029</v>
       </c>
       <c r="B314" s="3">
-        <v>9005</v>
+        <v>502</v>
       </c>
       <c r="C314" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="3">
-        <v>84039</v>
+        <v>84030</v>
       </c>
       <c r="B315" s="3">
-        <v>9005</v>
+        <v>503</v>
       </c>
       <c r="C315" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="3">
-        <v>85001</v>
+        <v>84031</v>
       </c>
       <c r="B316" s="3">
-        <v>10013</v>
+        <v>504</v>
       </c>
       <c r="C316" s="3">
         <v>1</v>
@@ -4665,10 +4791,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="3">
-        <v>85002</v>
+        <v>84032</v>
       </c>
       <c r="B317" s="3">
-        <v>10014</v>
+        <v>505</v>
       </c>
       <c r="C317" s="3">
         <v>1</v>
@@ -4676,10 +4802,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="3">
-        <v>85003</v>
+        <v>84033</v>
       </c>
       <c r="B318" s="3">
-        <v>10015</v>
+        <v>506</v>
       </c>
       <c r="C318" s="3">
         <v>1</v>
@@ -4687,375 +4813,285 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="3">
-        <v>85004</v>
+        <v>84034</v>
       </c>
       <c r="B319" s="3">
-        <v>9002</v>
+        <v>507</v>
       </c>
       <c r="C319" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="3">
+        <v>84035</v>
+      </c>
+      <c r="B320" s="3">
+        <v>508</v>
+      </c>
+      <c r="C320" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A321" s="3">
+        <v>84036</v>
+      </c>
+      <c r="B321" s="3">
+        <v>509</v>
+      </c>
+      <c r="C321" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A322" s="3">
+        <v>84037</v>
+      </c>
+      <c r="B322" s="3">
+        <v>600</v>
+      </c>
+      <c r="C322" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A323" s="3">
+        <v>84038</v>
+      </c>
+      <c r="B323" s="3">
+        <v>9005</v>
+      </c>
+      <c r="C323" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A324" s="3">
+        <v>84039</v>
+      </c>
+      <c r="B324" s="3">
+        <v>9005</v>
+      </c>
+      <c r="C324" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A325" s="3">
+        <v>85001</v>
+      </c>
+      <c r="B325" s="3">
+        <v>10013</v>
+      </c>
+      <c r="C325" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A326" s="3">
+        <v>85002</v>
+      </c>
+      <c r="B326" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C326" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A327" s="3">
+        <v>85003</v>
+      </c>
+      <c r="B327" s="3">
+        <v>10015</v>
+      </c>
+      <c r="C327" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A328" s="3">
+        <v>85004</v>
+      </c>
+      <c r="B328" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C328" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A329" s="3">
         <v>85005</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B329" s="3">
         <v>9002</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C329" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A321" s="3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A330" s="3">
         <v>85006</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B330" s="3">
         <v>9002</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C330" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A322" s="3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A331" s="3">
         <v>300001</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B331" s="3">
         <v>9004</v>
       </c>
-      <c r="C322" s="3">
+      <c r="C331" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A323" s="3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A332" s="3">
         <v>300011</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B332" s="3">
         <v>1014</v>
       </c>
-      <c r="C323" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A324" s="3">
+      <c r="C332" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A333" s="3">
         <v>300021</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B333" s="3">
         <v>1015</v>
       </c>
-      <c r="C324" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A325" s="3">
+      <c r="C333" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A334" s="3">
         <v>300031</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B334" s="3">
         <v>1016</v>
       </c>
-      <c r="C325" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A326" s="3">
+      <c r="C334" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A335" s="3">
         <v>300041</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B335" s="3">
         <v>1017</v>
       </c>
-      <c r="C326" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A327" s="3">
+      <c r="C335" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A336" s="3">
         <v>300051</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B336" s="3">
         <v>1018</v>
       </c>
-      <c r="C327" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A328" s="3">
-        <v>300061</v>
-      </c>
-      <c r="B328" s="3">
-        <v>1019</v>
-      </c>
-      <c r="C328" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A329" s="3">
-        <v>300071</v>
-      </c>
-      <c r="B329" s="3">
-        <v>1020</v>
-      </c>
-      <c r="C329" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A330" s="3">
-        <v>300081</v>
-      </c>
-      <c r="B330" s="3">
-        <v>1021</v>
-      </c>
-      <c r="C330" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A331" s="3">
-        <v>300091</v>
-      </c>
-      <c r="B331" s="3">
-        <v>1022</v>
-      </c>
-      <c r="C331" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A332" s="3">
-        <v>300101</v>
-      </c>
-      <c r="B332" s="3">
-        <v>1023</v>
-      </c>
-      <c r="C332" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A333" s="3">
-        <v>300111</v>
-      </c>
-      <c r="B333" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C333" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A334" s="3">
-        <v>300121</v>
-      </c>
-      <c r="B334" s="3">
-        <v>1025</v>
-      </c>
-      <c r="C334" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A335" s="3">
-        <v>300131</v>
-      </c>
-      <c r="B335" s="5">
-        <v>2002</v>
-      </c>
-      <c r="C335" s="4">
-        <v>5</v>
-      </c>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
-      <c r="F335" s="4"/>
-      <c r="G335" s="4"/>
-      <c r="H335" s="4"/>
-      <c r="I335" s="4"/>
-      <c r="J335" s="4"/>
-      <c r="K335" s="4"/>
-      <c r="L335" s="4"/>
-      <c r="M335" s="4"/>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A336" s="3">
-        <v>300141</v>
-      </c>
-      <c r="B336" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C336" s="4">
-        <v>5</v>
-      </c>
-      <c r="D336" s="4"/>
-      <c r="E336" s="4"/>
-      <c r="F336" s="4"/>
-      <c r="G336" s="4"/>
-      <c r="H336" s="4"/>
-      <c r="I336" s="4"/>
-      <c r="J336" s="4"/>
-      <c r="K336" s="4"/>
-      <c r="L336" s="4"/>
-      <c r="M336" s="4"/>
+      <c r="C336" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="3">
-        <v>300151</v>
-      </c>
-      <c r="B337" s="5">
-        <v>2003</v>
-      </c>
-      <c r="C337" s="4">
-        <v>5</v>
-      </c>
-      <c r="D337" s="4"/>
-      <c r="E337" s="4"/>
-      <c r="F337" s="4"/>
-      <c r="G337" s="4"/>
-      <c r="H337" s="4"/>
-      <c r="I337" s="4"/>
-      <c r="J337" s="4"/>
-      <c r="K337" s="4"/>
-      <c r="L337" s="4"/>
-      <c r="M337" s="4"/>
+        <v>300061</v>
+      </c>
+      <c r="B337" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C337" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" s="3">
-        <v>300161</v>
-      </c>
-      <c r="B338" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C338" s="4">
-        <v>5</v>
-      </c>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4"/>
-      <c r="F338" s="4"/>
-      <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
-      <c r="I338" s="4"/>
-      <c r="J338" s="4"/>
-      <c r="K338" s="4"/>
-      <c r="L338" s="4"/>
-      <c r="M338" s="4"/>
+        <v>300071</v>
+      </c>
+      <c r="B338" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C338" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" s="3">
-        <v>300171</v>
-      </c>
-      <c r="B339" s="5">
-        <v>2002</v>
-      </c>
-      <c r="C339" s="4">
-        <v>5</v>
-      </c>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
-      <c r="F339" s="4"/>
-      <c r="G339" s="4"/>
-      <c r="H339" s="4"/>
-      <c r="I339" s="4"/>
-      <c r="J339" s="4"/>
-      <c r="K339" s="4"/>
-      <c r="L339" s="4"/>
-      <c r="M339" s="4"/>
+        <v>300081</v>
+      </c>
+      <c r="B339" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C339" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" s="3">
-        <v>300181</v>
-      </c>
-      <c r="B340" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C340" s="4">
-        <v>5</v>
-      </c>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
-      <c r="F340" s="4"/>
-      <c r="G340" s="4"/>
-      <c r="H340" s="4"/>
-      <c r="I340" s="4"/>
-      <c r="J340" s="4"/>
-      <c r="K340" s="4"/>
-      <c r="L340" s="4"/>
-      <c r="M340" s="4"/>
+        <v>300091</v>
+      </c>
+      <c r="B340" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C340" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" s="3">
-        <v>300191</v>
-      </c>
-      <c r="B341" s="5">
-        <v>2004</v>
-      </c>
-      <c r="C341" s="4">
-        <v>5</v>
-      </c>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="4"/>
-      <c r="G341" s="4"/>
-      <c r="H341" s="4"/>
-      <c r="I341" s="4"/>
-      <c r="J341" s="4"/>
-      <c r="K341" s="4"/>
-      <c r="L341" s="4"/>
-      <c r="M341" s="4"/>
+        <v>300101</v>
+      </c>
+      <c r="B341" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C341" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" s="3">
-        <v>300201</v>
-      </c>
-      <c r="B342" s="5">
-        <v>2001</v>
-      </c>
-      <c r="C342" s="4">
-        <v>5</v>
-      </c>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
-      <c r="F342" s="4"/>
-      <c r="G342" s="4"/>
-      <c r="H342" s="4"/>
-      <c r="I342" s="4"/>
-      <c r="J342" s="4"/>
-      <c r="K342" s="4"/>
-      <c r="L342" s="4"/>
-      <c r="M342" s="4"/>
+        <v>300111</v>
+      </c>
+      <c r="B342" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C342" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" s="3">
-        <v>300211</v>
-      </c>
-      <c r="B343" s="5">
-        <v>2003</v>
-      </c>
-      <c r="C343" s="4">
-        <v>5</v>
-      </c>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
-      <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
-      <c r="I343" s="4"/>
-      <c r="J343" s="4"/>
-      <c r="K343" s="4"/>
-      <c r="L343" s="4"/>
-      <c r="M343" s="4"/>
+        <v>300121</v>
+      </c>
+      <c r="B343" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C343" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" s="3">
-        <v>300221</v>
+        <v>300131</v>
       </c>
       <c r="B344" s="5">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C344" s="4">
         <v>5</v>
@@ -5073,10 +5109,10 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" s="3">
-        <v>300231</v>
+        <v>300141</v>
       </c>
       <c r="B345" s="5">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C345" s="4">
         <v>5</v>
@@ -5094,10 +5130,10 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" s="3">
-        <v>300241</v>
+        <v>300151</v>
       </c>
       <c r="B346" s="5">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C346" s="4">
         <v>5</v>
@@ -5112,6 +5148,195 @@
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
       <c r="M346" s="4"/>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A347" s="3">
+        <v>300161</v>
+      </c>
+      <c r="B347" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C347" s="4">
+        <v>5</v>
+      </c>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
+      <c r="I347" s="4"/>
+      <c r="J347" s="4"/>
+      <c r="K347" s="4"/>
+      <c r="L347" s="4"/>
+      <c r="M347" s="4"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A348" s="3">
+        <v>300171</v>
+      </c>
+      <c r="B348" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C348" s="4">
+        <v>5</v>
+      </c>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+      <c r="K348" s="4"/>
+      <c r="L348" s="4"/>
+      <c r="M348" s="4"/>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A349" s="3">
+        <v>300181</v>
+      </c>
+      <c r="B349" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C349" s="4">
+        <v>5</v>
+      </c>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
+      <c r="H349" s="4"/>
+      <c r="I349" s="4"/>
+      <c r="J349" s="4"/>
+      <c r="K349" s="4"/>
+      <c r="L349" s="4"/>
+      <c r="M349" s="4"/>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A350" s="3">
+        <v>300191</v>
+      </c>
+      <c r="B350" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C350" s="4">
+        <v>5</v>
+      </c>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
+      <c r="H350" s="4"/>
+      <c r="I350" s="4"/>
+      <c r="J350" s="4"/>
+      <c r="K350" s="4"/>
+      <c r="L350" s="4"/>
+      <c r="M350" s="4"/>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A351" s="3">
+        <v>300201</v>
+      </c>
+      <c r="B351" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C351" s="4">
+        <v>5</v>
+      </c>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
+      <c r="I351" s="4"/>
+      <c r="J351" s="4"/>
+      <c r="K351" s="4"/>
+      <c r="L351" s="4"/>
+      <c r="M351" s="4"/>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A352" s="3">
+        <v>300211</v>
+      </c>
+      <c r="B352" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C352" s="4">
+        <v>5</v>
+      </c>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4"/>
+      <c r="F352" s="4"/>
+      <c r="G352" s="4"/>
+      <c r="H352" s="4"/>
+      <c r="I352" s="4"/>
+      <c r="J352" s="4"/>
+      <c r="K352" s="4"/>
+      <c r="L352" s="4"/>
+      <c r="M352" s="4"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A353" s="3">
+        <v>300221</v>
+      </c>
+      <c r="B353" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C353" s="4">
+        <v>5</v>
+      </c>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
+      <c r="H353" s="4"/>
+      <c r="I353" s="4"/>
+      <c r="J353" s="4"/>
+      <c r="K353" s="4"/>
+      <c r="L353" s="4"/>
+      <c r="M353" s="4"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A354" s="3">
+        <v>300231</v>
+      </c>
+      <c r="B354" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C354" s="4">
+        <v>5</v>
+      </c>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
+      <c r="H354" s="4"/>
+      <c r="I354" s="4"/>
+      <c r="J354" s="4"/>
+      <c r="K354" s="4"/>
+      <c r="L354" s="4"/>
+      <c r="M354" s="4"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A355" s="3">
+        <v>300241</v>
+      </c>
+      <c r="B355" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C355" s="4">
+        <v>5</v>
+      </c>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
+      <c r="H355" s="4"/>
+      <c r="I355" s="4"/>
+      <c r="J355" s="4"/>
+      <c r="K355" s="4"/>
+      <c r="L355" s="4"/>
+      <c r="M355" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C733627-3478-4837-8C45-9BB004401E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2C1FC5-65E3-44B1-BBA0-34CF023B7580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,10 +905,10 @@
   <dimension ref="A1:M355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="F349" sqref="F348:F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5093,8 +5093,8 @@
       <c r="B344" s="5">
         <v>2002</v>
       </c>
-      <c r="C344" s="4">
-        <v>5</v>
+      <c r="C344" s="3">
+        <v>1</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -5114,8 +5114,8 @@
       <c r="B345" s="5">
         <v>2000</v>
       </c>
-      <c r="C345" s="4">
-        <v>5</v>
+      <c r="C345" s="3">
+        <v>1</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -5135,8 +5135,8 @@
       <c r="B346" s="5">
         <v>2003</v>
       </c>
-      <c r="C346" s="4">
-        <v>5</v>
+      <c r="C346" s="3">
+        <v>1</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -5156,8 +5156,8 @@
       <c r="B347" s="5">
         <v>2000</v>
       </c>
-      <c r="C347" s="4">
-        <v>5</v>
+      <c r="C347" s="3">
+        <v>1</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -5177,8 +5177,8 @@
       <c r="B348" s="5">
         <v>2002</v>
       </c>
-      <c r="C348" s="4">
-        <v>5</v>
+      <c r="C348" s="3">
+        <v>1</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -5198,8 +5198,8 @@
       <c r="B349" s="5">
         <v>2000</v>
       </c>
-      <c r="C349" s="4">
-        <v>5</v>
+      <c r="C349" s="3">
+        <v>1</v>
       </c>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -5219,8 +5219,8 @@
       <c r="B350" s="5">
         <v>2004</v>
       </c>
-      <c r="C350" s="4">
-        <v>5</v>
+      <c r="C350" s="3">
+        <v>1</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -5240,8 +5240,8 @@
       <c r="B351" s="5">
         <v>2001</v>
       </c>
-      <c r="C351" s="4">
-        <v>5</v>
+      <c r="C351" s="3">
+        <v>1</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -5261,8 +5261,8 @@
       <c r="B352" s="5">
         <v>2003</v>
       </c>
-      <c r="C352" s="4">
-        <v>5</v>
+      <c r="C352" s="3">
+        <v>1</v>
       </c>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -5282,8 +5282,8 @@
       <c r="B353" s="5">
         <v>2004</v>
       </c>
-      <c r="C353" s="4">
-        <v>5</v>
+      <c r="C353" s="3">
+        <v>1</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -5303,8 +5303,8 @@
       <c r="B354" s="5">
         <v>2003</v>
       </c>
-      <c r="C354" s="4">
-        <v>5</v>
+      <c r="C354" s="3">
+        <v>1</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -5324,8 +5324,8 @@
       <c r="B355" s="5">
         <v>2000</v>
       </c>
-      <c r="C355" s="4">
-        <v>5</v>
+      <c r="C355" s="3">
+        <v>1</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>

--- a/Config/Excel/Bonus.xlsx
+++ b/Config/Excel/Bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2C1FC5-65E3-44B1-BBA0-34CF023B7580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043FE23-FE8F-4FFB-A548-3B04E8AD67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F532CA69-9C69-4908-A0A5-9DEF220B1924}"/>
   </bookViews>
@@ -905,10 +905,10 @@
   <dimension ref="A1:M355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B338" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F349" sqref="F348:F349"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1608,7 +1608,7 @@
         <v>2004</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -1619,7 +1619,7 @@
         <v>2001</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
